--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -11,16 +11,17 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
-    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
-    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
+    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
+    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
+    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
+    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="76">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -52,10 +53,13 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>0-1-0</t>
-  </si>
-  <si>
-    <t>1-0-0</t>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
+  </si>
+  <si>
+    <t>2-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -76,37 +80,115 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Place 1</t>
-  </si>
-  <si>
-    <t>Place 2</t>
-  </si>
-  <si>
-    <t>Place 3</t>
-  </si>
-  <si>
-    <t>Place 4</t>
-  </si>
-  <si>
-    <t>Place 5</t>
-  </si>
-  <si>
-    <t>Place 6</t>
-  </si>
-  <si>
-    <t>Place 7</t>
-  </si>
-  <si>
-    <t>Place 8</t>
-  </si>
-  <si>
-    <t>Place 9</t>
-  </si>
-  <si>
-    <t>Place 10</t>
-  </si>
-  <si>
-    <t>Chance of making playoffs</t>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>9.3-4.7</t>
+  </si>
+  <si>
+    <t>9.6-4.4</t>
+  </si>
+  <si>
+    <t>9.1-4.9</t>
+  </si>
+  <si>
+    <t>8.6-5.4</t>
+  </si>
+  <si>
+    <t>6.7-7.3</t>
+  </si>
+  <si>
+    <t>6.8-7.2</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>5.9-8.1</t>
+  </si>
+  <si>
+    <t>5.1-8.9</t>
+  </si>
+  <si>
+    <t>3.0-11.0</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>3-11</t>
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
@@ -115,7 +197,37 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Week</t>
@@ -540,7 +652,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -549,22 +661,22 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -572,34 +684,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -607,10 +719,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -625,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -634,7 +746,7 @@
         <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -642,34 +754,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
       <c r="I5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -680,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -704,7 +816,7 @@
         <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -712,34 +824,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -747,34 +859,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,22 +906,22 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -817,34 +929,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -852,34 +964,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -897,13 +1009,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -911,13 +1023,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -925,10 +1037,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -939,10 +1051,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -953,10 +1065,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -967,13 +1079,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -981,13 +1093,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -995,10 +1107,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1009,13 +1121,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1023,13 +1135,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1037,13 +1149,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1061,16 +1173,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1078,16 +1190,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1095,16 +1207,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="D3">
-        <v>-0.09999999999999998</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1112,16 +1224,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="D4">
-        <v>-0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1129,16 +1241,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="D5">
-        <v>-0.3</v>
+        <v>0.3</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1146,13 +1258,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1163,16 +1275,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="D7">
-        <v>-0.6</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1180,13 +1292,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="D8">
-        <v>0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1197,13 +1309,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>-0.2</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1214,13 +1326,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1231,16 +1343,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1258,387 +1370,387 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>74.41</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>25.11</v>
+        <v>25.4</v>
       </c>
       <c r="D2">
-        <v>0.48</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>18.1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>21.33</v>
+        <v>37.1</v>
       </c>
       <c r="C3">
-        <v>41.36</v>
+        <v>22.2</v>
       </c>
       <c r="D3">
-        <v>27.45</v>
+        <v>16.4</v>
       </c>
       <c r="E3">
-        <v>8.07</v>
+        <v>12.5</v>
       </c>
       <c r="F3">
-        <v>1.61</v>
+        <v>6.4</v>
       </c>
       <c r="G3">
-        <v>0.17</v>
+        <v>3.4</v>
       </c>
       <c r="H3">
-        <v>0.01</v>
+        <v>1.3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.99000000000001</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>3.77</v>
+        <v>25.7</v>
       </c>
       <c r="C4">
-        <v>22.28</v>
+        <v>24.1</v>
       </c>
       <c r="D4">
-        <v>35.8</v>
+        <v>18.9</v>
       </c>
       <c r="E4">
-        <v>24.38</v>
+        <v>16.5</v>
       </c>
       <c r="F4">
-        <v>10.72</v>
+        <v>7.7</v>
       </c>
       <c r="G4">
-        <v>2.61</v>
+        <v>3.7</v>
       </c>
       <c r="H4">
-        <v>0.42</v>
+        <v>1.8</v>
       </c>
       <c r="I4">
-        <v>0.02</v>
+        <v>0.7</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L4">
-        <v>99.55999999999999</v>
+        <v>96.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>0.44</v>
+        <v>14.6</v>
       </c>
       <c r="C5">
-        <v>8.609999999999999</v>
+        <v>19.4</v>
       </c>
       <c r="D5">
-        <v>21.97</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>30.45</v>
+        <v>18.6</v>
       </c>
       <c r="F5">
-        <v>23.49</v>
+        <v>11.1</v>
       </c>
       <c r="G5">
-        <v>11.47</v>
+        <v>6.7</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5">
-        <v>0.54</v>
+        <v>2.4</v>
       </c>
       <c r="J5">
-        <v>0.03</v>
+        <v>0.8</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="L5">
-        <v>96.42999999999999</v>
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>0.05</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2.27</v>
+        <v>2.5</v>
       </c>
       <c r="D6">
-        <v>10.82</v>
+        <v>5.9</v>
       </c>
       <c r="E6">
-        <v>22.08</v>
+        <v>11.3</v>
       </c>
       <c r="F6">
-        <v>28.31</v>
+        <v>22.5</v>
       </c>
       <c r="G6">
-        <v>21.95</v>
+        <v>23.8</v>
       </c>
       <c r="H6">
-        <v>10.97</v>
+        <v>17.4</v>
       </c>
       <c r="I6">
-        <v>3.19</v>
+        <v>10</v>
       </c>
       <c r="J6">
-        <v>0.35</v>
+        <v>5.1</v>
       </c>
       <c r="K6">
-        <v>0.01</v>
+        <v>0.7</v>
       </c>
       <c r="L6">
-        <v>85.48</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="C7">
-        <v>0.33</v>
+        <v>3.3</v>
       </c>
       <c r="D7">
-        <v>2.85</v>
+        <v>6.4</v>
       </c>
       <c r="E7">
-        <v>11.29</v>
+        <v>11.7</v>
       </c>
       <c r="F7">
-        <v>22.09</v>
+        <v>19</v>
       </c>
       <c r="G7">
-        <v>29.21</v>
+        <v>18.9</v>
       </c>
       <c r="H7">
-        <v>21.9</v>
+        <v>16.1</v>
       </c>
       <c r="I7">
-        <v>9.81</v>
+        <v>12.4</v>
       </c>
       <c r="J7">
-        <v>2.48</v>
+        <v>8.1</v>
       </c>
       <c r="K7">
-        <v>0.04</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>65.77000000000001</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>0.04</v>
+        <v>1.4</v>
       </c>
       <c r="D8">
-        <v>0.58</v>
+        <v>2.2</v>
       </c>
       <c r="E8">
-        <v>3.24</v>
+        <v>4.1</v>
       </c>
       <c r="F8">
-        <v>10.75</v>
+        <v>10.2</v>
       </c>
       <c r="G8">
-        <v>22.91</v>
+        <v>16.8</v>
       </c>
       <c r="H8">
-        <v>30.24</v>
+        <v>21.4</v>
       </c>
       <c r="I8">
-        <v>22.21</v>
+        <v>25.1</v>
       </c>
       <c r="J8">
-        <v>9.43</v>
+        <v>15.2</v>
       </c>
       <c r="K8">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="L8">
-        <v>37.52</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="D9">
-        <v>0.05</v>
+        <v>1.9</v>
       </c>
       <c r="E9">
-        <v>0.48</v>
+        <v>5</v>
       </c>
       <c r="F9">
-        <v>2.83</v>
+        <v>8.9</v>
       </c>
       <c r="G9">
-        <v>10.15</v>
+        <v>15.1</v>
       </c>
       <c r="H9">
-        <v>24.77</v>
+        <v>20.7</v>
       </c>
       <c r="I9">
-        <v>35.49</v>
+        <v>22.6</v>
       </c>
       <c r="J9">
-        <v>22.42</v>
+        <v>18.3</v>
       </c>
       <c r="K9">
-        <v>3.81</v>
+        <v>5.9</v>
       </c>
       <c r="L9">
-        <v>13.51</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="E10">
-        <v>0.01</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.2</v>
+        <v>5.4</v>
       </c>
       <c r="G10">
-        <v>1.53</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H10">
-        <v>8.690000000000001</v>
+        <v>14.5</v>
       </c>
       <c r="I10">
-        <v>28.07</v>
+        <v>18.8</v>
       </c>
       <c r="J10">
-        <v>40.61</v>
+        <v>31.2</v>
       </c>
       <c r="K10">
-        <v>20.89</v>
+        <v>18</v>
       </c>
       <c r="L10">
-        <v>1.74</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1650,28 +1762,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="I11">
-        <v>0.67</v>
+        <v>7.4</v>
       </c>
       <c r="J11">
-        <v>24.68</v>
+        <v>20.1</v>
       </c>
       <c r="K11">
-        <v>74.65000000000001</v>
+        <v>69.5</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
@@ -1680,6 +1792,305 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>125.41</v>
+      </c>
+      <c r="E2">
+        <v>250.82</v>
+      </c>
+      <c r="F2">
+        <v>99.2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>134.18</v>
+      </c>
+      <c r="E3">
+        <v>268.36</v>
+      </c>
+      <c r="F3">
+        <v>98</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4">
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <v>131.24</v>
+      </c>
+      <c r="E4">
+        <v>262.48</v>
+      </c>
+      <c r="F4">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>125.79</v>
+      </c>
+      <c r="E5">
+        <v>251.58</v>
+      </c>
+      <c r="F5">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>115.13</v>
+      </c>
+      <c r="E6">
+        <v>230.26</v>
+      </c>
+      <c r="F6">
+        <v>66.8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>110.21</v>
+      </c>
+      <c r="E7">
+        <v>220.42</v>
+      </c>
+      <c r="F7">
+        <v>61.4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>105.3</v>
+      </c>
+      <c r="E8">
+        <v>210.6</v>
+      </c>
+      <c r="F8">
+        <v>34.9</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <v>101.65</v>
+      </c>
+      <c r="E9">
+        <v>203.3</v>
+      </c>
+      <c r="F9">
+        <v>32.5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10">
+        <v>94.14</v>
+      </c>
+      <c r="E10">
+        <v>188.28</v>
+      </c>
+      <c r="F10">
+        <v>17.5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>95.50999999999999</v>
+      </c>
+      <c r="E11">
+        <v>191.02</v>
+      </c>
+      <c r="F11">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="G11" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1689,16 +2100,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1706,16 +2117,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1723,16 +2134,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1740,16 +2151,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1757,16 +2168,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1774,16 +2185,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1791,16 +2202,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1814,10 +2225,10 @@
         <v>-2</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1825,16 +2236,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1842,16 +2253,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10">
         <v>-5</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1859,147 +2270,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>-2</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>-5</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>-7</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2009,33 +2289,223 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>-2</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>-2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>-5</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>-7</v>
+      </c>
+      <c r="C10">
+        <v>-5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>-6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>-5</v>
+      </c>
+      <c r="F2">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="86">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -143,42 +143,39 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>9.3-4.7</t>
-  </si>
-  <si>
-    <t>9.6-4.4</t>
-  </si>
-  <si>
     <t>9.1-4.9</t>
   </si>
   <si>
-    <t>8.6-5.4</t>
+    <t>9.2-4.8</t>
+  </si>
+  <si>
+    <t>9.5-4.5</t>
+  </si>
+  <si>
+    <t>8.5-5.5</t>
+  </si>
+  <si>
+    <t>6.8-7.2</t>
   </si>
   <si>
     <t>6.7-7.3</t>
   </si>
   <si>
-    <t>6.8-7.2</t>
-  </si>
-  <si>
-    <t>6.0-8.0</t>
+    <t>6.1-7.9</t>
   </si>
   <si>
     <t>5.9-8.1</t>
   </si>
   <si>
-    <t>5.1-8.9</t>
-  </si>
-  <si>
-    <t>3.0-11.0</t>
+    <t>5.2-8.8</t>
+  </si>
+  <si>
+    <t>3.1-10.9</t>
   </si>
   <si>
     <t>9-5</t>
   </si>
   <si>
-    <t>10-4</t>
-  </si>
-  <si>
     <t>7-7</t>
   </si>
   <si>
@@ -191,10 +188,43 @@
     <t>3-11</t>
   </si>
   <si>
+    <t>Owners</t>
+  </si>
+  <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>Saurin Sethia</t>
+  </si>
+  <si>
+    <t>Achira Amur</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Kabir Manocha</t>
+  </si>
+  <si>
+    <t>Shihab Chowdhury</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>Vidhi Sethia</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Pawan Bhambhwani</t>
   </si>
   <si>
     <t>↑7</t>
@@ -1411,113 +1441,113 @@
         <v>9</v>
       </c>
       <c r="B2">
-        <v>19</v>
+        <v>17.8</v>
       </c>
       <c r="C2">
-        <v>25.4</v>
+        <v>24.6</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>24.6</v>
       </c>
       <c r="E2">
-        <v>18.1</v>
+        <v>19.4</v>
       </c>
       <c r="F2">
-        <v>8.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="G2">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H2">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.2</v>
+        <v>97.7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>37.1</v>
+        <v>27.9</v>
       </c>
       <c r="C3">
-        <v>22.2</v>
+        <v>24.8</v>
       </c>
       <c r="D3">
-        <v>16.4</v>
+        <v>20.4</v>
       </c>
       <c r="E3">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>6.4</v>
+        <v>5.7</v>
       </c>
       <c r="G3">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="H3">
         <v>1.3</v>
       </c>
       <c r="I3">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="J3">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
-        <v>98</v>
+        <v>96.8</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>25.7</v>
+        <v>38.8</v>
       </c>
       <c r="C4">
-        <v>24.1</v>
+        <v>22.8</v>
       </c>
       <c r="D4">
-        <v>18.9</v>
+        <v>14.1</v>
       </c>
       <c r="E4">
-        <v>16.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F4">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="G4">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="H4">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="I4">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="J4">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>96.59999999999999</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1525,37 +1555,37 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>14.6</v>
+        <v>12.3</v>
       </c>
       <c r="C5">
-        <v>19.4</v>
+        <v>17.9</v>
       </c>
       <c r="D5">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="E5">
-        <v>18.6</v>
+        <v>19.6</v>
       </c>
       <c r="F5">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="G5">
-        <v>6.7</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>4.7</v>
       </c>
       <c r="I5">
         <v>2.4</v>
       </c>
       <c r="J5">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="K5">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
-        <v>92.40000000000001</v>
+        <v>91.7</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1563,37 +1593,37 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="C6">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D6">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="E6">
-        <v>11.3</v>
+        <v>12.1</v>
       </c>
       <c r="F6">
-        <v>22.5</v>
+        <v>24.2</v>
       </c>
       <c r="G6">
-        <v>23.8</v>
+        <v>21.2</v>
       </c>
       <c r="H6">
-        <v>17.4</v>
+        <v>16.9</v>
       </c>
       <c r="I6">
-        <v>10</v>
+        <v>10.6</v>
       </c>
       <c r="J6">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="K6">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="L6">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1601,37 +1631,37 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="D7">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="E7">
         <v>11.7</v>
       </c>
       <c r="F7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G7">
-        <v>18.9</v>
+        <v>20.3</v>
       </c>
       <c r="H7">
-        <v>16.1</v>
+        <v>14.4</v>
       </c>
       <c r="I7">
-        <v>12.4</v>
+        <v>14.8</v>
       </c>
       <c r="J7">
-        <v>8.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="L7">
-        <v>61.4</v>
+        <v>59.1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1639,37 +1669,37 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D8">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="E8">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="F8">
-        <v>10.2</v>
+        <v>12.7</v>
       </c>
       <c r="G8">
-        <v>16.8</v>
+        <v>17.7</v>
       </c>
       <c r="H8">
-        <v>21.4</v>
+        <v>22.4</v>
       </c>
       <c r="I8">
-        <v>25.1</v>
+        <v>19.3</v>
       </c>
       <c r="J8">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="K8">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="L8">
-        <v>34.9</v>
+        <v>39.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1677,37 +1707,37 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
         <v>1.3</v>
       </c>
       <c r="D9">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="F9">
-        <v>8.9</v>
+        <v>10.1</v>
       </c>
       <c r="G9">
-        <v>15.1</v>
+        <v>12.2</v>
       </c>
       <c r="H9">
-        <v>20.7</v>
+        <v>18.9</v>
       </c>
       <c r="I9">
-        <v>22.6</v>
+        <v>23.6</v>
       </c>
       <c r="J9">
-        <v>18.3</v>
+        <v>19.2</v>
       </c>
       <c r="K9">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="L9">
-        <v>32.5</v>
+        <v>32.2</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1715,37 +1745,37 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="F10">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="G10">
-        <v>8.199999999999999</v>
+        <v>7.9</v>
       </c>
       <c r="H10">
-        <v>14.5</v>
+        <v>16.4</v>
       </c>
       <c r="I10">
-        <v>18.8</v>
+        <v>18.4</v>
       </c>
       <c r="J10">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="K10">
-        <v>18</v>
+        <v>16.1</v>
       </c>
       <c r="L10">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1762,28 +1792,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="I11">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="J11">
-        <v>20.1</v>
+        <v>18.6</v>
       </c>
       <c r="K11">
-        <v>69.5</v>
+        <v>71.2</v>
       </c>
       <c r="L11">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
@@ -1842,7 +1872,7 @@
         <v>250.82</v>
       </c>
       <c r="F2">
-        <v>99.2</v>
+        <v>97.7</v>
       </c>
       <c r="G2" t="s">
         <v>40</v>
@@ -1853,48 +1883,48 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
-        <v>134.18</v>
+        <v>131.24</v>
       </c>
       <c r="E3">
-        <v>268.36</v>
+        <v>262.48</v>
       </c>
       <c r="F3">
-        <v>98</v>
+        <v>96.8</v>
       </c>
       <c r="G3" t="s">
         <v>41</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>131.24</v>
+        <v>134.18</v>
       </c>
       <c r="E4">
-        <v>262.48</v>
+        <v>268.36</v>
       </c>
       <c r="F4">
-        <v>96.59999999999999</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
         <v>42</v>
@@ -1920,7 +1950,7 @@
         <v>251.58</v>
       </c>
       <c r="F5">
-        <v>92.40000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="G5" t="s">
         <v>43</v>
@@ -1946,13 +1976,13 @@
         <v>230.26</v>
       </c>
       <c r="F6">
-        <v>66.8</v>
+        <v>67.7</v>
       </c>
       <c r="G6" t="s">
         <v>44</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1972,13 +2002,13 @@
         <v>220.42</v>
       </c>
       <c r="F7">
-        <v>61.4</v>
+        <v>59.09999999999999</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1998,13 +2028,13 @@
         <v>210.6</v>
       </c>
       <c r="F8">
-        <v>34.9</v>
+        <v>39.8</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2024,13 +2054,13 @@
         <v>203.3</v>
       </c>
       <c r="F9">
-        <v>32.5</v>
+        <v>32.2</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2050,13 +2080,13 @@
         <v>188.28</v>
       </c>
       <c r="F10">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2076,13 +2106,13 @@
         <v>191.02</v>
       </c>
       <c r="F11">
-        <v>0.7000000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2092,194 +2122,227 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
       <c r="E4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5">
         <v>-1</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6">
         <v>-1</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
         <v>-2</v>
       </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
       <c r="E7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8">
         <v>-2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9">
         <v>-2</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10">
         <v>-5</v>
       </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11">
         <v>-6</v>
       </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2297,10 +2360,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>57</v>
@@ -2317,7 +2380,7 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2331,7 +2394,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2345,7 +2408,7 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2359,7 +2422,7 @@
         <v>-1</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2373,7 +2436,7 @@
         <v>-1</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2387,7 +2450,7 @@
         <v>-2</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2401,7 +2464,7 @@
         <v>-2</v>
       </c>
       <c r="D8" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2415,7 +2478,7 @@
         <v>-2</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2429,7 +2492,7 @@
         <v>-5</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2443,7 +2506,7 @@
         <v>-6</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2461,25 +2524,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="89">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -53,13 +53,16 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
-  </si>
-  <si>
-    <t>2-0-0</t>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -134,48 +137,51 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>9.1-4.9</t>
-  </si>
-  <si>
-    <t>9.2-4.8</t>
-  </si>
-  <si>
-    <t>9.5-4.5</t>
-  </si>
-  <si>
-    <t>8.5-5.5</t>
-  </si>
-  <si>
-    <t>6.8-7.2</t>
-  </si>
-  <si>
-    <t>6.7-7.3</t>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>10.7-3.3</t>
+  </si>
+  <si>
+    <t>8.3-5.7</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>7.6-6.4</t>
+  </si>
+  <si>
+    <t>7.1-6.9</t>
+  </si>
+  <si>
+    <t>6.5-7.5</t>
   </si>
   <si>
     <t>6.1-7.9</t>
   </si>
   <si>
-    <t>5.9-8.1</t>
-  </si>
-  <si>
-    <t>5.2-8.8</t>
-  </si>
-  <si>
-    <t>3.1-10.9</t>
+    <t>5.1-8.9</t>
+  </si>
+  <si>
+    <t>4.4-9.6</t>
+  </si>
+  <si>
+    <t>11-3</t>
   </si>
   <si>
     <t>9-5</t>
   </si>
   <si>
+    <t>8-6</t>
+  </si>
+  <si>
     <t>7-7</t>
   </si>
   <si>
@@ -185,7 +191,7 @@
     <t>5-9</t>
   </si>
   <si>
-    <t>3-11</t>
+    <t>4-10</t>
   </si>
   <si>
     <t>Owners</t>
@@ -197,67 +203,70 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Saurin Sethia</t>
+  </si>
+  <si>
+    <t>Achira Amur</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
-    <t>Saurin Sethia</t>
-  </si>
-  <si>
-    <t>Achira Amur</t>
-  </si>
-  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
+    <t>Vidhi Sethia</t>
+  </si>
+  <si>
     <t>Kabir Manocha</t>
   </si>
   <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
     <t>Shihab Chowdhury</t>
   </si>
   <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
-    <t>Vidhi Sethia</t>
-  </si>
-  <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
-    <t>Pawan Bhambhwani</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>↑7</t>
   </si>
   <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓10</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week</t>
@@ -682,31 +691,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -720,7 +729,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -749,34 +758,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -784,34 +793,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -822,31 +831,31 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I6" t="s">
         <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -857,31 +866,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -892,28 +901,28 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -936,22 +945,22 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -962,10 +971,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
@@ -974,10 +983,10 @@
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -1000,25 +1009,25 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" t="s">
         <v>10</v>
@@ -1039,13 +1048,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1056,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1067,13 +1076,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1081,13 +1090,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1095,10 +1104,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1109,13 +1118,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1126,7 +1135,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1137,13 +1146,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1154,10 +1163,10 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1168,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1182,10 +1191,10 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1203,16 +1212,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1220,16 +1229,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1237,16 +1246,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="D3">
-        <v>-0.6000000000000001</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1254,16 +1263,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1271,13 +1280,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1291,13 +1300,13 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="D6">
-        <v>0.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1305,13 +1314,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="D7">
-        <v>-0.09999999999999998</v>
+        <v>-0.6000000000000001</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1322,16 +1331,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="D8">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1339,16 +1348,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="D9">
-        <v>-0.2</v>
+        <v>0.2</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1356,16 +1365,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D10">
-        <v>-0.4</v>
+        <v>-0.09999999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1373,13 +1382,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -1400,69 +1409,69 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>17.8</v>
+        <v>75.5</v>
       </c>
       <c r="C2">
-        <v>24.6</v>
+        <v>13.9</v>
       </c>
       <c r="D2">
-        <v>24.6</v>
+        <v>5.4</v>
       </c>
       <c r="E2">
-        <v>19.4</v>
+        <v>2.9</v>
       </c>
       <c r="F2">
-        <v>8.1</v>
+        <v>1.6</v>
       </c>
       <c r="G2">
-        <v>3.2</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
-        <v>1.4</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1471,349 +1480,349 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>97.7</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>27.9</v>
+        <v>7.6</v>
       </c>
       <c r="C3">
-        <v>24.8</v>
+        <v>23.4</v>
       </c>
       <c r="D3">
-        <v>20.4</v>
+        <v>23.2</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>17.9</v>
       </c>
       <c r="F3">
-        <v>5.7</v>
+        <v>12</v>
       </c>
       <c r="G3">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="H3">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="I3">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="J3">
+        <v>0.5</v>
+      </c>
+      <c r="K3">
         <v>0.6</v>
       </c>
-      <c r="K3">
-        <v>0.1</v>
-      </c>
       <c r="L3">
-        <v>96.8</v>
+        <v>91.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>38.8</v>
+        <v>6.4</v>
       </c>
       <c r="C4">
-        <v>22.8</v>
+        <v>20.2</v>
       </c>
       <c r="D4">
-        <v>14.1</v>
+        <v>18.1</v>
       </c>
       <c r="E4">
-        <v>9.800000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="F4">
-        <v>6.3</v>
+        <v>14.3</v>
       </c>
       <c r="G4">
-        <v>4.2</v>
+        <v>8.9</v>
       </c>
       <c r="H4">
-        <v>1.7</v>
+        <v>6.8</v>
       </c>
       <c r="I4">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="J4">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>12.3</v>
+        <v>4.1</v>
       </c>
       <c r="C5">
-        <v>17.9</v>
+        <v>19.3</v>
       </c>
       <c r="D5">
-        <v>22.2</v>
+        <v>18.2</v>
       </c>
       <c r="E5">
-        <v>19.6</v>
+        <v>17.4</v>
       </c>
       <c r="F5">
-        <v>11.4</v>
+        <v>14.5</v>
       </c>
       <c r="G5">
-        <v>8.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="H5">
-        <v>4.7</v>
+        <v>6.8</v>
       </c>
       <c r="I5">
-        <v>2.4</v>
+        <v>4.4</v>
       </c>
       <c r="J5">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="L5">
-        <v>91.7</v>
+        <v>84.8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="C6">
-        <v>3.1</v>
+        <v>12.5</v>
       </c>
       <c r="D6">
-        <v>5.8</v>
+        <v>14.5</v>
       </c>
       <c r="E6">
-        <v>12.1</v>
+        <v>14.4</v>
       </c>
       <c r="F6">
-        <v>24.2</v>
+        <v>13.9</v>
       </c>
       <c r="G6">
-        <v>21.2</v>
+        <v>12.8</v>
       </c>
       <c r="H6">
-        <v>16.9</v>
+        <v>10.8</v>
       </c>
       <c r="I6">
-        <v>10.6</v>
+        <v>7.8</v>
       </c>
       <c r="J6">
-        <v>4.7</v>
+        <v>5.6</v>
       </c>
       <c r="K6">
-        <v>0.1</v>
+        <v>3.5</v>
       </c>
       <c r="L6">
-        <v>67.7</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D7">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="E7">
-        <v>11.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F7">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="G7">
-        <v>20.3</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>14.4</v>
+        <v>16.9</v>
       </c>
       <c r="I7">
-        <v>14.8</v>
+        <v>15.2</v>
       </c>
       <c r="J7">
-        <v>9.300000000000001</v>
+        <v>12</v>
       </c>
       <c r="K7">
-        <v>2.4</v>
+        <v>8.1</v>
       </c>
       <c r="L7">
-        <v>59.1</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C8">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="D8">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="E8">
-        <v>4.5</v>
+        <v>7.6</v>
       </c>
       <c r="F8">
-        <v>12.7</v>
+        <v>12.1</v>
       </c>
       <c r="G8">
         <v>17.7</v>
       </c>
       <c r="H8">
-        <v>22.4</v>
+        <v>19.8</v>
       </c>
       <c r="I8">
-        <v>19.3</v>
+        <v>18.2</v>
       </c>
       <c r="J8">
-        <v>14.6</v>
+        <v>10.2</v>
       </c>
       <c r="K8">
-        <v>3.9</v>
+        <v>6.7</v>
       </c>
       <c r="L8">
-        <v>39.8</v>
+        <v>45.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="D9">
-        <v>2.3</v>
+        <v>6.2</v>
       </c>
       <c r="E9">
-        <v>6.2</v>
+        <v>7.7</v>
       </c>
       <c r="F9">
-        <v>10.1</v>
+        <v>11.6</v>
       </c>
       <c r="G9">
-        <v>12.2</v>
+        <v>14.9</v>
       </c>
       <c r="H9">
-        <v>18.9</v>
+        <v>16</v>
       </c>
       <c r="I9">
-        <v>23.6</v>
+        <v>17.9</v>
       </c>
       <c r="J9">
-        <v>19.2</v>
+        <v>14.3</v>
       </c>
       <c r="K9">
-        <v>6.1</v>
+        <v>7.3</v>
       </c>
       <c r="L9">
-        <v>32.2</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0.1</v>
       </c>
       <c r="C10">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="D10">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="E10">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="F10">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="H10">
-        <v>16.4</v>
+        <v>12.3</v>
       </c>
       <c r="I10">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="J10">
-        <v>31.5</v>
+        <v>28.4</v>
       </c>
       <c r="K10">
-        <v>16.1</v>
+        <v>21.7</v>
       </c>
       <c r="L10">
-        <v>17.6</v>
+        <v>19.3</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H11">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
       <c r="I11">
-        <v>6.9</v>
+        <v>10.8</v>
       </c>
       <c r="J11">
-        <v>18.6</v>
+        <v>23.5</v>
       </c>
       <c r="K11">
-        <v>71.2</v>
+        <v>50.9</v>
       </c>
       <c r="L11">
-        <v>1.4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1831,51 +1840,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>125.41</v>
+        <v>146.08</v>
       </c>
       <c r="E2">
-        <v>250.82</v>
+        <v>438.24</v>
       </c>
       <c r="F2">
-        <v>97.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s">
         <v>50</v>
@@ -1883,236 +1892,236 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>131.24</v>
+        <v>119.8866666666667</v>
       </c>
       <c r="E3">
-        <v>262.48</v>
+        <v>359.66</v>
       </c>
       <c r="F3">
-        <v>96.8</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>134.18</v>
+        <v>117.6333333333333</v>
       </c>
       <c r="E4">
-        <v>268.36</v>
+        <v>352.9</v>
       </c>
       <c r="F4">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D5">
-        <v>125.79</v>
+        <v>123.0333333333333</v>
       </c>
       <c r="E5">
-        <v>251.58</v>
+        <v>369.1</v>
       </c>
       <c r="F5">
-        <v>91.7</v>
+        <v>84.8</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D6">
-        <v>115.13</v>
+        <v>119.5466666666667</v>
       </c>
       <c r="E6">
-        <v>230.26</v>
+        <v>358.64</v>
       </c>
       <c r="F6">
-        <v>67.7</v>
+        <v>72.3</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D7">
-        <v>110.21</v>
+        <v>102.4533333333333</v>
       </c>
       <c r="E7">
-        <v>220.42</v>
+        <v>307.36</v>
       </c>
       <c r="F7">
-        <v>59.09999999999999</v>
+        <v>47.8</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8">
-        <v>105.3</v>
+        <v>111.1933333333333</v>
       </c>
       <c r="E8">
-        <v>210.6</v>
+        <v>333.58</v>
       </c>
       <c r="F8">
-        <v>39.8</v>
+        <v>45.1</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>101.65</v>
+        <v>107.5933333333333</v>
       </c>
       <c r="E9">
-        <v>203.3</v>
+        <v>322.78</v>
       </c>
       <c r="F9">
-        <v>32.2</v>
+        <v>44.5</v>
       </c>
       <c r="G9" t="s">
         <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>94.14</v>
+        <v>101.3733333333333</v>
       </c>
       <c r="E10">
-        <v>188.28</v>
+        <v>304.12</v>
       </c>
       <c r="F10">
-        <v>17.6</v>
+        <v>19.3</v>
       </c>
       <c r="G10" t="s">
         <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>95.50999999999999</v>
+        <v>89.43333333333334</v>
       </c>
       <c r="E11">
-        <v>191.02</v>
+        <v>268.3</v>
       </c>
       <c r="F11">
-        <v>1.4</v>
+        <v>9</v>
       </c>
       <c r="G11" t="s">
         <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2130,19 +2139,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2150,19 +2159,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2170,19 +2179,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2190,19 +2199,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2210,19 +2219,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2230,19 +2239,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2250,19 +2259,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2270,10 +2279,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D8">
         <v>-2</v>
@@ -2282,7 +2291,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2290,19 +2299,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2313,16 +2322,16 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2330,19 +2339,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2352,136 +2361,163 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>81</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>0</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>-1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>-2</v>
       </c>
       <c r="C6">
         <v>-1</v>
       </c>
-      <c r="D6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="C7">
         <v>-2</v>
       </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>-2</v>
       </c>
       <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
         <v>-2</v>
       </c>
-      <c r="D8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>-5</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-6</v>
+      </c>
+      <c r="D9">
+        <v>-6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2491,22 +2527,28 @@
       <c r="C10">
         <v>-5</v>
       </c>
-      <c r="D10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>-6</v>
-      </c>
-      <c r="D11" t="s">
-        <v>76</v>
+        <v>-2</v>
+      </c>
+      <c r="D11">
+        <v>-11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2558,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2524,25 +2566,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2569,6 +2611,32 @@
       </c>
       <c r="H2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="87">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -53,16 +53,19 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -137,19 +140,22 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>3-0</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>1-2</t>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>2-2</t>
+  </si>
+  <si>
+    <t>1-3</t>
   </si>
   <si>
     <t>10.7-3.3</t>
   </si>
   <si>
-    <t>8.3-5.7</t>
+    <t>8.5-5.5</t>
   </si>
   <si>
     <t>8.0-6.0</t>
@@ -158,22 +164,22 @@
     <t>7.6-6.4</t>
   </si>
   <si>
-    <t>7.1-6.9</t>
-  </si>
-  <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>5.1-8.9</t>
-  </si>
-  <si>
-    <t>4.4-9.6</t>
-  </si>
-  <si>
-    <t>11-3</t>
+    <t>7.3-6.7</t>
+  </si>
+  <si>
+    <t>6.3-7.7</t>
+  </si>
+  <si>
+    <t>5.7-8.3</t>
+  </si>
+  <si>
+    <t>5.6-8.4</t>
+  </si>
+  <si>
+    <t>4.8-9.2</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
@@ -191,9 +197,6 @@
     <t>5-9</t>
   </si>
   <si>
-    <t>4-10</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -209,12 +212,12 @@
     <t>Achira Amur</t>
   </si>
   <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
@@ -233,33 +236,21 @@
     <t>Shihab Chowdhury</t>
   </si>
   <si>
-    <t>↑5</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓1</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>0</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -267,6 +258,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week</t>
@@ -691,31 +685,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -729,7 +723,7 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -744,13 +738,13 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -758,16 +752,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -776,16 +770,16 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -793,34 +787,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -828,16 +822,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
@@ -849,7 +843,7 @@
         <v>11</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -869,13 +863,13 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -884,10 +878,10 @@
         <v>11</v>
       </c>
       <c r="I7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -898,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -907,10 +901,10 @@
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>11</v>
@@ -919,13 +913,13 @@
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -936,7 +930,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -945,22 +939,22 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>10</v>
       </c>
       <c r="I9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J9" t="s">
         <v>10</v>
       </c>
       <c r="K9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -971,22 +965,22 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -1003,34 +997,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1048,13 +1042,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1065,7 +1059,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1079,10 +1073,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1093,7 +1087,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1107,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1118,10 +1112,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1132,13 +1126,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1146,13 +1140,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1160,13 +1154,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1177,7 +1171,7 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1191,10 +1185,10 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1212,16 +1206,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1232,13 +1226,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="D2">
-        <v>-0.6000000000000001</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1249,13 +1243,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="D3">
-        <v>0.2999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1263,16 +1257,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="D4">
-        <v>0.8999999999999999</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1280,13 +1274,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="D5">
-        <v>-0.3999999999999999</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1297,13 +1291,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1314,16 +1308,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="D7">
-        <v>-0.6000000000000001</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1331,13 +1325,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="D8">
-        <v>0.2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -1348,13 +1342,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -1365,16 +1359,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="D10">
-        <v>-0.09999999999999998</v>
+        <v>-0.8</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1382,13 +1376,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="D11">
-        <v>-0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -1409,40 +1403,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1450,28 +1444,28 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>75.5</v>
+        <v>73.8</v>
       </c>
       <c r="C2">
-        <v>13.9</v>
+        <v>16.7</v>
       </c>
       <c r="D2">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="E2">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="F2">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
         <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1480,349 +1474,349 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>7.6</v>
+        <v>10.6</v>
       </c>
       <c r="C3">
-        <v>23.4</v>
+        <v>26.4</v>
       </c>
       <c r="D3">
-        <v>23.2</v>
+        <v>21.8</v>
       </c>
       <c r="E3">
-        <v>17.9</v>
+        <v>14.8</v>
       </c>
       <c r="F3">
-        <v>12</v>
+        <v>9.9</v>
       </c>
       <c r="G3">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="H3">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I3">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="K3">
         <v>0.6</v>
       </c>
       <c r="L3">
-        <v>91.59999999999999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>6.4</v>
+        <v>5.1</v>
       </c>
       <c r="C4">
-        <v>20.2</v>
+        <v>17.6</v>
       </c>
       <c r="D4">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="E4">
-        <v>18.1</v>
+        <v>16.7</v>
       </c>
       <c r="F4">
-        <v>14.3</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>8.9</v>
+        <v>11.2</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="I4">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J4">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="L4">
-        <v>86</v>
+        <v>82.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>4.1</v>
+        <v>6.7</v>
       </c>
       <c r="C5">
-        <v>19.3</v>
+        <v>18.6</v>
       </c>
       <c r="D5">
-        <v>18.2</v>
+        <v>18.9</v>
       </c>
       <c r="E5">
-        <v>17.4</v>
+        <v>14.7</v>
       </c>
       <c r="F5">
-        <v>14.5</v>
+        <v>12.1</v>
       </c>
       <c r="G5">
-        <v>11.3</v>
+        <v>10.1</v>
       </c>
       <c r="H5">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="I5">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="J5">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K5">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="L5">
-        <v>84.8</v>
+        <v>81.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="C6">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="D6">
-        <v>14.5</v>
+        <v>16.1</v>
       </c>
       <c r="E6">
-        <v>14.4</v>
+        <v>17.6</v>
       </c>
       <c r="F6">
-        <v>13.9</v>
+        <v>18.2</v>
       </c>
       <c r="G6">
-        <v>12.8</v>
+        <v>15.3</v>
       </c>
       <c r="H6">
         <v>10.8</v>
       </c>
       <c r="I6">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="J6">
-        <v>5.6</v>
+        <v>2.9</v>
       </c>
       <c r="K6">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="L6">
-        <v>72.3</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D7">
-        <v>7.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E7">
+        <v>12.5</v>
+      </c>
+      <c r="F7">
+        <v>14.1</v>
+      </c>
+      <c r="G7">
+        <v>15.1</v>
+      </c>
+      <c r="H7">
+        <v>16.3</v>
+      </c>
+      <c r="I7">
+        <v>14.1</v>
+      </c>
+      <c r="J7">
         <v>8.800000000000001</v>
       </c>
-      <c r="F7">
-        <v>12.5</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>16.9</v>
-      </c>
-      <c r="I7">
-        <v>15.2</v>
-      </c>
-      <c r="J7">
-        <v>12</v>
-      </c>
       <c r="K7">
-        <v>8.1</v>
+        <v>4.8</v>
       </c>
       <c r="L7">
-        <v>47.8</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D8">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="E8">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="F8">
-        <v>12.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G8">
-        <v>17.7</v>
+        <v>12.7</v>
       </c>
       <c r="H8">
-        <v>19.8</v>
+        <v>13.4</v>
       </c>
       <c r="I8">
-        <v>18.2</v>
+        <v>14.8</v>
       </c>
       <c r="J8">
-        <v>10.2</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>6.7</v>
+        <v>15.5</v>
       </c>
       <c r="L8">
-        <v>45.1</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="D9">
-        <v>6.2</v>
+        <v>1.8</v>
       </c>
       <c r="E9">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="F9">
-        <v>11.6</v>
+        <v>9.9</v>
       </c>
       <c r="G9">
-        <v>14.9</v>
+        <v>12.3</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>17.2</v>
       </c>
       <c r="I9">
-        <v>17.9</v>
+        <v>20.3</v>
       </c>
       <c r="J9">
+        <v>16.1</v>
+      </c>
+      <c r="K9">
         <v>14.3</v>
       </c>
-      <c r="K9">
-        <v>7.3</v>
-      </c>
       <c r="L9">
-        <v>44.5</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="D10">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="E10">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="G10">
-        <v>7.7</v>
+        <v>11.1</v>
       </c>
       <c r="H10">
-        <v>12.3</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>18.3</v>
+        <v>15.9</v>
       </c>
       <c r="J10">
-        <v>28.4</v>
+        <v>21.5</v>
       </c>
       <c r="K10">
-        <v>21.7</v>
+        <v>24.5</v>
       </c>
       <c r="L10">
-        <v>19.3</v>
+        <v>27.1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="E11">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="F11">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="G11">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="H11">
-        <v>5.8</v>
+        <v>11.4</v>
       </c>
       <c r="I11">
-        <v>10.8</v>
+        <v>16</v>
       </c>
       <c r="J11">
-        <v>23.5</v>
+        <v>24.2</v>
       </c>
       <c r="K11">
-        <v>50.9</v>
+        <v>35.1</v>
       </c>
       <c r="L11">
-        <v>9</v>
+        <v>13.3</v>
       </c>
     </row>
   </sheetData>
@@ -1840,28 +1834,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1869,259 +1863,259 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>146.08</v>
+        <v>142.88</v>
       </c>
       <c r="E2">
-        <v>438.24</v>
+        <v>571.52</v>
       </c>
       <c r="F2">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>119.8866666666667</v>
+        <v>121.415</v>
       </c>
       <c r="E3">
-        <v>359.66</v>
+        <v>485.66</v>
       </c>
       <c r="F3">
-        <v>91.60000000000001</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>117.6333333333333</v>
+        <v>114.615</v>
       </c>
       <c r="E4">
-        <v>352.9</v>
+        <v>458.46</v>
       </c>
       <c r="F4">
-        <v>86</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>123.0333333333333</v>
+        <v>127.825</v>
       </c>
       <c r="E5">
-        <v>369.1</v>
+        <v>511.3</v>
       </c>
       <c r="F5">
-        <v>84.8</v>
+        <v>81.10000000000001</v>
       </c>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>119.5466666666667</v>
+        <v>118.64</v>
       </c>
       <c r="E6">
-        <v>358.64</v>
+        <v>474.5599999999999</v>
       </c>
       <c r="F6">
-        <v>72.3</v>
+        <v>79.5</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C7">
-        <v>0.6666666666666666</v>
+        <v>0.25</v>
       </c>
       <c r="D7">
-        <v>102.4533333333333</v>
+        <v>121.155</v>
       </c>
       <c r="E7">
-        <v>307.36</v>
+        <v>484.62</v>
       </c>
       <c r="F7">
-        <v>47.8</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D8">
-        <v>111.1933333333333</v>
+        <v>112.4</v>
       </c>
       <c r="E8">
-        <v>333.58</v>
+        <v>449.6</v>
       </c>
       <c r="F8">
-        <v>45.1</v>
+        <v>38.3</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D9">
-        <v>107.5933333333333</v>
+        <v>113.09</v>
       </c>
       <c r="E9">
-        <v>322.78</v>
+        <v>452.36</v>
       </c>
       <c r="F9">
-        <v>44.5</v>
+        <v>32.1</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>101.3733333333333</v>
+        <v>97.485</v>
       </c>
       <c r="E10">
-        <v>304.12</v>
+        <v>389.94</v>
       </c>
       <c r="F10">
-        <v>19.3</v>
+        <v>27.1</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D11">
-        <v>89.43333333333334</v>
+        <v>102.765</v>
       </c>
       <c r="E11">
-        <v>268.3</v>
+        <v>411.0600000000001</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>13.3</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2139,19 +2133,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2162,16 +2156,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2182,16 +2176,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2199,19 +2193,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2219,19 +2213,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2242,7 +2236,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -2262,16 +2256,16 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2282,16 +2276,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D8">
         <v>-2</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2302,16 +2296,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D9">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2322,16 +2316,16 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2342,16 +2336,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D11">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2361,27 +2355,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2394,11 +2391,14 @@
       <c r="D2">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2411,45 +2411,54 @@
       <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
         <v>-2</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>-2</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -2462,11 +2471,14 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -2479,11 +2491,14 @@
       <c r="D7">
         <v>-1</v>
       </c>
-      <c r="E7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -2496,11 +2511,14 @@
       <c r="D8">
         <v>-2</v>
       </c>
-      <c r="E8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8">
+        <v>-2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -2513,11 +2531,14 @@
       <c r="D9">
         <v>-6</v>
       </c>
-      <c r="E9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2530,11 +2551,14 @@
       <c r="D10">
         <v>-7</v>
       </c>
-      <c r="E10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="E10">
+        <v>-8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2547,8 +2571,11 @@
       <c r="D11">
         <v>-11</v>
       </c>
-      <c r="E11" t="s">
-        <v>78</v>
+      <c r="E11">
+        <v>-10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2558,7 +2585,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2566,25 +2593,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2618,25 +2645,129 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>-2</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>12</v>
-      </c>
-      <c r="F3">
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>-5</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="G5">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H5" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>-8</v>
+      </c>
+      <c r="F7">
+        <v>-10</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -152,37 +152,37 @@
     <t>1-3</t>
   </si>
   <si>
-    <t>10.7-3.3</t>
-  </si>
-  <si>
-    <t>8.5-5.5</t>
-  </si>
-  <si>
-    <t>8.0-6.0</t>
-  </si>
-  <si>
-    <t>7.6-6.4</t>
-  </si>
-  <si>
-    <t>7.3-6.7</t>
-  </si>
-  <si>
-    <t>6.3-7.7</t>
-  </si>
-  <si>
-    <t>5.7-8.3</t>
-  </si>
-  <si>
-    <t>5.6-8.4</t>
-  </si>
-  <si>
-    <t>4.8-9.2</t>
-  </si>
-  <si>
-    <t>10-4</t>
-  </si>
-  <si>
-    <t>9-5</t>
+    <t>10.8-3.2</t>
+  </si>
+  <si>
+    <t>8.5-5.4-0.1</t>
+  </si>
+  <si>
+    <t>7.9-6.0-0.1</t>
+  </si>
+  <si>
+    <t>7.4-6.5</t>
+  </si>
+  <si>
+    <t>7.2-6.7-0.1</t>
+  </si>
+  <si>
+    <t>6.4-7.5-0.1</t>
+  </si>
+  <si>
+    <t>5.7-8.3-0.1</t>
+  </si>
+  <si>
+    <t>5.4-8.5-0.1</t>
+  </si>
+  <si>
+    <t>5.6-8.4-0.1</t>
+  </si>
+  <si>
+    <t>4.7-9.2-0.1</t>
+  </si>
+  <si>
+    <t>11-3</t>
   </si>
   <si>
     <t>8-6</t>
@@ -1444,25 +1444,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>73.8</v>
+        <v>76.3</v>
       </c>
       <c r="C2">
-        <v>16.7</v>
+        <v>14.6</v>
       </c>
       <c r="D2">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="E2">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="F2">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1482,37 +1482,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="C3">
-        <v>26.4</v>
+        <v>28.5</v>
       </c>
       <c r="D3">
-        <v>21.8</v>
+        <v>21.5</v>
       </c>
       <c r="E3">
-        <v>14.8</v>
+        <v>15.5</v>
       </c>
       <c r="F3">
-        <v>9.9</v>
+        <v>10.2</v>
       </c>
       <c r="G3">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="H3">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I3">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="K3">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1520,37 +1520,37 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="C4">
-        <v>17.6</v>
+        <v>16.9</v>
       </c>
       <c r="D4">
-        <v>18.3</v>
+        <v>18</v>
       </c>
       <c r="E4">
-        <v>16.7</v>
+        <v>17.3</v>
       </c>
       <c r="F4">
-        <v>14</v>
+        <v>15.8</v>
       </c>
       <c r="G4">
-        <v>11.2</v>
+        <v>10.6</v>
       </c>
       <c r="H4">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="I4">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K4">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L4">
-        <v>82.90000000000001</v>
+        <v>83.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1558,37 +1558,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.7</v>
+        <v>4.8</v>
       </c>
       <c r="C5">
-        <v>18.6</v>
+        <v>18.3</v>
       </c>
       <c r="D5">
-        <v>18.9</v>
+        <v>17.4</v>
       </c>
       <c r="E5">
-        <v>14.7</v>
+        <v>15.1</v>
       </c>
       <c r="F5">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="G5">
-        <v>10.1</v>
+        <v>11.2</v>
       </c>
       <c r="H5">
-        <v>7.1</v>
+        <v>7.9</v>
       </c>
       <c r="I5">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="J5">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K5">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="L5">
-        <v>81.09999999999999</v>
+        <v>79.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1596,37 +1596,37 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="C6">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="D6">
-        <v>16.1</v>
+        <v>16.9</v>
       </c>
       <c r="E6">
-        <v>17.6</v>
+        <v>19.3</v>
       </c>
       <c r="F6">
-        <v>18.2</v>
+        <v>17</v>
       </c>
       <c r="G6">
-        <v>15.3</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>10.8</v>
+        <v>9.4</v>
       </c>
       <c r="I6">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="J6">
-        <v>2.9</v>
+        <v>4.4</v>
       </c>
       <c r="K6">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="L6">
-        <v>79.5</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1634,37 +1634,37 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="C7">
-        <v>4.4</v>
+        <v>6.6</v>
       </c>
       <c r="D7">
-        <v>8.699999999999999</v>
+        <v>10.7</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="F7">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="H7">
-        <v>16.3</v>
+        <v>14.2</v>
       </c>
       <c r="I7">
-        <v>14.1</v>
+        <v>12.4</v>
       </c>
       <c r="J7">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="K7">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="L7">
-        <v>56</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1675,34 +1675,34 @@
         <v>0.4</v>
       </c>
       <c r="C8">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D8">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="E8">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>9.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="G8">
-        <v>12.7</v>
+        <v>12.1</v>
       </c>
       <c r="H8">
-        <v>13.4</v>
+        <v>15.5</v>
       </c>
       <c r="I8">
-        <v>14.8</v>
+        <v>15.9</v>
       </c>
       <c r="J8">
-        <v>18</v>
+        <v>15.6</v>
       </c>
       <c r="K8">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="L8">
-        <v>38.3</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1713,34 +1713,34 @@
         <v>0.1</v>
       </c>
       <c r="C9">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="E9">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="F9">
-        <v>9.9</v>
+        <v>8.6</v>
       </c>
       <c r="G9">
-        <v>12.3</v>
+        <v>15.7</v>
       </c>
       <c r="H9">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="I9">
-        <v>20.3</v>
+        <v>17.6</v>
       </c>
       <c r="J9">
-        <v>16.1</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
       <c r="L9">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1751,34 +1751,34 @@
         <v>0.3</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="D10">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="E10">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="G10">
-        <v>11.1</v>
+        <v>10.1</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>13.8</v>
       </c>
       <c r="I10">
-        <v>15.9</v>
+        <v>17.3</v>
       </c>
       <c r="J10">
-        <v>21.5</v>
+        <v>20.9</v>
       </c>
       <c r="K10">
-        <v>24.5</v>
+        <v>22.6</v>
       </c>
       <c r="L10">
-        <v>27.1</v>
+        <v>25.4</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1789,34 +1789,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="E11">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="F11">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="G11">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>11.4</v>
+        <v>10.5</v>
       </c>
       <c r="I11">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="J11">
-        <v>24.2</v>
+        <v>24.6</v>
       </c>
       <c r="K11">
-        <v>35.1</v>
+        <v>35.7</v>
       </c>
       <c r="L11">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
     </row>
   </sheetData>
@@ -1875,13 +1875,13 @@
         <v>571.52</v>
       </c>
       <c r="F2">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="G2" t="s">
         <v>43</v>
       </c>
       <c r="H2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1901,13 +1901,13 @@
         <v>485.66</v>
       </c>
       <c r="F3">
-        <v>90</v>
+        <v>92.5</v>
       </c>
       <c r="G3" t="s">
         <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1927,7 +1927,7 @@
         <v>458.46</v>
       </c>
       <c r="F4">
-        <v>82.89999999999999</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="G4" t="s">
         <v>45</v>
@@ -1953,7 +1953,7 @@
         <v>511.3</v>
       </c>
       <c r="F5">
-        <v>81.10000000000001</v>
+        <v>79.10000000000001</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1979,7 +1979,7 @@
         <v>474.5599999999999</v>
       </c>
       <c r="F6">
-        <v>79.5</v>
+        <v>77.7</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
@@ -2005,7 +2005,7 @@
         <v>484.62</v>
       </c>
       <c r="F7">
-        <v>56.00000000000001</v>
+        <v>59.2</v>
       </c>
       <c r="G7" t="s">
         <v>48</v>
@@ -2031,13 +2031,13 @@
         <v>449.6</v>
       </c>
       <c r="F8">
-        <v>38.3</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
         <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2057,13 +2057,13 @@
         <v>452.36</v>
       </c>
       <c r="F9">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="G9" t="s">
         <v>50</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2083,13 +2083,13 @@
         <v>389.94</v>
       </c>
       <c r="F10">
-        <v>27.1</v>
+        <v>25.4</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2109,10 +2109,10 @@
         <v>411.0600000000001</v>
       </c>
       <c r="F11">
-        <v>13.3</v>
+        <v>13.1</v>
       </c>
       <c r="G11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H11" t="s">
         <v>57</v>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="95">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -53,19 +53,22 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -140,57 +143,60 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-0</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>10.8-3.2</t>
-  </si>
-  <si>
-    <t>8.5-5.4-0.1</t>
-  </si>
-  <si>
-    <t>7.9-6.0-0.1</t>
-  </si>
-  <si>
-    <t>7.4-6.5</t>
-  </si>
-  <si>
-    <t>7.2-6.7-0.1</t>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>9.9-4.0-0.1</t>
+  </si>
+  <si>
+    <t>8.4-5.5-0.1</t>
+  </si>
+  <si>
+    <t>7.7-6.2-0.1</t>
+  </si>
+  <si>
+    <t>7.7-6.2</t>
+  </si>
+  <si>
+    <t>7.1-6.8-0.1</t>
+  </si>
+  <si>
+    <t>6.7-7.2-0.1</t>
   </si>
   <si>
     <t>6.4-7.5-0.1</t>
   </si>
   <si>
-    <t>5.7-8.3-0.1</t>
-  </si>
-  <si>
-    <t>5.4-8.5-0.1</t>
-  </si>
-  <si>
-    <t>5.6-8.4-0.1</t>
-  </si>
-  <si>
-    <t>4.7-9.2-0.1</t>
-  </si>
-  <si>
-    <t>11-3</t>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>4.8-9.2</t>
+  </si>
+  <si>
+    <t>4.9-9.1-0.1</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>7-7</t>
   </si>
   <si>
     <t>8-6</t>
   </si>
   <si>
-    <t>7-7</t>
-  </si>
-  <si>
     <t>6-8</t>
   </si>
   <si>
@@ -215,40 +221,55 @@
     <t>Utkarsh Gupta</t>
   </si>
   <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Vidhi Sethia</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Vidhi Sethia</t>
-  </si>
-  <si>
     <t>Kabir Manocha</t>
   </si>
   <si>
     <t>Pawan Bhambhwani</t>
   </si>
   <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
     <t>Shihab Chowdhury</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓1</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑4</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -261,6 +282,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week</t>
@@ -685,13 +709,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -706,7 +730,7 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
@@ -761,7 +785,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
@@ -790,13 +814,13 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>12</v>
@@ -811,7 +835,7 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
         <v>12</v>
@@ -822,31 +846,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
         <v>11</v>
@@ -860,28 +884,28 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K7" t="s">
         <v>11</v>
@@ -892,34 +916,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -930,28 +954,28 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
       </c>
       <c r="J9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
@@ -965,16 +989,16 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>12</v>
@@ -986,7 +1010,7 @@
         <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -1000,16 +1024,16 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -1021,7 +1045,7 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -1042,13 +1066,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1059,7 +1083,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1070,10 +1094,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -1084,13 +1108,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1098,13 +1122,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1112,13 +1136,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1129,10 +1153,10 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1140,10 +1164,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -1154,13 +1178,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1171,10 +1195,10 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1182,13 +1206,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1206,16 +1230,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1226,10 +1250,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D2">
-        <v>-0.7999999999999998</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1240,13 +1264,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
@@ -1257,16 +1281,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>-0.7000000000000002</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1277,13 +1301,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="D5">
-        <v>-0.7000000000000002</v>
+        <v>-1.2</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1291,16 +1315,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D6">
-        <v>1.2</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1308,16 +1332,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="D7">
-        <v>-0.1000000000000001</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1325,16 +1349,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="D8">
-        <v>0.8999999999999999</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1342,16 +1366,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1362,10 +1386,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D10">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -1376,13 +1400,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D11">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -1403,40 +1427,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1444,28 +1468,28 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>76.3</v>
+        <v>67.2</v>
       </c>
       <c r="C2">
-        <v>14.6</v>
+        <v>16.5</v>
       </c>
       <c r="D2">
-        <v>4.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="E2">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="F2">
+        <v>2.8</v>
+      </c>
+      <c r="G2">
+        <v>0.9</v>
+      </c>
+      <c r="H2">
         <v>0.8</v>
       </c>
-      <c r="G2">
-        <v>0.3</v>
-      </c>
-      <c r="H2">
-        <v>0.2</v>
-      </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1474,83 +1498,83 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.8</v>
+        <v>99.09999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>10.5</v>
+        <v>12.2</v>
       </c>
       <c r="C3">
-        <v>28.5</v>
+        <v>23.9</v>
       </c>
       <c r="D3">
-        <v>21.5</v>
+        <v>18.7</v>
       </c>
       <c r="E3">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="F3">
-        <v>10.2</v>
+        <v>12.1</v>
       </c>
       <c r="G3">
-        <v>6.3</v>
+        <v>7.4</v>
       </c>
       <c r="H3">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="I3">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="J3">
+        <v>2.2</v>
+      </c>
+      <c r="K3">
         <v>0.8</v>
       </c>
-      <c r="K3">
-        <v>0.2</v>
-      </c>
       <c r="L3">
-        <v>92.5</v>
+        <v>87.8</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>5.1</v>
+      </c>
+      <c r="C4">
+        <v>15.5</v>
+      </c>
+      <c r="D4">
+        <v>19.6</v>
+      </c>
+      <c r="E4">
+        <v>15.3</v>
+      </c>
+      <c r="F4">
+        <v>14.7</v>
+      </c>
+      <c r="G4">
+        <v>13.1</v>
+      </c>
+      <c r="H4">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>4.8</v>
-      </c>
-      <c r="C4">
-        <v>16.9</v>
-      </c>
-      <c r="D4">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>17.3</v>
-      </c>
-      <c r="F4">
-        <v>15.8</v>
-      </c>
-      <c r="G4">
-        <v>10.6</v>
-      </c>
-      <c r="H4">
-        <v>7.5</v>
-      </c>
       <c r="I4">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="J4">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="K4">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1558,95 +1582,95 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.8</v>
+        <v>9.4</v>
       </c>
       <c r="C5">
-        <v>18.3</v>
+        <v>19.3</v>
       </c>
       <c r="D5">
-        <v>17.4</v>
+        <v>16.4</v>
       </c>
       <c r="E5">
-        <v>15.1</v>
+        <v>13.8</v>
       </c>
       <c r="F5">
-        <v>12.3</v>
+        <v>10.9</v>
       </c>
       <c r="G5">
         <v>11.2</v>
       </c>
       <c r="H5">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="I5">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="J5">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="L5">
-        <v>79.09999999999999</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="C6">
+        <v>12.2</v>
+      </c>
+      <c r="D6">
+        <v>13.5</v>
+      </c>
+      <c r="E6">
+        <v>17.9</v>
+      </c>
+      <c r="F6">
+        <v>13.5</v>
+      </c>
+      <c r="G6">
+        <v>14.1</v>
+      </c>
+      <c r="H6">
         <v>9.800000000000001</v>
       </c>
-      <c r="D6">
-        <v>16.9</v>
-      </c>
-      <c r="E6">
-        <v>19.3</v>
-      </c>
-      <c r="F6">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>13</v>
-      </c>
-      <c r="H6">
-        <v>9.4</v>
-      </c>
       <c r="I6">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="J6">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="K6">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="L6">
-        <v>77.7</v>
+        <v>74.8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="C7">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="D7">
-        <v>10.7</v>
+        <v>10.4</v>
       </c>
       <c r="E7">
-        <v>12.1</v>
+        <v>15.8</v>
       </c>
       <c r="F7">
-        <v>14</v>
+        <v>16.1</v>
       </c>
       <c r="G7">
         <v>14.7</v>
@@ -1655,168 +1679,168 @@
         <v>14.2</v>
       </c>
       <c r="I7">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="J7">
-        <v>9</v>
+        <v>5.9</v>
       </c>
       <c r="K7">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="L7">
-        <v>59.2</v>
+        <v>64.7</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="D8">
-        <v>4.5</v>
+        <v>7.4</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F8">
-        <v>10.1</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>12.1</v>
+        <v>14.7</v>
       </c>
       <c r="H8">
-        <v>15.5</v>
+        <v>19.1</v>
       </c>
       <c r="I8">
-        <v>15.9</v>
+        <v>15.2</v>
       </c>
       <c r="J8">
-        <v>15.6</v>
+        <v>10.4</v>
       </c>
       <c r="K8">
-        <v>15</v>
+        <v>5.6</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="D9">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="E9">
-        <v>4.2</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>8.6</v>
+        <v>10.3</v>
       </c>
       <c r="G9">
-        <v>15.7</v>
+        <v>13.6</v>
       </c>
       <c r="H9">
-        <v>17.1</v>
+        <v>16.7</v>
       </c>
       <c r="I9">
-        <v>17.6</v>
+        <v>18.6</v>
       </c>
       <c r="J9">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="K9">
-        <v>15.5</v>
+        <v>10.8</v>
       </c>
       <c r="L9">
-        <v>31.8</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>2.3</v>
       </c>
       <c r="F10">
-        <v>6.4</v>
+        <v>3.4</v>
       </c>
       <c r="G10">
-        <v>10.1</v>
+        <v>5.5</v>
       </c>
       <c r="H10">
-        <v>13.8</v>
+        <v>10.4</v>
       </c>
       <c r="I10">
-        <v>17.3</v>
+        <v>16.2</v>
       </c>
       <c r="J10">
-        <v>20.9</v>
+        <v>27.6</v>
       </c>
       <c r="K10">
-        <v>22.6</v>
+        <v>32.3</v>
       </c>
       <c r="L10">
-        <v>25.4</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E11">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="F11">
+        <v>2.2</v>
+      </c>
+      <c r="G11">
         <v>4.8</v>
       </c>
-      <c r="G11">
-        <v>6</v>
-      </c>
       <c r="H11">
-        <v>10.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I11">
-        <v>16.1</v>
+        <v>13.7</v>
       </c>
       <c r="J11">
-        <v>24.6</v>
+        <v>26.2</v>
       </c>
       <c r="K11">
-        <v>35.7</v>
+        <v>41.7</v>
       </c>
       <c r="L11">
-        <v>13.1</v>
+        <v>9.699999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -1834,28 +1858,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1863,77 +1887,77 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>142.88</v>
+        <v>140.82</v>
       </c>
       <c r="E2">
-        <v>571.52</v>
+        <v>704.1</v>
       </c>
       <c r="F2">
-        <v>99.8</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>40</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>121.415</v>
+        <v>117.276</v>
       </c>
       <c r="E3">
-        <v>485.66</v>
+        <v>586.38</v>
       </c>
       <c r="F3">
-        <v>92.5</v>
+        <v>87.8</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="D4">
-        <v>114.615</v>
+        <v>121.036</v>
       </c>
       <c r="E4">
-        <v>458.46</v>
+        <v>605.1799999999999</v>
       </c>
       <c r="F4">
-        <v>83.39999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1944,71 +1968,71 @@
         <v>41</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>127.825</v>
+        <v>125.584</v>
       </c>
       <c r="E5">
-        <v>511.3</v>
+        <v>627.9200000000001</v>
       </c>
       <c r="F5">
-        <v>79.10000000000001</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D6">
-        <v>118.64</v>
+        <v>126.252</v>
       </c>
       <c r="E6">
-        <v>474.5599999999999</v>
+        <v>631.26</v>
       </c>
       <c r="F6">
-        <v>77.7</v>
+        <v>74.8</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>42</v>
       </c>
       <c r="C7">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>121.155</v>
+        <v>121.292</v>
       </c>
       <c r="E7">
-        <v>484.62</v>
+        <v>606.4599999999999</v>
       </c>
       <c r="F7">
-        <v>59.2</v>
+        <v>64.7</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
         <v>56</v>
@@ -2016,25 +2040,25 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
         <v>42</v>
       </c>
       <c r="C8">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>112.4</v>
+        <v>117.368</v>
       </c>
       <c r="E8">
-        <v>449.6</v>
+        <v>586.84</v>
       </c>
       <c r="F8">
-        <v>38</v>
+        <v>49.7</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s">
         <v>56</v>
@@ -2042,80 +2066,80 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>42</v>
       </c>
       <c r="C9">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>113.09</v>
+        <v>110.812</v>
       </c>
       <c r="E9">
-        <v>452.36</v>
+        <v>554.0600000000001</v>
       </c>
       <c r="F9">
-        <v>31.8</v>
+        <v>36.4</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D10">
-        <v>97.485</v>
+        <v>105.844</v>
       </c>
       <c r="E10">
-        <v>389.94</v>
+        <v>529.22</v>
       </c>
       <c r="F10">
-        <v>25.4</v>
+        <v>13.5</v>
       </c>
       <c r="G10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>42</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>102.765</v>
+        <v>96.024</v>
       </c>
       <c r="E11">
-        <v>411.0600000000001</v>
+        <v>480.12</v>
       </c>
       <c r="F11">
-        <v>13.1</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2133,19 +2157,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2156,16 +2180,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2176,16 +2200,16 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2196,16 +2220,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2213,19 +2237,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2233,19 +2257,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2253,19 +2277,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2273,19 +2297,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2293,19 +2317,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D9">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2313,19 +2337,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>-8</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2336,16 +2360,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D11">
-        <v>-10</v>
+        <v>-17</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2355,30 +2379,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>87</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -2394,11 +2421,14 @@
       <c r="E2">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -2414,11 +2444,14 @@
       <c r="E3">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2434,131 +2467,152 @@
       <c r="E4">
         <v>5</v>
       </c>
-      <c r="F4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>-5</v>
+      </c>
+      <c r="C6">
         <v>-2</v>
       </c>
-      <c r="C5">
-        <v>-2</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
+      <c r="D6">
         <v>-1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
+        <v>-7</v>
+      </c>
+      <c r="C7">
         <v>-5</v>
       </c>
-      <c r="C7">
-        <v>-2</v>
-      </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-8</v>
+      </c>
+      <c r="F7">
+        <v>-5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>-2</v>
       </c>
       <c r="C8">
+        <v>-2</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>-2</v>
+      </c>
+      <c r="C9">
         <v>-1</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>-2</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>-2</v>
       </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
+      <c r="F9">
+        <v>-8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>-6</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>-6</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>-5</v>
       </c>
-      <c r="F9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>-7</v>
-      </c>
-      <c r="C10">
-        <v>-5</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10">
+      <c r="F10">
         <v>-8</v>
       </c>
-      <c r="F10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2574,8 +2628,11 @@
       <c r="E11">
         <v>-10</v>
       </c>
-      <c r="F11" t="s">
-        <v>75</v>
+      <c r="F11">
+        <v>-17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2585,7 +2642,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2593,25 +2650,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2671,25 +2728,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
       <c r="E4">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="F4">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2697,25 +2754,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>-5</v>
+      </c>
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>12</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
       <c r="G5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2726,22 +2783,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>-5</v>
+      </c>
+      <c r="G6">
         <v>9</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2749,24 +2806,76 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>-8</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>-10</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>3</v>
       </c>
     </row>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
-    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
-    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
-    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
+    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
+    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
+    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="101">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -122,6 +123,24 @@
     <t>Chance of Making Playoffs</t>
   </si>
   <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -155,34 +174,34 @@
     <t>1-4</t>
   </si>
   <si>
-    <t>9.9-4.0-0.1</t>
-  </si>
-  <si>
-    <t>8.4-5.5-0.1</t>
+    <t>9.9-4.1-0.1</t>
+  </si>
+  <si>
+    <t>8.5-5.5-0.1</t>
+  </si>
+  <si>
+    <t>7.8-6.2</t>
   </si>
   <si>
     <t>7.7-6.2-0.1</t>
   </si>
   <si>
-    <t>7.7-6.2</t>
-  </si>
-  <si>
-    <t>7.1-6.8-0.1</t>
-  </si>
-  <si>
-    <t>6.7-7.2-0.1</t>
+    <t>7.0-7.0-0.1</t>
+  </si>
+  <si>
+    <t>6.8-7.2-0.1</t>
   </si>
   <si>
     <t>6.4-7.5-0.1</t>
   </si>
   <si>
-    <t>6.0-8.0</t>
-  </si>
-  <si>
-    <t>4.8-9.2</t>
-  </si>
-  <si>
-    <t>4.9-9.1-0.1</t>
+    <t>5.9-8.0-0.1</t>
+  </si>
+  <si>
+    <t>4.8-9.1</t>
+  </si>
+  <si>
+    <t>5.0-9.0-0.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -191,10 +210,10 @@
     <t>9-5</t>
   </si>
   <si>
+    <t>8-6</t>
+  </si>
+  <si>
     <t>7-7</t>
-  </si>
-  <si>
-    <t>8-6</t>
   </si>
   <si>
     <t>6-8</t>
@@ -1468,28 +1487,28 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>67.2</v>
+        <v>63</v>
       </c>
       <c r="C2">
-        <v>16.5</v>
+        <v>19.9</v>
       </c>
       <c r="D2">
-        <v>8.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="E2">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="F2">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="G2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="I2">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1498,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1506,113 +1525,113 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>12.2</v>
+        <v>14.1</v>
       </c>
       <c r="C3">
-        <v>23.9</v>
+        <v>21.7</v>
       </c>
       <c r="D3">
-        <v>18.7</v>
+        <v>19.5</v>
       </c>
       <c r="E3">
-        <v>13.5</v>
+        <v>13.9</v>
       </c>
       <c r="F3">
-        <v>12.1</v>
+        <v>9.6</v>
       </c>
       <c r="G3">
-        <v>7.4</v>
+        <v>10.3</v>
       </c>
       <c r="H3">
-        <v>4.8</v>
+        <v>5.6</v>
       </c>
       <c r="I3">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="K3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="L3">
-        <v>87.8</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>5.1</v>
+        <v>9.9</v>
       </c>
       <c r="C4">
-        <v>15.5</v>
+        <v>18.4</v>
       </c>
       <c r="D4">
-        <v>19.6</v>
+        <v>16.3</v>
       </c>
       <c r="E4">
-        <v>15.3</v>
+        <v>17.4</v>
       </c>
       <c r="F4">
-        <v>14.7</v>
+        <v>10.5</v>
       </c>
       <c r="G4">
-        <v>13.1</v>
+        <v>10.1</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7.3</v>
       </c>
       <c r="I4">
-        <v>5.5</v>
+        <v>4.9</v>
       </c>
       <c r="J4">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="L4">
-        <v>83.3</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>9.4</v>
+        <v>4.9</v>
       </c>
       <c r="C5">
-        <v>19.3</v>
+        <v>15.3</v>
       </c>
       <c r="D5">
-        <v>16.4</v>
+        <v>18.2</v>
       </c>
       <c r="E5">
-        <v>13.8</v>
+        <v>16.9</v>
       </c>
       <c r="F5">
-        <v>10.9</v>
+        <v>16.6</v>
       </c>
       <c r="G5">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="I5">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="K5">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="L5">
-        <v>81</v>
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1620,37 +1639,37 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="C6">
-        <v>12.2</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D6">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="E6">
-        <v>17.9</v>
+        <v>15.5</v>
       </c>
       <c r="F6">
-        <v>13.5</v>
+        <v>16.3</v>
       </c>
       <c r="G6">
-        <v>14.1</v>
+        <v>13.7</v>
       </c>
       <c r="H6">
-        <v>9.800000000000001</v>
+        <v>10.7</v>
       </c>
       <c r="I6">
-        <v>8.6</v>
+        <v>7.8</v>
       </c>
       <c r="J6">
+        <v>5.5</v>
+      </c>
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="K6">
-        <v>2.8</v>
-      </c>
       <c r="L6">
-        <v>74.8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1658,37 +1677,37 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="C7">
-        <v>6.3</v>
+        <v>7.6</v>
       </c>
       <c r="D7">
-        <v>10.4</v>
+        <v>11.2</v>
       </c>
       <c r="E7">
-        <v>15.8</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>16.1</v>
+        <v>15.7</v>
       </c>
       <c r="G7">
-        <v>14.7</v>
+        <v>13.7</v>
       </c>
       <c r="H7">
-        <v>14.2</v>
+        <v>13.5</v>
       </c>
       <c r="I7">
-        <v>12.1</v>
+        <v>11</v>
       </c>
       <c r="J7">
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
       <c r="K7">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="L7">
-        <v>64.7</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1696,37 +1715,37 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D8">
-        <v>7.4</v>
+        <v>6.1</v>
       </c>
       <c r="E8">
-        <v>9.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="F8">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="G8">
-        <v>14.7</v>
+        <v>16</v>
       </c>
       <c r="H8">
         <v>19.1</v>
       </c>
       <c r="I8">
-        <v>15.2</v>
+        <v>13.5</v>
       </c>
       <c r="J8">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="K8">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L8">
-        <v>49.7</v>
+        <v>51.5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1734,37 +1753,37 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="C9">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="D9">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="F9">
-        <v>10.3</v>
+        <v>8.4</v>
       </c>
       <c r="G9">
-        <v>13.6</v>
+        <v>14.3</v>
       </c>
       <c r="H9">
-        <v>16.7</v>
+        <v>15.3</v>
       </c>
       <c r="I9">
-        <v>18.6</v>
+        <v>20.3</v>
       </c>
       <c r="J9">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="K9">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="L9">
-        <v>36.4</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1772,37 +1791,37 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="E10">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="H10">
-        <v>10.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I10">
-        <v>16.2</v>
+        <v>17.8</v>
       </c>
       <c r="J10">
-        <v>27.6</v>
+        <v>24.1</v>
       </c>
       <c r="K10">
-        <v>32.3</v>
+        <v>34.9</v>
       </c>
       <c r="L10">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1810,37 +1829,37 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E11">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="F11">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="G11">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="H11">
-        <v>8.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="I11">
-        <v>13.7</v>
+        <v>16</v>
       </c>
       <c r="J11">
-        <v>26.2</v>
+        <v>25.8</v>
       </c>
       <c r="K11">
-        <v>41.7</v>
+        <v>37.7</v>
       </c>
       <c r="L11">
-        <v>9.699999999999999</v>
+        <v>10.3</v>
       </c>
     </row>
   </sheetData>
@@ -1849,6 +1868,269 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>66.2</v>
+      </c>
+      <c r="C2">
+        <v>97</v>
+      </c>
+      <c r="D2">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="E2">
+        <v>99.7</v>
+      </c>
+      <c r="F2">
+        <v>98.7</v>
+      </c>
+      <c r="G2">
+        <v>99.09999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>95</v>
+      </c>
+      <c r="C3">
+        <v>35.9</v>
+      </c>
+      <c r="D3">
+        <v>49.6</v>
+      </c>
+      <c r="E3">
+        <v>82.8</v>
+      </c>
+      <c r="F3">
+        <v>87.3</v>
+      </c>
+      <c r="G3">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>51.9</v>
+      </c>
+      <c r="C4">
+        <v>92.7</v>
+      </c>
+      <c r="D4">
+        <v>87.8</v>
+      </c>
+      <c r="E4">
+        <v>93.5</v>
+      </c>
+      <c r="F4">
+        <v>82.8</v>
+      </c>
+      <c r="G4">
+        <v>80.90000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="C5">
+        <v>40.3</v>
+      </c>
+      <c r="D5">
+        <v>18.7</v>
+      </c>
+      <c r="E5">
+        <v>82</v>
+      </c>
+      <c r="F5">
+        <v>83.3</v>
+      </c>
+      <c r="G5">
+        <v>78.10000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="D6">
+        <v>84.39999999999999</v>
+      </c>
+      <c r="E6">
+        <v>62.5</v>
+      </c>
+      <c r="F6">
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>73.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>99.09999999999999</v>
+      </c>
+      <c r="C7">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="D7">
+        <v>93.10000000000001</v>
+      </c>
+      <c r="E7">
+        <v>74.5</v>
+      </c>
+      <c r="F7">
+        <v>64.7</v>
+      </c>
+      <c r="G7">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="C8">
+        <v>66.60000000000001</v>
+      </c>
+      <c r="D8">
+        <v>45.4</v>
+      </c>
+      <c r="E8">
+        <v>28.9</v>
+      </c>
+      <c r="F8">
+        <v>46</v>
+      </c>
+      <c r="G8">
+        <v>51.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>10.1</v>
+      </c>
+      <c r="C9">
+        <v>55.8</v>
+      </c>
+      <c r="D9">
+        <v>44.7</v>
+      </c>
+      <c r="E9">
+        <v>12.7</v>
+      </c>
+      <c r="F9">
+        <v>36.2</v>
+      </c>
+      <c r="G9">
+        <v>35.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>14.1</v>
+      </c>
+      <c r="C10">
+        <v>1.1</v>
+      </c>
+      <c r="D10">
+        <v>70.8</v>
+      </c>
+      <c r="E10">
+        <v>38.9</v>
+      </c>
+      <c r="F10">
+        <v>13.3</v>
+      </c>
+      <c r="G10">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>18.3</v>
+      </c>
+      <c r="D11">
+        <v>5.899999999999999</v>
+      </c>
+      <c r="E11">
+        <v>24.5</v>
+      </c>
+      <c r="F11">
+        <v>12.7</v>
+      </c>
+      <c r="G11">
+        <v>11.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -1861,25 +2143,25 @@
         <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1887,7 +2169,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>0.8</v>
@@ -1899,13 +2181,13 @@
         <v>704.1</v>
       </c>
       <c r="F2">
-        <v>99.09999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1913,7 +2195,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C3">
         <v>0.8</v>
@@ -1925,65 +2207,65 @@
         <v>586.38</v>
       </c>
       <c r="F3">
-        <v>87.8</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>0.6</v>
       </c>
       <c r="D4">
-        <v>121.036</v>
+        <v>125.584</v>
       </c>
       <c r="E4">
-        <v>605.1799999999999</v>
+        <v>627.9200000000001</v>
       </c>
       <c r="F4">
-        <v>83.3</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>0.6</v>
       </c>
       <c r="D5">
-        <v>125.584</v>
+        <v>121.036</v>
       </c>
       <c r="E5">
-        <v>627.9200000000001</v>
+        <v>605.1799999999999</v>
       </c>
       <c r="F5">
-        <v>81</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1991,7 +2273,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C6">
         <v>0.4</v>
@@ -2003,13 +2285,13 @@
         <v>631.26</v>
       </c>
       <c r="F6">
-        <v>74.8</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2017,7 +2299,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C7">
         <v>0.4</v>
@@ -2029,13 +2311,13 @@
         <v>606.4599999999999</v>
       </c>
       <c r="F7">
-        <v>64.7</v>
+        <v>63.3</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2043,7 +2325,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>0.4</v>
@@ -2055,13 +2337,13 @@
         <v>586.84</v>
       </c>
       <c r="F8">
-        <v>49.7</v>
+        <v>51.5</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2069,7 +2351,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C9">
         <v>0.4</v>
@@ -2081,13 +2363,13 @@
         <v>554.0600000000001</v>
       </c>
       <c r="F9">
-        <v>36.4</v>
+        <v>35.9</v>
       </c>
       <c r="G9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2095,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C10">
         <v>0.2</v>
@@ -2107,13 +2389,13 @@
         <v>529.22</v>
       </c>
       <c r="F10">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2121,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C11">
         <v>0.4</v>
@@ -2133,13 +2415,13 @@
         <v>480.12</v>
       </c>
       <c r="F11">
-        <v>9.700000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="G11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H11" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2147,7 +2429,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2160,16 +2442,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2180,7 +2462,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D2">
         <v>17</v>
@@ -2189,7 +2471,7 @@
         <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2200,7 +2482,7 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -2209,7 +2491,7 @@
         <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2220,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -2229,7 +2511,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2240,7 +2522,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -2249,7 +2531,7 @@
         <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2260,7 +2542,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -2269,7 +2551,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2280,7 +2562,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="D7">
         <v>-5</v>
@@ -2289,7 +2571,7 @@
         <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2300,7 +2582,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D8">
         <v>-6</v>
@@ -2309,7 +2591,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2320,7 +2602,7 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <v>-8</v>
@@ -2329,7 +2611,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2340,7 +2622,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D10">
         <v>-8</v>
@@ -2349,7 +2631,7 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2360,7 +2642,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D11">
         <v>-17</v>
@@ -2369,7 +2651,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2377,7 +2659,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
@@ -2387,22 +2669,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2425,7 +2707,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2448,7 +2730,7 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2471,7 +2753,7 @@
         <v>6</v>
       </c>
       <c r="G4" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2494,7 +2776,7 @@
         <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2517,7 +2799,7 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2540,7 +2822,7 @@
         <v>-5</v>
       </c>
       <c r="G7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -2563,7 +2845,7 @@
         <v>-6</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -2586,7 +2868,7 @@
         <v>-8</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -2609,7 +2891,7 @@
         <v>-8</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -2632,7 +2914,7 @@
         <v>-17</v>
       </c>
       <c r="G11" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2640,7 +2922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2650,25 +2932,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="102">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -54,22 +54,25 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -141,6 +144,9 @@
     <t>Week_6</t>
   </si>
   <si>
+    <t>Week_7</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -162,46 +168,46 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>9.9-4.1-0.1</t>
-  </si>
-  <si>
-    <t>8.5-5.5-0.1</t>
-  </si>
-  <si>
-    <t>7.8-6.2</t>
-  </si>
-  <si>
-    <t>7.7-6.2-0.1</t>
-  </si>
-  <si>
-    <t>7.0-7.0-0.1</t>
-  </si>
-  <si>
-    <t>6.8-7.2-0.1</t>
-  </si>
-  <si>
-    <t>6.4-7.5-0.1</t>
-  </si>
-  <si>
-    <t>5.9-8.0-0.1</t>
-  </si>
-  <si>
-    <t>4.8-9.1</t>
-  </si>
-  <si>
-    <t>5.0-9.0-0.1</t>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>10.2-3.8</t>
+  </si>
+  <si>
+    <t>8.5-5.5</t>
+  </si>
+  <si>
+    <t>8.0-5.9</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
+  </si>
+  <si>
+    <t>7.3-6.6-0.1</t>
+  </si>
+  <si>
+    <t>6.8-7.1-0.1</t>
+  </si>
+  <si>
+    <t>5.7-8.2-0.1</t>
+  </si>
+  <si>
+    <t>5.7-8.3-0.1</t>
+  </si>
+  <si>
+    <t>5.6-8.4-0.1</t>
+  </si>
+  <si>
+    <t>4.5-9.4-0.1</t>
   </si>
   <si>
     <t>10-4</t>
@@ -219,7 +225,7 @@
     <t>6-8</t>
   </si>
   <si>
-    <t>5-9</t>
+    <t>4-10</t>
   </si>
   <si>
     <t>Owners</t>
@@ -231,66 +237,60 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Achira Amur</t>
+  </si>
+  <si>
     <t>Saurin Sethia</t>
   </si>
   <si>
-    <t>Achira Amur</t>
-  </si>
-  <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
+    <t>Vidhi Sethia</t>
+  </si>
+  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Vidhi Sethia</t>
+    <t>Hayat Khan</t>
   </si>
   <si>
     <t>Harshit Aggarwal</t>
   </si>
   <si>
-    <t>Hayat Khan</t>
+    <t>Pawan Bhambhwani</t>
   </si>
   <si>
     <t>Kabir Manocha</t>
   </si>
   <si>
-    <t>Pawan Bhambhwani</t>
-  </si>
-  <si>
     <t>Shihab Chowdhury</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
     <t>↑5</t>
   </si>
   <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -304,6 +304,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -728,31 +731,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -766,11 +769,11 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
@@ -781,13 +784,13 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -795,34 +798,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
         <v>11</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -833,31 +836,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -868,31 +871,31 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" t="s">
         <v>12</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -900,34 +903,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -938,10 +941,10 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -950,16 +953,16 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -970,34 +973,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1008,28 +1011,28 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -1040,34 +1043,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
         <v>15</v>
       </c>
       <c r="K11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1085,13 +1088,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1099,10 +1102,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1113,13 +1116,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1127,13 +1130,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1141,13 +1144,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1155,10 +1158,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -1169,13 +1172,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1183,13 +1186,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1197,13 +1200,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1211,13 +1214,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1225,13 +1228,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1249,16 +1252,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1269,13 +1272,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D2">
-        <v>-0.2000000000000002</v>
+        <v>-0.5</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1283,16 +1286,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D3">
-        <v>1.2</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1300,16 +1303,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1320,13 +1323,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D5">
-        <v>-1.2</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1334,16 +1337,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D6">
-        <v>0.7000000000000002</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1351,16 +1354,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D7">
-        <v>-0.3999999999999999</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1368,13 +1371,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="D8">
-        <v>-0.7999999999999998</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1388,13 +1391,13 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="D9">
-        <v>0.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1402,16 +1405,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="D10">
-        <v>-0.7</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1419,13 +1422,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="D11">
-        <v>0.3</v>
+        <v>-0.5</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -1446,40 +1449,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1487,28 +1490,28 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="C2">
-        <v>19.9</v>
+        <v>21.1</v>
       </c>
       <c r="D2">
-        <v>9.1</v>
+        <v>7.4</v>
       </c>
       <c r="E2">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="F2">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -1517,121 +1520,121 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>98.90000000000001</v>
+        <v>99.7</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>14.1</v>
+        <v>19.7</v>
       </c>
       <c r="C3">
-        <v>21.7</v>
+        <v>28.8</v>
       </c>
       <c r="D3">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>13.9</v>
+        <v>11.7</v>
       </c>
       <c r="F3">
-        <v>9.6</v>
+        <v>8.5</v>
       </c>
       <c r="G3">
-        <v>10.3</v>
+        <v>5.5</v>
       </c>
       <c r="H3">
-        <v>5.6</v>
+        <v>3.7</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="J3">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="K3">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
-        <v>89.09999999999999</v>
+        <v>92.2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>9.9</v>
+        <v>5.8</v>
       </c>
       <c r="C4">
-        <v>18.4</v>
+        <v>17.2</v>
       </c>
       <c r="D4">
-        <v>16.3</v>
+        <v>19.1</v>
       </c>
       <c r="E4">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="F4">
-        <v>10.5</v>
+        <v>14.9</v>
       </c>
       <c r="G4">
-        <v>10.1</v>
+        <v>11.7</v>
       </c>
       <c r="H4">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="I4">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="J4">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="K4">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="L4">
-        <v>82.59999999999999</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="C5">
-        <v>15.3</v>
+        <v>11.3</v>
       </c>
       <c r="D5">
-        <v>18.2</v>
+        <v>20.8</v>
       </c>
       <c r="E5">
-        <v>16.9</v>
+        <v>18.7</v>
       </c>
       <c r="F5">
-        <v>16.6</v>
+        <v>17.3</v>
       </c>
       <c r="G5">
-        <v>10.5</v>
+        <v>13.7</v>
       </c>
       <c r="H5">
-        <v>8.4</v>
+        <v>6.3</v>
       </c>
       <c r="I5">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="J5">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="K5">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="L5">
-        <v>82.40000000000001</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1639,189 +1642,189 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="C6">
-        <v>9.300000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="D6">
-        <v>13.3</v>
+        <v>15.8</v>
       </c>
       <c r="E6">
+        <v>18.3</v>
+      </c>
+      <c r="F6">
         <v>15.5</v>
       </c>
-      <c r="F6">
-        <v>16.3</v>
-      </c>
       <c r="G6">
-        <v>13.7</v>
+        <v>12.8</v>
       </c>
       <c r="H6">
-        <v>10.7</v>
+        <v>11.4</v>
       </c>
       <c r="I6">
-        <v>7.8</v>
+        <v>5.6</v>
       </c>
       <c r="J6">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>72</v>
+        <v>77.7</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="C7">
-        <v>7.6</v>
+        <v>5.5</v>
       </c>
       <c r="D7">
-        <v>11.2</v>
+        <v>9.6</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>14.8</v>
       </c>
       <c r="F7">
-        <v>15.7</v>
+        <v>14.2</v>
       </c>
       <c r="G7">
-        <v>13.7</v>
+        <v>15.2</v>
       </c>
       <c r="H7">
-        <v>13.5</v>
+        <v>14.9</v>
       </c>
       <c r="I7">
-        <v>11</v>
+        <v>13.2</v>
       </c>
       <c r="J7">
-        <v>8.5</v>
+        <v>8.1</v>
       </c>
       <c r="K7">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L7">
-        <v>63.3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="D8">
-        <v>6.1</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <v>9.9</v>
+        <v>5.9</v>
       </c>
       <c r="F8">
-        <v>13.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>12.3</v>
       </c>
       <c r="H8">
-        <v>19.1</v>
+        <v>15.9</v>
       </c>
       <c r="I8">
-        <v>13.5</v>
+        <v>17.6</v>
       </c>
       <c r="J8">
-        <v>10.6</v>
+        <v>18.9</v>
       </c>
       <c r="K8">
-        <v>5.3</v>
+        <v>13.4</v>
       </c>
       <c r="L8">
-        <v>51.5</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="C9">
+        <v>0.7</v>
+      </c>
+      <c r="D9">
         <v>2.4</v>
       </c>
-      <c r="D9">
-        <v>4.3</v>
-      </c>
       <c r="E9">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="F9">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G9">
-        <v>14.3</v>
+        <v>13.2</v>
       </c>
       <c r="H9">
-        <v>15.3</v>
+        <v>18.2</v>
       </c>
       <c r="I9">
-        <v>20.3</v>
+        <v>21.1</v>
       </c>
       <c r="J9">
-        <v>17.6</v>
+        <v>18.7</v>
       </c>
       <c r="K9">
-        <v>10.9</v>
+        <v>11.8</v>
       </c>
       <c r="L9">
-        <v>35.9</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0.2</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D10">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G10">
-        <v>5.9</v>
+        <v>12.7</v>
       </c>
       <c r="H10">
-        <v>9.199999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="I10">
-        <v>17.8</v>
+        <v>18.2</v>
       </c>
       <c r="J10">
-        <v>24.1</v>
+        <v>20.8</v>
       </c>
       <c r="K10">
-        <v>34.9</v>
+        <v>15.4</v>
       </c>
       <c r="L10">
-        <v>14</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1832,34 +1835,34 @@
         <v>0</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0.4</v>
       </c>
-      <c r="D11">
-        <v>0.6</v>
-      </c>
       <c r="E11">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="F11">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="G11">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H11">
-        <v>10.2</v>
+        <v>5.5</v>
       </c>
       <c r="I11">
-        <v>16</v>
+        <v>12.9</v>
       </c>
       <c r="J11">
-        <v>25.8</v>
+        <v>23.4</v>
       </c>
       <c r="K11">
-        <v>37.7</v>
+        <v>53</v>
       </c>
       <c r="L11">
-        <v>10.3</v>
+        <v>5.2</v>
       </c>
     </row>
   </sheetData>
@@ -1869,125 +1872,140 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>66.2</v>
+        <v>63.9</v>
       </c>
       <c r="C2">
-        <v>97</v>
+        <v>96.39999999999999</v>
       </c>
       <c r="D2">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="E2">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="F2">
         <v>98.7</v>
       </c>
       <c r="G2">
-        <v>99.09999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>99.7</v>
+      </c>
+      <c r="H2">
+        <v>99.59999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>77.90000000000001</v>
+      </c>
+      <c r="C3">
+        <v>39.1</v>
+      </c>
+      <c r="D3">
+        <v>16.1</v>
+      </c>
+      <c r="E3">
+        <v>79.90000000000001</v>
+      </c>
+      <c r="F3">
+        <v>83.2</v>
+      </c>
+      <c r="G3">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="H3">
+        <v>90.40000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>95</v>
-      </c>
-      <c r="C3">
-        <v>35.9</v>
-      </c>
-      <c r="D3">
-        <v>49.6</v>
-      </c>
-      <c r="E3">
-        <v>82.8</v>
-      </c>
-      <c r="F3">
-        <v>87.3</v>
-      </c>
-      <c r="G3">
-        <v>88.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B4">
-        <v>51.9</v>
+        <v>94.3</v>
       </c>
       <c r="C4">
-        <v>92.7</v>
+        <v>34.4</v>
       </c>
       <c r="D4">
-        <v>87.8</v>
+        <v>51.8</v>
       </c>
       <c r="E4">
-        <v>93.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="F4">
-        <v>82.8</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="G4">
-        <v>80.90000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>84.89999999999999</v>
+      </c>
+      <c r="H4">
+        <v>86.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>73.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="C5">
-        <v>40.3</v>
+        <v>97</v>
       </c>
       <c r="D5">
-        <v>18.7</v>
+        <v>90.8</v>
       </c>
       <c r="E5">
-        <v>82</v>
+        <v>74.2</v>
       </c>
       <c r="F5">
-        <v>83.3</v>
+        <v>64.5</v>
       </c>
       <c r="G5">
-        <v>78.10000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="H5">
+        <v>83.89999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1995,134 +2013,152 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>95.89999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="D6">
-        <v>84.39999999999999</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="E6">
-        <v>62.5</v>
+        <v>61.5</v>
       </c>
       <c r="F6">
-        <v>75</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G6">
-        <v>73.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>78.7</v>
+      </c>
+      <c r="H6">
+        <v>79.90000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>99.09999999999999</v>
+        <v>46.8</v>
       </c>
       <c r="C7">
-        <v>96.39999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="D7">
-        <v>93.10000000000001</v>
+        <v>89.60000000000001</v>
       </c>
       <c r="E7">
-        <v>74.5</v>
+        <v>92.2</v>
       </c>
       <c r="F7">
-        <v>64.7</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G7">
-        <v>66.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>60.4</v>
+      </c>
+      <c r="H7">
+        <v>63.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>16.4</v>
+      </c>
+      <c r="C8">
+        <v>1.1</v>
+      </c>
+      <c r="D8">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="E8">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="F8">
+        <v>15.4</v>
+      </c>
+      <c r="G8">
+        <v>33.6</v>
+      </c>
+      <c r="H8">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
-        <v>90</v>
-      </c>
-      <c r="C8">
-        <v>66.60000000000001</v>
-      </c>
-      <c r="D8">
-        <v>45.4</v>
-      </c>
-      <c r="E8">
-        <v>28.9</v>
-      </c>
-      <c r="F8">
-        <v>46</v>
-      </c>
-      <c r="G8">
-        <v>51.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+      <c r="B9">
+        <v>91.2</v>
+      </c>
+      <c r="C9">
+        <v>70.3</v>
+      </c>
+      <c r="D9">
+        <v>46.8</v>
+      </c>
+      <c r="E9">
+        <v>27.5</v>
+      </c>
+      <c r="F9">
+        <v>48.6</v>
+      </c>
+      <c r="G9">
+        <v>29.8</v>
+      </c>
+      <c r="H9">
+        <v>30.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9">
-        <v>10.1</v>
-      </c>
-      <c r="C9">
-        <v>55.8</v>
-      </c>
-      <c r="D9">
-        <v>44.7</v>
-      </c>
-      <c r="E9">
-        <v>12.7</v>
-      </c>
-      <c r="F9">
-        <v>36.2</v>
-      </c>
-      <c r="G9">
-        <v>35.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B10">
-        <v>14.1</v>
+        <v>10.4</v>
       </c>
       <c r="C10">
-        <v>1.1</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="D10">
-        <v>70.8</v>
+        <v>43.1</v>
       </c>
       <c r="E10">
-        <v>38.9</v>
+        <v>14.9</v>
       </c>
       <c r="F10">
-        <v>13.3</v>
+        <v>35.2</v>
       </c>
       <c r="G10">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>18.3</v>
+        <v>16.2</v>
       </c>
       <c r="D11">
-        <v>5.899999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="E11">
-        <v>24.5</v>
+        <v>26.4</v>
       </c>
       <c r="F11">
-        <v>12.7</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>11.9</v>
+        <v>6.2</v>
+      </c>
+      <c r="H11">
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>
@@ -2140,28 +2176,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2169,103 +2205,103 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D2">
-        <v>140.82</v>
+        <v>138.8633333333333</v>
       </c>
       <c r="E2">
-        <v>704.1</v>
+        <v>833.1800000000001</v>
       </c>
       <c r="F2">
-        <v>98.90000000000001</v>
+        <v>99.7</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>117.276</v>
+        <v>133.9966666666667</v>
       </c>
       <c r="E3">
-        <v>586.38</v>
+        <v>803.98</v>
       </c>
       <c r="F3">
-        <v>89.09999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="G3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>125.584</v>
+        <v>117.36</v>
       </c>
       <c r="E4">
-        <v>627.9200000000001</v>
+        <v>704.16</v>
       </c>
       <c r="F4">
-        <v>82.59999999999999</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>121.036</v>
+        <v>124.13</v>
       </c>
       <c r="E5">
-        <v>605.1799999999999</v>
+        <v>744.78</v>
       </c>
       <c r="F5">
-        <v>82.39999999999999</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2273,129 +2309,129 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>126.252</v>
+        <v>123.6</v>
       </c>
       <c r="E6">
-        <v>631.26</v>
+        <v>741.6</v>
       </c>
       <c r="F6">
-        <v>72</v>
+        <v>77.7</v>
       </c>
       <c r="G6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>121.292</v>
+        <v>114.4633333333333</v>
       </c>
       <c r="E7">
-        <v>606.4599999999999</v>
+        <v>686.78</v>
       </c>
       <c r="F7">
-        <v>63.3</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D8">
-        <v>117.368</v>
+        <v>113.1433333333333</v>
       </c>
       <c r="E8">
-        <v>586.84</v>
+        <v>678.86</v>
       </c>
       <c r="F8">
-        <v>51.5</v>
+        <v>34.2</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>110.812</v>
+        <v>112.95</v>
       </c>
       <c r="E9">
-        <v>554.0600000000001</v>
+        <v>677.7</v>
       </c>
       <c r="F9">
-        <v>35.9</v>
+        <v>30.2</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>105.844</v>
+        <v>111.4066666666667</v>
       </c>
       <c r="E10">
-        <v>529.22</v>
+        <v>668.4400000000001</v>
       </c>
       <c r="F10">
-        <v>14</v>
+        <v>28.8</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2403,25 +2439,25 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>96.024</v>
+        <v>96.78000000000002</v>
       </c>
       <c r="E11">
-        <v>480.12</v>
+        <v>580.6800000000001</v>
       </c>
       <c r="F11">
-        <v>10.3</v>
+        <v>5.2</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2439,19 +2475,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2459,19 +2495,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2">
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2479,19 +2515,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D3">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2502,16 +2538,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2519,19 +2555,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2539,19 +2575,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2559,19 +2595,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D7">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2579,13 +2615,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -2599,16 +2635,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D9">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>86</v>
@@ -2619,16 +2655,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D10">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>87</v>
@@ -2642,13 +2678,13 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>-17</v>
+        <v>-13</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -2661,13 +2697,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
@@ -2684,56 +2720,65 @@
         <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>94</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>7</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>12</v>
       </c>
-      <c r="E2">
-        <v>10</v>
-      </c>
-      <c r="F2">
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
         <v>17</v>
       </c>
-      <c r="G2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2752,149 +2797,170 @@
       <c r="F4">
         <v>6</v>
       </c>
-      <c r="G4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
         <v>-1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>6</v>
-      </c>
-      <c r="G5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>-2</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
         <v>4</v>
       </c>
-      <c r="G6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>-7</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>-5</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>-7</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>-8</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>-5</v>
       </c>
-      <c r="G7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
+      <c r="G8">
         <v>-2</v>
       </c>
-      <c r="C8">
-        <v>-2</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="C9">
         <v>-6</v>
       </c>
-      <c r="G8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>-2</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
       <c r="D9">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E9">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F9">
         <v>-8</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9">
+        <v>-6</v>
+      </c>
+      <c r="H9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="C10">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="D10">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="E10">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="F10">
         <v>-8</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10">
+        <v>-7</v>
+      </c>
+      <c r="H10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -2913,7 +2979,10 @@
       <c r="F11">
         <v>-17</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11">
+        <v>-13</v>
+      </c>
+      <c r="H11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2924,7 +2993,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2932,25 +3001,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2958,25 +3027,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
       <c r="E2">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="G2">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2984,25 +3053,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
       <c r="E3">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F3">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3013,22 +3082,22 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-17</v>
+        <v>-5</v>
       </c>
       <c r="F4">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3039,22 +3108,22 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>-5</v>
+        <v>-17</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="G5">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3088,25 +3157,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3114,25 +3183,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3140,24 +3209,50 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>3</v>
       </c>
       <c r="E9">
+        <v>-7</v>
+      </c>
+      <c r="F9">
+        <v>-13</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
         <v>-8</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>-10</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>2</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>3</v>
       </c>
     </row>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="104">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -54,25 +54,28 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>7-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -147,6 +150,9 @@
     <t>Week_7</t>
   </si>
   <si>
+    <t>Week_8</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -168,52 +174,49 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>10.2-3.8</t>
-  </si>
-  <si>
-    <t>8.5-5.5</t>
-  </si>
-  <si>
-    <t>8.0-5.9</t>
-  </si>
-  <si>
-    <t>7.5-6.5</t>
-  </si>
-  <si>
-    <t>7.3-6.6-0.1</t>
-  </si>
-  <si>
-    <t>6.8-7.1-0.1</t>
-  </si>
-  <si>
-    <t>5.7-8.2-0.1</t>
-  </si>
-  <si>
-    <t>5.7-8.3-0.1</t>
-  </si>
-  <si>
-    <t>5.6-8.4-0.1</t>
-  </si>
-  <si>
-    <t>4.5-9.4-0.1</t>
-  </si>
-  <si>
-    <t>10-4</t>
-  </si>
-  <si>
-    <t>9-5</t>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>10.6-3.3</t>
+  </si>
+  <si>
+    <t>8.0-5.9-0.1</t>
+  </si>
+  <si>
+    <t>7.9-6.0</t>
+  </si>
+  <si>
+    <t>7.2-6.8</t>
+  </si>
+  <si>
+    <t>6.7-7.3</t>
+  </si>
+  <si>
+    <t>6.5-7.5</t>
+  </si>
+  <si>
+    <t>6.5-7.5-0.1</t>
+  </si>
+  <si>
+    <t>6.1-7.8</t>
+  </si>
+  <si>
+    <t>5.9-8.0-0.1</t>
+  </si>
+  <si>
+    <t>4.3-9.6</t>
+  </si>
+  <si>
+    <t>11-3</t>
   </si>
   <si>
     <t>8-6</t>
@@ -246,49 +249,49 @@
     <t>Utkarsh Gupta</t>
   </si>
   <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
     <t>Vidhi Sethia</t>
   </si>
   <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
     <t>Harshit Aggarwal</t>
   </si>
   <si>
+    <t>Shihab Chowdhury</t>
+  </si>
+  <si>
     <t>Pawan Bhambhwani</t>
   </si>
   <si>
     <t>Kabir Manocha</t>
   </si>
   <si>
-    <t>Shihab Chowdhury</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↓3</t>
+    <t>↓4</t>
   </si>
   <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -307,6 +310,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -731,31 +737,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -763,34 +769,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -798,31 +804,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
@@ -833,25 +839,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -871,19 +877,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -892,10 +898,10 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" t="s">
         <v>11</v>
-      </c>
-      <c r="K6" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -903,34 +909,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -941,28 +947,28 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
       <c r="H8" t="s">
         <v>10</v>
       </c>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
         <v>10</v>
@@ -1011,13 +1017,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1029,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -1049,7 +1055,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -1061,16 +1067,16 @@
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" t="s">
         <v>15</v>
-      </c>
-      <c r="K11" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1088,13 +1094,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1102,13 +1108,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1119,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1130,10 +1136,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1144,13 +1150,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1158,13 +1164,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1175,10 +1181,10 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1189,10 +1195,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1203,10 +1209,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1217,10 +1223,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1231,7 +1237,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1252,16 +1258,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1272,7 +1278,7 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="D2">
         <v>-0.5</v>
@@ -1289,13 +1295,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="D3">
-        <v>0.7999999999999998</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1303,16 +1309,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D4">
-        <v>0.6000000000000001</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1320,16 +1326,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D5">
-        <v>-0.7000000000000002</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1337,16 +1343,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="D6">
-        <v>-0.7999999999999998</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1357,13 +1363,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D7">
-        <v>0.7999999999999998</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1374,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="D8">
-        <v>-0.3999999999999999</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1388,16 +1394,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1405,16 +1411,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="D10">
-        <v>0.2000000000000002</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1425,13 +1431,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="D11">
-        <v>-0.5</v>
+        <v>-0.3</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1449,40 +1455,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1490,25 +1496,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>65.90000000000001</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C2">
-        <v>21.1</v>
+        <v>12.3</v>
       </c>
       <c r="D2">
-        <v>7.4</v>
+        <v>3.7</v>
       </c>
       <c r="E2">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="F2">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1520,121 +1526,121 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>5.5</v>
+      </c>
+      <c r="C3">
+        <v>24.1</v>
+      </c>
+      <c r="D3">
+        <v>26.7</v>
+      </c>
+      <c r="E3">
+        <v>18.1</v>
+      </c>
+      <c r="F3">
+        <v>9.5</v>
+      </c>
+      <c r="G3">
+        <v>7.3</v>
+      </c>
+      <c r="H3">
+        <v>4.4</v>
+      </c>
+      <c r="I3">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>19.7</v>
-      </c>
-      <c r="C3">
-        <v>28.8</v>
-      </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>11.7</v>
-      </c>
-      <c r="F3">
-        <v>8.5</v>
-      </c>
-      <c r="G3">
-        <v>5.5</v>
-      </c>
-      <c r="H3">
-        <v>3.7</v>
-      </c>
-      <c r="I3">
-        <v>2.4</v>
-      </c>
       <c r="J3">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="K3">
         <v>0.2</v>
       </c>
       <c r="L3">
-        <v>92.2</v>
+        <v>91.2</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>5.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="C4">
-        <v>17.2</v>
+        <v>32.5</v>
       </c>
       <c r="D4">
         <v>19.1</v>
       </c>
       <c r="E4">
-        <v>17.3</v>
+        <v>12.9</v>
       </c>
       <c r="F4">
-        <v>14.9</v>
+        <v>10.3</v>
       </c>
       <c r="G4">
-        <v>11.7</v>
+        <v>7</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I4">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="J4">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="K4">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="L4">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="C5">
-        <v>11.3</v>
+        <v>8.4</v>
       </c>
       <c r="D5">
-        <v>20.8</v>
+        <v>11.8</v>
       </c>
       <c r="E5">
-        <v>18.7</v>
+        <v>14.4</v>
       </c>
       <c r="F5">
-        <v>17.3</v>
+        <v>14.3</v>
       </c>
       <c r="G5">
-        <v>13.7</v>
+        <v>15.8</v>
       </c>
       <c r="H5">
-        <v>6.3</v>
+        <v>11.7</v>
       </c>
       <c r="I5">
-        <v>4.8</v>
+        <v>10.2</v>
       </c>
       <c r="J5">
-        <v>2.1</v>
+        <v>9.4</v>
       </c>
       <c r="K5">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="L5">
-        <v>86</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1642,113 +1648,113 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="C6">
-        <v>12.5</v>
+        <v>7.2</v>
       </c>
       <c r="D6">
-        <v>15.8</v>
+        <v>11.3</v>
       </c>
       <c r="E6">
-        <v>18.3</v>
+        <v>13.6</v>
       </c>
       <c r="F6">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="G6">
-        <v>12.8</v>
+        <v>14.6</v>
       </c>
       <c r="H6">
+        <v>13.9</v>
+      </c>
+      <c r="I6">
         <v>11.4</v>
       </c>
-      <c r="I6">
-        <v>5.6</v>
-      </c>
       <c r="J6">
-        <v>4.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="L6">
-        <v>77.7</v>
+        <v>62.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="D7">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>14.8</v>
+        <v>14.2</v>
       </c>
       <c r="F7">
-        <v>14.2</v>
+        <v>13.5</v>
       </c>
       <c r="G7">
-        <v>15.2</v>
+        <v>13.6</v>
       </c>
       <c r="H7">
-        <v>14.9</v>
+        <v>12.5</v>
       </c>
       <c r="I7">
-        <v>13.2</v>
+        <v>13.5</v>
       </c>
       <c r="J7">
-        <v>8.1</v>
+        <v>10</v>
       </c>
       <c r="K7">
-        <v>3.8</v>
+        <v>6.1</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>2.2</v>
+        <v>6.1</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>8.6</v>
       </c>
       <c r="E8">
-        <v>5.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F8">
-        <v>9.300000000000001</v>
+        <v>14.1</v>
       </c>
       <c r="G8">
-        <v>12.3</v>
+        <v>14.4</v>
       </c>
       <c r="H8">
-        <v>15.9</v>
+        <v>15.6</v>
       </c>
       <c r="I8">
-        <v>17.6</v>
+        <v>15.6</v>
       </c>
       <c r="J8">
-        <v>18.9</v>
+        <v>11.2</v>
       </c>
       <c r="K8">
-        <v>13.4</v>
+        <v>4.9</v>
       </c>
       <c r="L8">
-        <v>34.2</v>
+        <v>52.7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1756,37 +1762,37 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="D9">
-        <v>2.4</v>
+        <v>5.4</v>
       </c>
       <c r="E9">
-        <v>5.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F9">
-        <v>8.300000000000001</v>
+        <v>11.9</v>
       </c>
       <c r="G9">
-        <v>13.2</v>
+        <v>14</v>
       </c>
       <c r="H9">
-        <v>18.2</v>
+        <v>16.3</v>
       </c>
       <c r="I9">
-        <v>21.1</v>
+        <v>17.2</v>
       </c>
       <c r="J9">
-        <v>18.7</v>
+        <v>16</v>
       </c>
       <c r="K9">
-        <v>11.8</v>
+        <v>8</v>
       </c>
       <c r="L9">
-        <v>30.2</v>
+        <v>42.5</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1794,37 +1800,37 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="D10">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="E10">
-        <v>3.9</v>
+        <v>7.4</v>
       </c>
       <c r="F10">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="G10">
-        <v>12.7</v>
+        <v>10.8</v>
       </c>
       <c r="H10">
-        <v>16.8</v>
+        <v>16.3</v>
       </c>
       <c r="I10">
-        <v>18.2</v>
+        <v>17.7</v>
       </c>
       <c r="J10">
-        <v>20.8</v>
+        <v>24.8</v>
       </c>
       <c r="K10">
-        <v>15.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L10">
-        <v>28.8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1835,34 +1841,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
         <v>0.4</v>
       </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
       <c r="F11">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="G11">
         <v>2.4</v>
       </c>
       <c r="H11">
-        <v>5.5</v>
+        <v>4.1</v>
       </c>
       <c r="I11">
-        <v>12.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J11">
-        <v>23.4</v>
+        <v>16.9</v>
       </c>
       <c r="K11">
-        <v>53</v>
+        <v>66.2</v>
       </c>
       <c r="L11">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -1872,140 +1878,155 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>63.9</v>
+        <v>61.9</v>
       </c>
       <c r="C2">
-        <v>96.39999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="D2">
         <v>99.90000000000001</v>
       </c>
       <c r="E2">
-        <v>99.90000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F2">
-        <v>98.7</v>
+        <v>99.2</v>
       </c>
       <c r="G2">
         <v>99.7</v>
       </c>
       <c r="H2">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>99.90000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+      <c r="C3">
+        <v>97.39999999999999</v>
+      </c>
+      <c r="D3">
+        <v>92.60000000000001</v>
+      </c>
+      <c r="E3">
+        <v>73.5</v>
+      </c>
+      <c r="F3">
+        <v>65.8</v>
+      </c>
+      <c r="G3">
+        <v>84.5</v>
+      </c>
+      <c r="H3">
+        <v>90.5</v>
+      </c>
+      <c r="I3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="C3">
-        <v>39.1</v>
-      </c>
-      <c r="D3">
+      <c r="B4">
+        <v>74.8</v>
+      </c>
+      <c r="C4">
+        <v>42.9</v>
+      </c>
+      <c r="D4">
         <v>16.1</v>
       </c>
-      <c r="E3">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="F3">
-        <v>83.2</v>
-      </c>
-      <c r="G3">
+      <c r="E4">
+        <v>80.7</v>
+      </c>
+      <c r="F4">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="G4">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="H4">
+        <v>88.8</v>
+      </c>
+      <c r="I4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
         <v>94.09999999999999</v>
       </c>
-      <c r="H3">
-        <v>90.40000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>94.3</v>
-      </c>
-      <c r="C4">
-        <v>34.4</v>
-      </c>
-      <c r="D4">
-        <v>51.8</v>
-      </c>
-      <c r="E4">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="F4">
-        <v>89.09999999999999</v>
-      </c>
-      <c r="G4">
-        <v>84.89999999999999</v>
-      </c>
-      <c r="H4">
-        <v>86.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>99</v>
-      </c>
       <c r="C5">
-        <v>97</v>
+        <v>36.1</v>
       </c>
       <c r="D5">
-        <v>90.8</v>
+        <v>49</v>
       </c>
       <c r="E5">
-        <v>74.2</v>
+        <v>83.3</v>
       </c>
       <c r="F5">
-        <v>64.5</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="G5">
-        <v>85.59999999999999</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="H5">
-        <v>83.89999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="I5">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2013,103 +2034,115 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>96.2</v>
+        <v>96.8</v>
       </c>
       <c r="D6">
-        <v>82.59999999999999</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="E6">
-        <v>61.5</v>
+        <v>63.1</v>
       </c>
       <c r="F6">
-        <v>75.40000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="G6">
-        <v>78.7</v>
+        <v>80.80000000000001</v>
       </c>
       <c r="H6">
-        <v>79.90000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="I6">
+        <v>60.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>14</v>
+      </c>
+      <c r="C7">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="D7">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E7">
+        <v>38.3</v>
+      </c>
+      <c r="F7">
+        <v>15.4</v>
+      </c>
+      <c r="G7">
+        <v>36.3</v>
+      </c>
+      <c r="H7">
+        <v>56.49999999999999</v>
+      </c>
+      <c r="I7">
+        <v>56.59999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
-        <v>46.8</v>
-      </c>
-      <c r="C7">
-        <v>90.7</v>
-      </c>
-      <c r="D7">
-        <v>89.60000000000001</v>
-      </c>
-      <c r="E7">
-        <v>92.2</v>
-      </c>
-      <c r="F7">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="G7">
-        <v>60.4</v>
-      </c>
-      <c r="H7">
-        <v>63.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B8">
-        <v>16.4</v>
+        <v>53</v>
       </c>
       <c r="C8">
-        <v>1.1</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="D8">
-        <v>72.59999999999999</v>
+        <v>89</v>
       </c>
       <c r="E8">
-        <v>39.90000000000001</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="F8">
-        <v>15.4</v>
+        <v>81.5</v>
       </c>
       <c r="G8">
-        <v>33.6</v>
+        <v>58.7</v>
       </c>
       <c r="H8">
-        <v>31.6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>55.2</v>
+      </c>
+      <c r="I8">
+        <v>54.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>91.2</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="C9">
-        <v>70.3</v>
+        <v>66.7</v>
       </c>
       <c r="D9">
-        <v>46.8</v>
+        <v>43.8</v>
       </c>
       <c r="E9">
-        <v>27.5</v>
+        <v>30.7</v>
       </c>
       <c r="F9">
-        <v>48.6</v>
+        <v>48.2</v>
       </c>
       <c r="G9">
-        <v>29.8</v>
+        <v>28.2</v>
       </c>
       <c r="H9">
-        <v>30.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>41.8</v>
+      </c>
+      <c r="I9">
+        <v>40.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -2117,48 +2150,54 @@
         <v>10.4</v>
       </c>
       <c r="C10">
-        <v>58.59999999999999</v>
+        <v>54.7</v>
       </c>
       <c r="D10">
-        <v>43.1</v>
+        <v>46.7</v>
       </c>
       <c r="E10">
-        <v>14.9</v>
+        <v>12.2</v>
       </c>
       <c r="F10">
-        <v>35.2</v>
+        <v>34.7</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>27.9</v>
       </c>
       <c r="H10">
-        <v>27.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>37.1</v>
+      </c>
+      <c r="I10">
+        <v>33.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C11">
-        <v>16.2</v>
+        <v>16.6</v>
       </c>
       <c r="D11">
-        <v>6.7</v>
+        <v>9.1</v>
       </c>
       <c r="E11">
-        <v>26.4</v>
+        <v>25.5</v>
       </c>
       <c r="F11">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="G11">
-        <v>6.2</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="H11">
-        <v>6.7</v>
+        <v>6.1</v>
+      </c>
+      <c r="I11">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -2176,28 +2215,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2205,103 +2244,103 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C2">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D2">
-        <v>138.8633333333333</v>
+        <v>142.3714285714286</v>
       </c>
       <c r="E2">
-        <v>833.1800000000001</v>
+        <v>996.6</v>
       </c>
       <c r="F2">
-        <v>99.7</v>
+        <v>99.8</v>
       </c>
       <c r="G2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D3">
-        <v>133.9966666666667</v>
+        <v>126.1742857142857</v>
       </c>
       <c r="E3">
-        <v>803.98</v>
+        <v>883.22</v>
       </c>
       <c r="F3">
-        <v>92.2</v>
+        <v>91.2</v>
       </c>
       <c r="G3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D4">
-        <v>117.36</v>
+        <v>134.4342857142857</v>
       </c>
       <c r="E4">
-        <v>704.16</v>
+        <v>941.04</v>
       </c>
       <c r="F4">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D5">
-        <v>124.13</v>
+        <v>112.7142857142857</v>
       </c>
       <c r="E5">
-        <v>744.78</v>
+        <v>789</v>
       </c>
       <c r="F5">
-        <v>86</v>
+        <v>66.2</v>
       </c>
       <c r="G5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2309,77 +2348,77 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D6">
-        <v>123.6</v>
+        <v>119.8742857142857</v>
       </c>
       <c r="E6">
-        <v>741.6</v>
+        <v>839.12</v>
       </c>
       <c r="F6">
-        <v>77.7</v>
+        <v>62.2</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D7">
-        <v>114.4633333333333</v>
+        <v>120.2</v>
       </c>
       <c r="E7">
-        <v>686.78</v>
+        <v>841.4</v>
       </c>
       <c r="F7">
-        <v>60</v>
+        <v>57.9</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C8">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D8">
-        <v>113.1433333333333</v>
+        <v>117.2514285714286</v>
       </c>
       <c r="E8">
-        <v>678.86</v>
+        <v>820.76</v>
       </c>
       <c r="F8">
-        <v>34.2</v>
+        <v>52.7</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2387,25 +2426,25 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D9">
-        <v>112.95</v>
+        <v>114.9942857142857</v>
       </c>
       <c r="E9">
-        <v>677.7</v>
+        <v>804.96</v>
       </c>
       <c r="F9">
-        <v>30.2</v>
+        <v>42.5</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2413,25 +2452,25 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D10">
-        <v>111.4066666666667</v>
+        <v>113.0171428571429</v>
       </c>
       <c r="E10">
-        <v>668.4400000000001</v>
+        <v>791.1200000000001</v>
       </c>
       <c r="F10">
-        <v>28.8</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -2439,25 +2478,25 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D11">
-        <v>96.78000000000002</v>
+        <v>100.2628571428571</v>
       </c>
       <c r="E11">
-        <v>580.6800000000001</v>
+        <v>701.84</v>
       </c>
       <c r="F11">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2475,19 +2514,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2498,16 +2537,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2518,7 +2557,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -2527,7 +2566,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2538,16 +2577,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2555,19 +2594,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2575,19 +2614,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2595,19 +2634,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2618,16 +2657,16 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D8">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2635,19 +2674,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D9">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2655,19 +2694,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2675,19 +2714,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D11">
         <v>-13</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2696,6 +2735,335 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>12</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>-6</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>-5</v>
+      </c>
+      <c r="C6">
+        <v>-2</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>-6</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>-7</v>
+      </c>
+      <c r="C8">
+        <v>-5</v>
+      </c>
+      <c r="D8">
+        <v>-7</v>
+      </c>
+      <c r="E8">
+        <v>-8</v>
+      </c>
+      <c r="F8">
+        <v>-5</v>
+      </c>
+      <c r="G8">
+        <v>-2</v>
+      </c>
+      <c r="H8">
+        <v>-6</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
+        <v>-11</v>
+      </c>
+      <c r="E9">
+        <v>-10</v>
+      </c>
+      <c r="F9">
+        <v>-17</v>
+      </c>
+      <c r="G9">
+        <v>-13</v>
+      </c>
+      <c r="H9">
+        <v>-10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>-6</v>
+      </c>
+      <c r="D10">
+        <v>-6</v>
+      </c>
+      <c r="E10">
+        <v>-5</v>
+      </c>
+      <c r="F10">
+        <v>-8</v>
+      </c>
+      <c r="G10">
+        <v>-6</v>
+      </c>
+      <c r="H10">
+        <v>-13</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>-2</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-2</v>
+      </c>
+      <c r="E11">
+        <v>-2</v>
+      </c>
+      <c r="F11">
+        <v>-8</v>
+      </c>
+      <c r="G11">
+        <v>-7</v>
+      </c>
+      <c r="H11">
+        <v>-13</v>
+      </c>
+      <c r="I11" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -2705,321 +3073,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2">
-        <v>12</v>
-      </c>
-      <c r="G2">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>-5</v>
-      </c>
-      <c r="C5">
-        <v>-2</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>4</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>-2</v>
-      </c>
-      <c r="C7">
-        <v>-2</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7">
-        <v>-6</v>
-      </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>-7</v>
-      </c>
-      <c r="C8">
-        <v>-5</v>
-      </c>
-      <c r="D8">
-        <v>-7</v>
-      </c>
-      <c r="E8">
-        <v>-8</v>
-      </c>
-      <c r="F8">
-        <v>-5</v>
-      </c>
-      <c r="G8">
-        <v>-2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>-6</v>
-      </c>
-      <c r="D9">
-        <v>-6</v>
-      </c>
-      <c r="E9">
-        <v>-5</v>
-      </c>
-      <c r="F9">
-        <v>-8</v>
-      </c>
-      <c r="G9">
-        <v>-6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>-2</v>
-      </c>
-      <c r="C10">
-        <v>-1</v>
-      </c>
-      <c r="D10">
-        <v>-2</v>
-      </c>
-      <c r="E10">
-        <v>-2</v>
-      </c>
-      <c r="F10">
-        <v>-8</v>
-      </c>
-      <c r="G10">
-        <v>-7</v>
-      </c>
-      <c r="H10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>-2</v>
-      </c>
-      <c r="D11">
-        <v>-11</v>
-      </c>
-      <c r="E11">
-        <v>-10</v>
-      </c>
-      <c r="F11">
-        <v>-17</v>
-      </c>
-      <c r="G11">
-        <v>-13</v>
-      </c>
-      <c r="H11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3027,25 +3099,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="E2">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F2">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="G2">
         <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3053,25 +3125,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
       <c r="E3">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>-2</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3157,22 +3229,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7" t="s">
         <v>7</v>
@@ -3209,25 +3281,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3235,24 +3307,50 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
         <v>3</v>
       </c>
       <c r="E10">
+        <v>-7</v>
+      </c>
+      <c r="F10">
+        <v>-13</v>
+      </c>
+      <c r="G10">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
         <v>-8</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>-10</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>3</v>
       </c>
     </row>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="105">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -168,6 +168,9 @@
     <t>Playoff_Chance_Pct</t>
   </si>
   <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
     <t>Expected_Final_Record</t>
   </si>
   <si>
@@ -186,31 +189,31 @@
     <t>2-5</t>
   </si>
   <si>
-    <t>10.6-3.3</t>
+    <t>10.7-3.2</t>
   </si>
   <si>
     <t>8.0-5.9-0.1</t>
   </si>
   <si>
-    <t>7.9-6.0</t>
-  </si>
-  <si>
-    <t>7.2-6.8</t>
-  </si>
-  <si>
-    <t>6.7-7.3</t>
-  </si>
-  <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>6.5-7.5-0.1</t>
-  </si>
-  <si>
-    <t>6.1-7.8</t>
-  </si>
-  <si>
-    <t>5.9-8.0-0.1</t>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>7.1-6.9</t>
+  </si>
+  <si>
+    <t>6.6-7.3-0.1</t>
+  </si>
+  <si>
+    <t>6.5-7.4</t>
+  </si>
+  <si>
+    <t>6.4-7.5</t>
+  </si>
+  <si>
+    <t>6.1-7.8-0.1</t>
+  </si>
+  <si>
+    <t>5.9-8.0</t>
   </si>
   <si>
     <t>4.3-9.6</t>
@@ -1496,25 +1499,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>82.40000000000001</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C2">
-        <v>12.3</v>
+        <v>10.6</v>
       </c>
       <c r="D2">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="E2">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -1526,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>99.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1534,37 +1537,37 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>5.5</v>
+        <v>4.2</v>
       </c>
       <c r="C3">
-        <v>24.1</v>
+        <v>26.4</v>
       </c>
       <c r="D3">
-        <v>26.7</v>
+        <v>25.5</v>
       </c>
       <c r="E3">
-        <v>18.1</v>
+        <v>19</v>
       </c>
       <c r="F3">
-        <v>9.5</v>
+        <v>10.2</v>
       </c>
       <c r="G3">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="H3">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="J3">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="K3">
         <v>0.2</v>
       </c>
       <c r="L3">
-        <v>91.2</v>
+        <v>92.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1575,34 +1578,34 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4">
-        <v>32.5</v>
+        <v>31.8</v>
       </c>
       <c r="D4">
-        <v>19.1</v>
+        <v>21.5</v>
       </c>
       <c r="E4">
-        <v>12.9</v>
+        <v>14.4</v>
       </c>
       <c r="F4">
-        <v>10.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="I4">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="J4">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L4">
-        <v>90</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1610,37 +1613,37 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="C5">
-        <v>8.4</v>
+        <v>7.7</v>
       </c>
       <c r="D5">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E5">
-        <v>14.4</v>
+        <v>13.5</v>
       </c>
       <c r="F5">
-        <v>14.3</v>
+        <v>14.5</v>
       </c>
       <c r="G5">
-        <v>15.8</v>
+        <v>14.7</v>
       </c>
       <c r="H5">
-        <v>11.7</v>
+        <v>13.3</v>
       </c>
       <c r="I5">
-        <v>10.2</v>
+        <v>12</v>
       </c>
       <c r="J5">
-        <v>9.4</v>
+        <v>8</v>
       </c>
       <c r="K5">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>66.2</v>
+        <v>63.3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1648,37 +1651,37 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C6">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="D6">
-        <v>11.3</v>
+        <v>8.9</v>
       </c>
       <c r="E6">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="F6">
-        <v>15.2</v>
+        <v>14.4</v>
       </c>
       <c r="G6">
-        <v>14.6</v>
+        <v>16.4</v>
       </c>
       <c r="H6">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="I6">
-        <v>11.4</v>
+        <v>13.1</v>
       </c>
       <c r="J6">
-        <v>8.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K6">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="L6">
-        <v>62.2</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1686,37 +1689,37 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>7.9</v>
       </c>
       <c r="D7">
-        <v>9</v>
+        <v>11.1</v>
       </c>
       <c r="E7">
-        <v>14.2</v>
+        <v>13.3</v>
       </c>
       <c r="F7">
-        <v>13.5</v>
+        <v>11.9</v>
       </c>
       <c r="G7">
-        <v>13.6</v>
+        <v>12.8</v>
       </c>
       <c r="H7">
-        <v>12.5</v>
+        <v>13.4</v>
       </c>
       <c r="I7">
-        <v>13.5</v>
+        <v>12.8</v>
       </c>
       <c r="J7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K7">
-        <v>6.1</v>
+        <v>5.1</v>
       </c>
       <c r="L7">
-        <v>57.9</v>
+        <v>57.7</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1724,37 +1727,37 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <v>6.1</v>
+        <v>4.6</v>
       </c>
       <c r="D8">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="E8">
-        <v>9.300000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="F8">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="G8">
-        <v>14.4</v>
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>15.6</v>
+        <v>14.8</v>
       </c>
       <c r="I8">
-        <v>15.6</v>
+        <v>13.6</v>
       </c>
       <c r="J8">
-        <v>11.2</v>
+        <v>12.7</v>
       </c>
       <c r="K8">
-        <v>4.9</v>
+        <v>5.8</v>
       </c>
       <c r="L8">
-        <v>52.7</v>
+        <v>53.1</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1762,37 +1765,37 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="E9">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F9">
-        <v>11.9</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>12.9</v>
       </c>
       <c r="H9">
         <v>16.3</v>
       </c>
       <c r="I9">
-        <v>17.2</v>
+        <v>16.2</v>
       </c>
       <c r="J9">
-        <v>16</v>
+        <v>17.1</v>
       </c>
       <c r="K9">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="L9">
-        <v>42.5</v>
+        <v>42.6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1803,34 +1806,34 @@
         <v>0.3</v>
       </c>
       <c r="C10">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="D10">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="E10">
-        <v>7.4</v>
+        <v>5.3</v>
       </c>
       <c r="F10">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G10">
-        <v>10.8</v>
+        <v>13.4</v>
       </c>
       <c r="H10">
-        <v>16.3</v>
+        <v>15.5</v>
       </c>
       <c r="I10">
-        <v>17.7</v>
+        <v>18.5</v>
       </c>
       <c r="J10">
-        <v>24.8</v>
+        <v>23.1</v>
       </c>
       <c r="K10">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="L10">
-        <v>33</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1841,34 +1844,34 @@
         <v>0</v>
       </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>0.1</v>
       </c>
-      <c r="D11">
-        <v>0.2</v>
-      </c>
       <c r="E11">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="F11">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="G11">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H11">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I11">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J11">
-        <v>16.9</v>
+        <v>16.5</v>
       </c>
       <c r="K11">
-        <v>66.2</v>
+        <v>66.3</v>
       </c>
       <c r="L11">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
@@ -1915,86 +1918,86 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>61.9</v>
+        <v>63.9</v>
       </c>
       <c r="C2">
-        <v>97.3</v>
+        <v>96.7</v>
       </c>
       <c r="D2">
         <v>99.90000000000001</v>
       </c>
       <c r="E2">
-        <v>99.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F2">
-        <v>99.2</v>
+        <v>98.8</v>
       </c>
       <c r="G2">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="H2">
+        <v>99.8</v>
+      </c>
+      <c r="I2">
         <v>100</v>
-      </c>
-      <c r="I2">
-        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>99</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="C3">
-        <v>97.39999999999999</v>
+        <v>41.2</v>
       </c>
       <c r="D3">
-        <v>92.60000000000001</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>73.5</v>
+        <v>80.80000000000001</v>
       </c>
       <c r="F3">
-        <v>65.8</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="G3">
-        <v>84.5</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H3">
-        <v>90.5</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="I3">
-        <v>92</v>
+        <v>91.5</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>74.8</v>
+        <v>99.2</v>
       </c>
       <c r="C4">
-        <v>42.9</v>
+        <v>97.5</v>
       </c>
       <c r="D4">
-        <v>16.1</v>
+        <v>93.7</v>
       </c>
       <c r="E4">
-        <v>80.7</v>
+        <v>74.5</v>
       </c>
       <c r="F4">
-        <v>83.59999999999999</v>
+        <v>65.10000000000001</v>
       </c>
       <c r="G4">
-        <v>92.90000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="H4">
         <v>88.8</v>
       </c>
       <c r="I4">
-        <v>89</v>
+        <v>91.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2002,28 +2005,28 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>94.09999999999999</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="C5">
-        <v>36.1</v>
+        <v>37.4</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>49.8</v>
       </c>
       <c r="E5">
-        <v>83.3</v>
+        <v>84</v>
       </c>
       <c r="F5">
-        <v>87.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="G5">
-        <v>84.39999999999999</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="H5">
-        <v>65.40000000000001</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="I5">
-        <v>67.2</v>
+        <v>67.10000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2034,83 +2037,83 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>96.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D6">
-        <v>82.69999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="E6">
-        <v>63.1</v>
+        <v>64.7</v>
       </c>
       <c r="F6">
-        <v>73.7</v>
+        <v>73.3</v>
       </c>
       <c r="G6">
-        <v>80.80000000000001</v>
+        <v>80.7</v>
       </c>
       <c r="H6">
-        <v>58.59999999999999</v>
+        <v>55.8</v>
       </c>
       <c r="I6">
-        <v>60.6</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C7">
-        <v>0.8999999999999999</v>
+        <v>88.5</v>
       </c>
       <c r="D7">
-        <v>71.09999999999999</v>
+        <v>87.3</v>
       </c>
       <c r="E7">
-        <v>38.3</v>
+        <v>91.7</v>
       </c>
       <c r="F7">
-        <v>15.4</v>
+        <v>81.2</v>
       </c>
       <c r="G7">
-        <v>36.3</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="H7">
-        <v>56.49999999999999</v>
+        <v>57.7</v>
       </c>
       <c r="I7">
-        <v>56.59999999999999</v>
+        <v>55.1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>53</v>
+        <v>15.2</v>
       </c>
       <c r="C8">
-        <v>90.60000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D8">
-        <v>89</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="E8">
-        <v>93.10000000000001</v>
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>81.5</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>58.7</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="H8">
-        <v>55.2</v>
+        <v>57.9</v>
       </c>
       <c r="I8">
-        <v>54.8</v>
+        <v>54.50000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2118,28 +2121,28 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>92.60000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="C9">
-        <v>66.7</v>
+        <v>66.10000000000001</v>
       </c>
       <c r="D9">
-        <v>43.8</v>
+        <v>44.2</v>
       </c>
       <c r="E9">
-        <v>30.7</v>
+        <v>29.1</v>
       </c>
       <c r="F9">
-        <v>48.2</v>
+        <v>49.4</v>
       </c>
       <c r="G9">
-        <v>28.2</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>41.8</v>
+        <v>40.6</v>
       </c>
       <c r="I9">
-        <v>40.7</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2147,28 +2150,28 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>10.4</v>
+        <v>10.1</v>
       </c>
       <c r="C10">
-        <v>54.7</v>
+        <v>56.89999999999999</v>
       </c>
       <c r="D10">
-        <v>46.7</v>
+        <v>47.7</v>
       </c>
       <c r="E10">
-        <v>12.2</v>
+        <v>13.3</v>
       </c>
       <c r="F10">
-        <v>34.7</v>
+        <v>35.8</v>
       </c>
       <c r="G10">
-        <v>27.9</v>
+        <v>24.9</v>
       </c>
       <c r="H10">
-        <v>37.1</v>
+        <v>39.5</v>
       </c>
       <c r="I10">
-        <v>33.7</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2176,28 +2179,28 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C11">
-        <v>16.6</v>
+        <v>18</v>
       </c>
       <c r="D11">
-        <v>9.1</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E11">
-        <v>25.5</v>
+        <v>24.4</v>
       </c>
       <c r="F11">
         <v>10.5</v>
       </c>
       <c r="G11">
-        <v>6.600000000000001</v>
+        <v>6.2</v>
       </c>
       <c r="H11">
-        <v>6.1</v>
+        <v>5.2</v>
       </c>
       <c r="I11">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -2207,13 +2210,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -2238,13 +2241,16 @@
       <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C2">
         <v>0.8571428571428571</v>
@@ -2256,21 +2262,24 @@
         <v>996.6</v>
       </c>
       <c r="F2">
-        <v>99.8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>54</v>
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="I2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>0.5714285714285714</v>
@@ -2282,21 +2291,24 @@
         <v>883.22</v>
       </c>
       <c r="F3">
-        <v>91.2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
+        <v>92.10000000000001</v>
+      </c>
+      <c r="G3">
+        <v>0.2</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>0.5714285714285714</v>
@@ -2308,21 +2320,24 @@
         <v>941.04</v>
       </c>
       <c r="F4">
-        <v>90</v>
-      </c>
-      <c r="G4" t="s">
-        <v>56</v>
+        <v>91.40000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>0.5714285714285714</v>
@@ -2334,21 +2349,24 @@
         <v>789</v>
       </c>
       <c r="F5">
-        <v>66.2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
+        <v>63.3</v>
+      </c>
+      <c r="G5">
+        <v>3.4</v>
       </c>
       <c r="H5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6">
         <v>0.4285714285714285</v>
@@ -2360,21 +2378,24 @@
         <v>839.12</v>
       </c>
       <c r="F6">
-        <v>62.2</v>
-      </c>
-      <c r="G6" t="s">
-        <v>58</v>
+        <v>60.8</v>
+      </c>
+      <c r="G6">
+        <v>2.8</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>59</v>
+      </c>
+      <c r="I6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>0.4285714285714285</v>
@@ -2386,21 +2407,24 @@
         <v>841.4</v>
       </c>
       <c r="F7">
-        <v>57.9</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
+        <v>57.7</v>
+      </c>
+      <c r="G7">
+        <v>5.1</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>0.4285714285714285</v>
@@ -2412,21 +2436,24 @@
         <v>820.76</v>
       </c>
       <c r="F8">
-        <v>52.7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>60</v>
+        <v>53.1</v>
+      </c>
+      <c r="G8">
+        <v>5.800000000000001</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>61</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C9">
         <v>0.4285714285714285</v>
@@ -2438,21 +2465,24 @@
         <v>804.96</v>
       </c>
       <c r="F9">
-        <v>42.5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>61</v>
+        <v>42.6</v>
+      </c>
+      <c r="G9">
+        <v>7.8</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>62</v>
+      </c>
+      <c r="I9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -2464,21 +2494,24 @@
         <v>791.1200000000001</v>
       </c>
       <c r="F10">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>62</v>
+        <v>34.8</v>
+      </c>
+      <c r="G10">
+        <v>8.1</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -2490,13 +2523,16 @@
         <v>701.84</v>
       </c>
       <c r="F11">
-        <v>4.5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>63</v>
+        <v>4.2</v>
+      </c>
+      <c r="G11">
+        <v>66.3</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>64</v>
+      </c>
+      <c r="I11" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2517,16 +2553,16 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2537,7 +2573,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2">
         <v>23</v>
@@ -2546,7 +2582,7 @@
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2557,7 +2593,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -2566,7 +2602,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2577,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -2586,7 +2622,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2597,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -2606,7 +2642,7 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2617,7 +2653,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -2626,7 +2662,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2637,7 +2673,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7">
         <v>-6</v>
@@ -2646,7 +2682,7 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2657,7 +2693,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8">
         <v>-6</v>
@@ -2666,7 +2702,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2677,7 +2713,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>-10</v>
@@ -2686,7 +2722,7 @@
         <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2697,7 +2733,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D10">
         <v>-13</v>
@@ -2706,7 +2742,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2717,7 +2753,7 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D11">
         <v>-13</v>
@@ -2726,7 +2762,7 @@
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2744,28 +2780,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2794,7 +2830,7 @@
         <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2823,7 +2859,7 @@
         <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2852,7 +2888,7 @@
         <v>5</v>
       </c>
       <c r="I4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2881,7 +2917,7 @@
         <v>5</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2910,7 +2946,7 @@
         <v>4</v>
       </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2939,7 +2975,7 @@
         <v>-6</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2968,7 +3004,7 @@
         <v>-6</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2997,7 +3033,7 @@
         <v>-10</v>
       </c>
       <c r="I9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3026,7 +3062,7 @@
         <v>-13</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3055,7 +3091,7 @@
         <v>-13</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3073,25 +3109,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="108">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -54,28 +54,28 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>8-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -153,6 +153,9 @@
     <t>Week_8</t>
   </si>
   <si>
+    <t>Week_9</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -177,46 +180,46 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>10.7-3.2</t>
-  </si>
-  <si>
-    <t>8.0-5.9-0.1</t>
-  </si>
-  <si>
-    <t>8.0-6.0</t>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>10.9-3.1</t>
+  </si>
+  <si>
+    <t>8.5-5.4</t>
+  </si>
+  <si>
+    <t>8.4-5.6</t>
   </si>
   <si>
     <t>7.1-6.9</t>
   </si>
   <si>
-    <t>6.6-7.3-0.1</t>
-  </si>
-  <si>
-    <t>6.5-7.4</t>
-  </si>
-  <si>
-    <t>6.4-7.5</t>
-  </si>
-  <si>
-    <t>6.1-7.8-0.1</t>
-  </si>
-  <si>
-    <t>5.9-8.0</t>
-  </si>
-  <si>
-    <t>4.3-9.6</t>
+    <t>6.6-7.4</t>
+  </si>
+  <si>
+    <t>5.9-8.1</t>
+  </si>
+  <si>
+    <t>6.0-7.9</t>
+  </si>
+  <si>
+    <t>5.5-8.4</t>
+  </si>
+  <si>
+    <t>5.5-8.5</t>
+  </si>
+  <si>
+    <t>5.4-8.5</t>
   </si>
   <si>
     <t>11-3</t>
@@ -225,13 +228,16 @@
     <t>8-6</t>
   </si>
   <si>
+    <t>9-5</t>
+  </si>
+  <si>
     <t>7-7</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>4-10</t>
+    <t>5-9</t>
   </si>
   <si>
     <t>Owners</t>
@@ -249,54 +255,54 @@
     <t>Saurin Sethia</t>
   </si>
   <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>Vidhi Sethia</t>
+  </si>
+  <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
-    <t>Vidhi Sethia</t>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Kabir Manocha</t>
   </si>
   <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
     <t>Shihab Chowdhury</t>
   </si>
   <si>
     <t>Pawan Bhambhwani</t>
   </si>
   <si>
-    <t>Kabir Manocha</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
     <t>↑3</t>
   </si>
   <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -316,6 +322,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -740,7 +749,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -752,19 +761,19 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
       <c r="I2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -772,25 +781,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I3" t="s">
         <v>15</v>
@@ -807,34 +816,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I4" t="s">
         <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -842,10 +851,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -854,22 +863,22 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -880,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -892,19 +901,19 @@
         <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -912,7 +921,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -921,10 +930,10 @@
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -936,10 +945,10 @@
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -947,7 +956,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -962,19 +971,19 @@
         <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -982,19 +991,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -1006,7 +1015,7 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -1020,13 +1029,13 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1038,10 +1047,10 @@
         <v>10</v>
       </c>
       <c r="I10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K10" t="s">
         <v>10</v>
@@ -1052,10 +1061,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -1064,16 +1073,16 @@
         <v>16</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
         <v>17</v>
@@ -1111,10 +1120,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1125,10 +1134,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1139,10 +1148,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1153,13 +1162,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1167,13 +1176,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1184,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1198,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1212,10 +1221,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1226,7 +1235,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -1240,7 +1249,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
@@ -1281,10 +1290,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>5.5</v>
+        <v>6.3</v>
       </c>
       <c r="D2">
-        <v>-0.5</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E2" t="s">
         <v>16</v>
@@ -1298,7 +1307,7 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="D3">
         <v>0.5999999999999996</v>
@@ -1315,10 +1324,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="D4">
-        <v>-0.2000000000000002</v>
+        <v>-0.5999999999999996</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -1332,13 +1341,13 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D5">
-        <v>0.7000000000000002</v>
+        <v>0.2000000000000002</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1346,16 +1355,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D6">
-        <v>-0.7000000000000002</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1363,13 +1372,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D7">
-        <v>0.2999999999999998</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1380,13 +1389,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="D8">
-        <v>0.1000000000000001</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1397,16 +1406,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D9">
-        <v>0.1000000000000001</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1417,10 +1426,10 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D10">
-        <v>-0.1000000000000001</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1434,13 +1443,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="D11">
-        <v>-0.3</v>
+        <v>-0.3999999999999999</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1499,22 +1508,22 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>84.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="C2">
-        <v>10.6</v>
+        <v>11.9</v>
       </c>
       <c r="D2">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="F2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1537,37 +1546,37 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>4.2</v>
+        <v>5.8</v>
       </c>
       <c r="C3">
-        <v>26.4</v>
+        <v>37.2</v>
       </c>
       <c r="D3">
-        <v>25.5</v>
+        <v>34.2</v>
       </c>
       <c r="E3">
-        <v>19</v>
+        <v>13.6</v>
       </c>
       <c r="F3">
-        <v>10.2</v>
+        <v>5.4</v>
       </c>
       <c r="G3">
-        <v>6.8</v>
+        <v>2.4</v>
       </c>
       <c r="H3">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
-        <v>2.6</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="K3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>92.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1575,113 +1584,113 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8.199999999999999</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C4">
-        <v>31.8</v>
+        <v>36.1</v>
       </c>
       <c r="D4">
-        <v>21.5</v>
+        <v>28.8</v>
       </c>
       <c r="E4">
-        <v>14.4</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>9.699999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="G4">
-        <v>5.8</v>
+        <v>4.8</v>
       </c>
       <c r="H4">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="I4">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="J4">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="K4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="L4">
-        <v>91.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="C5">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="D5">
-        <v>12.1</v>
+        <v>14.1</v>
       </c>
       <c r="E5">
-        <v>13.5</v>
+        <v>23.8</v>
       </c>
       <c r="F5">
-        <v>14.5</v>
+        <v>18.1</v>
       </c>
       <c r="G5">
-        <v>14.7</v>
+        <v>12.7</v>
       </c>
       <c r="H5">
-        <v>13.3</v>
+        <v>9.9</v>
       </c>
       <c r="I5">
-        <v>12</v>
+        <v>5.8</v>
       </c>
       <c r="J5">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="K5">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="L5">
-        <v>63.3</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
-        <v>6.9</v>
+        <v>2.7</v>
       </c>
       <c r="D6">
-        <v>8.9</v>
+        <v>5.8</v>
       </c>
       <c r="E6">
-        <v>13.7</v>
+        <v>12.9</v>
       </c>
       <c r="F6">
-        <v>14.4</v>
+        <v>16.1</v>
       </c>
       <c r="G6">
         <v>16.4</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>12.2</v>
       </c>
       <c r="I6">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="J6">
-        <v>9.300000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="K6">
-        <v>2.8</v>
+        <v>8.9</v>
       </c>
       <c r="L6">
-        <v>60.8</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1689,37 +1698,37 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="C7">
-        <v>7.9</v>
+        <v>2.3</v>
       </c>
       <c r="D7">
-        <v>11.1</v>
+        <v>5.6</v>
       </c>
       <c r="E7">
-        <v>13.3</v>
+        <v>12.5</v>
       </c>
       <c r="F7">
-        <v>11.9</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>12.8</v>
+        <v>15.9</v>
       </c>
       <c r="H7">
-        <v>13.4</v>
+        <v>15.5</v>
       </c>
       <c r="I7">
-        <v>12.8</v>
+        <v>13.9</v>
       </c>
       <c r="J7">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="K7">
-        <v>5.1</v>
+        <v>9.9</v>
       </c>
       <c r="L7">
-        <v>57.7</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1727,37 +1736,37 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="D8">
-        <v>8.4</v>
+        <v>4.5</v>
       </c>
       <c r="E8">
-        <v>10.4</v>
+        <v>10.8</v>
       </c>
       <c r="F8">
+        <v>16.2</v>
+      </c>
+      <c r="G8">
+        <v>15.2</v>
+      </c>
+      <c r="H8">
+        <v>15.8</v>
+      </c>
+      <c r="I8">
         <v>14.4</v>
       </c>
-      <c r="G8">
-        <v>15</v>
-      </c>
-      <c r="H8">
-        <v>14.8</v>
-      </c>
-      <c r="I8">
-        <v>13.6</v>
-      </c>
       <c r="J8">
-        <v>12.7</v>
+        <v>11.5</v>
       </c>
       <c r="K8">
-        <v>5.8</v>
+        <v>10.5</v>
       </c>
       <c r="L8">
-        <v>53.1</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1765,37 +1774,37 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="E9">
-        <v>8.699999999999999</v>
+        <v>4.7</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G9">
-        <v>12.9</v>
+        <v>13.3</v>
       </c>
       <c r="H9">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="I9">
-        <v>16.2</v>
+        <v>18</v>
       </c>
       <c r="J9">
-        <v>17.1</v>
+        <v>20.7</v>
       </c>
       <c r="K9">
-        <v>7.8</v>
+        <v>17.2</v>
       </c>
       <c r="L9">
-        <v>42.6</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1803,37 +1812,37 @@
         <v>4</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>0.3</v>
       </c>
-      <c r="C10">
-        <v>2.1</v>
-      </c>
       <c r="D10">
-        <v>4.4</v>
+        <v>1.6</v>
       </c>
       <c r="E10">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="F10">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="G10">
-        <v>13.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H10">
-        <v>15.5</v>
+        <v>15.2</v>
       </c>
       <c r="I10">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="J10">
-        <v>23.1</v>
+        <v>19.8</v>
       </c>
       <c r="K10">
-        <v>8.1</v>
+        <v>20.4</v>
       </c>
       <c r="L10">
-        <v>34.8</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1844,34 +1853,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="E11">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="F11">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="G11">
-        <v>1.9</v>
+        <v>9.6</v>
       </c>
       <c r="H11">
-        <v>4.2</v>
+        <v>11.7</v>
       </c>
       <c r="I11">
-        <v>8.800000000000001</v>
+        <v>14.2</v>
       </c>
       <c r="J11">
-        <v>16.5</v>
+        <v>18.8</v>
       </c>
       <c r="K11">
-        <v>66.3</v>
+        <v>31.2</v>
       </c>
       <c r="L11">
-        <v>4.2</v>
+        <v>24.1</v>
       </c>
     </row>
   </sheetData>
@@ -1881,13 +1890,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1912,295 +1921,328 @@
       <c r="I1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>63.9</v>
+        <v>62.1</v>
       </c>
       <c r="C2">
-        <v>96.7</v>
+        <v>96.8</v>
       </c>
       <c r="D2">
+        <v>99.8</v>
+      </c>
+      <c r="E2">
+        <v>99.3</v>
+      </c>
+      <c r="F2">
+        <v>98.7</v>
+      </c>
+      <c r="G2">
         <v>99.90000000000001</v>
       </c>
-      <c r="E2">
-        <v>99.5</v>
-      </c>
-      <c r="F2">
-        <v>98.8</v>
-      </c>
-      <c r="G2">
-        <v>99.3</v>
-      </c>
       <c r="H2">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="I2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="C3">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D3">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="E3">
+        <v>74.7</v>
+      </c>
+      <c r="F3">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="G3">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="H3">
+        <v>93</v>
+      </c>
+      <c r="I3">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="J3">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>72.39999999999999</v>
-      </c>
-      <c r="C3">
-        <v>41.2</v>
-      </c>
-      <c r="D3">
-        <v>18</v>
-      </c>
-      <c r="E3">
-        <v>80.80000000000001</v>
-      </c>
-      <c r="F3">
+      <c r="B4">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="C4">
+        <v>42.9</v>
+      </c>
+      <c r="D4">
+        <v>19.2</v>
+      </c>
+      <c r="E4">
+        <v>82.69999999999999</v>
+      </c>
+      <c r="F4">
         <v>82.89999999999999</v>
       </c>
-      <c r="G3">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="H3">
-        <v>90.10000000000001</v>
-      </c>
-      <c r="I3">
-        <v>91.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4">
-        <v>99.2</v>
-      </c>
-      <c r="C4">
-        <v>97.5</v>
-      </c>
-      <c r="D4">
-        <v>93.7</v>
-      </c>
-      <c r="E4">
-        <v>74.5</v>
-      </c>
-      <c r="F4">
-        <v>65.10000000000001</v>
-      </c>
       <c r="G4">
-        <v>87.3</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="H4">
+        <v>89.8</v>
+      </c>
+      <c r="I4">
+        <v>96.3</v>
+      </c>
+      <c r="J4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="D5">
+        <v>83.5</v>
+      </c>
+      <c r="E5">
+        <v>62.6</v>
+      </c>
+      <c r="F5">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="G5">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="H5">
+        <v>56.2</v>
+      </c>
+      <c r="I5">
+        <v>79.5</v>
+      </c>
+      <c r="J5">
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="C6">
+        <v>35.2</v>
+      </c>
+      <c r="D6">
+        <v>48.5</v>
+      </c>
+      <c r="E6">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="F6">
         <v>88.8</v>
       </c>
-      <c r="I4">
-        <v>91.40000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>94.69999999999999</v>
-      </c>
-      <c r="C5">
-        <v>37.4</v>
-      </c>
-      <c r="D5">
-        <v>49.8</v>
-      </c>
-      <c r="E5">
-        <v>84</v>
-      </c>
-      <c r="F5">
-        <v>88</v>
-      </c>
-      <c r="G5">
-        <v>83.89999999999999</v>
-      </c>
-      <c r="H5">
-        <v>64.60000000000001</v>
-      </c>
-      <c r="I5">
-        <v>67.10000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
-        <v>96.59999999999999</v>
-      </c>
-      <c r="D6">
-        <v>81.5</v>
-      </c>
-      <c r="E6">
-        <v>64.7</v>
-      </c>
-      <c r="F6">
-        <v>73.3</v>
-      </c>
       <c r="G6">
-        <v>80.7</v>
+        <v>85.5</v>
       </c>
       <c r="H6">
-        <v>55.8</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="I6">
-        <v>60.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>48.3</v>
+      </c>
+      <c r="J6">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>15.8</v>
+      </c>
+      <c r="C7">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D7">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="E7">
+        <v>38.3</v>
+      </c>
+      <c r="F7">
+        <v>14.6</v>
+      </c>
+      <c r="G7">
+        <v>35.09999999999999</v>
+      </c>
+      <c r="H7">
+        <v>58.7</v>
+      </c>
+      <c r="I7">
+        <v>51.5</v>
+      </c>
+      <c r="J7">
+        <v>48.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
-        <v>53</v>
-      </c>
-      <c r="C7">
-        <v>88.5</v>
-      </c>
-      <c r="D7">
-        <v>87.3</v>
-      </c>
-      <c r="E7">
-        <v>91.7</v>
-      </c>
-      <c r="F7">
-        <v>81.2</v>
-      </c>
-      <c r="G7">
-        <v>57.99999999999999</v>
-      </c>
-      <c r="H7">
-        <v>57.7</v>
-      </c>
-      <c r="I7">
-        <v>55.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B8">
-        <v>15.2</v>
+        <v>52.2</v>
       </c>
       <c r="C8">
-        <v>1.1</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="D8">
-        <v>70.89999999999999</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="E8">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="F8">
-        <v>15</v>
+        <v>84.2</v>
       </c>
       <c r="G8">
-        <v>34.59999999999999</v>
+        <v>56.8</v>
       </c>
       <c r="H8">
-        <v>57.9</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="I8">
-        <v>54.50000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>46.40000000000001</v>
+      </c>
+      <c r="J8">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9">
-        <v>91.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="C9">
-        <v>66.10000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="D9">
-        <v>44.2</v>
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>29.1</v>
+        <v>28.5</v>
       </c>
       <c r="F9">
-        <v>49.4</v>
+        <v>46.5</v>
       </c>
       <c r="G9">
-        <v>31</v>
+        <v>27.8</v>
       </c>
       <c r="H9">
-        <v>40.6</v>
+        <v>39.5</v>
       </c>
       <c r="I9">
-        <v>43.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>26.2</v>
+      </c>
+      <c r="J9">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>10.1</v>
+        <v>11.2</v>
       </c>
       <c r="C10">
-        <v>56.89999999999999</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="D10">
-        <v>47.7</v>
+        <v>47.4</v>
       </c>
       <c r="E10">
-        <v>13.3</v>
+        <v>12.4</v>
       </c>
       <c r="F10">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="G10">
-        <v>24.9</v>
+        <v>27.4</v>
       </c>
       <c r="H10">
-        <v>39.5</v>
+        <v>37.6</v>
       </c>
       <c r="I10">
-        <v>33.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>27.8</v>
+      </c>
+      <c r="J10">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>17.4</v>
       </c>
       <c r="D11">
-        <v>7.000000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="E11">
+        <v>23.9</v>
+      </c>
+      <c r="F11">
+        <v>8.6</v>
+      </c>
+      <c r="G11">
+        <v>7.6</v>
+      </c>
+      <c r="H11">
+        <v>4.100000000000001</v>
+      </c>
+      <c r="I11">
+        <v>25.4</v>
+      </c>
+      <c r="J11">
         <v>24.4</v>
-      </c>
-      <c r="F11">
-        <v>10.5</v>
-      </c>
-      <c r="G11">
-        <v>6.2</v>
-      </c>
-      <c r="H11">
-        <v>5.2</v>
-      </c>
-      <c r="I11">
-        <v>3.4</v>
       </c>
     </row>
   </sheetData>
@@ -2221,28 +2263,28 @@
         <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2250,16 +2292,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="D2">
-        <v>142.3714285714286</v>
+        <v>142.1725</v>
       </c>
       <c r="E2">
-        <v>996.6</v>
+        <v>1137.38</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2268,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2279,28 +2321,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C3">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="D3">
-        <v>126.1742857142857</v>
+        <v>131.105</v>
       </c>
       <c r="E3">
-        <v>883.22</v>
+        <v>1048.84</v>
       </c>
       <c r="F3">
-        <v>92.10000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="G3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2308,86 +2350,86 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C4">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="D4">
-        <v>134.4342857142857</v>
+        <v>132.98</v>
       </c>
       <c r="E4">
-        <v>941.04</v>
+        <v>1063.84</v>
       </c>
       <c r="F4">
-        <v>91.40000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C5">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D5">
-        <v>112.7142857142857</v>
+        <v>119.7</v>
       </c>
       <c r="E5">
-        <v>789</v>
+        <v>957.6</v>
       </c>
       <c r="F5">
-        <v>63.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G5">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6">
-        <v>0.4285714285714285</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>119.8742857142857</v>
+        <v>107.7325</v>
       </c>
       <c r="E6">
-        <v>839.12</v>
+        <v>861.86</v>
       </c>
       <c r="F6">
-        <v>60.8</v>
+        <v>54.1</v>
       </c>
       <c r="G6">
-        <v>2.8</v>
+        <v>8.9</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2395,28 +2437,28 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D7">
-        <v>120.2</v>
+        <v>121.115</v>
       </c>
       <c r="E7">
-        <v>841.4</v>
+        <v>968.92</v>
       </c>
       <c r="F7">
-        <v>57.7</v>
+        <v>49.5</v>
       </c>
       <c r="G7">
-        <v>5.1</v>
+        <v>9.9</v>
       </c>
       <c r="H7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2424,28 +2466,28 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D8">
-        <v>117.2514285714286</v>
+        <v>116.5975</v>
       </c>
       <c r="E8">
-        <v>820.76</v>
+        <v>932.78</v>
       </c>
       <c r="F8">
-        <v>53.1</v>
+        <v>47.8</v>
       </c>
       <c r="G8">
-        <v>5.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2453,28 +2495,28 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C9">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D9">
-        <v>114.9942857142857</v>
+        <v>113.285</v>
       </c>
       <c r="E9">
-        <v>804.96</v>
+        <v>906.28</v>
       </c>
       <c r="F9">
-        <v>42.6</v>
+        <v>27.6</v>
       </c>
       <c r="G9">
-        <v>7.8</v>
+        <v>17.2</v>
       </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2482,28 +2524,28 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C10">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D10">
-        <v>113.0171428571429</v>
+        <v>111.9275</v>
       </c>
       <c r="E10">
-        <v>791.1200000000001</v>
+        <v>895.4200000000001</v>
       </c>
       <c r="F10">
-        <v>34.8</v>
+        <v>25.8</v>
       </c>
       <c r="G10">
-        <v>8.1</v>
+        <v>20.4</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2511,28 +2553,28 @@
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C11">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D11">
-        <v>100.2628571428571</v>
+        <v>107.915</v>
       </c>
       <c r="E11">
-        <v>701.84</v>
+        <v>863.3200000000001</v>
       </c>
       <c r="F11">
-        <v>4.2</v>
+        <v>24.1</v>
       </c>
       <c r="G11">
-        <v>66.3</v>
+        <v>31.2</v>
       </c>
       <c r="H11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2553,16 +2595,16 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2573,16 +2615,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2593,16 +2635,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2610,19 +2652,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2630,19 +2672,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2650,19 +2692,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2670,19 +2712,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D7">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2690,10 +2732,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D8">
         <v>-6</v>
@@ -2702,7 +2744,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2710,19 +2752,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D9">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2730,19 +2772,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D10">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="E10" t="s">
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2750,19 +2792,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D11">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2772,39 +2814,42 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2829,11 +2874,14 @@
       <c r="H2">
         <v>23</v>
       </c>
-      <c r="I2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2858,240 +2906,267 @@
       <c r="H3">
         <v>12</v>
       </c>
-      <c r="I3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>-2</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="C5">
         <v>-2</v>
       </c>
       <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>-6</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>-5</v>
-      </c>
-      <c r="C6">
-        <v>-2</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="B7">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-5</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>-5</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="H7">
         <v>-6</v>
       </c>
-      <c r="I7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7">
+        <v>-5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>-2</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>-2</v>
+      </c>
+      <c r="E8">
+        <v>-2</v>
+      </c>
+      <c r="F8">
+        <v>-8</v>
+      </c>
+      <c r="G8">
+        <v>-7</v>
+      </c>
+      <c r="H8">
+        <v>-13</v>
+      </c>
+      <c r="I8">
+        <v>-6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+      <c r="H9">
+        <v>-6</v>
+      </c>
+      <c r="I9">
+        <v>-11</v>
+      </c>
+      <c r="J9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>-11</v>
+      </c>
+      <c r="E10">
+        <v>-10</v>
+      </c>
+      <c r="F10">
+        <v>-17</v>
+      </c>
+      <c r="G10">
+        <v>-13</v>
+      </c>
+      <c r="H10">
+        <v>-10</v>
+      </c>
+      <c r="I10">
+        <v>-12</v>
+      </c>
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>-7</v>
-      </c>
-      <c r="C8">
+      <c r="C11">
+        <v>-6</v>
+      </c>
+      <c r="D11">
+        <v>-6</v>
+      </c>
+      <c r="E11">
         <v>-5</v>
-      </c>
-      <c r="D8">
-        <v>-7</v>
-      </c>
-      <c r="E8">
-        <v>-8</v>
-      </c>
-      <c r="F8">
-        <v>-5</v>
-      </c>
-      <c r="G8">
-        <v>-2</v>
-      </c>
-      <c r="H8">
-        <v>-6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>-2</v>
-      </c>
-      <c r="D9">
-        <v>-11</v>
-      </c>
-      <c r="E9">
-        <v>-10</v>
-      </c>
-      <c r="F9">
-        <v>-17</v>
-      </c>
-      <c r="G9">
-        <v>-13</v>
-      </c>
-      <c r="H9">
-        <v>-10</v>
-      </c>
-      <c r="I9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>-6</v>
-      </c>
-      <c r="D10">
-        <v>-6</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
-      </c>
-      <c r="F10">
-        <v>-8</v>
-      </c>
-      <c r="G10">
-        <v>-6</v>
-      </c>
-      <c r="H10">
-        <v>-13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>-2</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11">
-        <v>-2</v>
-      </c>
-      <c r="E11">
-        <v>-2</v>
       </c>
       <c r="F11">
         <v>-8</v>
       </c>
       <c r="G11">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="H11">
         <v>-13</v>
       </c>
-      <c r="I11" t="s">
-        <v>90</v>
+      <c r="I11">
+        <v>-17</v>
+      </c>
+      <c r="J11" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3101,7 +3176,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3109,25 +3184,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3135,25 +3210,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3161,25 +3236,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
       <c r="E3">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F3">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3187,25 +3262,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3216,22 +3291,22 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-17</v>
+        <v>-5</v>
       </c>
       <c r="F5">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>11</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3239,25 +3314,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
       <c r="E6">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="F6">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3265,25 +3340,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="G7">
+        <v>9</v>
+      </c>
+      <c r="H7" t="s">
         <v>8</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3291,25 +3366,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
       <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
         <v>12</v>
       </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
       <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8" t="s">
         <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3317,25 +3392,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9">
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3343,25 +3418,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E10">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3369,24 +3444,50 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>3</v>
       </c>
       <c r="E11">
+        <v>-7</v>
+      </c>
+      <c r="F11">
+        <v>-13</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
         <v>-8</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>-10</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>2</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>3</v>
       </c>
     </row>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="108">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -54,28 +54,31 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>8-0-0</t>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>9-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -156,6 +159,9 @@
     <t>Week_9</t>
   </si>
   <si>
+    <t>Week_10</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -180,52 +186,52 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-1</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>10.9-3.1</t>
-  </si>
-  <si>
-    <t>8.5-5.4</t>
-  </si>
-  <si>
-    <t>8.4-5.6</t>
-  </si>
-  <si>
-    <t>7.1-6.9</t>
-  </si>
-  <si>
-    <t>6.6-7.4</t>
-  </si>
-  <si>
-    <t>5.9-8.1</t>
-  </si>
-  <si>
-    <t>6.0-7.9</t>
-  </si>
-  <si>
-    <t>5.5-8.4</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>10.1-3.9</t>
+  </si>
+  <si>
+    <t>9.0-4.9</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>7.2-6.7</t>
+  </si>
+  <si>
+    <t>6.4-7.6</t>
+  </si>
+  <si>
+    <t>6.2-7.8</t>
+  </si>
+  <si>
+    <t>6.1-7.9</t>
   </si>
   <si>
     <t>5.4-8.5</t>
   </si>
   <si>
-    <t>11-3</t>
-  </si>
-  <si>
-    <t>8-6</t>
+    <t>5.3-8.7</t>
+  </si>
+  <si>
+    <t>5.1-8.9</t>
+  </si>
+  <si>
+    <t>10-4</t>
   </si>
   <si>
     <t>9-5</t>
@@ -261,12 +267,12 @@
     <t>Vidhi Sethia</t>
   </si>
   <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
     <t>Kabir Manocha</t>
   </si>
   <si>
@@ -279,28 +285,19 @@
     <t>Pawan Bhambhwani</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↑1</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓5</t>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -749,13 +749,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -764,16 +764,16 @@
         <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -787,10 +787,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -802,13 +802,13 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -816,19 +816,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -837,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
         <v>15</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -851,34 +851,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
       <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -886,34 +886,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -921,16 +921,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
@@ -939,16 +939,16 @@
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -959,13 +959,13 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -980,10 +980,10 @@
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -991,19 +991,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>16</v>
@@ -1015,7 +1015,7 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -1026,34 +1026,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="F10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>10</v>
-      </c>
       <c r="H10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
       </c>
       <c r="J10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s">
         <v>11</v>
-      </c>
-      <c r="K10" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1061,34 +1061,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
-        <v>14</v>
-      </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
         <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1106,13 +1106,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1123,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1134,13 +1134,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1162,10 +1162,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1176,13 +1176,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1207,7 +1207,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1221,10 +1221,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>4.7</v>
+        <v>5.3</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1232,13 +1232,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>5.4</v>
+        <v>6.2</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1246,13 +1246,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C11">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1270,16 +1270,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1307,13 +1307,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="D3">
-        <v>0.5999999999999996</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1324,13 +1324,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="D4">
         <v>-0.5999999999999996</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1341,10 +1341,10 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D5">
-        <v>0.2000000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -1355,16 +1355,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D6">
-        <v>0.7000000000000002</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1372,16 +1372,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="D7">
-        <v>0.3999999999999999</v>
+        <v>-0.1000000000000001</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1389,13 +1389,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D8">
-        <v>0.3999999999999999</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1406,16 +1406,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D9">
-        <v>-0.7000000000000002</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1423,13 +1423,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D10">
-        <v>0.1000000000000001</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1443,13 +1443,13 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D11">
-        <v>-0.3999999999999999</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1467,40 +1467,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1508,19 +1508,19 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>83.8</v>
+        <v>60.3</v>
       </c>
       <c r="C2">
-        <v>11.9</v>
+        <v>25.8</v>
       </c>
       <c r="D2">
-        <v>3.7</v>
+        <v>12.5</v>
       </c>
       <c r="E2">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -1546,37 +1546,37 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>5.8</v>
+        <v>16.1</v>
       </c>
       <c r="C3">
-        <v>37.2</v>
+        <v>35.1</v>
       </c>
       <c r="D3">
-        <v>34.2</v>
+        <v>37.8</v>
       </c>
       <c r="E3">
-        <v>13.6</v>
+        <v>7.5</v>
       </c>
       <c r="F3">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="G3">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="J3">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>98.59999999999999</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1584,303 +1584,303 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>9.699999999999999</v>
+        <v>22.9</v>
       </c>
       <c r="C4">
-        <v>36.1</v>
+        <v>33.9</v>
       </c>
       <c r="D4">
-        <v>28.8</v>
+        <v>27.4</v>
       </c>
       <c r="E4">
-        <v>11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="F4">
-        <v>5.2</v>
+        <v>3.7</v>
       </c>
       <c r="G4">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H4">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="I4">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>95.59999999999999</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0.3</v>
       </c>
       <c r="C5">
-        <v>7.9</v>
+        <v>3.4</v>
       </c>
       <c r="D5">
-        <v>14.1</v>
+        <v>11.6</v>
       </c>
       <c r="E5">
-        <v>23.8</v>
+        <v>24.7</v>
       </c>
       <c r="F5">
-        <v>18.1</v>
+        <v>19.8</v>
       </c>
       <c r="G5">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="H5">
-        <v>9.9</v>
+        <v>12.3</v>
       </c>
       <c r="I5">
-        <v>5.8</v>
+        <v>8.4</v>
       </c>
       <c r="J5">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="K5">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="L5">
-        <v>76.90000000000001</v>
+        <v>72.2</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="D6">
-        <v>5.8</v>
+        <v>4.9</v>
       </c>
       <c r="E6">
-        <v>12.9</v>
+        <v>21.2</v>
       </c>
       <c r="F6">
-        <v>16.1</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="H6">
-        <v>12.2</v>
+        <v>13.6</v>
       </c>
       <c r="I6">
-        <v>13.2</v>
+        <v>9.5</v>
       </c>
       <c r="J6">
-        <v>11.6</v>
+        <v>8.5</v>
       </c>
       <c r="K6">
-        <v>8.9</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>54.1</v>
+        <v>63.4</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0.2</v>
       </c>
       <c r="C7">
-        <v>2.3</v>
+        <v>0.3</v>
       </c>
       <c r="D7">
-        <v>5.6</v>
+        <v>2.5</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>11.7</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>15.3</v>
       </c>
       <c r="G7">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="H7">
-        <v>15.5</v>
+        <v>16.3</v>
       </c>
       <c r="I7">
-        <v>13.9</v>
+        <v>15.6</v>
       </c>
       <c r="J7">
-        <v>11.2</v>
+        <v>13.8</v>
       </c>
       <c r="K7">
-        <v>9.9</v>
+        <v>8.6</v>
       </c>
       <c r="L7">
-        <v>49.5</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="D8">
-        <v>4.5</v>
+        <v>0.9</v>
       </c>
       <c r="E8">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>16.2</v>
+        <v>13.1</v>
       </c>
       <c r="G8">
+        <v>14.4</v>
+      </c>
+      <c r="H8">
+        <v>16.3</v>
+      </c>
+      <c r="I8">
+        <v>15.9</v>
+      </c>
+      <c r="J8">
         <v>15.2</v>
       </c>
-      <c r="H8">
-        <v>15.8</v>
-      </c>
-      <c r="I8">
-        <v>14.4</v>
-      </c>
-      <c r="J8">
-        <v>11.5</v>
-      </c>
       <c r="K8">
-        <v>10.5</v>
+        <v>13.7</v>
       </c>
       <c r="L8">
-        <v>47.8</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="E9">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="F9">
-        <v>8.800000000000001</v>
+        <v>12.5</v>
       </c>
       <c r="G9">
-        <v>13.3</v>
+        <v>14.4</v>
       </c>
       <c r="H9">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="I9">
-        <v>18</v>
+        <v>14.9</v>
       </c>
       <c r="J9">
-        <v>20.7</v>
+        <v>17.2</v>
       </c>
       <c r="K9">
-        <v>17.2</v>
+        <v>17.8</v>
       </c>
       <c r="L9">
-        <v>27.6</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="E10">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="F10">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="G10">
-        <v>9.699999999999999</v>
+        <v>13</v>
       </c>
       <c r="H10">
-        <v>15.2</v>
+        <v>14.6</v>
       </c>
       <c r="I10">
-        <v>18.8</v>
+        <v>17.2</v>
       </c>
       <c r="J10">
-        <v>19.8</v>
+        <v>21.2</v>
       </c>
       <c r="K10">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="L10">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="E11">
-        <v>5.3</v>
+        <v>2.5</v>
       </c>
       <c r="F11">
-        <v>7.8</v>
+        <v>4.7</v>
       </c>
       <c r="G11">
-        <v>9.6</v>
+        <v>11.3</v>
       </c>
       <c r="H11">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="I11">
-        <v>14.2</v>
+        <v>17.7</v>
       </c>
       <c r="J11">
-        <v>18.8</v>
+        <v>19.6</v>
       </c>
       <c r="K11">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="L11">
-        <v>24.1</v>
+        <v>18.9</v>
       </c>
     </row>
   </sheetData>
@@ -1890,65 +1890,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>44</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>62.1</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C2">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D2">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E2">
-        <v>99.3</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F2">
-        <v>98.7</v>
+        <v>99.5</v>
       </c>
       <c r="G2">
         <v>99.90000000000001</v>
       </c>
       <c r="H2">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I2">
         <v>100</v>
@@ -1956,293 +1959,323 @@
       <c r="J2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B3">
-        <v>99.40000000000001</v>
+        <v>99</v>
       </c>
       <c r="C3">
-        <v>96.59999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="D3">
-        <v>91.10000000000001</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="E3">
-        <v>74.7</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="F3">
-        <v>64.09999999999999</v>
+        <v>65.5</v>
       </c>
       <c r="G3">
-        <v>85.39999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H3">
-        <v>93</v>
+        <v>90.3</v>
       </c>
       <c r="I3">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="J3">
-        <v>98.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>99.7</v>
+      </c>
+      <c r="K3">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>75.09999999999999</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="C4">
-        <v>42.9</v>
+        <v>40</v>
       </c>
       <c r="D4">
         <v>19.2</v>
       </c>
       <c r="E4">
-        <v>82.69999999999999</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F4">
-        <v>82.89999999999999</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="G4">
-        <v>93.60000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H4">
-        <v>89.8</v>
+        <v>90.8</v>
       </c>
       <c r="I4">
-        <v>96.3</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="J4">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="K4">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>92.40000000000001</v>
+      </c>
+      <c r="C5">
+        <v>35.8</v>
+      </c>
+      <c r="D5">
+        <v>53.40000000000001</v>
+      </c>
+      <c r="E5">
+        <v>83.5</v>
+      </c>
+      <c r="F5">
+        <v>87.5</v>
+      </c>
+      <c r="G5">
+        <v>85</v>
+      </c>
+      <c r="H5">
+        <v>64.60000000000001</v>
+      </c>
+      <c r="I5">
+        <v>46.5</v>
+      </c>
+      <c r="J5">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="K5">
+        <v>72.09999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>100</v>
       </c>
-      <c r="C5">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="D5">
-        <v>83.5</v>
-      </c>
-      <c r="E5">
-        <v>62.6</v>
-      </c>
-      <c r="F5">
-        <v>75.90000000000001</v>
-      </c>
-      <c r="G5">
-        <v>80.90000000000001</v>
-      </c>
-      <c r="H5">
+      <c r="C6">
+        <v>95.3</v>
+      </c>
+      <c r="D6">
+        <v>81.69999999999999</v>
+      </c>
+      <c r="E6">
+        <v>65.5</v>
+      </c>
+      <c r="F6">
+        <v>73.7</v>
+      </c>
+      <c r="G6">
+        <v>80.80000000000001</v>
+      </c>
+      <c r="H6">
         <v>56.2</v>
       </c>
-      <c r="I5">
-        <v>79.5</v>
-      </c>
-      <c r="J5">
-        <v>78.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
+      <c r="I6">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="J6">
+        <v>63.4</v>
+      </c>
+      <c r="K6">
+        <v>63.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>10.4</v>
+      </c>
+      <c r="C7">
+        <v>55.1</v>
+      </c>
+      <c r="D7">
+        <v>45.1</v>
+      </c>
+      <c r="E7">
+        <v>12.9</v>
+      </c>
+      <c r="F7">
+        <v>33.90000000000001</v>
+      </c>
+      <c r="G7">
+        <v>27.5</v>
+      </c>
+      <c r="H7">
+        <v>40.2</v>
+      </c>
+      <c r="I7">
+        <v>27.9</v>
+      </c>
+      <c r="J7">
+        <v>44.5</v>
+      </c>
+      <c r="K7">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <v>17.3</v>
+      </c>
+      <c r="D8">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="C6">
+      <c r="E8">
+        <v>24.4</v>
+      </c>
+      <c r="F8">
+        <v>11.6</v>
+      </c>
+      <c r="G8">
+        <v>6.1</v>
+      </c>
+      <c r="H8">
+        <v>4.6</v>
+      </c>
+      <c r="I8">
+        <v>25.4</v>
+      </c>
+      <c r="J8">
+        <v>38.8</v>
+      </c>
+      <c r="K8">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>14.1</v>
+      </c>
+      <c r="C9">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="D9">
+        <v>69</v>
+      </c>
+      <c r="E9">
+        <v>36.6</v>
+      </c>
+      <c r="F9">
+        <v>18.1</v>
+      </c>
+      <c r="G9">
+        <v>35.4</v>
+      </c>
+      <c r="H9">
+        <v>56.3</v>
+      </c>
+      <c r="I9">
+        <v>50.7</v>
+      </c>
+      <c r="J9">
         <v>35.2</v>
       </c>
-      <c r="D6">
-        <v>48.5</v>
-      </c>
-      <c r="E6">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="F6">
-        <v>88.8</v>
-      </c>
-      <c r="G6">
-        <v>85.5</v>
-      </c>
-      <c r="H6">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="I6">
-        <v>48.3</v>
-      </c>
-      <c r="J6">
+      <c r="K9">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>53.5</v>
+      </c>
+      <c r="C10">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="D10">
+        <v>88.2</v>
+      </c>
+      <c r="E10">
+        <v>93.2</v>
+      </c>
+      <c r="F10">
+        <v>81.8</v>
+      </c>
+      <c r="G10">
+        <v>58.5</v>
+      </c>
+      <c r="H10">
         <v>53.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>15.8</v>
-      </c>
-      <c r="C7">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="D7">
-        <v>71.09999999999999</v>
-      </c>
-      <c r="E7">
-        <v>38.3</v>
-      </c>
-      <c r="F7">
-        <v>14.6</v>
-      </c>
-      <c r="G7">
-        <v>35.09999999999999</v>
-      </c>
-      <c r="H7">
-        <v>58.7</v>
-      </c>
-      <c r="I7">
-        <v>51.5</v>
-      </c>
-      <c r="J7">
-        <v>48.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>52.2</v>
-      </c>
-      <c r="C8">
-        <v>90.60000000000001</v>
-      </c>
-      <c r="D8">
-        <v>86.59999999999999</v>
-      </c>
-      <c r="E8">
-        <v>93</v>
-      </c>
-      <c r="F8">
-        <v>84.2</v>
-      </c>
-      <c r="G8">
-        <v>56.8</v>
-      </c>
-      <c r="H8">
-        <v>55.50000000000001</v>
-      </c>
-      <c r="I8">
-        <v>46.40000000000001</v>
-      </c>
-      <c r="J8">
-        <v>44.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
+      <c r="I10">
+        <v>47.8</v>
+      </c>
+      <c r="J10">
+        <v>31.9</v>
+      </c>
+      <c r="K10">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>90.5</v>
-      </c>
-      <c r="C9">
-        <v>66.7</v>
-      </c>
-      <c r="D9">
+      <c r="B11">
+        <v>92.7</v>
+      </c>
+      <c r="C11">
+        <v>68.89999999999999</v>
+      </c>
+      <c r="D11">
+        <v>43.5</v>
+      </c>
+      <c r="E11">
+        <v>29.6</v>
+      </c>
+      <c r="F11">
         <v>45</v>
       </c>
-      <c r="E9">
-        <v>28.5</v>
-      </c>
-      <c r="F9">
-        <v>46.5</v>
-      </c>
-      <c r="G9">
-        <v>27.8</v>
-      </c>
-      <c r="H9">
-        <v>39.5</v>
-      </c>
-      <c r="I9">
-        <v>26.2</v>
-      </c>
-      <c r="J9">
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>11.2</v>
-      </c>
-      <c r="C10">
-        <v>57.49999999999999</v>
-      </c>
-      <c r="D10">
-        <v>47.4</v>
-      </c>
-      <c r="E10">
-        <v>12.4</v>
-      </c>
-      <c r="F10">
-        <v>35.7</v>
-      </c>
-      <c r="G10">
-        <v>27.4</v>
-      </c>
-      <c r="H10">
-        <v>37.6</v>
-      </c>
-      <c r="I10">
-        <v>27.8</v>
-      </c>
-      <c r="J10">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
-        <v>0.3</v>
-      </c>
-      <c r="C11">
-        <v>17.4</v>
-      </c>
-      <c r="D11">
-        <v>7.8</v>
-      </c>
-      <c r="E11">
-        <v>23.9</v>
-      </c>
-      <c r="F11">
-        <v>8.6</v>
-      </c>
       <c r="G11">
-        <v>7.6</v>
+        <v>28.1</v>
       </c>
       <c r="H11">
-        <v>4.100000000000001</v>
+        <v>43.5</v>
       </c>
       <c r="I11">
-        <v>25.4</v>
+        <v>28.8</v>
       </c>
       <c r="J11">
-        <v>24.4</v>
+        <v>18.5</v>
+      </c>
+      <c r="K11">
+        <v>18.7</v>
       </c>
     </row>
   </sheetData>
@@ -2260,31 +2293,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2292,16 +2325,16 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2">
-        <v>0.875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D2">
-        <v>142.1725</v>
+        <v>136.9288888888889</v>
       </c>
       <c r="E2">
-        <v>1137.38</v>
+        <v>1232.36</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2310,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2321,28 +2354,28 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>131.105</v>
+        <v>129.62</v>
       </c>
       <c r="E3">
-        <v>1048.84</v>
+        <v>1166.58</v>
       </c>
       <c r="F3">
-        <v>98.59999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2350,231 +2383,231 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D4">
-        <v>132.98</v>
+        <v>134.1066666666667</v>
       </c>
       <c r="E4">
-        <v>1063.84</v>
+        <v>1206.96</v>
       </c>
       <c r="F4">
-        <v>95.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="G4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D5">
-        <v>119.7</v>
+        <v>110.3288888888889</v>
       </c>
       <c r="E5">
-        <v>957.6</v>
+        <v>992.96</v>
       </c>
       <c r="F5">
-        <v>76.90000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="G5">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D6">
-        <v>107.7325</v>
+        <v>119</v>
       </c>
       <c r="E6">
-        <v>861.86</v>
+        <v>1071</v>
       </c>
       <c r="F6">
-        <v>54.1</v>
+        <v>63.4</v>
       </c>
       <c r="G6">
-        <v>8.9</v>
+        <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D7">
-        <v>121.115</v>
+        <v>112.8155555555556</v>
       </c>
       <c r="E7">
-        <v>968.92</v>
+        <v>1015.34</v>
       </c>
       <c r="F7">
-        <v>49.5</v>
+        <v>45.7</v>
       </c>
       <c r="G7">
-        <v>9.9</v>
+        <v>8.6</v>
       </c>
       <c r="H7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D8">
-        <v>116.5975</v>
+        <v>108.96</v>
       </c>
       <c r="E8">
-        <v>932.78</v>
+        <v>980.6400000000001</v>
       </c>
       <c r="F8">
-        <v>47.8</v>
+        <v>38.9</v>
       </c>
       <c r="G8">
-        <v>10.5</v>
+        <v>13.7</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C9">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D9">
-        <v>113.285</v>
+        <v>119.0933333333333</v>
       </c>
       <c r="E9">
-        <v>906.28</v>
+        <v>1071.84</v>
       </c>
       <c r="F9">
-        <v>27.6</v>
+        <v>36.1</v>
       </c>
       <c r="G9">
-        <v>17.2</v>
+        <v>17.8</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C10">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D10">
-        <v>111.9275</v>
+        <v>116.0111111111111</v>
       </c>
       <c r="E10">
-        <v>895.4200000000001</v>
+        <v>1044.1</v>
       </c>
       <c r="F10">
-        <v>25.8</v>
+        <v>26.5</v>
       </c>
       <c r="G10">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>107.915</v>
+        <v>113.4155555555556</v>
       </c>
       <c r="E11">
-        <v>863.3200000000001</v>
+        <v>1020.74</v>
       </c>
       <c r="F11">
-        <v>24.1</v>
+        <v>18.9</v>
       </c>
       <c r="G11">
-        <v>31.2</v>
+        <v>31.8</v>
       </c>
       <c r="H11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="I11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -2592,19 +2625,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2615,16 +2648,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2635,16 +2668,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2655,16 +2688,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2675,16 +2708,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2692,19 +2725,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2712,19 +2745,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D7">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2735,16 +2768,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2755,16 +2788,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D9">
-        <v>-11</v>
+        <v>-10</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2775,13 +2808,13 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D10">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
         <v>88</v>
@@ -2795,16 +2828,16 @@
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D11">
-        <v>-17</v>
+        <v>-13</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2814,42 +2847,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2877,11 +2913,14 @@
       <c r="I2">
         <v>26</v>
       </c>
-      <c r="J2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>25</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2909,11 +2948,14 @@
       <c r="I3">
         <v>11</v>
       </c>
-      <c r="J3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2941,11 +2983,14 @@
       <c r="I4">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -2973,75 +3018,84 @@
       <c r="I5">
         <v>2</v>
       </c>
-      <c r="J5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>-7</v>
+      </c>
+      <c r="C6">
+        <v>-5</v>
+      </c>
+      <c r="D6">
+        <v>-7</v>
+      </c>
+      <c r="E6">
+        <v>-8</v>
+      </c>
+      <c r="F6">
+        <v>-5</v>
+      </c>
+      <c r="G6">
+        <v>-2</v>
+      </c>
+      <c r="H6">
+        <v>-6</v>
+      </c>
+      <c r="I6">
+        <v>-5</v>
+      </c>
+      <c r="J6">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>1</v>
       </c>
-      <c r="J6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>-7</v>
-      </c>
-      <c r="C7">
-        <v>-5</v>
-      </c>
-      <c r="D7">
-        <v>-7</v>
-      </c>
-      <c r="E7">
-        <v>-8</v>
-      </c>
-      <c r="F7">
-        <v>-5</v>
-      </c>
-      <c r="G7">
+      <c r="J7">
         <v>-2</v>
       </c>
-      <c r="H7">
-        <v>-6</v>
-      </c>
-      <c r="I7">
-        <v>-5</v>
-      </c>
-      <c r="J7" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -3069,11 +3123,14 @@
       <c r="I8">
         <v>-6</v>
       </c>
-      <c r="J8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8">
+        <v>-7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3101,11 +3158,14 @@
       <c r="I9">
         <v>-11</v>
       </c>
-      <c r="J9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9">
+        <v>-10</v>
+      </c>
+      <c r="K9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
@@ -3133,11 +3193,14 @@
       <c r="I10">
         <v>-12</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10">
+        <v>-11</v>
+      </c>
+      <c r="K10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -3165,8 +3228,11 @@
       <c r="I11">
         <v>-17</v>
       </c>
-      <c r="J11" t="s">
-        <v>89</v>
+      <c r="J11">
+        <v>-13</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3176,7 +3242,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3210,25 +3276,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
       <c r="E2">
-        <v>-6</v>
+        <v>12</v>
       </c>
       <c r="F2">
-        <v>10</v>
+        <v>-13</v>
       </c>
       <c r="G2">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3236,25 +3302,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F3">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3262,25 +3328,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
       <c r="E4">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F4">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="G4">
         <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3288,25 +3354,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3314,22 +3380,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="E6">
-        <v>-17</v>
-      </c>
       <c r="F6">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H6" t="s">
         <v>3</v>
@@ -3340,25 +3406,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E7">
+        <v>-5</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
         <v>4</v>
-      </c>
-      <c r="F7">
-        <v>-5</v>
-      </c>
-      <c r="G7">
-        <v>9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3366,25 +3432,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="F8">
-        <v>12</v>
+        <v>-6</v>
       </c>
       <c r="G8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3392,25 +3458,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3418,22 +3484,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H10" t="s">
         <v>7</v>
@@ -3444,25 +3510,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>-7</v>
+        <v>12</v>
       </c>
       <c r="F11">
-        <v>-13</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3473,22 +3539,74 @@
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
         <v>3</v>
       </c>
-      <c r="E12">
-        <v>-8</v>
-      </c>
-      <c r="F12">
-        <v>-10</v>
-      </c>
-      <c r="G12">
+      <c r="E13">
+        <v>-7</v>
+      </c>
+      <c r="F13">
+        <v>-13</v>
+      </c>
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
         <v>2</v>
       </c>
-      <c r="H12" t="s">
-        <v>3</v>
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>-7</v>
+      </c>
+      <c r="F14">
+        <v>-2</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="114">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -54,31 +54,34 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>9-0-0</t>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>10-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -162,6 +165,9 @@
     <t>Week_10</t>
   </si>
   <si>
+    <t>Week_11</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -186,58 +192,58 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>10.1-3.9</t>
-  </si>
-  <si>
-    <t>9.0-4.9</t>
-  </si>
-  <si>
-    <t>9.0-5.0</t>
-  </si>
-  <si>
-    <t>7.2-6.7</t>
-  </si>
-  <si>
-    <t>6.4-7.6</t>
-  </si>
-  <si>
-    <t>6.2-7.8</t>
-  </si>
-  <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>5.4-8.5</t>
-  </si>
-  <si>
-    <t>5.3-8.7</t>
-  </si>
-  <si>
-    <t>5.1-8.9</t>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>9.4-4.6</t>
+  </si>
+  <si>
+    <t>10.6-3.4</t>
+  </si>
+  <si>
+    <t>9.2-4.7</t>
+  </si>
+  <si>
+    <t>7.9-6.0</t>
+  </si>
+  <si>
+    <t>5.9-8.0</t>
+  </si>
+  <si>
+    <t>5.8-8.2</t>
+  </si>
+  <si>
+    <t>5.7-8.3</t>
+  </si>
+  <si>
+    <t>4.8-9.2</t>
+  </si>
+  <si>
+    <t>4.8-9.1</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
+    <t>11-3</t>
+  </si>
+  <si>
     <t>9-5</t>
   </si>
   <si>
-    <t>7-7</t>
+    <t>8-6</t>
   </si>
   <si>
     <t>6-8</t>
@@ -267,34 +273,43 @@
     <t>Vidhi Sethia</t>
   </si>
   <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
     <t>Harshit Aggarwal</t>
   </si>
   <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
     <t>Kabir Manocha</t>
   </si>
   <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
     <t>Shihab Chowdhury</t>
   </si>
   <si>
-    <t>Pawan Bhambhwani</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑4</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑5</t>
   </si>
   <si>
     <t>↓3</t>
@@ -325,6 +340,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -761,7 +779,7 @@
         <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -773,7 +791,7 @@
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -790,7 +808,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -802,7 +820,7 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
@@ -825,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H4" t="s">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -869,16 +887,16 @@
         <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>16</v>
-      </c>
-      <c r="K5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -907,7 +925,7 @@
         <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>10</v>
@@ -924,31 +942,31 @@
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
-        <v>15</v>
-      </c>
       <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
         <v>17</v>
       </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -977,7 +995,7 @@
         <v>11</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
@@ -994,31 +1012,31 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1026,34 +1044,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" t="s">
         <v>14</v>
-      </c>
-      <c r="K10" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1064,28 +1082,28 @@
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
         <v>13</v>
@@ -1106,13 +1124,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1123,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1134,13 +1152,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1148,13 +1166,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1162,10 +1180,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -1176,10 +1194,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1193,7 +1211,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1207,10 +1225,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1221,10 +1239,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1235,10 +1253,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1249,7 +1267,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>6.3</v>
+        <v>7.2</v>
       </c>
       <c r="D11" t="s">
         <v>13</v>
@@ -1270,16 +1288,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1290,13 +1308,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>6.3</v>
+        <v>7.3</v>
       </c>
       <c r="D2">
         <v>-0.7000000000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1307,10 +1325,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="D3">
-        <v>0.2999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
@@ -1324,10 +1342,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>-0.5999999999999996</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="s">
         <v>13</v>
@@ -1338,16 +1356,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1355,16 +1373,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="D6">
-        <v>-0.7999999999999998</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1372,13 +1390,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="D7">
-        <v>-0.1000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -1389,16 +1407,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>0.7999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1406,13 +1424,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>0.7999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1423,13 +1441,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
@@ -1443,10 +1461,10 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D11">
-        <v>-0.7999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -1467,63 +1485,63 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>60.3</v>
+        <v>15.2</v>
       </c>
       <c r="C2">
-        <v>25.8</v>
+        <v>44.3</v>
       </c>
       <c r="D2">
-        <v>12.5</v>
+        <v>30.4</v>
       </c>
       <c r="E2">
-        <v>1.2</v>
+        <v>8.4</v>
       </c>
       <c r="F2">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1543,31 +1561,31 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>16.1</v>
+        <v>73.2</v>
       </c>
       <c r="C3">
-        <v>35.1</v>
+        <v>18.1</v>
       </c>
       <c r="D3">
-        <v>37.8</v>
+        <v>7.9</v>
       </c>
       <c r="E3">
-        <v>7.5</v>
+        <v>0.8</v>
       </c>
       <c r="F3">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1576,36 +1594,36 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>99.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>22.9</v>
+        <v>11.5</v>
       </c>
       <c r="C4">
-        <v>33.9</v>
+        <v>32.7</v>
       </c>
       <c r="D4">
-        <v>27.4</v>
+        <v>46</v>
       </c>
       <c r="E4">
-        <v>9.300000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F4">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="H4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1614,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>98.8</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1622,37 +1640,37 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="C5">
-        <v>3.4</v>
+        <v>4.9</v>
       </c>
       <c r="D5">
-        <v>11.6</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>24.7</v>
+        <v>53.5</v>
       </c>
       <c r="F5">
-        <v>19.8</v>
+        <v>13.8</v>
       </c>
       <c r="G5">
-        <v>12.4</v>
+        <v>7.7</v>
       </c>
       <c r="H5">
-        <v>12.3</v>
+        <v>3.7</v>
       </c>
       <c r="I5">
-        <v>8.4</v>
+        <v>1.6</v>
       </c>
       <c r="J5">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="K5">
-        <v>2.6</v>
+        <v>0.1</v>
       </c>
       <c r="L5">
-        <v>72.2</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1663,191 +1681,191 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>4.9</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>21.2</v>
+        <v>7.6</v>
       </c>
       <c r="F6">
-        <v>20</v>
+        <v>23.8</v>
       </c>
       <c r="G6">
-        <v>16.5</v>
+        <v>20.8</v>
       </c>
       <c r="H6">
-        <v>13.6</v>
+        <v>16.1</v>
       </c>
       <c r="I6">
-        <v>9.5</v>
+        <v>12.6</v>
       </c>
       <c r="J6">
-        <v>8.5</v>
+        <v>11.1</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="L6">
-        <v>63.4</v>
+        <v>52.9</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>11.7</v>
+        <v>6.7</v>
       </c>
       <c r="F7">
-        <v>15.3</v>
+        <v>20.3</v>
       </c>
       <c r="G7">
-        <v>15.7</v>
+        <v>19.7</v>
       </c>
       <c r="H7">
-        <v>16.3</v>
+        <v>17.6</v>
       </c>
       <c r="I7">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="J7">
-        <v>13.8</v>
+        <v>12.1</v>
       </c>
       <c r="K7">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="L7">
-        <v>45.7</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>0.2</v>
       </c>
-      <c r="C8">
-        <v>0.3</v>
-      </c>
-      <c r="D8">
-        <v>0.9</v>
-      </c>
       <c r="E8">
-        <v>10</v>
+        <v>6.1</v>
       </c>
       <c r="F8">
-        <v>13.1</v>
+        <v>13.6</v>
       </c>
       <c r="G8">
-        <v>14.4</v>
+        <v>16.1</v>
       </c>
       <c r="H8">
-        <v>16.3</v>
+        <v>18.8</v>
       </c>
       <c r="I8">
+        <v>16.5</v>
+      </c>
+      <c r="J8">
         <v>15.9</v>
       </c>
-      <c r="J8">
-        <v>15.2</v>
-      </c>
       <c r="K8">
-        <v>13.7</v>
+        <v>12.8</v>
       </c>
       <c r="L8">
-        <v>38.9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0.3</v>
       </c>
-      <c r="D9">
-        <v>1.3</v>
-      </c>
       <c r="E9">
-        <v>7.6</v>
+        <v>3.9</v>
       </c>
       <c r="F9">
-        <v>12.5</v>
+        <v>13.3</v>
       </c>
       <c r="G9">
-        <v>14.4</v>
+        <v>14.2</v>
       </c>
       <c r="H9">
-        <v>14</v>
+        <v>15.6</v>
       </c>
       <c r="I9">
-        <v>14.9</v>
+        <v>17.5</v>
       </c>
       <c r="J9">
-        <v>17.2</v>
+        <v>18.3</v>
       </c>
       <c r="K9">
-        <v>17.8</v>
+        <v>16.9</v>
       </c>
       <c r="L9">
-        <v>36.1</v>
+        <v>31.7</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>4.3</v>
+        <v>2.8</v>
       </c>
       <c r="F10">
-        <v>8.4</v>
+        <v>7.1</v>
       </c>
       <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10">
         <v>13</v>
       </c>
-      <c r="H10">
-        <v>14.6</v>
-      </c>
       <c r="I10">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="J10">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="K10">
-        <v>20.5</v>
+        <v>28.9</v>
       </c>
       <c r="L10">
-        <v>26.5</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1856,31 +1874,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="G11">
-        <v>11.3</v>
+        <v>11</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>15.2</v>
       </c>
       <c r="I11">
-        <v>17.7</v>
+        <v>18.9</v>
       </c>
       <c r="J11">
-        <v>19.6</v>
+        <v>21.2</v>
       </c>
       <c r="K11">
-        <v>31.8</v>
+        <v>26.4</v>
       </c>
       <c r="L11">
-        <v>18.9</v>
+        <v>18.3</v>
       </c>
     </row>
   </sheetData>
@@ -1890,185 +1908,200 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>76.09999999999999</v>
+      </c>
+      <c r="C2">
         <v>40</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="D2">
+        <v>17.3</v>
+      </c>
+      <c r="E2">
+        <v>83.3</v>
+      </c>
+      <c r="F2">
+        <v>84.59999999999999</v>
+      </c>
+      <c r="G2">
+        <v>93.5</v>
+      </c>
+      <c r="H2">
+        <v>88.8</v>
+      </c>
+      <c r="I2">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="J2">
+        <v>98.7</v>
+      </c>
+      <c r="K2">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>66.40000000000001</v>
-      </c>
-      <c r="C2">
-        <v>97.09999999999999</v>
-      </c>
-      <c r="D2">
+      <c r="B3">
+        <v>62.8</v>
+      </c>
+      <c r="C3">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="D3">
+        <v>99.7</v>
+      </c>
+      <c r="E3">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="F3">
+        <v>98.7</v>
+      </c>
+      <c r="G3">
         <v>99.59999999999999</v>
       </c>
-      <c r="E2">
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>100</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>98.8</v>
+      </c>
+      <c r="C4">
+        <v>97.5</v>
+      </c>
+      <c r="D4">
+        <v>92.2</v>
+      </c>
+      <c r="E4">
+        <v>70.3</v>
+      </c>
+      <c r="F4">
+        <v>62.1</v>
+      </c>
+      <c r="G4">
+        <v>84.8</v>
+      </c>
+      <c r="H4">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="I4">
+        <v>99</v>
+      </c>
+      <c r="J4">
         <v>99.59999999999999</v>
       </c>
-      <c r="F2">
-        <v>99.5</v>
-      </c>
-      <c r="G2">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="H2">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="I2">
+      <c r="K4">
         <v>100</v>
       </c>
-      <c r="J2">
+      <c r="L4">
         <v>100</v>
       </c>
-      <c r="K2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>99</v>
-      </c>
-      <c r="C3">
-        <v>97.3</v>
-      </c>
-      <c r="D3">
-        <v>92.30000000000001</v>
-      </c>
-      <c r="E3">
-        <v>73.09999999999999</v>
-      </c>
-      <c r="F3">
-        <v>65.5</v>
-      </c>
-      <c r="G3">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="H3">
-        <v>90.3</v>
-      </c>
-      <c r="I3">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="J3">
-        <v>99.7</v>
-      </c>
-      <c r="K3">
-        <v>99.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>71.39999999999999</v>
-      </c>
-      <c r="C4">
-        <v>40</v>
-      </c>
-      <c r="D4">
-        <v>19.2</v>
-      </c>
-      <c r="E4">
-        <v>81.59999999999999</v>
-      </c>
-      <c r="F4">
-        <v>83.39999999999999</v>
-      </c>
-      <c r="G4">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="H4">
-        <v>90.8</v>
-      </c>
-      <c r="I4">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="J4">
-        <v>98.90000000000001</v>
-      </c>
-      <c r="K4">
-        <v>98.90000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>92.40000000000001</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="C5">
-        <v>35.8</v>
+        <v>37.9</v>
       </c>
       <c r="D5">
-        <v>53.40000000000001</v>
+        <v>52.7</v>
       </c>
       <c r="E5">
-        <v>83.5</v>
+        <v>83</v>
       </c>
       <c r="F5">
-        <v>87.5</v>
+        <v>89.5</v>
       </c>
       <c r="G5">
-        <v>85</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H5">
-        <v>64.60000000000001</v>
+        <v>63.4</v>
       </c>
       <c r="I5">
-        <v>46.5</v>
+        <v>47.7</v>
       </c>
       <c r="J5">
-        <v>69.09999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="K5">
-        <v>72.09999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>93.5</v>
+      </c>
+      <c r="L5">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2076,206 +2109,224 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>95.3</v>
+        <v>96</v>
       </c>
       <c r="D6">
-        <v>81.69999999999999</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="E6">
-        <v>65.5</v>
+        <v>60.9</v>
       </c>
       <c r="F6">
-        <v>73.7</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="G6">
-        <v>80.80000000000001</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="H6">
-        <v>56.2</v>
+        <v>56.8</v>
       </c>
       <c r="I6">
-        <v>78.40000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="J6">
-        <v>63.4</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="K6">
-        <v>63.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>51.4</v>
+      </c>
+      <c r="L6">
+        <v>54.50000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>92.5</v>
+      </c>
+      <c r="C7">
+        <v>70.5</v>
+      </c>
+      <c r="D7">
+        <v>44.2</v>
+      </c>
+      <c r="E7">
+        <v>29.8</v>
+      </c>
+      <c r="F7">
+        <v>49.6</v>
+      </c>
+      <c r="G7">
+        <v>29.1</v>
+      </c>
+      <c r="H7">
+        <v>45.2</v>
+      </c>
+      <c r="I7">
+        <v>29.2</v>
+      </c>
+      <c r="J7">
+        <v>19.3</v>
+      </c>
+      <c r="K7">
+        <v>50.4</v>
+      </c>
+      <c r="L7">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>10.4</v>
-      </c>
-      <c r="C7">
-        <v>55.1</v>
-      </c>
-      <c r="D7">
-        <v>45.1</v>
-      </c>
-      <c r="E7">
-        <v>12.9</v>
-      </c>
-      <c r="F7">
-        <v>33.90000000000001</v>
-      </c>
-      <c r="G7">
-        <v>27.5</v>
-      </c>
-      <c r="H7">
-        <v>40.2</v>
-      </c>
-      <c r="I7">
-        <v>27.9</v>
-      </c>
-      <c r="J7">
-        <v>44.5</v>
-      </c>
-      <c r="K7">
-        <v>46.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="B8">
+        <v>12.1</v>
+      </c>
+      <c r="C8">
+        <v>55.7</v>
+      </c>
+      <c r="D8">
+        <v>46.5</v>
+      </c>
+      <c r="E8">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>34.9</v>
+      </c>
+      <c r="G8">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>26.9</v>
+      </c>
+      <c r="J8">
+        <v>43</v>
+      </c>
+      <c r="K8">
+        <v>31.8</v>
+      </c>
+      <c r="L8">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>0.1</v>
       </c>
-      <c r="C8">
-        <v>17.3</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>24.4</v>
-      </c>
-      <c r="F8">
-        <v>11.6</v>
-      </c>
-      <c r="G8">
-        <v>6.1</v>
-      </c>
-      <c r="H8">
-        <v>4.6</v>
-      </c>
-      <c r="I8">
-        <v>25.4</v>
-      </c>
-      <c r="J8">
-        <v>38.8</v>
-      </c>
-      <c r="K8">
-        <v>37.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+      <c r="C9">
+        <v>14.2</v>
+      </c>
+      <c r="D9">
+        <v>6.7</v>
+      </c>
+      <c r="E9">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>9.4</v>
+      </c>
+      <c r="G9">
+        <v>6.9</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>24.9</v>
+      </c>
+      <c r="J9">
+        <v>38.3</v>
+      </c>
+      <c r="K9">
+        <v>29.3</v>
+      </c>
+      <c r="L9">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>14.1</v>
-      </c>
-      <c r="C9">
+      <c r="B10">
+        <v>12.8</v>
+      </c>
+      <c r="C10">
         <v>0.8999999999999999</v>
       </c>
-      <c r="D9">
-        <v>69</v>
-      </c>
-      <c r="E9">
-        <v>36.6</v>
-      </c>
-      <c r="F9">
-        <v>18.1</v>
-      </c>
-      <c r="G9">
-        <v>35.4</v>
-      </c>
-      <c r="H9">
-        <v>56.3</v>
-      </c>
-      <c r="I9">
-        <v>50.7</v>
-      </c>
-      <c r="J9">
-        <v>35.2</v>
-      </c>
-      <c r="K9">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10">
-        <v>53.5</v>
-      </c>
-      <c r="C10">
-        <v>92.30000000000001</v>
-      </c>
       <c r="D10">
-        <v>88.2</v>
+        <v>71.2</v>
       </c>
       <c r="E10">
-        <v>93.2</v>
+        <v>42.7</v>
       </c>
       <c r="F10">
-        <v>81.8</v>
+        <v>15</v>
       </c>
       <c r="G10">
-        <v>58.5</v>
+        <v>33.7</v>
       </c>
       <c r="H10">
-        <v>53.6</v>
+        <v>56.8</v>
       </c>
       <c r="I10">
-        <v>47.8</v>
+        <v>49.7</v>
       </c>
       <c r="J10">
-        <v>31.9</v>
+        <v>33.7</v>
       </c>
       <c r="K10">
-        <v>29.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>22.7</v>
+      </c>
+      <c r="L10">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B11">
-        <v>92.7</v>
+        <v>51.7</v>
       </c>
       <c r="C11">
-        <v>68.89999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="D11">
-        <v>43.5</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="E11">
-        <v>29.6</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="F11">
-        <v>45</v>
+        <v>81.3</v>
       </c>
       <c r="G11">
-        <v>28.1</v>
+        <v>56.99999999999999</v>
       </c>
       <c r="H11">
-        <v>43.5</v>
+        <v>53.90000000000001</v>
       </c>
       <c r="I11">
-        <v>28.8</v>
+        <v>49.5</v>
       </c>
       <c r="J11">
-        <v>18.5</v>
+        <v>30.8</v>
       </c>
       <c r="K11">
-        <v>18.7</v>
+        <v>21</v>
+      </c>
+      <c r="L11">
+        <v>17.8</v>
       </c>
     </row>
   </sheetData>
@@ -2293,48 +2344,48 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2">
-        <v>0.7777777777777778</v>
+        <v>0.7</v>
       </c>
       <c r="D2">
-        <v>136.9288888888889</v>
+        <v>132.286</v>
       </c>
       <c r="E2">
-        <v>1232.36</v>
+        <v>1322.86</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2343,68 +2394,68 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.8</v>
       </c>
       <c r="D3">
-        <v>129.62</v>
+        <v>139.726</v>
       </c>
       <c r="E3">
-        <v>1166.58</v>
+        <v>1397.26</v>
       </c>
       <c r="F3">
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>134.1066666666667</v>
+        <v>129.58</v>
       </c>
       <c r="E4">
-        <v>1206.96</v>
+        <v>1295.8</v>
       </c>
       <c r="F4">
-        <v>98.8</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2412,28 +2463,28 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>110.3288888888889</v>
+        <v>115.126</v>
       </c>
       <c r="E5">
-        <v>992.96</v>
+        <v>1151.26</v>
       </c>
       <c r="F5">
-        <v>72.2</v>
+        <v>94</v>
       </c>
       <c r="G5">
-        <v>2.6</v>
+        <v>0.1</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2441,173 +2492,173 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C6">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D6">
-        <v>119</v>
+        <v>116.53</v>
       </c>
       <c r="E6">
-        <v>1071</v>
+        <v>1165.3</v>
       </c>
       <c r="F6">
-        <v>63.4</v>
+        <v>52.90000000000001</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>7.3</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D7">
-        <v>112.8155555555556</v>
+        <v>116.658</v>
       </c>
       <c r="E7">
-        <v>1015.34</v>
+        <v>1166.58</v>
       </c>
       <c r="F7">
-        <v>45.7</v>
+        <v>47.2</v>
       </c>
       <c r="G7">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8">
-        <v>0.4444444444444444</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>108.96</v>
+        <v>111.574</v>
       </c>
       <c r="E8">
-        <v>980.6400000000001</v>
+        <v>1115.74</v>
       </c>
       <c r="F8">
-        <v>38.9</v>
+        <v>36</v>
       </c>
       <c r="G8">
-        <v>13.7</v>
+        <v>12.8</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D9">
-        <v>119.0933333333333</v>
+        <v>108.964</v>
       </c>
       <c r="E9">
-        <v>1071.84</v>
+        <v>1089.64</v>
       </c>
       <c r="F9">
-        <v>36.1</v>
+        <v>31.7</v>
       </c>
       <c r="G9">
-        <v>17.8</v>
+        <v>16.9</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="D10">
-        <v>116.0111111111111</v>
+        <v>117.676</v>
       </c>
       <c r="E10">
-        <v>1044.1</v>
+        <v>1176.76</v>
       </c>
       <c r="F10">
-        <v>26.5</v>
+        <v>19.9</v>
       </c>
       <c r="G10">
-        <v>20.5</v>
+        <v>28.9</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>113.4155555555556</v>
+        <v>115.604</v>
       </c>
       <c r="E11">
-        <v>1020.74</v>
+        <v>1156.04</v>
       </c>
       <c r="F11">
-        <v>18.9</v>
+        <v>18.3</v>
       </c>
       <c r="G11">
-        <v>31.8</v>
+        <v>26.4</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2625,19 +2676,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2648,16 +2699,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
       </c>
       <c r="F2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2668,16 +2719,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2688,16 +2739,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2708,16 +2759,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2725,19 +2776,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2745,19 +2796,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2768,16 +2819,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2788,16 +2839,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D9">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2805,19 +2856,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D10">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2825,19 +2876,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D11">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2847,45 +2898,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>106</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2916,11 +2970,14 @@
       <c r="J2">
         <v>25</v>
       </c>
-      <c r="K2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -2951,11 +3008,14 @@
       <c r="J3">
         <v>12</v>
       </c>
-      <c r="K3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>6</v>
+      </c>
+      <c r="L3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2986,11 +3046,14 @@
       <c r="J4">
         <v>6</v>
       </c>
-      <c r="K4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3021,81 +3084,90 @@
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="K5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>-2</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>-7</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>-5</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>-7</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>-8</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>-5</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>-2</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>-6</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>-5</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>-1</v>
       </c>
-      <c r="K6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>8</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>6</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>-2</v>
-      </c>
-      <c r="K7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7">
+        <v>-1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
@@ -3126,11 +3198,14 @@
       <c r="J8">
         <v>-7</v>
       </c>
-      <c r="K8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8">
+        <v>-8</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3161,78 +3236,87 @@
       <c r="J9">
         <v>-10</v>
       </c>
-      <c r="K9" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9">
+        <v>-8</v>
+      </c>
+      <c r="L9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>-6</v>
+      </c>
+      <c r="D10">
+        <v>-6</v>
+      </c>
+      <c r="E10">
+        <v>-5</v>
+      </c>
+      <c r="F10">
+        <v>-8</v>
+      </c>
+      <c r="G10">
+        <v>-6</v>
+      </c>
+      <c r="H10">
+        <v>-13</v>
+      </c>
+      <c r="I10">
+        <v>-17</v>
+      </c>
+      <c r="J10">
+        <v>-13</v>
+      </c>
+      <c r="K10">
+        <v>-8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>-2</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>-11</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>-10</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>-17</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>-13</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>-10</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>-12</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>-11</v>
       </c>
-      <c r="K10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>-6</v>
-      </c>
-      <c r="D11">
-        <v>-6</v>
-      </c>
-      <c r="E11">
-        <v>-5</v>
-      </c>
-      <c r="F11">
-        <v>-8</v>
-      </c>
-      <c r="G11">
-        <v>-6</v>
-      </c>
-      <c r="H11">
-        <v>-13</v>
-      </c>
-      <c r="I11">
-        <v>-17</v>
-      </c>
-      <c r="J11">
-        <v>-13</v>
-      </c>
-      <c r="K11" t="s">
-        <v>90</v>
+      <c r="K11">
+        <v>-14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3242,7 +3326,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3250,25 +3334,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3302,25 +3386,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E3">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="F3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3328,25 +3412,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3354,25 +3438,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>-8</v>
       </c>
       <c r="F5">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3380,25 +3464,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>-5</v>
+      </c>
+      <c r="F6">
         <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>-11</v>
       </c>
       <c r="G6">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3406,25 +3490,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="G7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3432,22 +3516,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="E8">
-        <v>-17</v>
-      </c>
       <c r="F8">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="G8">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H8" t="s">
         <v>3</v>
@@ -3458,25 +3542,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E9">
+        <v>-5</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
         <v>4</v>
-      </c>
-      <c r="F9">
-        <v>-5</v>
-      </c>
-      <c r="G9">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3484,25 +3568,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="F10">
-        <v>12</v>
+        <v>-6</v>
       </c>
       <c r="G10">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3510,25 +3594,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H11" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3536,22 +3620,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12" t="s">
         <v>7</v>
@@ -3562,25 +3646,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E13">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="G13">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3588,25 +3672,77 @@
         <v>12</v>
       </c>
       <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>7</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16">
         <v>-7</v>
       </c>
-      <c r="F14">
-        <v>-2</v>
-      </c>
-      <c r="G14">
-        <v>5</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2</v>
+      <c r="F16">
+        <v>-13</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="115">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -54,34 +54,37 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>10-0-0</t>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
+  </si>
+  <si>
+    <t>11-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -168,6 +171,9 @@
     <t>Week_11</t>
   </si>
   <si>
+    <t>Week_12</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -192,54 +198,51 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>8-2</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>9.4-4.6</t>
-  </si>
-  <si>
-    <t>10.6-3.4</t>
-  </si>
-  <si>
-    <t>9.2-4.7</t>
-  </si>
-  <si>
-    <t>7.9-6.0</t>
-  </si>
-  <si>
-    <t>5.9-8.0</t>
-  </si>
-  <si>
-    <t>5.8-8.2</t>
-  </si>
-  <si>
-    <t>5.7-8.3</t>
-  </si>
-  <si>
-    <t>4.8-9.2</t>
-  </si>
-  <si>
-    <t>4.8-9.1</t>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>9.8-4.2</t>
+  </si>
+  <si>
+    <t>9.8-4.1</t>
+  </si>
+  <si>
+    <t>8.7-5.3</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
+  </si>
+  <si>
+    <t>6.3-7.7</t>
+  </si>
+  <si>
+    <t>6.2-7.8</t>
+  </si>
+  <si>
+    <t>5.5-8.5</t>
+  </si>
+  <si>
+    <t>5.4-8.6</t>
+  </si>
+  <si>
+    <t>5.2-8.8</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>11-3</t>
-  </si>
-  <si>
     <t>9-5</t>
   </si>
   <si>
@@ -264,24 +267,24 @@
     <t>Achira Amur</t>
   </si>
   <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>Vidhi Sethia</t>
+  </si>
+  <si>
     <t>Saurin Sethia</t>
   </si>
   <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
-    <t>Vidhi Sethia</t>
-  </si>
-  <si>
-    <t>Utkarsh Gupta</t>
+    <t>Kabir Manocha</t>
   </si>
   <si>
     <t>Harshit Aggarwal</t>
   </si>
   <si>
-    <t>Kabir Manocha</t>
-  </si>
-  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
@@ -291,28 +294,25 @@
     <t>Shihab Chowdhury</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -767,31 +770,31 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -805,10 +808,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -820,13 +823,13 @@
         <v>10</v>
       </c>
       <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
         <v>16</v>
-      </c>
-      <c r="J3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -834,19 +837,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -869,31 +872,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -904,22 +907,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H6" t="s">
         <v>10</v>
@@ -928,7 +931,7 @@
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K6" t="s">
         <v>15</v>
@@ -939,13 +942,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
@@ -954,7 +957,7 @@
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
         <v>10</v>
@@ -966,7 +969,7 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -974,34 +977,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>11</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" t="s">
-        <v>14</v>
-      </c>
-      <c r="K8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1009,31 +1012,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
         <v>17</v>
@@ -1044,10 +1047,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>11</v>
@@ -1059,19 +1062,19 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1079,34 +1082,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1124,13 +1127,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1138,10 +1141,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1152,10 +1155,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1166,10 +1169,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -1180,13 +1183,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1194,10 +1197,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1211,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1225,10 +1228,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5.3</v>
+        <v>5.7</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1239,7 +1242,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1253,7 +1256,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -1267,10 +1270,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1288,16 +1291,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1305,16 +1308,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="D2">
-        <v>-0.7000000000000002</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1322,16 +1325,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1342,13 +1345,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>-1.4</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1359,10 +1362,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="D5">
-        <v>-0.9000000000000004</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1373,16 +1376,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6">
-        <v>4.6</v>
-      </c>
       <c r="D6">
-        <v>0.5999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1390,16 +1393,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1407,16 +1410,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1424,13 +1427,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1441,16 +1444,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1458,13 +1461,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D11">
-        <v>-0.5</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
@@ -1485,40 +1488,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1526,22 +1529,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>15.2</v>
+        <v>39.4</v>
       </c>
       <c r="C2">
-        <v>44.3</v>
+        <v>42</v>
       </c>
       <c r="D2">
-        <v>30.4</v>
+        <v>17.1</v>
       </c>
       <c r="E2">
-        <v>8.4</v>
+        <v>1.5</v>
       </c>
       <c r="F2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1564,16 +1567,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>73.2</v>
+        <v>54.2</v>
       </c>
       <c r="C3">
-        <v>18.1</v>
+        <v>33</v>
       </c>
       <c r="D3">
-        <v>7.9</v>
+        <v>12.3</v>
       </c>
       <c r="E3">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -1602,22 +1605,22 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>11.5</v>
+        <v>6.4</v>
       </c>
       <c r="C4">
-        <v>32.7</v>
+        <v>23.9</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>60.3</v>
       </c>
       <c r="E4">
-        <v>9.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="F4">
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1640,42 +1643,42 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E5">
-        <v>53.5</v>
+        <v>52.4</v>
       </c>
       <c r="F5">
-        <v>13.8</v>
+        <v>17.1</v>
       </c>
       <c r="G5">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="H5">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="I5">
+        <v>5.3</v>
+      </c>
+      <c r="J5">
         <v>1.6</v>
-      </c>
-      <c r="J5">
-        <v>0.6</v>
       </c>
       <c r="K5">
         <v>0.1</v>
       </c>
       <c r="L5">
-        <v>94</v>
+        <v>88.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1684,36 +1687,36 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E6">
-        <v>7.6</v>
+        <v>10.3</v>
       </c>
       <c r="F6">
-        <v>23.8</v>
+        <v>19.3</v>
       </c>
       <c r="G6">
-        <v>20.8</v>
+        <v>16.3</v>
       </c>
       <c r="H6">
-        <v>16.1</v>
+        <v>18.7</v>
       </c>
       <c r="I6">
-        <v>12.6</v>
+        <v>12.9</v>
       </c>
       <c r="J6">
-        <v>11.1</v>
+        <v>12.8</v>
       </c>
       <c r="K6">
-        <v>7.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L6">
-        <v>52.9</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1722,36 +1725,36 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E7">
-        <v>6.7</v>
+        <v>10.3</v>
       </c>
       <c r="F7">
-        <v>20.3</v>
+        <v>18.1</v>
       </c>
       <c r="G7">
-        <v>19.7</v>
+        <v>14.5</v>
       </c>
       <c r="H7">
-        <v>17.6</v>
+        <v>18.3</v>
       </c>
       <c r="I7">
-        <v>15.5</v>
+        <v>16.8</v>
       </c>
       <c r="J7">
-        <v>12.1</v>
+        <v>12.9</v>
       </c>
       <c r="K7">
-        <v>7.6</v>
+        <v>8.9</v>
       </c>
       <c r="L7">
-        <v>47.2</v>
+        <v>43.1</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1760,36 +1763,36 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E8">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="F8">
-        <v>13.6</v>
+        <v>14.2</v>
       </c>
       <c r="G8">
-        <v>16.1</v>
+        <v>19.1</v>
       </c>
       <c r="H8">
-        <v>18.8</v>
+        <v>14.2</v>
       </c>
       <c r="I8">
-        <v>16.5</v>
+        <v>15.3</v>
       </c>
       <c r="J8">
-        <v>15.9</v>
+        <v>14.8</v>
       </c>
       <c r="K8">
-        <v>12.8</v>
+        <v>15.4</v>
       </c>
       <c r="L8">
-        <v>36</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1798,36 +1801,36 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="F9">
-        <v>13.3</v>
+        <v>15.8</v>
       </c>
       <c r="G9">
-        <v>14.2</v>
+        <v>16</v>
       </c>
       <c r="H9">
-        <v>15.6</v>
+        <v>15.3</v>
       </c>
       <c r="I9">
-        <v>17.5</v>
+        <v>15.3</v>
       </c>
       <c r="J9">
-        <v>18.3</v>
+        <v>16.9</v>
       </c>
       <c r="K9">
-        <v>16.9</v>
+        <v>16.5</v>
       </c>
       <c r="L9">
-        <v>31.7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1839,33 +1842,33 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="F10">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>12.6</v>
       </c>
       <c r="H10">
-        <v>13</v>
+        <v>16.1</v>
       </c>
       <c r="I10">
-        <v>17.4</v>
+        <v>15.9</v>
       </c>
       <c r="J10">
-        <v>20.8</v>
+        <v>19.8</v>
       </c>
       <c r="K10">
-        <v>28.9</v>
+        <v>24</v>
       </c>
       <c r="L10">
-        <v>19.9</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1877,28 +1880,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="F11">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H11">
-        <v>15.2</v>
+        <v>12.8</v>
       </c>
       <c r="I11">
-        <v>18.9</v>
+        <v>18.5</v>
       </c>
       <c r="J11">
         <v>21.2</v>
       </c>
       <c r="K11">
-        <v>26.4</v>
+        <v>25.9</v>
       </c>
       <c r="L11">
-        <v>18.3</v>
+        <v>21.6</v>
       </c>
     </row>
   </sheetData>
@@ -1908,106 +1911,112 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>48</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>76.09999999999999</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>40.5</v>
       </c>
       <c r="D2">
-        <v>17.3</v>
+        <v>19</v>
       </c>
       <c r="E2">
-        <v>83.3</v>
+        <v>80.5</v>
       </c>
       <c r="F2">
-        <v>84.59999999999999</v>
+        <v>83</v>
       </c>
       <c r="G2">
-        <v>93.5</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="H2">
-        <v>88.8</v>
+        <v>89.7</v>
       </c>
       <c r="I2">
-        <v>96.39999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="J2">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="K2">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="L2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>62.8</v>
+        <v>64</v>
       </c>
       <c r="C3">
-        <v>96.39999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D3">
-        <v>99.7</v>
+        <v>99.5</v>
       </c>
       <c r="E3">
-        <v>99.40000000000001</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="F3">
-        <v>98.7</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="G3">
-        <v>99.59999999999999</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -2024,309 +2033,336 @@
       <c r="L3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>98.8</v>
+        <v>99.5</v>
       </c>
       <c r="C4">
-        <v>97.5</v>
+        <v>97.3</v>
       </c>
       <c r="D4">
-        <v>92.2</v>
+        <v>93</v>
       </c>
       <c r="E4">
-        <v>70.3</v>
+        <v>76.3</v>
       </c>
       <c r="F4">
-        <v>62.1</v>
+        <v>62</v>
       </c>
       <c r="G4">
-        <v>84.8</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="H4">
-        <v>92.10000000000001</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="I4">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="J4">
         <v>99</v>
       </c>
-      <c r="J4">
-        <v>99.59999999999999</v>
-      </c>
       <c r="K4">
+        <v>99.8</v>
+      </c>
+      <c r="L4">
+        <v>99.8</v>
+      </c>
+      <c r="M4">
         <v>100</v>
       </c>
-      <c r="L4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>93.10000000000001</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="C5">
-        <v>37.9</v>
+        <v>36</v>
       </c>
       <c r="D5">
+        <v>51.2</v>
+      </c>
+      <c r="E5">
+        <v>82.89999999999999</v>
+      </c>
+      <c r="F5">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="G5">
+        <v>82.39999999999999</v>
+      </c>
+      <c r="H5">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="I5">
+        <v>46.5</v>
+      </c>
+      <c r="J5">
+        <v>71.5</v>
+      </c>
+      <c r="K5">
+        <v>94.19999999999999</v>
+      </c>
+      <c r="L5">
+        <v>84.3</v>
+      </c>
+      <c r="M5">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>0.3</v>
+      </c>
+      <c r="C6">
+        <v>19.1</v>
+      </c>
+      <c r="D6">
+        <v>6.5</v>
+      </c>
+      <c r="E6">
+        <v>23.2</v>
+      </c>
+      <c r="F6">
+        <v>10.1</v>
+      </c>
+      <c r="G6">
+        <v>6.9</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>23.1</v>
+      </c>
+      <c r="J6">
+        <v>38.8</v>
+      </c>
+      <c r="K6">
+        <v>28.6</v>
+      </c>
+      <c r="L6">
+        <v>47</v>
+      </c>
+      <c r="M6">
+        <v>47.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>11.6</v>
+      </c>
+      <c r="C7">
+        <v>55.60000000000001</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>32.9</v>
+      </c>
+      <c r="G7">
+        <v>27.4</v>
+      </c>
+      <c r="H7">
+        <v>39.5</v>
+      </c>
+      <c r="I7">
+        <v>26.7</v>
+      </c>
+      <c r="J7">
+        <v>46.2</v>
+      </c>
+      <c r="K7">
+        <v>32.2</v>
+      </c>
+      <c r="L7">
+        <v>46.6</v>
+      </c>
+      <c r="M7">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>14.9</v>
+      </c>
+      <c r="C8">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="D8">
+        <v>68.8</v>
+      </c>
+      <c r="E8">
+        <v>38.1</v>
+      </c>
+      <c r="F8">
+        <v>14.9</v>
+      </c>
+      <c r="G8">
+        <v>36.5</v>
+      </c>
+      <c r="H8">
+        <v>55.50000000000001</v>
+      </c>
+      <c r="I8">
         <v>52.7</v>
       </c>
-      <c r="E5">
-        <v>83</v>
-      </c>
-      <c r="F5">
-        <v>89.5</v>
-      </c>
-      <c r="G5">
-        <v>84.59999999999999</v>
-      </c>
-      <c r="H5">
-        <v>63.4</v>
-      </c>
-      <c r="I5">
-        <v>47.7</v>
-      </c>
-      <c r="J5">
-        <v>71.2</v>
-      </c>
-      <c r="K5">
-        <v>93.5</v>
-      </c>
-      <c r="L5">
-        <v>94.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
+      <c r="J8">
+        <v>28.9</v>
+      </c>
+      <c r="K8">
+        <v>25</v>
+      </c>
+      <c r="L8">
+        <v>35.8</v>
+      </c>
+      <c r="M8">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>51.3</v>
+      </c>
+      <c r="C9">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D9">
+        <v>86.8</v>
+      </c>
+      <c r="E9">
+        <v>93.7</v>
+      </c>
+      <c r="F9">
+        <v>83.8</v>
+      </c>
+      <c r="G9">
+        <v>60.2</v>
+      </c>
+      <c r="H9">
+        <v>55.7</v>
+      </c>
+      <c r="I9">
+        <v>47.4</v>
+      </c>
+      <c r="J9">
+        <v>29.1</v>
+      </c>
+      <c r="K9">
+        <v>19.1</v>
+      </c>
+      <c r="L9">
+        <v>29.2</v>
+      </c>
+      <c r="M9">
+        <v>36.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B10">
         <v>100</v>
       </c>
-      <c r="C6">
-        <v>96</v>
-      </c>
-      <c r="D6">
-        <v>82.89999999999999</v>
-      </c>
-      <c r="E6">
-        <v>60.9</v>
-      </c>
-      <c r="F6">
-        <v>74.90000000000001</v>
-      </c>
-      <c r="G6">
-        <v>79.80000000000001</v>
-      </c>
-      <c r="H6">
-        <v>56.8</v>
-      </c>
-      <c r="I6">
-        <v>76.7</v>
-      </c>
-      <c r="J6">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="K6">
-        <v>51.4</v>
-      </c>
-      <c r="L6">
-        <v>54.50000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+      <c r="C10">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="D10">
+        <v>83.89999999999999</v>
+      </c>
+      <c r="E10">
+        <v>62.2</v>
+      </c>
+      <c r="F10">
+        <v>74.3</v>
+      </c>
+      <c r="G10">
+        <v>79</v>
+      </c>
+      <c r="H10">
+        <v>55.2</v>
+      </c>
+      <c r="I10">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="J10">
+        <v>66.7</v>
+      </c>
+      <c r="K10">
+        <v>52</v>
+      </c>
+      <c r="L10">
+        <v>29.8</v>
+      </c>
+      <c r="M10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>92.5</v>
-      </c>
-      <c r="C7">
-        <v>70.5</v>
-      </c>
-      <c r="D7">
-        <v>44.2</v>
-      </c>
-      <c r="E7">
-        <v>29.8</v>
-      </c>
-      <c r="F7">
-        <v>49.6</v>
-      </c>
-      <c r="G7">
-        <v>29.1</v>
-      </c>
-      <c r="H7">
-        <v>45.2</v>
-      </c>
-      <c r="I7">
-        <v>29.2</v>
-      </c>
-      <c r="J7">
-        <v>19.3</v>
-      </c>
-      <c r="K7">
-        <v>50.4</v>
-      </c>
-      <c r="L7">
-        <v>47.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>12.1</v>
-      </c>
-      <c r="C8">
-        <v>55.7</v>
-      </c>
-      <c r="D8">
-        <v>46.5</v>
-      </c>
-      <c r="E8">
-        <v>14</v>
-      </c>
-      <c r="F8">
-        <v>34.9</v>
-      </c>
-      <c r="G8">
-        <v>31</v>
-      </c>
-      <c r="H8">
-        <v>38</v>
-      </c>
-      <c r="I8">
-        <v>26.9</v>
-      </c>
-      <c r="J8">
-        <v>43</v>
-      </c>
-      <c r="K8">
-        <v>31.8</v>
-      </c>
-      <c r="L8">
-        <v>34.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>0.1</v>
-      </c>
-      <c r="C9">
-        <v>14.2</v>
-      </c>
-      <c r="D9">
-        <v>6.7</v>
-      </c>
-      <c r="E9">
-        <v>25</v>
-      </c>
-      <c r="F9">
-        <v>9.4</v>
-      </c>
-      <c r="G9">
-        <v>6.9</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>24.9</v>
-      </c>
-      <c r="J9">
-        <v>38.3</v>
-      </c>
-      <c r="K9">
-        <v>29.3</v>
-      </c>
-      <c r="L9">
-        <v>32.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>12.8</v>
-      </c>
-      <c r="C10">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="D10">
-        <v>71.2</v>
-      </c>
-      <c r="E10">
-        <v>42.7</v>
-      </c>
-      <c r="F10">
-        <v>15</v>
-      </c>
-      <c r="G10">
-        <v>33.7</v>
-      </c>
-      <c r="H10">
-        <v>56.8</v>
-      </c>
-      <c r="I10">
-        <v>49.7</v>
-      </c>
-      <c r="J10">
-        <v>33.7</v>
-      </c>
-      <c r="K10">
-        <v>22.7</v>
-      </c>
-      <c r="L10">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B11">
-        <v>51.7</v>
+        <v>91.7</v>
       </c>
       <c r="C11">
-        <v>90.90000000000001</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>86.59999999999999</v>
+        <v>45.3</v>
       </c>
       <c r="E11">
-        <v>91.60000000000001</v>
+        <v>30.5</v>
       </c>
       <c r="F11">
-        <v>81.3</v>
+        <v>50.5</v>
       </c>
       <c r="G11">
-        <v>56.99999999999999</v>
+        <v>28.2</v>
       </c>
       <c r="H11">
-        <v>53.90000000000001</v>
+        <v>41.4</v>
       </c>
       <c r="I11">
-        <v>49.5</v>
+        <v>30</v>
       </c>
       <c r="J11">
-        <v>30.8</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>21</v>
+        <v>49.3</v>
       </c>
       <c r="L11">
-        <v>17.8</v>
+        <v>27.5</v>
+      </c>
+      <c r="M11">
+        <v>21.2</v>
       </c>
     </row>
   </sheetData>
@@ -2344,31 +2380,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2376,16 +2412,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D2">
-        <v>132.286</v>
+        <v>131</v>
       </c>
       <c r="E2">
-        <v>1322.86</v>
+        <v>1441</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -2394,10 +2430,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2405,16 +2441,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D3">
-        <v>139.726</v>
+        <v>136.2690909090909</v>
       </c>
       <c r="E3">
-        <v>1397.26</v>
+        <v>1498.96</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -2423,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2434,16 +2470,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D4">
-        <v>129.58</v>
+        <v>129.0727272727273</v>
       </c>
       <c r="E4">
-        <v>1295.8</v>
+        <v>1419.8</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -2452,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2463,202 +2499,202 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D5">
-        <v>115.126</v>
+        <v>114.7872727272727</v>
       </c>
       <c r="E5">
-        <v>1151.26</v>
+        <v>1262.66</v>
       </c>
       <c r="F5">
-        <v>94</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G5">
         <v>0.1</v>
       </c>
       <c r="H5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C6">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D6">
-        <v>116.53</v>
+        <v>110.1945454545454</v>
       </c>
       <c r="E6">
-        <v>1165.3</v>
+        <v>1212.14</v>
       </c>
       <c r="F6">
-        <v>52.90000000000001</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="G6">
-        <v>7.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C7">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D7">
-        <v>116.658</v>
+        <v>109.7781818181818</v>
       </c>
       <c r="E7">
-        <v>1166.58</v>
+        <v>1207.56</v>
       </c>
       <c r="F7">
-        <v>47.2</v>
+        <v>43.1</v>
       </c>
       <c r="G7">
-        <v>7.6</v>
+        <v>8.9</v>
       </c>
       <c r="H7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="I7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D8">
-        <v>111.574</v>
+        <v>119.4145454545454</v>
       </c>
       <c r="E8">
-        <v>1115.74</v>
+        <v>1313.56</v>
       </c>
       <c r="F8">
-        <v>36</v>
+        <v>40.3</v>
       </c>
       <c r="G8">
-        <v>12.8</v>
+        <v>15.4</v>
       </c>
       <c r="H8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C9">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D9">
-        <v>108.964</v>
+        <v>116.7927272727273</v>
       </c>
       <c r="E9">
-        <v>1089.64</v>
+        <v>1284.72</v>
       </c>
       <c r="F9">
-        <v>31.7</v>
+        <v>36</v>
       </c>
       <c r="G9">
-        <v>16.9</v>
+        <v>16.5</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D10">
-        <v>117.676</v>
+        <v>113.8036363636364</v>
       </c>
       <c r="E10">
-        <v>1176.76</v>
+        <v>1251.84</v>
       </c>
       <c r="F10">
-        <v>19.9</v>
+        <v>24.2</v>
       </c>
       <c r="G10">
-        <v>28.9</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D11">
-        <v>115.604</v>
+        <v>116.0363636363636</v>
       </c>
       <c r="E11">
-        <v>1156.04</v>
+        <v>1276.4</v>
       </c>
       <c r="F11">
-        <v>18.3</v>
+        <v>21.6</v>
       </c>
       <c r="G11">
-        <v>26.4</v>
+        <v>25.9</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2676,19 +2712,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2699,16 +2735,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2716,19 +2752,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2736,19 +2772,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2759,16 +2795,16 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2776,19 +2812,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2796,19 +2832,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2816,19 +2852,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2839,16 +2875,16 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2859,16 +2895,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D10">
-        <v>-8</v>
+        <v>-10</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2879,16 +2915,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D11">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2898,13 +2934,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>97</v>
       </c>
@@ -2936,10 +2972,13 @@
         <v>106</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>107</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -2973,87 +3012,96 @@
       <c r="K2">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>-2</v>
+      </c>
+      <c r="C3">
+        <v>-2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>-6</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>10</v>
+      </c>
+      <c r="J3">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>12</v>
-      </c>
-      <c r="H3">
-        <v>12</v>
-      </c>
-      <c r="I3">
-        <v>11</v>
-      </c>
-      <c r="J3">
-        <v>12</v>
-      </c>
       <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="L3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+      <c r="G4">
         <v>1</v>
-      </c>
-      <c r="B4">
-        <v>-2</v>
-      </c>
-      <c r="C4">
-        <v>-2</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-      <c r="F4">
-        <v>-6</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3087,125 +3135,137 @@
       <c r="K5">
         <v>4</v>
       </c>
-      <c r="L5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>17</v>
+      </c>
+      <c r="G6">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>12</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
+      </c>
+      <c r="L6">
+        <v>-5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="B7">
         <v>-2</v>
       </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="C7">
+        <v>-1</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7">
+        <v>-2</v>
+      </c>
+      <c r="F7">
+        <v>-8</v>
+      </c>
+      <c r="G7">
+        <v>-7</v>
+      </c>
+      <c r="H7">
+        <v>-13</v>
+      </c>
+      <c r="I7">
+        <v>-6</v>
+      </c>
+      <c r="J7">
+        <v>-7</v>
+      </c>
+      <c r="K7">
+        <v>-8</v>
+      </c>
+      <c r="L7">
+        <v>-7</v>
+      </c>
+      <c r="M7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>-7</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>-5</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>-7</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>-8</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>-5</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>-2</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>-6</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>-5</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>-1</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>-1</v>
       </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>-2</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8">
-        <v>-2</v>
-      </c>
-      <c r="E8">
-        <v>-2</v>
-      </c>
-      <c r="F8">
-        <v>-8</v>
-      </c>
-      <c r="G8">
-        <v>-7</v>
-      </c>
-      <c r="H8">
-        <v>-13</v>
-      </c>
-      <c r="I8">
-        <v>-6</v>
-      </c>
-      <c r="J8">
-        <v>-7</v>
-      </c>
-      <c r="K8">
-        <v>-8</v>
-      </c>
-      <c r="L8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8">
+        <v>-10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -3239,11 +3299,14 @@
       <c r="K9">
         <v>-8</v>
       </c>
-      <c r="L9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9">
+        <v>-10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -3277,11 +3340,14 @@
       <c r="K10">
         <v>-8</v>
       </c>
-      <c r="L10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="L10">
+        <v>-10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -3315,8 +3381,11 @@
       <c r="K11">
         <v>-14</v>
       </c>
-      <c r="L11" t="s">
-        <v>96</v>
+      <c r="L11">
+        <v>-13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3326,7 +3395,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3334,25 +3403,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3386,25 +3455,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-14</v>
+        <v>32</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3412,25 +3481,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E4">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3438,25 +3507,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3464,25 +3533,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3490,25 +3559,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
       <c r="E7">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F7">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="G7">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3516,25 +3585,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="G8">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3542,25 +3611,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3571,22 +3640,22 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-17</v>
+        <v>-5</v>
       </c>
       <c r="F10">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3594,25 +3663,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
       <c r="E11">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="F11">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3620,25 +3689,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>4</v>
       </c>
       <c r="F12">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
         <v>8</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -3646,25 +3715,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F13">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>8</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3672,25 +3741,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E14">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -3698,25 +3767,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G15">
         <v>7</v>
       </c>
       <c r="H15" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -3724,24 +3793,50 @@
         <v>14</v>
       </c>
       <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
         <v>6</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>3</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>-7</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>-13</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>6</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>3</v>
       </c>
     </row>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -12,17 +12,18 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
-    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
-    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
-    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="122">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -174,6 +175,57 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Saurin Sethia</t>
+  </si>
+  <si>
+    <t>Vidhi Sethia</t>
+  </si>
+  <si>
+    <t>Shihab Chowdhury</t>
+  </si>
+  <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
+    <t>Kabir Manocha</t>
+  </si>
+  <si>
+    <t>Achira Amur</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -228,13 +280,13 @@
     <t>6.3-7.7</t>
   </si>
   <si>
-    <t>6.2-7.8</t>
-  </si>
-  <si>
     <t>5.5-8.5</t>
   </si>
   <si>
-    <t>5.4-8.6</t>
+    <t>5.4-8.5</t>
+  </si>
+  <si>
+    <t>5.3-8.6</t>
   </si>
   <si>
     <t>5.2-8.8</t>
@@ -246,7 +298,7 @@
     <t>9-5</t>
   </si>
   <si>
-    <t>8-6</t>
+    <t>7-7</t>
   </si>
   <si>
     <t>6-8</t>
@@ -262,36 +314,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Achira Amur</t>
-  </si>
-  <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
-    <t>Vidhi Sethia</t>
-  </si>
-  <si>
-    <t>Saurin Sethia</t>
-  </si>
-  <si>
-    <t>Kabir Manocha</t>
-  </si>
-  <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Pawan Bhambhwani</t>
-  </si>
-  <si>
-    <t>Shihab Chowdhury</t>
   </si>
   <si>
     <t>↑6</t>
@@ -1117,6 +1139,458 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>-13</v>
+      </c>
+      <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>-14</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>-6</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>-8</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>-5</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>-2</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>-11</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>-5</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-17</v>
+      </c>
+      <c r="F11">
+        <v>-6</v>
+      </c>
+      <c r="G11">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>-5</v>
+      </c>
+      <c r="G12">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>-8</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>7</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>-7</v>
+      </c>
+      <c r="F17">
+        <v>-13</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
@@ -1529,16 +2003,16 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>39.4</v>
+        <v>35.9</v>
       </c>
       <c r="C2">
-        <v>42</v>
+        <v>44.2</v>
       </c>
       <c r="D2">
-        <v>17.1</v>
+        <v>17.9</v>
       </c>
       <c r="E2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -1567,13 +2041,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>54.2</v>
+        <v>56.1</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>30.7</v>
       </c>
       <c r="D3">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -1605,19 +2079,19 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="C4">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>60.3</v>
+        <v>58.7</v>
       </c>
       <c r="E4">
-        <v>8.9</v>
+        <v>8.6</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1643,7 +2117,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C5">
         <v>1.1</v>
@@ -1652,28 +2126,28 @@
         <v>9.300000000000001</v>
       </c>
       <c r="E5">
-        <v>52.4</v>
+        <v>53.1</v>
       </c>
       <c r="F5">
-        <v>17.1</v>
+        <v>16.3</v>
       </c>
       <c r="G5">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="H5">
+        <v>4.8</v>
+      </c>
+      <c r="I5">
         <v>4.6</v>
-      </c>
-      <c r="I5">
-        <v>5.3</v>
       </c>
       <c r="J5">
         <v>1.6</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L5">
-        <v>88.40000000000001</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1687,31 +2161,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E6">
-        <v>10.3</v>
+        <v>12.3</v>
       </c>
       <c r="F6">
-        <v>19.3</v>
+        <v>20.2</v>
       </c>
       <c r="G6">
-        <v>16.3</v>
+        <v>17.3</v>
       </c>
       <c r="H6">
-        <v>18.7</v>
+        <v>15.6</v>
       </c>
       <c r="I6">
-        <v>12.9</v>
+        <v>14.7</v>
       </c>
       <c r="J6">
-        <v>12.8</v>
+        <v>10.2</v>
       </c>
       <c r="K6">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="L6">
-        <v>46.4</v>
+        <v>50.4</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1725,36 +2199,36 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E7">
-        <v>10.3</v>
+        <v>9.5</v>
       </c>
       <c r="F7">
-        <v>18.1</v>
+        <v>18.3</v>
       </c>
       <c r="G7">
+        <v>16.7</v>
+      </c>
+      <c r="H7">
+        <v>20.2</v>
+      </c>
+      <c r="I7">
         <v>14.5</v>
       </c>
-      <c r="H7">
-        <v>18.3</v>
-      </c>
-      <c r="I7">
-        <v>16.8</v>
-      </c>
       <c r="J7">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="K7">
-        <v>8.9</v>
+        <v>8.1</v>
       </c>
       <c r="L7">
-        <v>43.1</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1763,36 +2237,36 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>6.7</v>
+        <v>4.4</v>
       </c>
       <c r="F8">
-        <v>14.2</v>
+        <v>14.7</v>
       </c>
       <c r="G8">
-        <v>19.1</v>
+        <v>17.3</v>
       </c>
       <c r="H8">
-        <v>14.2</v>
+        <v>14.4</v>
       </c>
       <c r="I8">
-        <v>15.3</v>
+        <v>15.7</v>
       </c>
       <c r="J8">
-        <v>14.8</v>
+        <v>17.2</v>
       </c>
       <c r="K8">
-        <v>15.4</v>
+        <v>16.3</v>
       </c>
       <c r="L8">
-        <v>40.3</v>
+        <v>36.4</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1801,28 +2275,28 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E9">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="F9">
-        <v>15.8</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>16.4</v>
       </c>
       <c r="H9">
-        <v>15.3</v>
+        <v>14.4</v>
       </c>
       <c r="I9">
-        <v>15.3</v>
+        <v>18.2</v>
       </c>
       <c r="J9">
-        <v>16.9</v>
+        <v>15.7</v>
       </c>
       <c r="K9">
-        <v>16.5</v>
+        <v>15.7</v>
       </c>
       <c r="L9">
         <v>36</v>
@@ -1842,28 +2316,28 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G10">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>16.1</v>
+        <v>14.6</v>
       </c>
       <c r="I10">
-        <v>15.9</v>
+        <v>15.3</v>
       </c>
       <c r="J10">
-        <v>19.8</v>
+        <v>22.5</v>
       </c>
       <c r="K10">
-        <v>24</v>
+        <v>25.5</v>
       </c>
       <c r="L10">
-        <v>24.2</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1877,31 +2351,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E11">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="G11">
-        <v>13</v>
+        <v>12.4</v>
       </c>
       <c r="H11">
-        <v>12.8</v>
+        <v>16</v>
       </c>
       <c r="I11">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="J11">
-        <v>21.2</v>
+        <v>20.6</v>
       </c>
       <c r="K11">
-        <v>25.9</v>
+        <v>25.1</v>
       </c>
       <c r="L11">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
     </row>
   </sheetData>
@@ -1960,31 +2434,31 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>73.09999999999999</v>
+        <v>73.3</v>
       </c>
       <c r="C2">
-        <v>40.5</v>
+        <v>40.7</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>18.7</v>
       </c>
       <c r="E2">
-        <v>80.5</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>83</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="G2">
-        <v>94.39999999999999</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="H2">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="I2">
-        <v>96.09999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="J2">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="K2">
         <v>99.8</v>
@@ -2001,25 +2475,25 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>65.3</v>
       </c>
       <c r="C3">
-        <v>97.59999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D3">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="E3">
         <v>99.59999999999999</v>
       </c>
       <c r="F3">
-        <v>98.90000000000001</v>
+        <v>99.2</v>
       </c>
       <c r="G3">
-        <v>99.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="I3">
         <v>100</v>
@@ -2042,37 +2516,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>99.5</v>
+        <v>99</v>
       </c>
       <c r="C4">
-        <v>97.3</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="D4">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E4">
-        <v>76.3</v>
+        <v>72.8</v>
       </c>
       <c r="F4">
-        <v>62</v>
+        <v>64.2</v>
       </c>
       <c r="G4">
         <v>85.09999999999999</v>
       </c>
       <c r="H4">
-        <v>91.10000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="I4">
-        <v>98.09999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="J4">
         <v>99</v>
       </c>
       <c r="K4">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L4">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="M4">
         <v>100</v>
@@ -2083,40 +2557,40 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>93.60000000000001</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>34.2</v>
       </c>
       <c r="D5">
-        <v>51.2</v>
+        <v>50.5</v>
       </c>
       <c r="E5">
-        <v>82.89999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="F5">
-        <v>89.60000000000001</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="G5">
-        <v>82.39999999999999</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="H5">
-        <v>66.90000000000001</v>
+        <v>63.7</v>
       </c>
       <c r="I5">
-        <v>46.5</v>
+        <v>50.3</v>
       </c>
       <c r="J5">
-        <v>71.5</v>
+        <v>71.7</v>
       </c>
       <c r="K5">
-        <v>94.19999999999999</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="L5">
-        <v>84.3</v>
+        <v>88.3</v>
       </c>
       <c r="M5">
-        <v>89.2</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2124,40 +2598,40 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="C6">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="D6">
-        <v>6.5</v>
+        <v>8.1</v>
       </c>
       <c r="E6">
-        <v>23.2</v>
+        <v>23.6</v>
       </c>
       <c r="F6">
-        <v>10.1</v>
+        <v>11</v>
       </c>
       <c r="G6">
-        <v>6.9</v>
+        <v>7.3</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="I6">
-        <v>23.1</v>
+        <v>26.1</v>
       </c>
       <c r="J6">
-        <v>38.8</v>
+        <v>37.4</v>
       </c>
       <c r="K6">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="L6">
-        <v>47</v>
+        <v>46.8</v>
       </c>
       <c r="M6">
-        <v>47.4</v>
+        <v>45.8</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2165,40 +2639,40 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="C7">
-        <v>55.60000000000001</v>
+        <v>57.7</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>45.6</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F7">
-        <v>32.9</v>
+        <v>35.8</v>
       </c>
       <c r="G7">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="H7">
-        <v>39.5</v>
+        <v>35.8</v>
       </c>
       <c r="I7">
-        <v>26.7</v>
+        <v>28.2</v>
       </c>
       <c r="J7">
-        <v>46.2</v>
+        <v>45.4</v>
       </c>
       <c r="K7">
-        <v>32.2</v>
+        <v>32.6</v>
       </c>
       <c r="L7">
-        <v>46.6</v>
+        <v>47.3</v>
       </c>
       <c r="M7">
-        <v>42.3</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2206,40 +2680,40 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>14.9</v>
+        <v>15.7</v>
       </c>
       <c r="C8">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>68.8</v>
+        <v>70</v>
       </c>
       <c r="E8">
-        <v>38.1</v>
+        <v>40.5</v>
       </c>
       <c r="F8">
-        <v>14.9</v>
+        <v>15.5</v>
       </c>
       <c r="G8">
-        <v>36.5</v>
+        <v>33.7</v>
       </c>
       <c r="H8">
-        <v>55.50000000000001</v>
+        <v>59.4</v>
       </c>
       <c r="I8">
-        <v>52.7</v>
+        <v>49.1</v>
       </c>
       <c r="J8">
-        <v>28.9</v>
+        <v>31.3</v>
       </c>
       <c r="K8">
-        <v>25</v>
+        <v>26.8</v>
       </c>
       <c r="L8">
-        <v>35.8</v>
+        <v>33.6</v>
       </c>
       <c r="M8">
-        <v>37.6</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2247,40 +2721,40 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>51.3</v>
+        <v>49.7</v>
       </c>
       <c r="C9">
-        <v>90.40000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="D9">
-        <v>86.8</v>
+        <v>87.2</v>
       </c>
       <c r="E9">
-        <v>93.7</v>
+        <v>92.2</v>
       </c>
       <c r="F9">
-        <v>83.8</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="G9">
-        <v>60.2</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="H9">
-        <v>55.7</v>
+        <v>53.5</v>
       </c>
       <c r="I9">
-        <v>47.4</v>
+        <v>46.6</v>
       </c>
       <c r="J9">
-        <v>29.1</v>
+        <v>31.5</v>
       </c>
       <c r="K9">
-        <v>19.1</v>
+        <v>17.9</v>
       </c>
       <c r="L9">
-        <v>29.2</v>
+        <v>30.4</v>
       </c>
       <c r="M9">
-        <v>36.3</v>
+        <v>33.2</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2294,34 +2768,34 @@
         <v>95.59999999999999</v>
       </c>
       <c r="D10">
-        <v>83.89999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="E10">
-        <v>62.2</v>
+        <v>63.6</v>
       </c>
       <c r="F10">
-        <v>74.3</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="G10">
-        <v>79</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="H10">
-        <v>55.2</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="I10">
-        <v>79.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="J10">
         <v>66.7</v>
       </c>
       <c r="K10">
-        <v>52</v>
+        <v>54.90000000000001</v>
       </c>
       <c r="L10">
-        <v>29.8</v>
+        <v>26.8</v>
       </c>
       <c r="M10">
-        <v>26</v>
+        <v>24.6</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2329,40 +2803,40 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>91.7</v>
+        <v>91.5</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>67.7</v>
       </c>
       <c r="D11">
-        <v>45.3</v>
+        <v>45.8</v>
       </c>
       <c r="E11">
-        <v>30.5</v>
+        <v>29.5</v>
       </c>
       <c r="F11">
-        <v>50.5</v>
+        <v>44.5</v>
       </c>
       <c r="G11">
-        <v>28.2</v>
+        <v>31</v>
       </c>
       <c r="H11">
-        <v>41.4</v>
+        <v>44.8</v>
       </c>
       <c r="I11">
-        <v>30</v>
+        <v>26.9</v>
       </c>
       <c r="J11">
-        <v>21</v>
+        <v>18.4</v>
       </c>
       <c r="K11">
-        <v>49.3</v>
+        <v>48.2</v>
       </c>
       <c r="L11">
-        <v>27.5</v>
+        <v>26.8</v>
       </c>
       <c r="M11">
-        <v>21.2</v>
+        <v>20.7</v>
       </c>
     </row>
   </sheetData>
@@ -2379,322 +2853,319 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="D2">
+        <v>116.04</v>
+      </c>
+      <c r="E2">
+        <v>0.364</v>
+      </c>
+      <c r="F2">
+        <v>127.38</v>
+      </c>
+      <c r="G2">
+        <v>0.576</v>
+      </c>
+      <c r="H2">
+        <v>15</v>
+      </c>
+      <c r="I2">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>58</v>
       </c>
-      <c r="C2">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D2">
+      <c r="D3">
+        <v>113.8</v>
+      </c>
+      <c r="E3">
+        <v>0.364</v>
+      </c>
+      <c r="F3">
+        <v>119.56</v>
+      </c>
+      <c r="G3">
+        <v>0.485</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4">
+        <v>136.27</v>
+      </c>
+      <c r="E4">
+        <v>0.727</v>
+      </c>
+      <c r="F4">
+        <v>118.43</v>
+      </c>
+      <c r="G4">
+        <v>0.485</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5">
         <v>131</v>
       </c>
-      <c r="E2">
-        <v>1441</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="E5">
+        <v>0.727</v>
+      </c>
+      <c r="F5">
+        <v>115.33</v>
+      </c>
+      <c r="G5">
+        <v>0.394</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6">
+        <v>114.79</v>
+      </c>
+      <c r="E6">
+        <v>0.545</v>
+      </c>
+      <c r="F6">
+        <v>113.13</v>
+      </c>
+      <c r="G6">
+        <v>0.424</v>
+      </c>
+      <c r="H6">
+        <v>-3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>110.19</v>
+      </c>
+      <c r="E7">
+        <v>0.455</v>
+      </c>
+      <c r="F7">
+        <v>121.62</v>
+      </c>
+      <c r="G7">
+        <v>0.545</v>
+      </c>
+      <c r="H7">
+        <v>-3.3</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="I2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="D8">
+        <v>129.07</v>
+      </c>
+      <c r="E8">
+        <v>0.636</v>
+      </c>
+      <c r="F8">
+        <v>122.04</v>
+      </c>
+      <c r="G8">
+        <v>0.485</v>
+      </c>
+      <c r="H8">
+        <v>-3.3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D3">
-        <v>136.2690909090909</v>
-      </c>
-      <c r="E3">
-        <v>1498.96</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
         <v>64</v>
       </c>
-      <c r="I3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="D9">
+        <v>109.78</v>
+      </c>
+      <c r="E9">
+        <v>0.455</v>
+      </c>
+      <c r="F9">
+        <v>120.86</v>
+      </c>
+      <c r="G9">
+        <v>0.545</v>
+      </c>
+      <c r="H9">
+        <v>-5</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10">
+        <v>119.41</v>
+      </c>
+      <c r="E10">
+        <v>0.364</v>
+      </c>
+      <c r="F10">
+        <v>119.86</v>
+      </c>
+      <c r="G10">
+        <v>0.545</v>
+      </c>
+      <c r="H10">
+        <v>-9.300000000000001</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D4">
-        <v>129.0727272727273</v>
-      </c>
-      <c r="E4">
-        <v>1419.8</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D5">
-        <v>114.7872727272727</v>
-      </c>
-      <c r="E5">
-        <v>1262.66</v>
-      </c>
-      <c r="F5">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="G5">
-        <v>0.1</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
         <v>66</v>
       </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D6">
-        <v>110.1945454545454</v>
-      </c>
-      <c r="E6">
-        <v>1212.14</v>
-      </c>
-      <c r="F6">
-        <v>46.40000000000001</v>
-      </c>
-      <c r="G6">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D7">
-        <v>109.7781818181818</v>
-      </c>
-      <c r="E7">
-        <v>1207.56</v>
-      </c>
-      <c r="F7">
-        <v>43.1</v>
-      </c>
-      <c r="G7">
-        <v>8.9</v>
-      </c>
-      <c r="H7" t="s">
-        <v>68</v>
-      </c>
-      <c r="I7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D8">
-        <v>119.4145454545454</v>
-      </c>
-      <c r="E8">
-        <v>1313.56</v>
-      </c>
-      <c r="F8">
-        <v>40.3</v>
-      </c>
-      <c r="G8">
-        <v>15.4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>69</v>
-      </c>
-      <c r="I8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D9">
-        <v>116.7927272727273</v>
-      </c>
-      <c r="E9">
-        <v>1284.72</v>
-      </c>
-      <c r="F9">
-        <v>36</v>
-      </c>
-      <c r="G9">
-        <v>16.5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D10">
-        <v>113.8036363636364</v>
-      </c>
-      <c r="E10">
-        <v>1251.84</v>
-      </c>
-      <c r="F10">
-        <v>24.2</v>
-      </c>
-      <c r="G10">
-        <v>24</v>
-      </c>
-      <c r="H10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11">
-        <v>0.3636363636363636</v>
-      </c>
       <c r="D11">
-        <v>116.0363636363636</v>
+        <v>116.79</v>
       </c>
       <c r="E11">
-        <v>1276.4</v>
+        <v>0.364</v>
       </c>
       <c r="F11">
-        <v>21.6</v>
+        <v>118.94</v>
       </c>
       <c r="G11">
-        <v>25.9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" t="s">
-        <v>76</v>
+        <v>0.515</v>
+      </c>
+      <c r="H11">
+        <v>-11</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2703,6 +3174,338 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D2">
+        <v>131</v>
+      </c>
+      <c r="E2">
+        <v>1441</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D3">
+        <v>136.2690909090909</v>
+      </c>
+      <c r="E3">
+        <v>1498.96</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D4">
+        <v>129.0727272727273</v>
+      </c>
+      <c r="E4">
+        <v>1419.8</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D5">
+        <v>114.7872727272727</v>
+      </c>
+      <c r="E5">
+        <v>1262.66</v>
+      </c>
+      <c r="F5">
+        <v>88.8</v>
+      </c>
+      <c r="G5">
+        <v>0.2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D6">
+        <v>110.1945454545454</v>
+      </c>
+      <c r="E6">
+        <v>1212.14</v>
+      </c>
+      <c r="F6">
+        <v>50.4</v>
+      </c>
+      <c r="G6">
+        <v>9.1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D7">
+        <v>109.7781818181818</v>
+      </c>
+      <c r="E7">
+        <v>1207.56</v>
+      </c>
+      <c r="F7">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>8.1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D8">
+        <v>116.7927272727273</v>
+      </c>
+      <c r="E8">
+        <v>1284.72</v>
+      </c>
+      <c r="F8">
+        <v>36.4</v>
+      </c>
+      <c r="G8">
+        <v>16.3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D9">
+        <v>119.4145454545454</v>
+      </c>
+      <c r="E9">
+        <v>1313.56</v>
+      </c>
+      <c r="F9">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>15.7</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D10">
+        <v>113.8036363636364</v>
+      </c>
+      <c r="E10">
+        <v>1251.84</v>
+      </c>
+      <c r="F10">
+        <v>22.1</v>
+      </c>
+      <c r="G10">
+        <v>25.5</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D11">
+        <v>116.0363636363636</v>
+      </c>
+      <c r="E11">
+        <v>1276.4</v>
+      </c>
+      <c r="F11">
+        <v>21.3</v>
+      </c>
+      <c r="G11">
+        <v>25.1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>88</v>
+      </c>
+      <c r="I11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2715,16 +3518,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2735,7 +3538,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>32</v>
@@ -2744,7 +3547,7 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2755,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -2764,7 +3567,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2775,7 +3578,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="D4">
         <v>8</v>
@@ -2784,7 +3587,7 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2795,7 +3598,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>5</v>
@@ -2804,7 +3607,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2815,7 +3618,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="D6">
         <v>-5</v>
@@ -2824,7 +3627,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2835,7 +3638,7 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>-7</v>
@@ -2844,7 +3647,7 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2855,7 +3658,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D8">
         <v>-10</v>
@@ -2864,7 +3667,7 @@
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2875,7 +3678,7 @@
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>-10</v>
@@ -2884,7 +3687,7 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2895,7 +3698,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>-10</v>
@@ -2904,7 +3707,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2915,7 +3718,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>-13</v>
@@ -2924,7 +3727,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2932,7 +3735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -2942,40 +3745,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -3016,7 +3819,7 @@
         <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -3057,7 +3860,7 @@
         <v>8</v>
       </c>
       <c r="M3" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3098,7 +3901,7 @@
         <v>8</v>
       </c>
       <c r="M4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -3139,7 +3942,7 @@
         <v>5</v>
       </c>
       <c r="M5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -3180,7 +3983,7 @@
         <v>-5</v>
       </c>
       <c r="M6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -3221,7 +4024,7 @@
         <v>-7</v>
       </c>
       <c r="M7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3262,7 +4065,7 @@
         <v>-10</v>
       </c>
       <c r="M8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -3303,7 +4106,7 @@
         <v>-10</v>
       </c>
       <c r="M9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -3344,7 +4147,7 @@
         <v>-10</v>
       </c>
       <c r="M10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3385,459 +4188,7 @@
         <v>-13</v>
       </c>
       <c r="M11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>-13</v>
-      </c>
-      <c r="G2">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>32</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>-14</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>-6</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>-8</v>
-      </c>
-      <c r="F6">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
-        <v>-5</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>-2</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>-11</v>
-      </c>
-      <c r="G9">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>-5</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>-17</v>
-      </c>
-      <c r="F11">
-        <v>-6</v>
-      </c>
-      <c r="G11">
-        <v>11</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>4</v>
-      </c>
-      <c r="F12">
-        <v>-5</v>
-      </c>
-      <c r="G12">
-        <v>9</v>
-      </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>-8</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>12</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>7</v>
-      </c>
-      <c r="H15" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>7</v>
-      </c>
-      <c r="G16">
-        <v>7</v>
-      </c>
-      <c r="H16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17">
-        <v>-7</v>
-      </c>
-      <c r="F17">
-        <v>-13</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="122">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -181,7 +181,7 @@
     <t>Avg_Points_For</t>
   </si>
   <si>
-    <t>Win_Pct</t>
+    <t>Team_Record</t>
   </si>
   <si>
     <t>Avg_Opp_Points_For</t>
@@ -268,7 +268,7 @@
     <t>9.8-4.2</t>
   </si>
   <si>
-    <t>9.8-4.1</t>
+    <t>9.9-4.1</t>
   </si>
   <si>
     <t>8.7-5.3</t>
@@ -280,13 +280,13 @@
     <t>6.3-7.7</t>
   </si>
   <si>
+    <t>6.2-7.7</t>
+  </si>
+  <si>
     <t>5.5-8.5</t>
   </si>
   <si>
-    <t>5.4-8.5</t>
-  </si>
-  <si>
-    <t>5.3-8.6</t>
+    <t>5.4-8.6</t>
   </si>
   <si>
     <t>5.2-8.8</t>
@@ -298,7 +298,7 @@
     <t>9-5</t>
   </si>
   <si>
-    <t>7-7</t>
+    <t>8-6</t>
   </si>
   <si>
     <t>6-8</t>
@@ -2003,19 +2003,19 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>35.9</v>
+        <v>36.6</v>
       </c>
       <c r="C2">
-        <v>44.2</v>
+        <v>44.4</v>
       </c>
       <c r="D2">
-        <v>17.9</v>
+        <v>17.4</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2041,16 +2041,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>56.1</v>
+        <v>55.9</v>
       </c>
       <c r="C3">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="D3">
-        <v>12.7</v>
+        <v>12.1</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2079,19 +2079,19 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="D4">
-        <v>58.7</v>
+        <v>58.1</v>
       </c>
       <c r="E4">
-        <v>8.6</v>
+        <v>10.1</v>
       </c>
       <c r="F4">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2117,37 +2117,37 @@
         <v>8</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.9</v>
+      </c>
+      <c r="D5">
+        <v>10.7</v>
+      </c>
+      <c r="E5">
+        <v>51.1</v>
+      </c>
+      <c r="F5">
+        <v>17.3</v>
+      </c>
+      <c r="G5">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H5">
+        <v>5.3</v>
+      </c>
+      <c r="I5">
+        <v>5.1</v>
+      </c>
+      <c r="J5">
+        <v>1.2</v>
+      </c>
+      <c r="K5">
         <v>0.1</v>
       </c>
-      <c r="C5">
-        <v>1.1</v>
-      </c>
-      <c r="D5">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="E5">
-        <v>53.1</v>
-      </c>
-      <c r="F5">
-        <v>16.3</v>
-      </c>
-      <c r="G5">
-        <v>8.9</v>
-      </c>
-      <c r="H5">
-        <v>4.8</v>
-      </c>
-      <c r="I5">
-        <v>4.6</v>
-      </c>
-      <c r="J5">
-        <v>1.6</v>
-      </c>
-      <c r="K5">
-        <v>0.2</v>
-      </c>
       <c r="L5">
-        <v>88.8</v>
+        <v>88.3</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2161,31 +2161,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
-        <v>12.3</v>
+        <v>10.6</v>
       </c>
       <c r="F6">
-        <v>20.2</v>
+        <v>18.6</v>
       </c>
       <c r="G6">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="H6">
-        <v>15.6</v>
+        <v>17.7</v>
       </c>
       <c r="I6">
-        <v>14.7</v>
+        <v>15.2</v>
       </c>
       <c r="J6">
-        <v>10.2</v>
+        <v>9.4</v>
       </c>
       <c r="K6">
-        <v>9.1</v>
+        <v>10.5</v>
       </c>
       <c r="L6">
-        <v>50.4</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2199,36 +2199,36 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="E7">
-        <v>9.5</v>
+        <v>11.1</v>
       </c>
       <c r="F7">
-        <v>18.3</v>
+        <v>17.4</v>
       </c>
       <c r="G7">
-        <v>16.7</v>
+        <v>15</v>
       </c>
       <c r="H7">
-        <v>20.2</v>
+        <v>18</v>
       </c>
       <c r="I7">
-        <v>14.5</v>
+        <v>16.1</v>
       </c>
       <c r="J7">
-        <v>12.2</v>
+        <v>13.2</v>
       </c>
       <c r="K7">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="L7">
-        <v>45</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2237,36 +2237,36 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8">
-        <v>4.4</v>
+        <v>6.2</v>
       </c>
       <c r="F8">
-        <v>14.7</v>
+        <v>13.4</v>
       </c>
       <c r="G8">
-        <v>17.3</v>
+        <v>19.9</v>
       </c>
       <c r="H8">
-        <v>14.4</v>
+        <v>14.1</v>
       </c>
       <c r="I8">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="J8">
-        <v>17.2</v>
+        <v>15.3</v>
       </c>
       <c r="K8">
-        <v>16.3</v>
+        <v>15.1</v>
       </c>
       <c r="L8">
-        <v>36.4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2275,31 +2275,31 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="G9">
-        <v>16.4</v>
+        <v>16</v>
       </c>
       <c r="H9">
-        <v>14.4</v>
+        <v>15.5</v>
       </c>
       <c r="I9">
-        <v>18.2</v>
+        <v>14.9</v>
       </c>
       <c r="J9">
-        <v>15.7</v>
+        <v>17.7</v>
       </c>
       <c r="K9">
-        <v>15.7</v>
+        <v>16.9</v>
       </c>
       <c r="L9">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2316,28 +2316,28 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="F10">
-        <v>9.300000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>13.1</v>
       </c>
       <c r="H10">
+        <v>13.8</v>
+      </c>
+      <c r="I10">
         <v>14.6</v>
       </c>
-      <c r="I10">
-        <v>15.3</v>
-      </c>
       <c r="J10">
-        <v>22.5</v>
+        <v>21.1</v>
       </c>
       <c r="K10">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="L10">
-        <v>22.1</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2351,31 +2351,31 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="G11">
-        <v>12.4</v>
+        <v>10.6</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>15.6</v>
       </c>
       <c r="I11">
-        <v>17</v>
+        <v>18.6</v>
       </c>
       <c r="J11">
-        <v>20.6</v>
+        <v>22.1</v>
       </c>
       <c r="K11">
-        <v>25.1</v>
+        <v>23.8</v>
       </c>
       <c r="L11">
-        <v>21.3</v>
+        <v>19.9</v>
       </c>
     </row>
   </sheetData>
@@ -2434,31 +2434,31 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>73.3</v>
+        <v>72.89999999999999</v>
       </c>
       <c r="C2">
-        <v>40.7</v>
+        <v>42.9</v>
       </c>
       <c r="D2">
-        <v>18.7</v>
+        <v>19.4</v>
       </c>
       <c r="E2">
-        <v>79</v>
+        <v>80.2</v>
       </c>
       <c r="F2">
-        <v>83.89999999999999</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="G2">
-        <v>93.60000000000001</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="H2">
-        <v>89.8</v>
+        <v>90.8</v>
       </c>
       <c r="I2">
-        <v>96.3</v>
+        <v>95.89999999999999</v>
       </c>
       <c r="J2">
-        <v>98.59999999999999</v>
+        <v>99</v>
       </c>
       <c r="K2">
         <v>99.8</v>
@@ -2475,25 +2475,25 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>65.3</v>
+        <v>68.2</v>
       </c>
       <c r="C3">
-        <v>96.59999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D3">
-        <v>99.59999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="E3">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="F3">
         <v>99.2</v>
       </c>
       <c r="G3">
-        <v>99.40000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="H3">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="I3">
         <v>100</v>
@@ -2516,31 +2516,31 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C4">
-        <v>97.39999999999999</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="D4">
-        <v>92</v>
+        <v>93.7</v>
       </c>
       <c r="E4">
-        <v>72.8</v>
+        <v>74.09999999999999</v>
       </c>
       <c r="F4">
-        <v>64.2</v>
+        <v>64</v>
       </c>
       <c r="G4">
-        <v>85.09999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="H4">
-        <v>91.5</v>
+        <v>90.8</v>
       </c>
       <c r="I4">
-        <v>97.7</v>
+        <v>98.5</v>
       </c>
       <c r="J4">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="K4">
         <v>99.90000000000001</v>
@@ -2560,10 +2560,10 @@
         <v>94.09999999999999</v>
       </c>
       <c r="C5">
-        <v>34.2</v>
+        <v>34.5</v>
       </c>
       <c r="D5">
-        <v>50.5</v>
+        <v>51.2</v>
       </c>
       <c r="E5">
         <v>84.2</v>
@@ -2572,25 +2572,25 @@
         <v>87.59999999999999</v>
       </c>
       <c r="G5">
-        <v>83.89999999999999</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="H5">
-        <v>63.7</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="I5">
-        <v>50.3</v>
+        <v>51.1</v>
       </c>
       <c r="J5">
-        <v>71.7</v>
+        <v>73.3</v>
       </c>
       <c r="K5">
-        <v>91.60000000000001</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="L5">
-        <v>88.3</v>
+        <v>88.8</v>
       </c>
       <c r="M5">
-        <v>89.09999999999999</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2598,40 +2598,40 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C6">
-        <v>18.9</v>
+        <v>17.7</v>
       </c>
       <c r="D6">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="E6">
-        <v>23.6</v>
+        <v>25.2</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>11.7</v>
       </c>
       <c r="G6">
-        <v>7.3</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="H6">
-        <v>4.100000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="I6">
-        <v>26.1</v>
+        <v>22.4</v>
       </c>
       <c r="J6">
-        <v>37.4</v>
+        <v>36.8</v>
       </c>
       <c r="K6">
-        <v>28.3</v>
+        <v>27.6</v>
       </c>
       <c r="L6">
-        <v>46.8</v>
+        <v>47.3</v>
       </c>
       <c r="M6">
-        <v>45.8</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -2639,40 +2639,40 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>11.2</v>
+        <v>8.4</v>
       </c>
       <c r="C7">
-        <v>57.7</v>
+        <v>56.3</v>
       </c>
       <c r="D7">
-        <v>45.6</v>
+        <v>41.9</v>
       </c>
       <c r="E7">
-        <v>15</v>
+        <v>13.8</v>
       </c>
       <c r="F7">
-        <v>35.8</v>
+        <v>36.8</v>
       </c>
       <c r="G7">
-        <v>27.1</v>
+        <v>23.6</v>
       </c>
       <c r="H7">
-        <v>35.8</v>
+        <v>39.8</v>
       </c>
       <c r="I7">
-        <v>28.2</v>
+        <v>26.5</v>
       </c>
       <c r="J7">
-        <v>45.4</v>
+        <v>43.2</v>
       </c>
       <c r="K7">
-        <v>32.6</v>
+        <v>33.1</v>
       </c>
       <c r="L7">
-        <v>47.3</v>
+        <v>46.8</v>
       </c>
       <c r="M7">
-        <v>45.7</v>
+        <v>44.3</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2680,40 +2680,40 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>15.7</v>
+        <v>15.3</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="D8">
-        <v>70</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="E8">
-        <v>40.5</v>
+        <v>38.4</v>
       </c>
       <c r="F8">
-        <v>15.5</v>
+        <v>14.6</v>
       </c>
       <c r="G8">
-        <v>33.7</v>
+        <v>37.5</v>
       </c>
       <c r="H8">
-        <v>59.4</v>
+        <v>53.1</v>
       </c>
       <c r="I8">
-        <v>49.1</v>
+        <v>47.3</v>
       </c>
       <c r="J8">
-        <v>31.3</v>
+        <v>30.6</v>
       </c>
       <c r="K8">
-        <v>26.8</v>
+        <v>26.2</v>
       </c>
       <c r="L8">
-        <v>33.6</v>
+        <v>36.7</v>
       </c>
       <c r="M8">
-        <v>40.9</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -2721,40 +2721,40 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>49.7</v>
+        <v>50.5</v>
       </c>
       <c r="C9">
-        <v>90.2</v>
+        <v>90.7</v>
       </c>
       <c r="D9">
-        <v>87.2</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="E9">
-        <v>92.2</v>
+        <v>93.7</v>
       </c>
       <c r="F9">
-        <v>84.89999999999999</v>
+        <v>81.2</v>
       </c>
       <c r="G9">
-        <v>56.49999999999999</v>
+        <v>59.59999999999999</v>
       </c>
       <c r="H9">
-        <v>53.5</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="I9">
-        <v>46.6</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="J9">
-        <v>31.5</v>
+        <v>32.2</v>
       </c>
       <c r="K9">
-        <v>17.9</v>
+        <v>20</v>
       </c>
       <c r="L9">
-        <v>30.4</v>
+        <v>28.9</v>
       </c>
       <c r="M9">
-        <v>33.2</v>
+        <v>34.2</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -2765,37 +2765,37 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <v>95.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="D10">
-        <v>82.5</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="E10">
-        <v>63.6</v>
+        <v>62.6</v>
       </c>
       <c r="F10">
-        <v>73.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="G10">
-        <v>82.39999999999999</v>
+        <v>78.5</v>
       </c>
       <c r="H10">
-        <v>57.59999999999999</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="I10">
-        <v>78.8</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="J10">
-        <v>66.7</v>
+        <v>66.3</v>
       </c>
       <c r="K10">
-        <v>54.90000000000001</v>
+        <v>51.7</v>
       </c>
       <c r="L10">
-        <v>26.8</v>
+        <v>29.2</v>
       </c>
       <c r="M10">
-        <v>24.6</v>
+        <v>25.3</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -2803,40 +2803,40 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>91.5</v>
+        <v>91.10000000000001</v>
       </c>
       <c r="C11">
-        <v>67.7</v>
+        <v>66.10000000000001</v>
       </c>
       <c r="D11">
-        <v>45.8</v>
+        <v>44.8</v>
       </c>
       <c r="E11">
-        <v>29.5</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>44.5</v>
+        <v>46</v>
       </c>
       <c r="G11">
-        <v>31</v>
+        <v>29.4</v>
       </c>
       <c r="H11">
-        <v>44.8</v>
+        <v>43.3</v>
       </c>
       <c r="I11">
-        <v>26.9</v>
+        <v>31.8</v>
       </c>
       <c r="J11">
-        <v>18.4</v>
+        <v>19.4</v>
       </c>
       <c r="K11">
-        <v>48.2</v>
+        <v>49.6</v>
       </c>
       <c r="L11">
-        <v>26.8</v>
+        <v>22.3</v>
       </c>
       <c r="M11">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
     </row>
   </sheetData>
@@ -2891,8 +2891,8 @@
       <c r="D2">
         <v>116.04</v>
       </c>
-      <c r="E2">
-        <v>0.364</v>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
       <c r="F2">
         <v>127.38</v>
@@ -2920,8 +2920,8 @@
       <c r="D3">
         <v>113.8</v>
       </c>
-      <c r="E3">
-        <v>0.364</v>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
       <c r="F3">
         <v>119.56</v>
@@ -2949,8 +2949,8 @@
       <c r="D4">
         <v>136.27</v>
       </c>
-      <c r="E4">
-        <v>0.727</v>
+      <c r="E4" t="s">
+        <v>17</v>
       </c>
       <c r="F4">
         <v>118.43</v>
@@ -2978,8 +2978,8 @@
       <c r="D5">
         <v>131</v>
       </c>
-      <c r="E5">
-        <v>0.727</v>
+      <c r="E5" t="s">
+        <v>17</v>
       </c>
       <c r="F5">
         <v>115.33</v>
@@ -3007,8 +3007,8 @@
       <c r="D6">
         <v>114.79</v>
       </c>
-      <c r="E6">
-        <v>0.545</v>
+      <c r="E6" t="s">
+        <v>16</v>
       </c>
       <c r="F6">
         <v>113.13</v>
@@ -3036,8 +3036,8 @@
       <c r="D7">
         <v>110.19</v>
       </c>
-      <c r="E7">
-        <v>0.455</v>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
       <c r="F7">
         <v>121.62</v>
@@ -3065,8 +3065,8 @@
       <c r="D8">
         <v>129.07</v>
       </c>
-      <c r="E8">
-        <v>0.636</v>
+      <c r="E8" t="s">
+        <v>14</v>
       </c>
       <c r="F8">
         <v>122.04</v>
@@ -3094,8 +3094,8 @@
       <c r="D9">
         <v>109.78</v>
       </c>
-      <c r="E9">
-        <v>0.455</v>
+      <c r="E9" t="s">
+        <v>11</v>
       </c>
       <c r="F9">
         <v>120.86</v>
@@ -3123,8 +3123,8 @@
       <c r="D10">
         <v>119.41</v>
       </c>
-      <c r="E10">
-        <v>0.364</v>
+      <c r="E10" t="s">
+        <v>10</v>
       </c>
       <c r="F10">
         <v>119.86</v>
@@ -3152,8 +3152,8 @@
       <c r="D11">
         <v>116.79</v>
       </c>
-      <c r="E11">
-        <v>0.364</v>
+      <c r="E11" t="s">
+        <v>10</v>
       </c>
       <c r="F11">
         <v>118.94</v>
@@ -3314,10 +3314,10 @@
         <v>1262.66</v>
       </c>
       <c r="F5">
-        <v>88.8</v>
+        <v>88.3</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H5" t="s">
         <v>83</v>
@@ -3343,10 +3343,10 @@
         <v>1212.14</v>
       </c>
       <c r="F6">
-        <v>50.4</v>
+        <v>47.2</v>
       </c>
       <c r="G6">
-        <v>9.1</v>
+        <v>10.5</v>
       </c>
       <c r="H6" t="s">
         <v>84</v>
@@ -3372,13 +3372,13 @@
         <v>1207.56</v>
       </c>
       <c r="F7">
-        <v>45</v>
+        <v>43.8</v>
       </c>
       <c r="G7">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I7" t="s">
         <v>92</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
@@ -3395,27 +3395,27 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="D8">
-        <v>116.7927272727273</v>
+        <v>119.4145454545454</v>
       </c>
       <c r="E8">
-        <v>1284.72</v>
+        <v>1313.56</v>
       </c>
       <c r="F8">
-        <v>36.4</v>
+        <v>40</v>
       </c>
       <c r="G8">
-        <v>16.3</v>
+        <v>15.1</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
@@ -3424,16 +3424,16 @@
         <v>0.3636363636363636</v>
       </c>
       <c r="D9">
-        <v>119.4145454545454</v>
+        <v>116.7927272727273</v>
       </c>
       <c r="E9">
-        <v>1313.56</v>
+        <v>1284.72</v>
       </c>
       <c r="F9">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G9">
-        <v>15.7</v>
+        <v>16.9</v>
       </c>
       <c r="H9" t="s">
         <v>86</v>
@@ -3459,10 +3459,10 @@
         <v>1251.84</v>
       </c>
       <c r="F10">
-        <v>22.1</v>
+        <v>25.8</v>
       </c>
       <c r="G10">
-        <v>25.5</v>
+        <v>24.7</v>
       </c>
       <c r="H10" t="s">
         <v>87</v>
@@ -3488,10 +3488,10 @@
         <v>1276.4</v>
       </c>
       <c r="F11">
-        <v>21.3</v>
+        <v>19.9</v>
       </c>
       <c r="G11">
-        <v>25.1</v>
+        <v>23.8</v>
       </c>
       <c r="H11" t="s">
         <v>88</v>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="127">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -55,37 +55,37 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
-  </si>
-  <si>
-    <t>11-0-0</t>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>11-1-0</t>
+  </si>
+  <si>
+    <t>12-0-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -175,6 +175,9 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Week_13</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -196,36 +199,36 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Vidhi Sethia</t>
+  </si>
+  <si>
+    <t>Saurin Sethia</t>
+  </si>
+  <si>
     <t>Prahlad Singh</t>
   </si>
   <si>
-    <t>Saurin Sethia</t>
-  </si>
-  <si>
-    <t>Vidhi Sethia</t>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
+    <t>Achira Amur</t>
   </si>
   <si>
     <t>Shihab Chowdhury</t>
   </si>
   <si>
-    <t>Pawan Bhambhwani</t>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
   </si>
   <si>
     <t>Kabir Manocha</t>
   </si>
   <si>
-    <t>Achira Amur</t>
-  </si>
-  <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -250,54 +253,57 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>9.8-4.2</t>
-  </si>
-  <si>
-    <t>9.9-4.1</t>
-  </si>
-  <si>
-    <t>8.7-5.3</t>
-  </si>
-  <si>
-    <t>7.5-6.5</t>
-  </si>
-  <si>
-    <t>6.3-7.7</t>
-  </si>
-  <si>
-    <t>6.2-7.7</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
-  </si>
-  <si>
-    <t>5.4-8.6</t>
-  </si>
-  <si>
-    <t>5.2-8.8</t>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>9.2-4.8</t>
+  </si>
+  <si>
+    <t>10.2-3.8</t>
+  </si>
+  <si>
+    <t>8.1-5.8</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>5.9-8.1</t>
+  </si>
+  <si>
+    <t>6.1-7.9</t>
+  </si>
+  <si>
+    <t>5.9-8.0</t>
+  </si>
+  <si>
+    <t>5.8-8.2</t>
+  </si>
+  <si>
+    <t>4.8-9.2</t>
+  </si>
+  <si>
+    <t>9-5</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>9-5</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
@@ -316,25 +322,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>↑9</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑8</t>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑11</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -368,6 +380,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -795,28 +810,28 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -830,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -839,7 +854,7 @@
         <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
         <v>10</v>
@@ -851,7 +866,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -865,28 +880,28 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
       <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -894,34 +909,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
         <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -929,34 +944,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -999,34 +1014,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>12</v>
       </c>
-      <c r="G8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1049,7 +1064,7 @@
         <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
@@ -1061,7 +1076,7 @@
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1075,7 +1090,7 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -1084,10 +1099,10 @@
         <v>11</v>
       </c>
       <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
         <v>11</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -1096,7 +1111,7 @@
         <v>16</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1119,7 +1134,7 @@
         <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
         <v>11</v>
@@ -1131,7 +1146,7 @@
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1149,25 +1164,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1175,25 +1190,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
       <c r="E2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>-13</v>
+        <v>41</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1201,25 +1216,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E3">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F3">
+        <v>-13</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
         <v>8</v>
-      </c>
-      <c r="G3">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1227,25 +1242,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>-14</v>
+        <v>32</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1253,25 +1268,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="F5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1279,25 +1294,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1305,25 +1320,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1331,25 +1346,25 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
       <c r="E8">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F8">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="G8">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1357,25 +1372,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="G9">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1383,25 +1398,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1412,22 +1427,22 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>-17</v>
+        <v>-5</v>
       </c>
       <c r="F11">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="G11">
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1435,25 +1450,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
         <v>1</v>
       </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
       <c r="E12">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="F12">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G12">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1461,25 +1476,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>4</v>
       </c>
       <c r="F13">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="G13">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
         <v>8</v>
-      </c>
-      <c r="H13" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1487,25 +1502,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1513,25 +1528,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1539,25 +1554,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G16">
         <v>7</v>
       </c>
       <c r="H16" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1565,25 +1580,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E17">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1618,7 +1633,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.2</v>
+        <v>4.9</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1629,10 +1644,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1643,13 +1658,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1657,10 +1672,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1671,13 +1686,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1685,13 +1700,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1702,7 +1717,7 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1716,7 +1731,7 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1730,7 +1745,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -1744,10 +1759,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1785,13 +1800,13 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="D2">
-        <v>0.7000000000000002</v>
+        <v>1.5</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1802,10 +1817,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>7.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D3">
-        <v>-0.5</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1819,13 +1834,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D4">
-        <v>-1.4</v>
+        <v>-1.2</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1836,10 +1851,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -1850,13 +1865,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1867,13 +1882,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="D7">
-        <v>0.9000000000000004</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1884,13 +1899,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="D8">
-        <v>0.9000000000000004</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1901,13 +1916,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1918,16 +1933,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D10">
-        <v>-0.7999999999999998</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1938,13 +1953,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D11">
-        <v>-0.7999999999999998</v>
+        <v>-0.7000000000000002</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2003,19 +2018,19 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>36.6</v>
+        <v>14</v>
       </c>
       <c r="C2">
-        <v>44.4</v>
+        <v>61.6</v>
       </c>
       <c r="D2">
-        <v>17.4</v>
+        <v>20.8</v>
       </c>
       <c r="E2">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="F2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2041,16 +2056,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>55.9</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="C3">
-        <v>30.9</v>
+        <v>13.9</v>
       </c>
       <c r="D3">
-        <v>12.1</v>
+        <v>3.7</v>
       </c>
       <c r="E3">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2079,16 +2094,16 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="C4">
-        <v>23.8</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>58.1</v>
+        <v>50</v>
       </c>
       <c r="E4">
-        <v>10.1</v>
+        <v>23.9</v>
       </c>
       <c r="F4">
         <v>0.5</v>
@@ -2120,39 +2135,39 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="D5">
-        <v>10.7</v>
+        <v>25.2</v>
       </c>
       <c r="E5">
-        <v>51.1</v>
+        <v>51.2</v>
       </c>
       <c r="F5">
-        <v>17.3</v>
+        <v>10.2</v>
       </c>
       <c r="G5">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="H5">
-        <v>5.3</v>
+        <v>2.4</v>
       </c>
       <c r="I5">
-        <v>5.1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>88.3</v>
+        <v>97.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2161,36 +2176,36 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="E6">
-        <v>10.6</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>18.6</v>
+        <v>21.9</v>
       </c>
       <c r="G6">
-        <v>17.1</v>
+        <v>24.1</v>
       </c>
       <c r="H6">
-        <v>17.7</v>
+        <v>16.9</v>
       </c>
       <c r="I6">
-        <v>15.2</v>
+        <v>16.3</v>
       </c>
       <c r="J6">
-        <v>9.4</v>
+        <v>8.1</v>
       </c>
       <c r="K6">
-        <v>10.5</v>
+        <v>2.4</v>
       </c>
       <c r="L6">
-        <v>47.2</v>
+        <v>56.3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2199,36 +2214,36 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>11.1</v>
+        <v>3.2</v>
       </c>
       <c r="F7">
-        <v>17.4</v>
+        <v>24.8</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>26.3</v>
       </c>
       <c r="H7">
-        <v>18</v>
+        <v>17.2</v>
       </c>
       <c r="I7">
-        <v>16.1</v>
+        <v>13.9</v>
       </c>
       <c r="J7">
-        <v>13.2</v>
+        <v>12.7</v>
       </c>
       <c r="K7">
-        <v>8.9</v>
+        <v>1.9</v>
       </c>
       <c r="L7">
-        <v>43.8</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2237,36 +2252,36 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="F8">
-        <v>13.4</v>
+        <v>23.6</v>
       </c>
       <c r="G8">
-        <v>19.9</v>
+        <v>15.5</v>
       </c>
       <c r="H8">
+        <v>24.1</v>
+      </c>
+      <c r="I8">
         <v>14.1</v>
       </c>
-      <c r="I8">
-        <v>15.5</v>
-      </c>
       <c r="J8">
-        <v>15.3</v>
+        <v>13.9</v>
       </c>
       <c r="K8">
-        <v>15.1</v>
+        <v>4.1</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2278,33 +2293,33 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="F9">
-        <v>15.5</v>
+        <v>11.6</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>13.2</v>
       </c>
       <c r="H9">
-        <v>15.5</v>
+        <v>17.3</v>
       </c>
       <c r="I9">
-        <v>14.9</v>
+        <v>24.2</v>
       </c>
       <c r="J9">
-        <v>17.7</v>
+        <v>10.9</v>
       </c>
       <c r="K9">
-        <v>16.9</v>
+        <v>19.7</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2316,33 +2331,33 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.8</v>
+        <v>0.3</v>
       </c>
       <c r="F10">
-        <v>9.9</v>
+        <v>7.1</v>
       </c>
       <c r="G10">
-        <v>13.1</v>
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>13.8</v>
+        <v>14.9</v>
       </c>
       <c r="I10">
-        <v>14.6</v>
+        <v>20</v>
       </c>
       <c r="J10">
-        <v>21.1</v>
+        <v>28.7</v>
       </c>
       <c r="K10">
-        <v>24.7</v>
+        <v>19</v>
       </c>
       <c r="L10">
-        <v>25.8</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2354,28 +2369,28 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>7.3</v>
+        <v>0.3</v>
       </c>
       <c r="G11">
-        <v>10.6</v>
+        <v>2.4</v>
       </c>
       <c r="H11">
-        <v>15.6</v>
+        <v>7.2</v>
       </c>
       <c r="I11">
-        <v>18.6</v>
+        <v>11.5</v>
       </c>
       <c r="J11">
-        <v>22.1</v>
+        <v>25.7</v>
       </c>
       <c r="K11">
-        <v>23.8</v>
+        <v>52.9</v>
       </c>
       <c r="L11">
-        <v>19.9</v>
+        <v>2.7</v>
       </c>
     </row>
   </sheetData>
@@ -2385,13 +2400,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -2428,37 +2443,40 @@
       <c r="M1" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>72.89999999999999</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="C2">
-        <v>42.9</v>
+        <v>41.09999999999999</v>
       </c>
       <c r="D2">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="E2">
-        <v>80.2</v>
+        <v>78.10000000000001</v>
       </c>
       <c r="F2">
-        <v>82.39999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="G2">
-        <v>95.59999999999999</v>
+        <v>93.5</v>
       </c>
       <c r="H2">
-        <v>90.8</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="I2">
-        <v>95.89999999999999</v>
+        <v>97</v>
       </c>
       <c r="J2">
-        <v>99</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="K2">
         <v>99.8</v>
@@ -2469,37 +2487,40 @@
       <c r="M2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>68.2</v>
+        <v>65.10000000000001</v>
       </c>
       <c r="C3">
-        <v>97.09999999999999</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="D3">
-        <v>99.2</v>
+        <v>99.7</v>
       </c>
       <c r="E3">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="F3">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="G3">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="I3">
         <v>100</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -2510,333 +2531,360 @@
       <c r="M3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>98.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="C4">
-        <v>96.89999999999999</v>
+        <v>97.8</v>
       </c>
       <c r="D4">
-        <v>93.7</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="E4">
-        <v>74.09999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F4">
-        <v>64</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="G4">
-        <v>85.5</v>
+        <v>83.8</v>
       </c>
       <c r="H4">
-        <v>90.8</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="I4">
-        <v>98.5</v>
+        <v>97.8</v>
       </c>
       <c r="J4">
-        <v>99.2</v>
+        <v>99.5</v>
       </c>
       <c r="K4">
+        <v>100</v>
+      </c>
+      <c r="L4">
+        <v>99.8</v>
+      </c>
+      <c r="M4">
         <v>99.90000000000001</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>100</v>
       </c>
-      <c r="M4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>94.09999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="C5">
-        <v>34.5</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>51.2</v>
+        <v>49.5</v>
       </c>
       <c r="E5">
-        <v>84.2</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="F5">
-        <v>87.59999999999999</v>
+        <v>89.3</v>
       </c>
       <c r="G5">
-        <v>83.09999999999999</v>
+        <v>84.89999999999999</v>
       </c>
       <c r="H5">
-        <v>64.90000000000001</v>
+        <v>67.5</v>
       </c>
       <c r="I5">
-        <v>51.1</v>
+        <v>46.6</v>
       </c>
       <c r="J5">
-        <v>73.3</v>
+        <v>72.3</v>
       </c>
       <c r="K5">
-        <v>92.10000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="L5">
-        <v>88.8</v>
+        <v>88.2</v>
       </c>
       <c r="M5">
-        <v>88.7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>95.7</v>
+      </c>
+      <c r="N5">
+        <v>98.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>91.2</v>
+      </c>
+      <c r="C6">
+        <v>68.5</v>
+      </c>
+      <c r="D6">
+        <v>46.5</v>
+      </c>
+      <c r="E6">
+        <v>30.5</v>
+      </c>
+      <c r="F6">
+        <v>48.6</v>
+      </c>
+      <c r="G6">
+        <v>28.1</v>
+      </c>
+      <c r="H6">
+        <v>41.8</v>
+      </c>
+      <c r="I6">
+        <v>29.3</v>
+      </c>
+      <c r="J6">
+        <v>21.9</v>
+      </c>
+      <c r="K6">
+        <v>49.1</v>
+      </c>
+      <c r="L6">
+        <v>25.7</v>
+      </c>
+      <c r="M6">
+        <v>44.3</v>
+      </c>
+      <c r="N6">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>14.5</v>
+      </c>
+      <c r="C7">
+        <v>1.3</v>
+      </c>
+      <c r="D7">
+        <v>72.2</v>
+      </c>
+      <c r="E7">
+        <v>38.9</v>
+      </c>
+      <c r="F7">
+        <v>14.2</v>
+      </c>
+      <c r="G7">
+        <v>36.6</v>
+      </c>
+      <c r="H7">
+        <v>55.1</v>
+      </c>
+      <c r="I7">
+        <v>53.8</v>
+      </c>
+      <c r="J7">
+        <v>31.2</v>
+      </c>
+      <c r="K7">
+        <v>25.7</v>
+      </c>
+      <c r="L7">
+        <v>34.8</v>
+      </c>
+      <c r="M7">
+        <v>52.6</v>
+      </c>
+      <c r="N7">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>52.3</v>
+      </c>
+      <c r="C8">
+        <v>91.7</v>
+      </c>
+      <c r="D8">
+        <v>84.7</v>
+      </c>
+      <c r="E8">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="F8">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="G8">
+        <v>58.5</v>
+      </c>
+      <c r="H8">
+        <v>54.50000000000001</v>
+      </c>
+      <c r="I8">
+        <v>46.7</v>
+      </c>
+      <c r="J8">
+        <v>30.9</v>
+      </c>
+      <c r="K8">
+        <v>19.1</v>
+      </c>
+      <c r="L8">
+        <v>28.5</v>
+      </c>
+      <c r="M8">
+        <v>47.4</v>
+      </c>
+      <c r="N8">
+        <v>45.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>0.6</v>
-      </c>
-      <c r="C6">
-        <v>17.7</v>
-      </c>
-      <c r="D6">
-        <v>7.1</v>
-      </c>
-      <c r="E6">
+      <c r="B9">
+        <v>0.3</v>
+      </c>
+      <c r="C9">
+        <v>16.1</v>
+      </c>
+      <c r="D9">
+        <v>5.899999999999999</v>
+      </c>
+      <c r="E9">
+        <v>25.5</v>
+      </c>
+      <c r="F9">
+        <v>10.9</v>
+      </c>
+      <c r="G9">
+        <v>5.899999999999999</v>
+      </c>
+      <c r="H9">
+        <v>5.3</v>
+      </c>
+      <c r="I9">
+        <v>24.7</v>
+      </c>
+      <c r="J9">
+        <v>36.9</v>
+      </c>
+      <c r="K9">
+        <v>29.6</v>
+      </c>
+      <c r="L9">
+        <v>45.4</v>
+      </c>
+      <c r="M9">
+        <v>30.4</v>
+      </c>
+      <c r="N9">
         <v>25.2</v>
       </c>
-      <c r="F6">
-        <v>11.7</v>
-      </c>
-      <c r="G6">
-        <v>7.399999999999999</v>
-      </c>
-      <c r="H6">
-        <v>3.7</v>
-      </c>
-      <c r="I6">
-        <v>22.4</v>
-      </c>
-      <c r="J6">
-        <v>36.8</v>
-      </c>
-      <c r="K6">
-        <v>27.6</v>
-      </c>
-      <c r="L6">
-        <v>47.3</v>
-      </c>
-      <c r="M6">
-        <v>47.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7">
-        <v>8.4</v>
-      </c>
-      <c r="C7">
-        <v>56.3</v>
-      </c>
-      <c r="D7">
-        <v>41.9</v>
-      </c>
-      <c r="E7">
-        <v>13.8</v>
-      </c>
-      <c r="F7">
-        <v>36.8</v>
-      </c>
-      <c r="G7">
-        <v>23.6</v>
-      </c>
-      <c r="H7">
-        <v>39.8</v>
-      </c>
-      <c r="I7">
-        <v>26.5</v>
-      </c>
-      <c r="J7">
-        <v>43.2</v>
-      </c>
-      <c r="K7">
-        <v>33.1</v>
-      </c>
-      <c r="L7">
-        <v>46.8</v>
-      </c>
-      <c r="M7">
-        <v>44.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>15.3</v>
-      </c>
-      <c r="C8">
-        <v>1.1</v>
-      </c>
-      <c r="D8">
-        <v>70.19999999999999</v>
-      </c>
-      <c r="E8">
-        <v>38.4</v>
-      </c>
-      <c r="F8">
-        <v>14.6</v>
-      </c>
-      <c r="G8">
-        <v>37.5</v>
-      </c>
-      <c r="H8">
-        <v>53.1</v>
-      </c>
-      <c r="I8">
-        <v>47.3</v>
-      </c>
-      <c r="J8">
-        <v>30.6</v>
-      </c>
-      <c r="K8">
-        <v>26.2</v>
-      </c>
-      <c r="L8">
-        <v>36.7</v>
-      </c>
-      <c r="M8">
-        <v>39.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>50.5</v>
-      </c>
-      <c r="C9">
-        <v>90.7</v>
-      </c>
-      <c r="D9">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="E9">
-        <v>93.7</v>
-      </c>
-      <c r="F9">
+      <c r="B10">
+        <v>10.4</v>
+      </c>
+      <c r="C10">
+        <v>56.00000000000001</v>
+      </c>
+      <c r="D10">
+        <v>47.09999999999999</v>
+      </c>
+      <c r="E10">
+        <v>11.4</v>
+      </c>
+      <c r="F10">
+        <v>33.7</v>
+      </c>
+      <c r="G10">
+        <v>28</v>
+      </c>
+      <c r="H10">
+        <v>35.6</v>
+      </c>
+      <c r="I10">
+        <v>26.3</v>
+      </c>
+      <c r="J10">
+        <v>44.2</v>
+      </c>
+      <c r="K10">
+        <v>32.2</v>
+      </c>
+      <c r="L10">
+        <v>48.6</v>
+      </c>
+      <c r="M10">
+        <v>21.5</v>
+      </c>
+      <c r="N10">
+        <v>18.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>96.59999999999999</v>
+      </c>
+      <c r="D11">
+        <v>82.09999999999999</v>
+      </c>
+      <c r="E11">
+        <v>64.5</v>
+      </c>
+      <c r="F11">
+        <v>74.7</v>
+      </c>
+      <c r="G11">
         <v>81.2</v>
       </c>
-      <c r="G9">
-        <v>59.59999999999999</v>
-      </c>
-      <c r="H9">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="I9">
-        <v>47.09999999999999</v>
-      </c>
-      <c r="J9">
-        <v>32.2</v>
-      </c>
-      <c r="K9">
-        <v>20</v>
-      </c>
-      <c r="L9">
-        <v>28.9</v>
-      </c>
-      <c r="M9">
-        <v>34.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-      <c r="C10">
-        <v>96.7</v>
-      </c>
-      <c r="D10">
-        <v>83.09999999999999</v>
-      </c>
-      <c r="E10">
-        <v>62.6</v>
-      </c>
-      <c r="F10">
-        <v>76.5</v>
-      </c>
-      <c r="G10">
-        <v>78.5</v>
-      </c>
-      <c r="H10">
-        <v>58.59999999999999</v>
-      </c>
-      <c r="I10">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="J10">
-        <v>66.3</v>
-      </c>
-      <c r="K10">
-        <v>51.7</v>
-      </c>
-      <c r="L10">
-        <v>29.2</v>
-      </c>
-      <c r="M10">
-        <v>25.3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>91.10000000000001</v>
-      </c>
-      <c r="C11">
-        <v>66.10000000000001</v>
-      </c>
-      <c r="D11">
-        <v>44.8</v>
-      </c>
-      <c r="E11">
-        <v>28</v>
-      </c>
-      <c r="F11">
-        <v>46</v>
-      </c>
-      <c r="G11">
-        <v>29.4</v>
-      </c>
       <c r="H11">
-        <v>43.3</v>
+        <v>57.8</v>
       </c>
       <c r="I11">
-        <v>31.8</v>
+        <v>77.8</v>
       </c>
       <c r="J11">
-        <v>19.4</v>
+        <v>64.7</v>
       </c>
       <c r="K11">
-        <v>49.6</v>
+        <v>50</v>
       </c>
       <c r="L11">
-        <v>22.3</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>21.1</v>
+        <v>8.200000000000001</v>
+      </c>
+      <c r="N11">
+        <v>4.2</v>
       </c>
     </row>
   </sheetData>
@@ -2857,25 +2905,25 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2883,28 +2931,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D2">
-        <v>116.04</v>
+        <v>135.6</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>127.38</v>
+        <v>124.73</v>
       </c>
       <c r="G2">
-        <v>0.576</v>
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2915,25 +2963,25 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>113.8</v>
+        <v>111.17</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>119.56</v>
+        <v>120.3</v>
       </c>
       <c r="G3">
-        <v>0.485</v>
+        <v>0.5</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2941,28 +2989,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>136.27</v>
+        <v>119.47</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>118.43</v>
+        <v>125.68</v>
       </c>
       <c r="G4">
-        <v>0.485</v>
+        <v>0.583</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2970,28 +3018,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>131</v>
+        <v>114.88</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>115.33</v>
+        <v>114.98</v>
       </c>
       <c r="G5">
-        <v>0.394</v>
+        <v>0.417</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
         <v>2</v>
-      </c>
-      <c r="I5">
-        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2999,28 +3047,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>114.79</v>
+        <v>129.99</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
       <c r="F6">
-        <v>113.13</v>
+        <v>123.38</v>
       </c>
       <c r="G6">
-        <v>0.424</v>
+        <v>0.542</v>
       </c>
       <c r="H6">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3028,28 +3076,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <v>128.16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>113.92</v>
+      </c>
+      <c r="G7">
+        <v>0.417</v>
+      </c>
+      <c r="H7">
+        <v>-4</v>
+      </c>
+      <c r="I7">
         <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7">
-        <v>110.19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>121.62</v>
-      </c>
-      <c r="G7">
-        <v>0.545</v>
-      </c>
-      <c r="H7">
-        <v>-3.3</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3057,28 +3105,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D8">
-        <v>129.07</v>
+        <v>115.76</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>122.04</v>
+        <v>113.98</v>
       </c>
       <c r="G8">
-        <v>0.485</v>
+        <v>0.417</v>
       </c>
       <c r="H8">
-        <v>-3.3</v>
+        <v>-6.5</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3089,25 +3137,25 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>109.78</v>
+        <v>108.5</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>120.86</v>
+        <v>121.96</v>
       </c>
       <c r="G9">
-        <v>0.545</v>
+        <v>0.542</v>
       </c>
       <c r="H9">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3115,28 +3163,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>119.41</v>
+        <v>110.62</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>119.86</v>
+        <v>113.02</v>
       </c>
       <c r="G10">
-        <v>0.545</v>
+        <v>0.458</v>
       </c>
       <c r="H10">
-        <v>-9.300000000000001</v>
+        <v>-11</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3144,28 +3192,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D11">
-        <v>116.79</v>
+        <v>119.33</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>118.94</v>
+        <v>121.52</v>
       </c>
       <c r="G11">
-        <v>0.515</v>
+        <v>0.625</v>
       </c>
       <c r="H11">
-        <v>-11</v>
+        <v>-15.5</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -3186,28 +3234,28 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3215,16 +3263,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2">
-        <v>0.7272727272727273</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>131</v>
+        <v>128.155</v>
       </c>
       <c r="E2">
-        <v>1441</v>
+        <v>1537.86</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3233,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3244,16 +3292,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C3">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>136.2690909090909</v>
+        <v>135.6</v>
       </c>
       <c r="E3">
-        <v>1498.96</v>
+        <v>1627.2</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3262,10 +3310,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3273,16 +3321,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D4">
-        <v>129.0727272727273</v>
+        <v>129.9883333333333</v>
       </c>
       <c r="E4">
-        <v>1419.8</v>
+        <v>1559.86</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3291,10 +3339,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3302,202 +3350,202 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C5">
-        <v>0.5454545454545454</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D5">
-        <v>114.7872727272727</v>
+        <v>114.8783333333333</v>
       </c>
       <c r="E5">
-        <v>1262.66</v>
+        <v>1378.54</v>
       </c>
       <c r="F5">
-        <v>88.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="G5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D6">
-        <v>110.1945454545454</v>
+        <v>119.3316666666667</v>
       </c>
       <c r="E6">
-        <v>1212.14</v>
+        <v>1431.98</v>
       </c>
       <c r="F6">
-        <v>47.2</v>
+        <v>56.3</v>
       </c>
       <c r="G6">
-        <v>10.5</v>
+        <v>2.4</v>
       </c>
       <c r="H6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C7">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D7">
-        <v>109.7781818181818</v>
+        <v>119.4683333333333</v>
       </c>
       <c r="E7">
-        <v>1207.56</v>
+        <v>1433.62</v>
       </c>
       <c r="F7">
-        <v>43.8</v>
+        <v>54.3</v>
       </c>
       <c r="G7">
-        <v>8.9</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
         <v>79</v>
       </c>
       <c r="C8">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D8">
-        <v>119.4145454545454</v>
+        <v>115.7616666666667</v>
       </c>
       <c r="E8">
-        <v>1313.56</v>
+        <v>1389.14</v>
       </c>
       <c r="F8">
-        <v>40</v>
+        <v>43.8</v>
       </c>
       <c r="G8">
-        <v>15.1</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="H8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
         <v>79</v>
       </c>
       <c r="C9">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D9">
-        <v>116.7927272727273</v>
+        <v>110.6183333333333</v>
       </c>
       <c r="E9">
-        <v>1284.72</v>
+        <v>1327.42</v>
       </c>
       <c r="F9">
-        <v>35</v>
+        <v>27.9</v>
       </c>
       <c r="G9">
-        <v>16.9</v>
+        <v>19.7</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>79</v>
       </c>
       <c r="C10">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D10">
-        <v>113.8036363636364</v>
+        <v>108.5016666666667</v>
       </c>
       <c r="E10">
-        <v>1251.84</v>
+        <v>1302.02</v>
       </c>
       <c r="F10">
-        <v>25.8</v>
+        <v>17.4</v>
       </c>
       <c r="G10">
-        <v>24.7</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C11">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>116.0363636363636</v>
+        <v>111.165</v>
       </c>
       <c r="E11">
-        <v>1276.4</v>
+        <v>1333.98</v>
       </c>
       <c r="F11">
-        <v>19.9</v>
+        <v>2.7</v>
       </c>
       <c r="G11">
-        <v>23.8</v>
+        <v>52.90000000000001</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3518,16 +3566,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3538,16 +3586,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3555,19 +3603,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D3">
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3575,19 +3623,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3595,19 +3643,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3615,19 +3663,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3638,16 +3686,16 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3655,19 +3703,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D8">
         <v>-10</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3675,19 +3723,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3695,19 +3743,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3718,16 +3766,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D11">
-        <v>-13</v>
+        <v>-19</v>
       </c>
       <c r="E11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3737,51 +3785,54 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>119</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3818,175 +3869,190 @@
       <c r="L2">
         <v>32</v>
       </c>
-      <c r="M2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="C3">
         <v>-2</v>
       </c>
       <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
         <v>5</v>
       </c>
-      <c r="E3">
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>-2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>-6</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>-1</v>
-      </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J4">
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4">
         <v>8</v>
       </c>
-      <c r="M4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>-2</v>
+        <v>8</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J5">
+        <v>-2</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+      <c r="H6">
+        <v>-6</v>
+      </c>
+      <c r="I6">
+        <v>-11</v>
+      </c>
+      <c r="J6">
+        <v>-10</v>
+      </c>
+      <c r="K6">
+        <v>-8</v>
+      </c>
+      <c r="L6">
+        <v>-10</v>
+      </c>
+      <c r="M6">
         <v>1</v>
       </c>
-      <c r="K5">
-        <v>4</v>
-      </c>
-      <c r="L5">
-        <v>5</v>
-      </c>
-      <c r="M5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>12</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>17</v>
-      </c>
-      <c r="G6">
-        <v>12</v>
-      </c>
-      <c r="H6">
-        <v>12</v>
-      </c>
-      <c r="I6">
-        <v>11</v>
-      </c>
-      <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6">
-        <v>6</v>
-      </c>
-      <c r="L6">
-        <v>-5</v>
-      </c>
-      <c r="M6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -4023,81 +4089,87 @@
       <c r="L7">
         <v>-7</v>
       </c>
-      <c r="M7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="M7">
+        <v>-6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>12</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>12</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>12</v>
+      </c>
+      <c r="K8">
+        <v>6</v>
+      </c>
+      <c r="L8">
+        <v>-5</v>
+      </c>
+      <c r="M8">
+        <v>-10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
         <v>4</v>
       </c>
-      <c r="B8">
-        <v>-7</v>
-      </c>
-      <c r="C8">
+      <c r="C9">
+        <v>-6</v>
+      </c>
+      <c r="D9">
+        <v>-6</v>
+      </c>
+      <c r="E9">
         <v>-5</v>
       </c>
-      <c r="D8">
-        <v>-7</v>
-      </c>
-      <c r="E8">
+      <c r="F9">
         <v>-8</v>
       </c>
-      <c r="F8">
-        <v>-5</v>
-      </c>
-      <c r="G8">
-        <v>-2</v>
-      </c>
-      <c r="H8">
+      <c r="G9">
         <v>-6</v>
       </c>
-      <c r="I8">
-        <v>-5</v>
-      </c>
-      <c r="J8">
-        <v>-1</v>
-      </c>
-      <c r="K8">
-        <v>-1</v>
-      </c>
-      <c r="L8">
-        <v>-10</v>
-      </c>
-      <c r="M8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>-1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
       <c r="H9">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="I9">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="J9">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="K9">
         <v>-8</v>
@@ -4105,52 +4177,58 @@
       <c r="L9">
         <v>-10</v>
       </c>
-      <c r="M9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="M9">
+        <v>-12</v>
+      </c>
+      <c r="N9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>-7</v>
       </c>
       <c r="C10">
+        <v>-5</v>
+      </c>
+      <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10">
+        <v>-8</v>
+      </c>
+      <c r="F10">
+        <v>-5</v>
+      </c>
+      <c r="G10">
+        <v>-2</v>
+      </c>
+      <c r="H10">
         <v>-6</v>
       </c>
-      <c r="D10">
-        <v>-6</v>
-      </c>
-      <c r="E10">
+      <c r="I10">
         <v>-5</v>
       </c>
-      <c r="F10">
-        <v>-8</v>
-      </c>
-      <c r="G10">
-        <v>-6</v>
-      </c>
-      <c r="H10">
-        <v>-13</v>
-      </c>
-      <c r="I10">
-        <v>-17</v>
-      </c>
       <c r="J10">
-        <v>-13</v>
+        <v>-1</v>
       </c>
       <c r="K10">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="L10">
         <v>-10</v>
       </c>
-      <c r="M10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="M10">
+        <v>-14</v>
+      </c>
+      <c r="N10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4187,8 +4265,11 @@
       <c r="L11">
         <v>-13</v>
       </c>
-      <c r="M11" t="s">
-        <v>100</v>
+      <c r="M11">
+        <v>-19</v>
+      </c>
+      <c r="N11" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="130">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -55,37 +55,37 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
-  </si>
-  <si>
-    <t>12-0-0</t>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>12-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -178,6 +178,9 @@
     <t>Week_13</t>
   </si>
   <si>
+    <t>Week_14</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -199,33 +202,33 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Saurin Sethia</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Shihab Chowdhury</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
+    <t>Kabir Manocha</t>
+  </si>
+  <si>
     <t>Vidhi Sethia</t>
   </si>
   <si>
-    <t>Saurin Sethia</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Pawan Bhambhwani</t>
-  </si>
-  <si>
     <t>Achira Amur</t>
   </si>
   <si>
-    <t>Shihab Chowdhury</t>
-  </si>
-  <si>
     <t>Utkarsh Gupta</t>
   </si>
   <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
-    <t>Kabir Manocha</t>
-  </si>
-  <si>
     <t>Hayat Khan</t>
   </si>
   <si>
@@ -253,66 +256,69 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>9.2-4.8</t>
-  </si>
-  <si>
-    <t>10.2-3.8</t>
-  </si>
-  <si>
-    <t>8.1-5.8</t>
-  </si>
-  <si>
-    <t>8.0-6.0</t>
-  </si>
-  <si>
-    <t>6.0-8.0</t>
-  </si>
-  <si>
-    <t>5.9-8.1</t>
-  </si>
-  <si>
-    <t>6.1-7.9</t>
-  </si>
-  <si>
-    <t>5.9-8.0</t>
-  </si>
-  <si>
-    <t>5.8-8.2</t>
-  </si>
-  <si>
-    <t>4.8-9.2</t>
-  </si>
-  <si>
-    <t>9-5</t>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>4-9</t>
+  </si>
+  <si>
+    <t>9.5-4.5</t>
+  </si>
+  <si>
+    <t>10.6-3.4</t>
+  </si>
+  <si>
+    <t>7.7-6.3</t>
+  </si>
+  <si>
+    <t>7.5-6.5</t>
+  </si>
+  <si>
+    <t>6.5-7.5</t>
+  </si>
+  <si>
+    <t>5.4-8.6</t>
+  </si>
+  <si>
+    <t>5.5-8.5</t>
+  </si>
+  <si>
+    <t>4.3-9.7</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
+    <t>11-3</t>
+  </si>
+  <si>
     <t>8-6</t>
   </si>
   <si>
     <t>6-8</t>
   </si>
   <si>
+    <t>7-7</t>
+  </si>
+  <si>
     <t>5-9</t>
   </si>
   <si>
+    <t>4-10</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -322,33 +328,33 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
     <t>↑9</t>
   </si>
   <si>
-    <t>↑3</t>
+    <t>↓9</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↓3</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑11</t>
-  </si>
-  <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -383,6 +389,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -810,13 +819,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -825,13 +834,13 @@
         <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -845,10 +854,10 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -866,7 +875,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -895,10 +904,10 @@
         <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
         <v>13</v>
@@ -933,10 +942,10 @@
         <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -950,22 +959,22 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
       <c r="G6" t="s">
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" t="s">
         <v>15</v>
@@ -982,31 +991,31 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s">
         <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1032,16 +1041,16 @@
         <v>12</v>
       </c>
       <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" t="s">
         <v>12</v>
       </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
       <c r="K8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1067,7 +1076,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -1087,7 +1096,7 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -1096,7 +1105,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -1105,13 +1114,13 @@
         <v>11</v>
       </c>
       <c r="I10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
         <v>11</v>
       </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
       <c r="K10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1128,10 +1137,10 @@
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
@@ -1140,13 +1149,13 @@
         <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>20</v>
       </c>
       <c r="K11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1156,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1164,25 +1173,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1216,25 +1225,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="F3">
-        <v>-13</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1242,25 +1251,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F4">
+        <v>-13</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
         <v>8</v>
-      </c>
-      <c r="G4">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1268,25 +1277,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>-14</v>
+        <v>32</v>
       </c>
       <c r="F5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1294,25 +1303,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1320,25 +1329,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1346,25 +1355,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1372,25 +1381,25 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
       <c r="E9">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F9">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1398,25 +1407,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="G10">
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1424,25 +1433,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="G11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1453,22 +1462,22 @@
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>-17</v>
+        <v>-5</v>
       </c>
       <c r="F12">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1476,25 +1485,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
       <c r="E13">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="F13">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1502,25 +1511,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
         <v>8</v>
-      </c>
-      <c r="H14" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1528,25 +1537,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F15">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="G15">
         <v>8</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1554,51 +1563,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E16">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>-8</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H16" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>7</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-      <c r="H17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1630,13 +1613,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>4.9</v>
+        <v>5.2</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1644,10 +1627,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -1658,13 +1641,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1672,10 +1655,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1686,10 +1669,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -1700,13 +1683,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>5.5</v>
+        <v>5.9</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1717,10 +1700,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>5.8</v>
+        <v>6.7</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1731,10 +1714,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1745,7 +1728,7 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -1759,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>8.4</v>
+        <v>9.1</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1797,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>8.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="D2">
-        <v>1.5</v>
+        <v>-0.6999999999999993</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1814,16 +1797,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>8.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="D3">
-        <v>-0.6999999999999993</v>
+        <v>2.1</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1834,10 +1817,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="D4">
-        <v>-1.2</v>
+        <v>-1.4</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
@@ -1851,13 +1834,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>6.1</v>
+        <v>6.6</v>
       </c>
       <c r="D5">
-        <v>-0.9000000000000004</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1865,13 +1848,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="D6">
-        <v>0.9000000000000004</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1882,16 +1865,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="D7">
-        <v>0.7000000000000002</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1902,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="D8">
-        <v>0.2999999999999998</v>
+        <v>-0.5</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1919,10 +1902,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="D9">
-        <v>-0.4000000000000004</v>
+        <v>-0.9000000000000004</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1936,13 +1919,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1953,13 +1936,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D11">
-        <v>-0.7000000000000002</v>
+        <v>-0.5</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2018,16 +2001,16 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>2.8</v>
       </c>
       <c r="C2">
-        <v>61.6</v>
+        <v>97.2</v>
       </c>
       <c r="D2">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2056,13 +2039,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>82.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="C3">
-        <v>13.9</v>
+        <v>2.8</v>
       </c>
       <c r="D3">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2094,19 +2077,19 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>83.3</v>
       </c>
       <c r="E4">
-        <v>23.9</v>
+        <v>16.3</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2135,22 +2118,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>25.2</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>51.2</v>
+        <v>48.9</v>
       </c>
       <c r="F5">
-        <v>10.2</v>
+        <v>19.8</v>
       </c>
       <c r="G5">
-        <v>8.5</v>
+        <v>11.8</v>
       </c>
       <c r="H5">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2162,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>97.59999999999999</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2176,36 +2159,36 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>21.3</v>
       </c>
       <c r="F6">
-        <v>21.9</v>
+        <v>35.5</v>
       </c>
       <c r="G6">
-        <v>24.1</v>
+        <v>26.8</v>
       </c>
       <c r="H6">
-        <v>16.9</v>
+        <v>14.5</v>
       </c>
       <c r="I6">
-        <v>16.3</v>
+        <v>1.2</v>
       </c>
       <c r="J6">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>56.3</v>
+        <v>84.3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2217,33 +2200,33 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>3.2</v>
+        <v>8.1</v>
       </c>
       <c r="F7">
-        <v>24.8</v>
+        <v>24.7</v>
       </c>
       <c r="G7">
+        <v>31.7</v>
+      </c>
+      <c r="H7">
         <v>26.3</v>
       </c>
-      <c r="H7">
-        <v>17.2</v>
-      </c>
       <c r="I7">
-        <v>13.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J7">
-        <v>12.7</v>
+        <v>0.5</v>
       </c>
       <c r="K7">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>54.3</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2255,33 +2238,33 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>4.7</v>
+        <v>5.4</v>
       </c>
       <c r="F8">
-        <v>23.6</v>
+        <v>18.5</v>
       </c>
       <c r="G8">
-        <v>15.5</v>
+        <v>20.8</v>
       </c>
       <c r="H8">
-        <v>24.1</v>
+        <v>30.6</v>
       </c>
       <c r="I8">
-        <v>14.1</v>
+        <v>20.6</v>
       </c>
       <c r="J8">
-        <v>13.9</v>
+        <v>4.1</v>
       </c>
       <c r="K8">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>43.8</v>
+        <v>44.7</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2293,28 +2276,28 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>11.6</v>
+        <v>1.1</v>
       </c>
       <c r="G9">
-        <v>13.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H9">
-        <v>17.3</v>
+        <v>16.9</v>
       </c>
       <c r="I9">
-        <v>24.2</v>
+        <v>36.2</v>
       </c>
       <c r="J9">
-        <v>10.9</v>
+        <v>34.2</v>
       </c>
       <c r="K9">
-        <v>19.7</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
-        <v>27.9</v>
+        <v>9.300000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2331,28 +2314,28 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>7.1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>10</v>
+        <v>0.7</v>
       </c>
       <c r="H10">
-        <v>14.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>28.5</v>
       </c>
       <c r="J10">
-        <v>28.7</v>
+        <v>47.5</v>
       </c>
       <c r="K10">
-        <v>19</v>
+        <v>15.1</v>
       </c>
       <c r="L10">
-        <v>17.4</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2372,25 +2355,25 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>11.5</v>
+        <v>4.8</v>
       </c>
       <c r="J11">
-        <v>25.7</v>
+        <v>13.7</v>
       </c>
       <c r="K11">
-        <v>52.9</v>
+        <v>81.5</v>
       </c>
       <c r="L11">
-        <v>2.7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2400,13 +2383,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -2446,37 +2429,40 @@
       <c r="N1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>73.59999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="C2">
-        <v>41.09999999999999</v>
+        <v>40.5</v>
       </c>
       <c r="D2">
-        <v>19.2</v>
+        <v>17.7</v>
       </c>
       <c r="E2">
-        <v>78.10000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="F2">
-        <v>79.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="G2">
         <v>93.5</v>
       </c>
       <c r="H2">
-        <v>90.60000000000001</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="I2">
-        <v>97</v>
+        <v>95.5</v>
       </c>
       <c r="J2">
-        <v>98.59999999999999</v>
+        <v>98.8</v>
       </c>
       <c r="K2">
         <v>99.8</v>
@@ -2490,37 +2476,40 @@
       <c r="N2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3">
-        <v>65.10000000000001</v>
+        <v>64.3</v>
       </c>
       <c r="C3">
-        <v>97.89999999999999</v>
+        <v>97.3</v>
       </c>
       <c r="D3">
+        <v>99.5</v>
+      </c>
+      <c r="E3">
         <v>99.7</v>
       </c>
-      <c r="E3">
+      <c r="F3">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="G3">
         <v>99.40000000000001</v>
       </c>
-      <c r="F3">
-        <v>99</v>
-      </c>
-      <c r="G3">
-        <v>99.5</v>
-      </c>
       <c r="H3">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="I3">
         <v>100</v>
       </c>
       <c r="J3">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>100</v>
@@ -2534,43 +2523,46 @@
       <c r="N3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>98.3</v>
+        <v>99</v>
       </c>
       <c r="C4">
-        <v>97.8</v>
+        <v>96.8</v>
       </c>
       <c r="D4">
-        <v>93.10000000000001</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="E4">
-        <v>74.40000000000001</v>
+        <v>73.8</v>
       </c>
       <c r="F4">
-        <v>67.60000000000001</v>
+        <v>63.6</v>
       </c>
       <c r="G4">
-        <v>83.8</v>
+        <v>86.3</v>
       </c>
       <c r="H4">
-        <v>91.90000000000001</v>
+        <v>92</v>
       </c>
       <c r="I4">
-        <v>97.8</v>
+        <v>98.8</v>
       </c>
       <c r="J4">
-        <v>99.5</v>
+        <v>99.3</v>
       </c>
       <c r="K4">
         <v>100</v>
       </c>
       <c r="L4">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="M4">
         <v>99.90000000000001</v>
@@ -2578,8 +2570,11 @@
       <c r="N4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -2587,263 +2582,281 @@
         <v>94.3</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>35.9</v>
       </c>
       <c r="D5">
-        <v>49.5</v>
+        <v>48.4</v>
       </c>
       <c r="E5">
-        <v>84.39999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="F5">
-        <v>89.3</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="G5">
-        <v>84.89999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="H5">
+        <v>63.3</v>
+      </c>
+      <c r="I5">
+        <v>48.9</v>
+      </c>
+      <c r="J5">
+        <v>70.3</v>
+      </c>
+      <c r="K5">
+        <v>92.7</v>
+      </c>
+      <c r="L5">
+        <v>88.5</v>
+      </c>
+      <c r="M5">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="N5">
+        <v>87.90000000000001</v>
+      </c>
+      <c r="O5">
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D6">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="E6">
+        <v>38.2</v>
+      </c>
+      <c r="F6">
+        <v>13.6</v>
+      </c>
+      <c r="G6">
+        <v>35.8</v>
+      </c>
+      <c r="H6">
+        <v>57.9</v>
+      </c>
+      <c r="I6">
+        <v>50.1</v>
+      </c>
+      <c r="J6">
+        <v>33.1</v>
+      </c>
+      <c r="K6">
+        <v>24.7</v>
+      </c>
+      <c r="L6">
+        <v>34.59999999999999</v>
+      </c>
+      <c r="M6">
+        <v>54.7</v>
+      </c>
+      <c r="N6">
+        <v>80.10000000000001</v>
+      </c>
+      <c r="O6">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>48.7</v>
+      </c>
+      <c r="C7">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="D7">
+        <v>88.5</v>
+      </c>
+      <c r="E7">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="F7">
+        <v>81.89999999999999</v>
+      </c>
+      <c r="G7">
+        <v>58.5</v>
+      </c>
+      <c r="H7">
+        <v>52.6</v>
+      </c>
+      <c r="I7">
+        <v>44.7</v>
+      </c>
+      <c r="J7">
+        <v>28.6</v>
+      </c>
+      <c r="K7">
+        <v>20.5</v>
+      </c>
+      <c r="L7">
+        <v>30.2</v>
+      </c>
+      <c r="M7">
+        <v>44.5</v>
+      </c>
+      <c r="N7">
+        <v>62.7</v>
+      </c>
+      <c r="O7">
         <v>67.5</v>
       </c>
-      <c r="I5">
-        <v>46.6</v>
-      </c>
-      <c r="J5">
-        <v>72.3</v>
-      </c>
-      <c r="K5">
-        <v>94.5</v>
-      </c>
-      <c r="L5">
-        <v>88.2</v>
-      </c>
-      <c r="M5">
-        <v>95.7</v>
-      </c>
-      <c r="N5">
-        <v>98.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <v>16.1</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>22.4</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>6.3</v>
+      </c>
+      <c r="H8">
+        <v>4.5</v>
+      </c>
+      <c r="I8">
+        <v>26.6</v>
+      </c>
+      <c r="J8">
+        <v>37</v>
+      </c>
+      <c r="K8">
+        <v>28.3</v>
+      </c>
+      <c r="L8">
+        <v>49.1</v>
+      </c>
+      <c r="M8">
+        <v>28.8</v>
+      </c>
+      <c r="N8">
+        <v>44.5</v>
+      </c>
+      <c r="O8">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>91.2</v>
-      </c>
-      <c r="C6">
-        <v>68.5</v>
-      </c>
-      <c r="D6">
-        <v>46.5</v>
-      </c>
-      <c r="E6">
-        <v>30.5</v>
-      </c>
-      <c r="F6">
-        <v>48.6</v>
-      </c>
-      <c r="G6">
-        <v>28.1</v>
-      </c>
-      <c r="H6">
-        <v>41.8</v>
-      </c>
-      <c r="I6">
-        <v>29.3</v>
-      </c>
-      <c r="J6">
-        <v>21.9</v>
-      </c>
-      <c r="K6">
-        <v>49.1</v>
-      </c>
-      <c r="L6">
-        <v>25.7</v>
-      </c>
-      <c r="M6">
-        <v>44.3</v>
-      </c>
-      <c r="N6">
-        <v>54.6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>14.5</v>
-      </c>
-      <c r="C7">
-        <v>1.3</v>
-      </c>
-      <c r="D7">
-        <v>72.2</v>
-      </c>
-      <c r="E7">
-        <v>38.9</v>
-      </c>
-      <c r="F7">
-        <v>14.2</v>
-      </c>
-      <c r="G7">
-        <v>36.6</v>
-      </c>
-      <c r="H7">
-        <v>55.1</v>
-      </c>
-      <c r="I7">
-        <v>53.8</v>
-      </c>
-      <c r="J7">
-        <v>31.2</v>
-      </c>
-      <c r="K7">
-        <v>25.7</v>
-      </c>
-      <c r="L7">
-        <v>34.8</v>
-      </c>
-      <c r="M7">
-        <v>52.6</v>
-      </c>
-      <c r="N7">
-        <v>53.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>52.3</v>
-      </c>
-      <c r="C8">
-        <v>91.7</v>
-      </c>
-      <c r="D8">
-        <v>84.7</v>
-      </c>
-      <c r="E8">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="F8">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="G8">
-        <v>58.5</v>
-      </c>
-      <c r="H8">
-        <v>54.50000000000001</v>
-      </c>
-      <c r="I8">
-        <v>46.7</v>
-      </c>
-      <c r="J8">
-        <v>30.9</v>
-      </c>
-      <c r="K8">
-        <v>19.1</v>
-      </c>
-      <c r="L8">
-        <v>28.5</v>
-      </c>
-      <c r="M8">
-        <v>47.4</v>
-      </c>
-      <c r="N8">
-        <v>45.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>91.60000000000001</v>
       </c>
       <c r="C9">
-        <v>16.1</v>
+        <v>70.8</v>
       </c>
       <c r="D9">
-        <v>5.899999999999999</v>
+        <v>45.6</v>
       </c>
       <c r="E9">
-        <v>25.5</v>
+        <v>31.6</v>
       </c>
       <c r="F9">
-        <v>10.9</v>
+        <v>48.1</v>
       </c>
       <c r="G9">
-        <v>5.899999999999999</v>
+        <v>29.2</v>
       </c>
       <c r="H9">
-        <v>5.3</v>
+        <v>45.1</v>
       </c>
       <c r="I9">
-        <v>24.7</v>
+        <v>30.7</v>
       </c>
       <c r="J9">
-        <v>36.9</v>
+        <v>20.7</v>
       </c>
       <c r="K9">
-        <v>29.6</v>
+        <v>48.5</v>
       </c>
       <c r="L9">
-        <v>45.4</v>
+        <v>26</v>
       </c>
       <c r="M9">
-        <v>30.4</v>
+        <v>49</v>
       </c>
       <c r="N9">
-        <v>25.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>19.2</v>
+      </c>
+      <c r="O9">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B10">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="C10">
-        <v>56.00000000000001</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="D10">
-        <v>47.09999999999999</v>
+        <v>46.7</v>
       </c>
       <c r="E10">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="F10">
-        <v>33.7</v>
+        <v>36.9</v>
       </c>
       <c r="G10">
-        <v>28</v>
+        <v>26.7</v>
       </c>
       <c r="H10">
-        <v>35.6</v>
+        <v>39.1</v>
       </c>
       <c r="I10">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="J10">
-        <v>44.2</v>
+        <v>47.59999999999999</v>
       </c>
       <c r="K10">
-        <v>32.2</v>
+        <v>35.4</v>
       </c>
       <c r="L10">
-        <v>48.6</v>
+        <v>45.7</v>
       </c>
       <c r="M10">
-        <v>21.5</v>
+        <v>21.2</v>
       </c>
       <c r="N10">
-        <v>18.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>5.2</v>
+      </c>
+      <c r="O10">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2851,40 +2864,43 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>96.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="D11">
-        <v>82.09999999999999</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="E11">
-        <v>64.5</v>
+        <v>63.7</v>
       </c>
       <c r="F11">
-        <v>74.7</v>
+        <v>75.3</v>
       </c>
       <c r="G11">
-        <v>81.2</v>
+        <v>82</v>
       </c>
       <c r="H11">
-        <v>57.8</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="I11">
-        <v>77.8</v>
+        <v>78.3</v>
       </c>
       <c r="J11">
-        <v>64.7</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="K11">
-        <v>50</v>
+        <v>50.1</v>
       </c>
       <c r="L11">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>8.200000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N11">
-        <v>4.2</v>
+        <v>0.4</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2905,25 +2921,25 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2931,28 +2947,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>135.6</v>
+        <v>110.92</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>124.73</v>
+        <v>128.98</v>
       </c>
       <c r="G2">
-        <v>0.5</v>
+        <v>0.538</v>
       </c>
       <c r="H2">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2960,28 +2976,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>111.17</v>
+        <v>114.52</v>
       </c>
       <c r="E3" t="s">
         <v>12</v>
       </c>
       <c r="F3">
-        <v>120.3</v>
+        <v>136.28</v>
       </c>
       <c r="G3">
-        <v>0.5</v>
+        <v>0.769</v>
       </c>
       <c r="H3">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2989,28 +3005,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>119.47</v>
+        <v>127.91</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>125.68</v>
+        <v>121.25</v>
       </c>
       <c r="G4">
-        <v>0.583</v>
+        <v>0.462</v>
       </c>
       <c r="H4">
-        <v>6.5</v>
+        <v>12</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3018,28 +3034,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>114.88</v>
+        <v>108.21</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>114.98</v>
+        <v>113.77</v>
       </c>
       <c r="G5">
-        <v>0.417</v>
+        <v>0.462</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3047,28 +3063,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>129.99</v>
+        <v>114.9</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>123.38</v>
+        <v>110.9</v>
       </c>
       <c r="G6">
-        <v>0.542</v>
+        <v>0.462</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3076,28 +3092,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D7">
-        <v>128.16</v>
+        <v>110.9</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>113.92</v>
+        <v>114.9</v>
       </c>
       <c r="G7">
-        <v>0.417</v>
+        <v>0.538</v>
       </c>
       <c r="H7">
-        <v>-4</v>
+        <v>-8</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3105,28 +3121,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>115.76</v>
+        <v>136.28</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>113.98</v>
+        <v>114.52</v>
       </c>
       <c r="G8">
-        <v>0.417</v>
+        <v>0.385</v>
       </c>
       <c r="H8">
-        <v>-6.5</v>
+        <v>-10</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3134,28 +3150,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>108.5</v>
+        <v>128.98</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9">
-        <v>121.96</v>
+        <v>110.92</v>
       </c>
       <c r="G9">
-        <v>0.542</v>
+        <v>0.308</v>
       </c>
       <c r="H9">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3163,28 +3179,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D10">
-        <v>110.62</v>
+        <v>113.77</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>113.02</v>
+        <v>108.21</v>
       </c>
       <c r="G10">
-        <v>0.458</v>
+        <v>0.385</v>
       </c>
       <c r="H10">
-        <v>-11</v>
+        <v>-16</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3195,25 +3211,25 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>119.33</v>
+        <v>121.25</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
       </c>
       <c r="F11">
-        <v>121.52</v>
+        <v>127.91</v>
       </c>
       <c r="G11">
-        <v>0.625</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="H11">
-        <v>-15.5</v>
+        <v>-18</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3234,28 +3250,28 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3263,16 +3279,16 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D2">
-        <v>128.155</v>
+        <v>127.9107692307692</v>
       </c>
       <c r="E2">
-        <v>1537.86</v>
+        <v>1662.84</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3281,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I2" t="s">
         <v>91</v>
@@ -3292,16 +3308,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D3">
-        <v>135.6</v>
+        <v>136.28</v>
       </c>
       <c r="E3">
-        <v>1627.2</v>
+        <v>1771.64</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3310,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I3" t="s">
         <v>92</v>
@@ -3321,16 +3337,16 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D4">
-        <v>129.9883333333333</v>
+        <v>128.9815384615385</v>
       </c>
       <c r="E4">
-        <v>1559.86</v>
+        <v>1676.76</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3339,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I4" t="s">
         <v>93</v>
@@ -3350,25 +3366,25 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C5">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D5">
-        <v>114.8783333333333</v>
+        <v>114.8984615384615</v>
       </c>
       <c r="E5">
-        <v>1378.54</v>
+        <v>1493.68</v>
       </c>
       <c r="F5">
-        <v>97.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
         <v>93</v>
@@ -3379,25 +3395,25 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C6">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D6">
-        <v>119.3316666666667</v>
+        <v>121.2461538461538</v>
       </c>
       <c r="E6">
-        <v>1431.98</v>
+        <v>1576.2</v>
       </c>
       <c r="F6">
-        <v>56.3</v>
+        <v>84.3</v>
       </c>
       <c r="G6">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
         <v>94</v>
@@ -3405,54 +3421,54 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C7">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D7">
-        <v>119.4683333333333</v>
+        <v>113.7661538461539</v>
       </c>
       <c r="E7">
-        <v>1433.62</v>
+        <v>1478.96</v>
       </c>
       <c r="F7">
-        <v>54.3</v>
+        <v>64.5</v>
       </c>
       <c r="G7">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C8">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D8">
-        <v>115.7616666666667</v>
+        <v>110.9046153846154</v>
       </c>
       <c r="E8">
-        <v>1389.14</v>
+        <v>1441.76</v>
       </c>
       <c r="F8">
-        <v>43.8</v>
+        <v>44.7</v>
       </c>
       <c r="G8">
-        <v>4.100000000000001</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>87</v>
@@ -3463,31 +3479,31 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C9">
-        <v>0.4166666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D9">
-        <v>110.6183333333333</v>
+        <v>114.52</v>
       </c>
       <c r="E9">
-        <v>1327.42</v>
+        <v>1488.76</v>
       </c>
       <c r="F9">
-        <v>27.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G9">
-        <v>19.7</v>
+        <v>3.4</v>
       </c>
       <c r="H9" t="s">
         <v>88</v>
       </c>
       <c r="I9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3495,28 +3511,28 @@
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C10">
-        <v>0.4166666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D10">
-        <v>108.5016666666667</v>
+        <v>108.2061538461539</v>
       </c>
       <c r="E10">
-        <v>1302.02</v>
+        <v>1406.68</v>
       </c>
       <c r="F10">
-        <v>17.4</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>15.1</v>
       </c>
       <c r="H10" t="s">
         <v>89</v>
       </c>
       <c r="I10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3524,28 +3540,28 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="D11">
-        <v>111.165</v>
+        <v>110.9169230769231</v>
       </c>
       <c r="E11">
-        <v>1333.98</v>
+        <v>1441.92</v>
       </c>
       <c r="F11">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>52.90000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="H11" t="s">
         <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3566,16 +3582,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3586,16 +3602,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3606,16 +3622,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3626,10 +3642,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -3646,16 +3662,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>-4</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3663,19 +3679,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>-7</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3683,19 +3699,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3703,10 +3719,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D8">
         <v>-10</v>
@@ -3715,7 +3731,7 @@
         <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3723,19 +3739,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D9">
-        <v>-12</v>
+        <v>-13</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3746,16 +3762,16 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10">
-        <v>-14</v>
+        <v>-16</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3766,16 +3782,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D11">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3785,54 +3801,57 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>122</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3872,11 +3891,14 @@
       <c r="M2">
         <v>41</v>
       </c>
-      <c r="N2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3916,11 +3938,14 @@
       <c r="M3">
         <v>8</v>
       </c>
-      <c r="N3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3">
+        <v>17</v>
+      </c>
+      <c r="O3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3960,11 +3985,14 @@
       <c r="M4">
         <v>6</v>
       </c>
-      <c r="N4" t="s">
+      <c r="N4">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -4004,187 +4032,202 @@
       <c r="M5">
         <v>5</v>
       </c>
-      <c r="N5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5">
+        <v>-4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="C6">
         <v>-1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>-8</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>-7</v>
       </c>
       <c r="H6">
+        <v>-13</v>
+      </c>
+      <c r="I6">
         <v>-6</v>
       </c>
-      <c r="I6">
-        <v>-11</v>
-      </c>
       <c r="J6">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="K6">
         <v>-8</v>
       </c>
       <c r="L6">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>-6</v>
+      </c>
+      <c r="N6">
+        <v>-7</v>
+      </c>
+      <c r="O6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-6</v>
       </c>
       <c r="D7">
-        <v>-2</v>
+        <v>-6</v>
       </c>
       <c r="E7">
-        <v>-2</v>
+        <v>-5</v>
       </c>
       <c r="F7">
         <v>-8</v>
       </c>
       <c r="G7">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="H7">
         <v>-13</v>
       </c>
       <c r="I7">
-        <v>-6</v>
+        <v>-17</v>
       </c>
       <c r="J7">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="K7">
         <v>-8</v>
       </c>
       <c r="L7">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="M7">
+        <v>-12</v>
+      </c>
+      <c r="N7">
+        <v>-8</v>
+      </c>
+      <c r="O7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+      <c r="H8">
         <v>-6</v>
       </c>
-      <c r="N7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
+      <c r="I8">
+        <v>-11</v>
+      </c>
+      <c r="J8">
+        <v>-10</v>
+      </c>
+      <c r="K8">
+        <v>-8</v>
+      </c>
+      <c r="L8">
+        <v>-10</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>-10</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
         <v>17</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>12</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>12</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>11</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>12</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>6</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>-5</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>-10</v>
       </c>
-      <c r="N8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9">
-        <v>-6</v>
-      </c>
-      <c r="D9">
-        <v>-6</v>
-      </c>
-      <c r="E9">
-        <v>-5</v>
-      </c>
-      <c r="F9">
-        <v>-8</v>
-      </c>
-      <c r="G9">
-        <v>-6</v>
-      </c>
-      <c r="H9">
+      <c r="N9">
         <v>-13</v>
       </c>
-      <c r="I9">
-        <v>-17</v>
-      </c>
-      <c r="J9">
-        <v>-13</v>
-      </c>
-      <c r="K9">
-        <v>-8</v>
-      </c>
-      <c r="L9">
-        <v>-10</v>
-      </c>
-      <c r="M9">
-        <v>-12</v>
-      </c>
-      <c r="N9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -4224,11 +4267,14 @@
       <c r="M10">
         <v>-14</v>
       </c>
-      <c r="N10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="N10">
+        <v>-16</v>
+      </c>
+      <c r="O10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4268,8 +4314,11 @@
       <c r="M11">
         <v>-19</v>
       </c>
-      <c r="N11" t="s">
-        <v>107</v>
+      <c r="N11">
+        <v>-18</v>
+      </c>
+      <c r="O11" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="125">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -55,37 +55,37 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>12-1-0</t>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>13-1-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -181,6 +181,9 @@
     <t>Week_14</t>
   </si>
   <si>
+    <t>Week_15</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -202,36 +205,36 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>Kabir Manocha</t>
+  </si>
+  <si>
+    <t>Shihab Chowdhury</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
     <t>Saurin Sethia</t>
   </si>
   <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Shihab Chowdhury</t>
-  </si>
-  <si>
-    <t>Harshit Aggarwal</t>
+    <t>Vidhi Sethia</t>
   </si>
   <si>
     <t>Pawan Bhambhwani</t>
   </si>
   <si>
-    <t>Kabir Manocha</t>
-  </si>
-  <si>
-    <t>Vidhi Sethia</t>
-  </si>
-  <si>
     <t>Achira Amur</t>
   </si>
   <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -256,69 +259,48 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>4-9</t>
-  </si>
-  <si>
-    <t>9.5-4.5</t>
-  </si>
-  <si>
-    <t>10.6-3.4</t>
-  </si>
-  <si>
-    <t>7.7-6.3</t>
-  </si>
-  <si>
-    <t>7.5-6.5</t>
-  </si>
-  <si>
-    <t>6.5-7.5</t>
-  </si>
-  <si>
-    <t>5.4-8.6</t>
-  </si>
-  <si>
-    <t>5.5-8.5</t>
-  </si>
-  <si>
-    <t>4.3-9.7</t>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>9-5</t>
   </si>
   <si>
     <t>10-4</t>
   </si>
   <si>
-    <t>11-3</t>
-  </si>
-  <si>
     <t>8-6</t>
   </si>
   <si>
+    <t>5-9</t>
+  </si>
+  <si>
     <t>6-8</t>
   </si>
   <si>
-    <t>7-7</t>
-  </si>
-  <si>
-    <t>5-9</t>
-  </si>
-  <si>
     <t>4-10</t>
   </si>
   <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -328,31 +310,31 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑6</t>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>↑9</t>
   </si>
   <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↓11</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑1</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↓10</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -392,6 +374,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -816,28 +801,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>10</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -848,31 +833,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
         <v>10</v>
@@ -883,25 +868,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -921,31 +906,31 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
         <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -956,13 +941,13 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
         <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>12</v>
@@ -971,13 +956,13 @@
         <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
         <v>13</v>
@@ -991,22 +976,22 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -1015,7 +1000,7 @@
         <v>14</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1029,22 +1014,22 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
@@ -1061,7 +1046,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
         <v>14</v>
@@ -1076,16 +1061,16 @@
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
         <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1093,16 +1078,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1111,16 +1096,16 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
         <v>11</v>
       </c>
-      <c r="I10" t="s">
-        <v>10</v>
-      </c>
       <c r="J10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K10" t="s">
         <v>11</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1128,13 +1113,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
@@ -1143,19 +1128,19 @@
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1165,7 +1150,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1173,25 +1158,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1303,25 +1288,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6">
-        <v>-14</v>
+        <v>18</v>
       </c>
       <c r="F6">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1329,25 +1314,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E7">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="F7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G7">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1355,25 +1340,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1381,25 +1366,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1407,25 +1392,25 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
       <c r="E10">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F10">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="G10">
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1433,25 +1418,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="G11">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1459,25 +1444,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1488,22 +1473,22 @@
         <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>-17</v>
+        <v>-5</v>
       </c>
       <c r="F13">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1511,25 +1496,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
       <c r="E14">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="F14">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1537,50 +1522,24 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E15">
         <v>4</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>-5</v>
       </c>
       <c r="G15">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>-8</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-      <c r="H16" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1613,13 +1572,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1627,13 +1586,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1641,10 +1600,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -1655,13 +1614,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1669,13 +1628,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5.8</v>
+        <v>6.5</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1686,10 +1645,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1700,10 +1659,10 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <v>6.7</v>
+        <v>7.3</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1714,10 +1673,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1728,10 +1687,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>7.9</v>
+        <v>8.1</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1742,7 +1701,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>9.1</v>
+        <v>9.9</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1783,13 +1742,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="D2">
-        <v>-0.6999999999999993</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1800,13 +1759,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>9.1</v>
+        <v>9.6</v>
       </c>
       <c r="D3">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1834,13 +1793,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="D5">
-        <v>-0.4000000000000004</v>
+        <v>0.2999999999999998</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1851,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="D6">
-        <v>0.5999999999999996</v>
+        <v>-0.09999999999999964</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -1868,13 +1827,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>5.9</v>
+        <v>6.8</v>
       </c>
       <c r="D7">
-        <v>0.9000000000000004</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1885,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="D8">
-        <v>-0.5</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1902,7 +1861,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>5.1</v>
+        <v>6.1</v>
       </c>
       <c r="D9">
         <v>-0.9000000000000004</v>
@@ -1916,16 +1875,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>0.7999999999999998</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1933,16 +1892,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="D11">
-        <v>-0.5</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1998,13 +1957,13 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>97.2</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -2016,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2036,19 +1995,19 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>97.2</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -2074,22 +2033,22 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>83.3</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>16.3</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2112,28 +2071,28 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>48.9</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>19.8</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>11.8</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2145,12 +2104,12 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>96.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2159,22 +2118,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>21.3</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>35.5</v>
+        <v>100</v>
       </c>
       <c r="G6">
-        <v>26.8</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -2183,12 +2142,12 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>84.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2197,31 +2156,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E7">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>24.7</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>31.7</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>26.3</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>64.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2238,33 +2197,33 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>20.8</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>30.6</v>
+        <v>100</v>
       </c>
       <c r="I8">
-        <v>20.6</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>44.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2279,30 +2238,30 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>16.9</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>36.2</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>34.2</v>
+        <v>100</v>
       </c>
       <c r="K9">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2320,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>28.5</v>
+        <v>100</v>
       </c>
       <c r="J10">
-        <v>47.5</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2364,13 +2323,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>13.7</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>81.5</v>
+        <v>100</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -2383,13 +2342,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -2432,431 +2391,461 @@
       <c r="O1" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>52.40000000000001</v>
+      </c>
+      <c r="C2">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="D2">
+        <v>86.7</v>
+      </c>
+      <c r="E2">
+        <v>93</v>
+      </c>
+      <c r="F2">
+        <v>82.39999999999999</v>
+      </c>
+      <c r="G2">
+        <v>60.09999999999999</v>
+      </c>
+      <c r="H2">
+        <v>57.09999999999999</v>
+      </c>
+      <c r="I2">
+        <v>46.9</v>
+      </c>
+      <c r="J2">
+        <v>33.6</v>
+      </c>
+      <c r="K2">
+        <v>19.9</v>
+      </c>
+      <c r="L2">
+        <v>28.8</v>
+      </c>
+      <c r="M2">
+        <v>43</v>
+      </c>
+      <c r="N2">
+        <v>65.10000000000001</v>
+      </c>
+      <c r="O2">
+        <v>72.5</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12.8</v>
+      </c>
+      <c r="C3">
+        <v>0.8</v>
+      </c>
+      <c r="D3">
+        <v>70.19999999999999</v>
+      </c>
+      <c r="E3">
+        <v>36.9</v>
+      </c>
+      <c r="F3">
+        <v>15.5</v>
+      </c>
+      <c r="G3">
+        <v>37.1</v>
+      </c>
+      <c r="H3">
+        <v>56.2</v>
+      </c>
+      <c r="I3">
+        <v>53.6</v>
+      </c>
+      <c r="J3">
+        <v>30.8</v>
+      </c>
+      <c r="K3">
+        <v>23.5</v>
+      </c>
+      <c r="L3">
+        <v>33.1</v>
+      </c>
+      <c r="M3">
+        <v>57.4</v>
+      </c>
+      <c r="N3">
+        <v>78.60000000000001</v>
+      </c>
+      <c r="O3">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>76.3</v>
-      </c>
-      <c r="C2">
-        <v>40.5</v>
-      </c>
-      <c r="D2">
-        <v>17.7</v>
-      </c>
-      <c r="E2">
-        <v>84.5</v>
-      </c>
-      <c r="F2">
+      <c r="B4">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>41.3</v>
+      </c>
+      <c r="D4">
+        <v>20.2</v>
+      </c>
+      <c r="E4">
         <v>82.59999999999999</v>
       </c>
-      <c r="G2">
+      <c r="F4">
+        <v>81.5</v>
+      </c>
+      <c r="G4">
         <v>93.5</v>
       </c>
-      <c r="H2">
-        <v>90.10000000000001</v>
-      </c>
-      <c r="I2">
-        <v>95.5</v>
-      </c>
-      <c r="J2">
-        <v>98.8</v>
-      </c>
-      <c r="K2">
+      <c r="H4">
+        <v>89.2</v>
+      </c>
+      <c r="I4">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="J4">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="K4">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>63.8</v>
+      </c>
+      <c r="C5">
+        <v>97.2</v>
+      </c>
+      <c r="D5">
+        <v>99.7</v>
+      </c>
+      <c r="E5">
         <v>99.8</v>
       </c>
-      <c r="L2">
-        <v>100</v>
-      </c>
-      <c r="M2">
-        <v>100</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>64.3</v>
-      </c>
-      <c r="C3">
-        <v>97.3</v>
-      </c>
-      <c r="D3">
+      <c r="F5">
         <v>99.5</v>
       </c>
-      <c r="E3">
+      <c r="G5">
         <v>99.7</v>
       </c>
-      <c r="F3">
-        <v>98.59999999999999</v>
-      </c>
-      <c r="G3">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="H3">
-        <v>99.8</v>
-      </c>
-      <c r="I3">
-        <v>100</v>
-      </c>
-      <c r="J3">
-        <v>100</v>
-      </c>
-      <c r="K3">
-        <v>100</v>
-      </c>
-      <c r="L3">
-        <v>100</v>
-      </c>
-      <c r="M3">
-        <v>100</v>
-      </c>
-      <c r="N3">
-        <v>100</v>
-      </c>
-      <c r="O3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1" t="s">
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="C6">
+        <v>34.3</v>
+      </c>
+      <c r="D6">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>81.89999999999999</v>
+      </c>
+      <c r="F6">
+        <v>89.3</v>
+      </c>
+      <c r="G6">
+        <v>82.8</v>
+      </c>
+      <c r="H6">
+        <v>64.60000000000001</v>
+      </c>
+      <c r="I6">
+        <v>49</v>
+      </c>
+      <c r="J6">
+        <v>70.5</v>
+      </c>
+      <c r="K6">
+        <v>93.2</v>
+      </c>
+      <c r="L6">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="M6">
+        <v>94.3</v>
+      </c>
+      <c r="N6">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="O6">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>99</v>
-      </c>
-      <c r="C4">
-        <v>96.8</v>
-      </c>
-      <c r="D4">
-        <v>93.60000000000001</v>
-      </c>
-      <c r="E4">
-        <v>73.8</v>
-      </c>
-      <c r="F4">
-        <v>63.6</v>
-      </c>
-      <c r="G4">
-        <v>86.3</v>
-      </c>
-      <c r="H4">
-        <v>92</v>
-      </c>
-      <c r="I4">
-        <v>98.8</v>
-      </c>
-      <c r="J4">
-        <v>99.3</v>
-      </c>
-      <c r="K4">
-        <v>100</v>
-      </c>
-      <c r="L4">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="M4">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="N4">
-        <v>100</v>
-      </c>
-      <c r="O4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>94.3</v>
-      </c>
-      <c r="C5">
-        <v>35.9</v>
-      </c>
-      <c r="D5">
-        <v>48.4</v>
-      </c>
-      <c r="E5">
-        <v>82.5</v>
-      </c>
-      <c r="F5">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="G5">
-        <v>82.3</v>
-      </c>
-      <c r="H5">
-        <v>63.3</v>
-      </c>
-      <c r="I5">
-        <v>48.9</v>
-      </c>
-      <c r="J5">
-        <v>70.3</v>
-      </c>
-      <c r="K5">
-        <v>92.7</v>
-      </c>
-      <c r="L5">
-        <v>88.5</v>
-      </c>
-      <c r="M5">
-        <v>93.60000000000001</v>
-      </c>
-      <c r="N5">
-        <v>87.90000000000001</v>
-      </c>
-      <c r="O5">
-        <v>97.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>15</v>
-      </c>
-      <c r="C6">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="D6">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="E6">
-        <v>38.2</v>
-      </c>
-      <c r="F6">
-        <v>13.6</v>
-      </c>
-      <c r="G6">
-        <v>35.8</v>
-      </c>
-      <c r="H6">
-        <v>57.9</v>
-      </c>
-      <c r="I6">
-        <v>50.1</v>
-      </c>
-      <c r="J6">
-        <v>33.1</v>
-      </c>
-      <c r="K6">
-        <v>24.7</v>
-      </c>
-      <c r="L6">
-        <v>34.59999999999999</v>
-      </c>
-      <c r="M6">
-        <v>54.7</v>
-      </c>
-      <c r="N6">
-        <v>80.10000000000001</v>
-      </c>
-      <c r="O6">
-        <v>84.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B7">
-        <v>48.7</v>
+        <v>99.2</v>
       </c>
       <c r="C7">
-        <v>90.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="D7">
-        <v>88.5</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="E7">
-        <v>91.90000000000001</v>
+        <v>73.3</v>
       </c>
       <c r="F7">
-        <v>81.89999999999999</v>
+        <v>61.6</v>
       </c>
       <c r="G7">
-        <v>58.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="H7">
-        <v>52.6</v>
+        <v>91</v>
       </c>
       <c r="I7">
-        <v>44.7</v>
+        <v>98.2</v>
       </c>
       <c r="J7">
-        <v>28.6</v>
+        <v>99.2</v>
       </c>
       <c r="K7">
-        <v>20.5</v>
+        <v>99.7</v>
       </c>
       <c r="L7">
-        <v>30.2</v>
+        <v>100</v>
       </c>
       <c r="M7">
-        <v>44.5</v>
+        <v>100</v>
       </c>
       <c r="N7">
-        <v>62.7</v>
+        <v>100</v>
       </c>
       <c r="O7">
-        <v>67.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
-        <v>16.1</v>
+        <v>15.9</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="E8">
-        <v>22.4</v>
+        <v>24.3</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="G8">
-        <v>6.3</v>
+        <v>5.7</v>
       </c>
       <c r="H8">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I8">
+        <v>25.1</v>
+      </c>
+      <c r="J8">
+        <v>36.8</v>
+      </c>
+      <c r="K8">
+        <v>29.4</v>
+      </c>
+      <c r="L8">
+        <v>48.4</v>
+      </c>
+      <c r="M8">
+        <v>28.6</v>
+      </c>
+      <c r="N8">
+        <v>44.1</v>
+      </c>
+      <c r="O8">
+        <v>50.7</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>10.2</v>
+      </c>
+      <c r="C9">
+        <v>55.40000000000001</v>
+      </c>
+      <c r="D9">
+        <v>45.2</v>
+      </c>
+      <c r="E9">
+        <v>12.9</v>
+      </c>
+      <c r="F9">
+        <v>38.4</v>
+      </c>
+      <c r="G9">
         <v>26.6</v>
       </c>
-      <c r="J8">
-        <v>37</v>
-      </c>
-      <c r="K8">
-        <v>28.3</v>
-      </c>
-      <c r="L8">
-        <v>49.1</v>
-      </c>
-      <c r="M8">
-        <v>28.8</v>
-      </c>
-      <c r="N8">
-        <v>44.5</v>
-      </c>
-      <c r="O8">
-        <v>38.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
+      <c r="H9">
+        <v>36.4</v>
+      </c>
+      <c r="I9">
+        <v>29.3</v>
+      </c>
+      <c r="J9">
+        <v>43.9</v>
+      </c>
+      <c r="K9">
+        <v>29.6</v>
+      </c>
+      <c r="L9">
+        <v>47.59999999999999</v>
+      </c>
+      <c r="M9">
+        <v>22.6</v>
+      </c>
+      <c r="N9">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>91.60000000000001</v>
       </c>
-      <c r="C9">
-        <v>70.8</v>
-      </c>
-      <c r="D9">
-        <v>45.6</v>
-      </c>
-      <c r="E9">
-        <v>31.6</v>
-      </c>
-      <c r="F9">
-        <v>48.1</v>
-      </c>
-      <c r="G9">
-        <v>29.2</v>
-      </c>
-      <c r="H9">
-        <v>45.1</v>
-      </c>
-      <c r="I9">
-        <v>30.7</v>
-      </c>
-      <c r="J9">
-        <v>20.7</v>
-      </c>
-      <c r="K9">
-        <v>48.5</v>
-      </c>
-      <c r="L9">
+      <c r="C10">
+        <v>69.09999999999999</v>
+      </c>
+      <c r="D10">
+        <v>48.7</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>47.8</v>
+      </c>
+      <c r="G10">
+        <v>29.3</v>
+      </c>
+      <c r="H10">
+        <v>42.3</v>
+      </c>
+      <c r="I10">
         <v>26</v>
       </c>
-      <c r="M9">
-        <v>49</v>
-      </c>
-      <c r="N9">
-        <v>19.2</v>
-      </c>
-      <c r="O9">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>10.7</v>
-      </c>
-      <c r="C10">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="D10">
-        <v>46.7</v>
-      </c>
-      <c r="E10">
-        <v>11.7</v>
-      </c>
-      <c r="F10">
-        <v>36.9</v>
-      </c>
-      <c r="G10">
-        <v>26.7</v>
-      </c>
-      <c r="H10">
-        <v>39.1</v>
-      </c>
-      <c r="I10">
-        <v>26.4</v>
-      </c>
       <c r="J10">
-        <v>47.59999999999999</v>
+        <v>21.4</v>
       </c>
       <c r="K10">
-        <v>35.4</v>
+        <v>51</v>
       </c>
       <c r="L10">
-        <v>45.7</v>
+        <v>26</v>
       </c>
       <c r="M10">
-        <v>21.2</v>
+        <v>46</v>
       </c>
       <c r="N10">
-        <v>5.2</v>
+        <v>17.9</v>
       </c>
       <c r="O10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>17.8</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -2864,42 +2853,45 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>96.5</v>
+        <v>96.89999999999999</v>
       </c>
       <c r="D11">
-        <v>81.89999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="E11">
-        <v>63.7</v>
+        <v>65.3</v>
       </c>
       <c r="F11">
-        <v>75.3</v>
+        <v>73.5</v>
       </c>
       <c r="G11">
-        <v>82</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="H11">
-        <v>55.60000000000001</v>
+        <v>58.4</v>
       </c>
       <c r="I11">
-        <v>78.3</v>
+        <v>77.5</v>
       </c>
       <c r="J11">
-        <v>64.60000000000001</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="K11">
-        <v>50.1</v>
+        <v>54.1</v>
       </c>
       <c r="L11">
-        <v>26</v>
+        <v>29.2</v>
       </c>
       <c r="M11">
-        <v>8.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="N11">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
         <v>0</v>
       </c>
     </row>
@@ -2921,25 +2913,25 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2947,28 +2939,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>110.92</v>
+        <v>114.04</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>128.98</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2976,28 +2968,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>114.52</v>
+        <v>120.55</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>136.28</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.769</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3005,28 +2997,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4">
-        <v>127.91</v>
+        <v>112.7</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>121.25</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3034,28 +3026,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>108.21</v>
+        <v>125.45</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5">
-        <v>113.77</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3063,28 +3055,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D6">
-        <v>114.9</v>
+        <v>108.64</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6">
-        <v>110.9</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.462</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3092,28 +3084,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>110.9</v>
+        <v>115.86</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7">
-        <v>114.9</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.538</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3121,28 +3113,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>136.28</v>
+        <v>110.44</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F8">
-        <v>114.52</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3150,28 +3142,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D9">
-        <v>128.98</v>
+        <v>134.59</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9">
-        <v>110.92</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0.308</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3179,28 +3171,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D10">
-        <v>113.77</v>
+        <v>115.52</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
       <c r="F10">
-        <v>108.21</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0.385</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3208,28 +3200,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D11">
-        <v>121.25</v>
+        <v>127.87</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F11">
-        <v>127.91</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0.6919999999999999</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3250,45 +3242,45 @@
         <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2">
-        <v>0.6923076923076923</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>127.9107692307692</v>
+        <v>114.0428571428572</v>
       </c>
       <c r="E2">
-        <v>1662.84</v>
+        <v>1596.6</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -3297,27 +3289,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>78</v>
       </c>
       <c r="C3">
-        <v>0.7692307692307693</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
-        <v>136.28</v>
+        <v>120.5471428571429</v>
       </c>
       <c r="E3">
-        <v>1771.64</v>
+        <v>1687.66</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -3326,27 +3318,27 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I3" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>79</v>
       </c>
       <c r="C4">
-        <v>0.5384615384615384</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D4">
-        <v>128.9815384615385</v>
+        <v>125.4542857142857</v>
       </c>
       <c r="E4">
-        <v>1676.76</v>
+        <v>1756.36</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -3355,97 +3347,97 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I4" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C5">
-        <v>0.5384615384615384</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D5">
-        <v>114.8984615384615</v>
+        <v>134.5857142857143</v>
       </c>
       <c r="E5">
-        <v>1493.68</v>
+        <v>1884.2</v>
       </c>
       <c r="F5">
-        <v>96.5</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>121.2461538461538</v>
+        <v>115.5228571428571</v>
       </c>
       <c r="E6">
-        <v>1576.2</v>
+        <v>1617.32</v>
       </c>
       <c r="F6">
-        <v>84.3</v>
+        <v>100</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I6" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7">
-        <v>0.4615384615384616</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D7">
-        <v>113.7661538461539</v>
+        <v>127.8685714285714</v>
       </c>
       <c r="E7">
-        <v>1478.96</v>
+        <v>1790.16</v>
       </c>
       <c r="F7">
-        <v>64.5</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3453,86 +3445,86 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C8">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>110.9046153846154</v>
+        <v>112.7028571428571</v>
       </c>
       <c r="E8">
-        <v>1441.76</v>
+        <v>1577.84</v>
       </c>
       <c r="F8">
-        <v>44.7</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9">
-        <v>0.3846153846153846</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D9">
-        <v>114.52</v>
+        <v>108.6371428571429</v>
       </c>
       <c r="E9">
-        <v>1488.76</v>
+        <v>1520.92</v>
       </c>
       <c r="F9">
-        <v>9.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C10">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D10">
-        <v>108.2061538461539</v>
+        <v>115.8642857142857</v>
       </c>
       <c r="E10">
-        <v>1406.68</v>
+        <v>1622.1</v>
       </c>
       <c r="F10">
-        <v>0.7000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3540,28 +3532,28 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C11">
-        <v>0.3076923076923077</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D11">
-        <v>110.9169230769231</v>
+        <v>110.4357142857143</v>
       </c>
       <c r="E11">
-        <v>1441.92</v>
+        <v>1546.1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>81.5</v>
+        <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -3582,16 +3574,16 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3602,16 +3594,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3622,16 +3614,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3642,16 +3634,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3659,19 +3651,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D5">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3679,19 +3671,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3702,16 +3694,16 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D7">
-        <v>-8</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3722,16 +3714,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D8">
-        <v>-10</v>
+        <v>-6</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3739,19 +3731,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D9">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3759,19 +3751,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>-16</v>
+        <v>-19</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3782,16 +3774,16 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11">
-        <v>-18</v>
+        <v>-28</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3801,57 +3793,60 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3894,11 +3889,14 @@
       <c r="N2">
         <v>47</v>
       </c>
-      <c r="O2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3941,11 +3939,14 @@
       <c r="N3">
         <v>17</v>
       </c>
-      <c r="O3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -3988,105 +3989,114 @@
       <c r="N4">
         <v>12</v>
       </c>
-      <c r="O4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>5</v>
+      </c>
+      <c r="P4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>-1</v>
+      </c>
+      <c r="D5">
+        <v>-2</v>
+      </c>
+      <c r="E5">
+        <v>-2</v>
+      </c>
+      <c r="F5">
+        <v>-8</v>
+      </c>
+      <c r="G5">
+        <v>-7</v>
+      </c>
+      <c r="H5">
+        <v>-13</v>
+      </c>
+      <c r="I5">
+        <v>-6</v>
+      </c>
+      <c r="J5">
+        <v>-7</v>
+      </c>
+      <c r="K5">
+        <v>-8</v>
+      </c>
+      <c r="L5">
+        <v>-7</v>
+      </c>
+      <c r="M5">
+        <v>-6</v>
+      </c>
+      <c r="N5">
+        <v>-7</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>2</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>6</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>-2</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>8</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>5</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>-4</v>
       </c>
-      <c r="O5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>-2</v>
-      </c>
-      <c r="C6">
-        <v>-1</v>
-      </c>
-      <c r="D6">
-        <v>-2</v>
-      </c>
-      <c r="E6">
-        <v>-2</v>
-      </c>
-      <c r="F6">
-        <v>-8</v>
-      </c>
-      <c r="G6">
-        <v>-7</v>
-      </c>
-      <c r="H6">
-        <v>-13</v>
-      </c>
-      <c r="I6">
-        <v>-6</v>
-      </c>
-      <c r="J6">
-        <v>-7</v>
-      </c>
-      <c r="K6">
-        <v>-8</v>
-      </c>
-      <c r="L6">
-        <v>-7</v>
-      </c>
-      <c r="M6">
-        <v>-6</v>
-      </c>
-      <c r="N6">
-        <v>-7</v>
-      </c>
-      <c r="O6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -4129,11 +4139,14 @@
       <c r="N7">
         <v>-8</v>
       </c>
-      <c r="O7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>-1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4176,105 +4189,114 @@
       <c r="N8">
         <v>-10</v>
       </c>
-      <c r="O8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="O8">
+        <v>-6</v>
+      </c>
+      <c r="P8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>-7</v>
+      </c>
+      <c r="C9">
+        <v>-5</v>
+      </c>
+      <c r="D9">
+        <v>-7</v>
+      </c>
+      <c r="E9">
+        <v>-8</v>
+      </c>
+      <c r="F9">
+        <v>-5</v>
+      </c>
+      <c r="G9">
+        <v>-2</v>
+      </c>
+      <c r="H9">
+        <v>-6</v>
+      </c>
+      <c r="I9">
+        <v>-5</v>
+      </c>
+      <c r="J9">
+        <v>-1</v>
+      </c>
+      <c r="K9">
+        <v>-1</v>
+      </c>
+      <c r="L9">
+        <v>-10</v>
+      </c>
+      <c r="M9">
+        <v>-14</v>
+      </c>
+      <c r="N9">
+        <v>-16</v>
+      </c>
+      <c r="O9">
+        <v>-14</v>
+      </c>
+      <c r="P9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>7</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>12</v>
       </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
         <v>17</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>12</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>12</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>11</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>12</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>6</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>-5</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>-10</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>-13</v>
       </c>
-      <c r="O9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>-7</v>
-      </c>
-      <c r="C10">
-        <v>-5</v>
-      </c>
-      <c r="D10">
-        <v>-7</v>
-      </c>
-      <c r="E10">
-        <v>-8</v>
-      </c>
-      <c r="F10">
-        <v>-5</v>
-      </c>
-      <c r="G10">
-        <v>-2</v>
-      </c>
-      <c r="H10">
-        <v>-6</v>
-      </c>
-      <c r="I10">
-        <v>-5</v>
-      </c>
-      <c r="J10">
-        <v>-1</v>
-      </c>
-      <c r="K10">
-        <v>-1</v>
-      </c>
-      <c r="L10">
-        <v>-10</v>
-      </c>
-      <c r="M10">
-        <v>-14</v>
-      </c>
-      <c r="N10">
-        <v>-16</v>
-      </c>
-      <c r="O10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>-19</v>
+      </c>
+      <c r="P10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -4317,8 +4339,11 @@
       <c r="N11">
         <v>-18</v>
       </c>
-      <c r="O11" t="s">
-        <v>109</v>
+      <c r="O11">
+        <v>-28</v>
+      </c>
+      <c r="P11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="134">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -55,186 +55,213 @@
     <t>Team HebAchi</t>
   </si>
   <si>
+    <t>7-8-0</t>
+  </si>
+  <si>
+    <t>8-7-0</t>
+  </si>
+  <si>
+    <t>6-9-0</t>
+  </si>
+  <si>
+    <t>5-10-0</t>
+  </si>
+  <si>
+    <t>4-11-0</t>
+  </si>
+  <si>
+    <t>10-5-0</t>
+  </si>
+  <si>
+    <t>9-6-0</t>
+  </si>
+  <si>
+    <t>11-4-0</t>
+  </si>
+  <si>
+    <t>3-12-0</t>
+  </si>
+  <si>
+    <t>12-3-0</t>
+  </si>
+  <si>
+    <t>13-2-0</t>
+  </si>
+  <si>
+    <t>10-4-1</t>
+  </si>
+  <si>
+    <t>8-6-1</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>Wins Against Schedule</t>
+  </si>
+  <si>
+    <t>Record</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Expected Wins</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>Kabir Manocha</t>
+  </si>
+  <si>
+    <t>Shihab Chowdhury</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Saurin Sethia</t>
+  </si>
+  <si>
+    <t>Vidhi Sethia</t>
+  </si>
+  <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
+    <t>Achira Amur</t>
+  </si>
+  <si>
     <t>7-7-0</t>
   </si>
   <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
     <t>6-8-0</t>
   </si>
   <si>
-    <t>5-9-0</t>
-  </si>
-  <si>
-    <t>3-11-0</t>
-  </si>
-  <si>
-    <t>9-5-0</t>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
   </si>
   <si>
     <t>8-6-0</t>
   </si>
   <si>
-    <t>4-10-0</t>
-  </si>
-  <si>
-    <t>11-3-0</t>
-  </si>
-  <si>
-    <t>10-4-0</t>
-  </si>
-  <si>
-    <t>12-2-0</t>
-  </si>
-  <si>
-    <t>13-1-0</t>
-  </si>
-  <si>
-    <t>Teams</t>
-  </si>
-  <si>
-    <t>Wins Against Schedule</t>
-  </si>
-  <si>
-    <t>Record</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Expected Wins</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>1st Place</t>
-  </si>
-  <si>
-    <t>2nd Place</t>
-  </si>
-  <si>
-    <t>3rd Place</t>
-  </si>
-  <si>
-    <t>4th Place</t>
-  </si>
-  <si>
-    <t>5th Place</t>
-  </si>
-  <si>
-    <t>6th Place</t>
-  </si>
-  <si>
-    <t>7th Place</t>
-  </si>
-  <si>
-    <t>8th Place</t>
-  </si>
-  <si>
-    <t>9th Place</t>
-  </si>
-  <si>
-    <t>10th Place</t>
-  </si>
-  <si>
-    <t>Chance of Making Playoffs</t>
-  </si>
-  <si>
-    <t>Week_1</t>
-  </si>
-  <si>
-    <t>Week_2</t>
-  </si>
-  <si>
-    <t>Week_3</t>
-  </si>
-  <si>
-    <t>Week_4</t>
-  </si>
-  <si>
-    <t>Week_5</t>
-  </si>
-  <si>
-    <t>Week_6</t>
-  </si>
-  <si>
-    <t>Week_7</t>
-  </si>
-  <si>
-    <t>Week_8</t>
-  </si>
-  <si>
-    <t>Week_9</t>
-  </si>
-  <si>
-    <t>Week_10</t>
-  </si>
-  <si>
-    <t>Week_11</t>
-  </si>
-  <si>
-    <t>Week_12</t>
-  </si>
-  <si>
-    <t>Week_13</t>
-  </si>
-  <si>
-    <t>Week_14</t>
-  </si>
-  <si>
-    <t>Week_15</t>
-  </si>
-  <si>
-    <t>Owner</t>
-  </si>
-  <si>
-    <t>Avg_Points_For</t>
-  </si>
-  <si>
-    <t>Team_Record</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Points_For</t>
-  </si>
-  <si>
-    <t>Avg_Opp_Win_Pct</t>
-  </si>
-  <si>
-    <t>Avg_Opp_LPI</t>
-  </si>
-  <si>
-    <t>Games_Remaining</t>
-  </si>
-  <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
-    <t>Kabir Manocha</t>
-  </si>
-  <si>
-    <t>Shihab Chowdhury</t>
-  </si>
-  <si>
-    <t>Harshit Aggarwal</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Saurin Sethia</t>
-  </si>
-  <si>
-    <t>Vidhi Sethia</t>
-  </si>
-  <si>
-    <t>Pawan Bhambhwani</t>
-  </si>
-  <si>
-    <t>Achira Amur</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -310,31 +337,28 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↓10</t>
+    <t>↑10</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -377,6 +401,9 @@
   </si>
   <si>
     <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
   </si>
   <si>
     <t>Week</t>
@@ -801,28 +828,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -833,34 +860,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" t="s">
         <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -868,34 +895,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
         <v>10</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -906,31 +933,31 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
         <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -938,34 +965,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" t="s">
-        <v>11</v>
-      </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -973,34 +1000,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1011,22 +1038,22 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
         <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
@@ -1043,34 +1070,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1078,34 +1105,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
         <v>10</v>
       </c>
       <c r="K10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1113,34 +1140,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J11" t="s">
         <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1158,25 +1185,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1236,25 +1263,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>-18</v>
       </c>
       <c r="F4">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="G4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1262,25 +1289,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E5">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F5">
+        <v>-13</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
         <v>8</v>
-      </c>
-      <c r="G5">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1288,25 +1315,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F6">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1314,25 +1341,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
-        <v>-14</v>
+        <v>18</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="G7">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1340,25 +1367,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="F8">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1366,25 +1393,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>-8</v>
+        <v>-6</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1392,25 +1419,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>-5</v>
+        <v>-8</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1418,25 +1445,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
       <c r="E11">
-        <v>10</v>
+        <v>-5</v>
       </c>
       <c r="F11">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="G11">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1444,25 +1471,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="G12">
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1470,25 +1497,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>-11</v>
       </c>
       <c r="G13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1499,22 +1526,22 @@
         <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>-17</v>
+        <v>-5</v>
       </c>
       <c r="F14">
-        <v>-6</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>11</v>
       </c>
       <c r="H14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1522,25 +1549,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
       <c r="E15">
-        <v>4</v>
+        <v>-17</v>
       </c>
       <c r="F15">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="G15">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H15" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1558,13 +1585,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1575,7 +1602,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -1586,13 +1613,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1600,13 +1627,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1614,13 +1641,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1631,10 +1658,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1645,10 +1672,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1656,13 +1683,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>7.3</v>
+        <v>7.9</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1670,10 +1697,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>7.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -1687,10 +1714,10 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1701,10 +1728,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>9.9</v>
+        <v>10.1</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1722,16 +1749,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1742,13 +1769,13 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>9.6</v>
+        <v>10.4</v>
       </c>
       <c r="D2">
-        <v>-0.4000000000000004</v>
+        <v>0.4000000000000004</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1759,13 +1786,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>9.6</v>
+        <v>9.9</v>
       </c>
       <c r="D3">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1776,13 +1803,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>7.6</v>
+        <v>8.6</v>
       </c>
       <c r="D4">
         <v>-1.4</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1793,10 +1820,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>7.3</v>
+        <v>7.7</v>
       </c>
       <c r="D5">
-        <v>0.2999999999999998</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1810,13 +1837,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="D6">
-        <v>-0.09999999999999964</v>
+        <v>-0.5</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1827,13 +1854,13 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="D7">
-        <v>0.7999999999999998</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1841,13 +1868,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="D8">
-        <v>-0.7999999999999998</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
@@ -1858,13 +1885,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="D9">
-        <v>-0.9000000000000004</v>
+        <v>-0.7999999999999998</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -1875,16 +1902,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1892,16 +1919,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="D11">
-        <v>0.9000000000000004</v>
+        <v>0.09999999999999964</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1919,40 +1946,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2350,49 +2377,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2400,46 +2427,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52.40000000000001</v>
+        <v>52.8</v>
       </c>
       <c r="C2">
-        <v>91.90000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="D2">
-        <v>86.7</v>
+        <v>89.3</v>
       </c>
       <c r="E2">
-        <v>93</v>
+        <v>93.7</v>
       </c>
       <c r="F2">
-        <v>82.39999999999999</v>
+        <v>83.89999999999999</v>
       </c>
       <c r="G2">
-        <v>60.09999999999999</v>
+        <v>58.09999999999999</v>
       </c>
       <c r="H2">
-        <v>57.09999999999999</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="I2">
-        <v>46.9</v>
+        <v>49.6</v>
       </c>
       <c r="J2">
-        <v>33.6</v>
+        <v>29.9</v>
       </c>
       <c r="K2">
-        <v>19.9</v>
+        <v>19.5</v>
       </c>
       <c r="L2">
-        <v>28.8</v>
+        <v>32.9</v>
       </c>
       <c r="M2">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N2">
-        <v>65.10000000000001</v>
+        <v>62.6</v>
       </c>
       <c r="O2">
-        <v>72.5</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -2450,46 +2477,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
       <c r="C3">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="D3">
-        <v>70.19999999999999</v>
+        <v>70.5</v>
       </c>
       <c r="E3">
-        <v>36.9</v>
+        <v>38.8</v>
       </c>
       <c r="F3">
-        <v>15.5</v>
+        <v>14.6</v>
       </c>
       <c r="G3">
-        <v>37.1</v>
+        <v>36.1</v>
       </c>
       <c r="H3">
-        <v>56.2</v>
+        <v>55.60000000000001</v>
       </c>
       <c r="I3">
-        <v>53.6</v>
+        <v>48.8</v>
       </c>
       <c r="J3">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="K3">
-        <v>23.5</v>
+        <v>22.2</v>
       </c>
       <c r="L3">
-        <v>33.1</v>
+        <v>36.2</v>
       </c>
       <c r="M3">
-        <v>57.4</v>
+        <v>57.09999999999999</v>
       </c>
       <c r="N3">
-        <v>78.60000000000001</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="O3">
-        <v>94.59999999999999</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -2500,34 +2527,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>76</v>
+        <v>75.09999999999999</v>
       </c>
       <c r="C4">
-        <v>41.3</v>
+        <v>39.6</v>
       </c>
       <c r="D4">
-        <v>20.2</v>
+        <v>17.9</v>
       </c>
       <c r="E4">
         <v>82.59999999999999</v>
       </c>
       <c r="F4">
-        <v>81.5</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="G4">
-        <v>93.5</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="H4">
-        <v>89.2</v>
+        <v>89.3</v>
       </c>
       <c r="I4">
-        <v>94.39999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="J4">
-        <v>98.40000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="K4">
-        <v>99.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -2550,16 +2577,16 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>63.8</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="C5">
-        <v>97.2</v>
+        <v>97.5</v>
       </c>
       <c r="D5">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="E5">
-        <v>99.8</v>
+        <v>99.5</v>
       </c>
       <c r="F5">
         <v>99.5</v>
@@ -2600,46 +2627,46 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>93.60000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C6">
-        <v>34.3</v>
+        <v>37.1</v>
       </c>
       <c r="D6">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6">
-        <v>81.89999999999999</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="F6">
-        <v>89.3</v>
+        <v>90</v>
       </c>
       <c r="G6">
-        <v>82.8</v>
+        <v>83.5</v>
       </c>
       <c r="H6">
-        <v>64.60000000000001</v>
+        <v>63</v>
       </c>
       <c r="I6">
-        <v>49</v>
+        <v>47.9</v>
       </c>
       <c r="J6">
-        <v>70.5</v>
+        <v>73</v>
       </c>
       <c r="K6">
-        <v>93.2</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="L6">
-        <v>86.90000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="M6">
-        <v>94.3</v>
+        <v>93.7</v>
       </c>
       <c r="N6">
-        <v>86.59999999999999</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="O6">
-        <v>64.40000000000001</v>
+        <v>60.8</v>
       </c>
       <c r="P6">
         <v>100</v>
@@ -2650,40 +2677,40 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>99.2</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="C7">
+        <v>97.5</v>
+      </c>
+      <c r="D7">
+        <v>92.80000000000001</v>
+      </c>
+      <c r="E7">
+        <v>71.89999999999999</v>
+      </c>
+      <c r="F7">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="G7">
+        <v>84.5</v>
+      </c>
+      <c r="H7">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="I7">
         <v>97.2</v>
       </c>
-      <c r="D7">
-        <v>92.10000000000001</v>
-      </c>
-      <c r="E7">
-        <v>73.3</v>
-      </c>
-      <c r="F7">
-        <v>61.6</v>
-      </c>
-      <c r="G7">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="H7">
-        <v>91</v>
-      </c>
-      <c r="I7">
-        <v>98.2</v>
-      </c>
       <c r="J7">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="K7">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="L7">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -2700,46 +2727,46 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="C8">
-        <v>15.9</v>
+        <v>16.7</v>
       </c>
       <c r="D8">
-        <v>6.9</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="E8">
-        <v>24.3</v>
+        <v>27.2</v>
       </c>
       <c r="F8">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="G8">
+        <v>6.600000000000001</v>
+      </c>
+      <c r="H8">
         <v>5.7</v>
       </c>
-      <c r="H8">
-        <v>4.8</v>
-      </c>
       <c r="I8">
-        <v>25.1</v>
+        <v>25.7</v>
       </c>
       <c r="J8">
-        <v>36.8</v>
+        <v>37.6</v>
       </c>
       <c r="K8">
         <v>29.4</v>
       </c>
       <c r="L8">
-        <v>48.4</v>
+        <v>51.2</v>
       </c>
       <c r="M8">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="N8">
-        <v>44.1</v>
+        <v>44.7</v>
       </c>
       <c r="O8">
-        <v>50.7</v>
+        <v>52.2</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2750,43 +2777,43 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>10.2</v>
+        <v>9.5</v>
       </c>
       <c r="C9">
         <v>55.40000000000001</v>
       </c>
       <c r="D9">
-        <v>45.2</v>
+        <v>44.7</v>
       </c>
       <c r="E9">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="F9">
-        <v>38.4</v>
+        <v>32.8</v>
       </c>
       <c r="G9">
-        <v>26.6</v>
+        <v>25.6</v>
       </c>
       <c r="H9">
-        <v>36.4</v>
+        <v>38.1</v>
       </c>
       <c r="I9">
-        <v>29.3</v>
+        <v>26.2</v>
       </c>
       <c r="J9">
-        <v>43.9</v>
+        <v>44.1</v>
       </c>
       <c r="K9">
-        <v>29.6</v>
+        <v>31.5</v>
       </c>
       <c r="L9">
-        <v>47.59999999999999</v>
+        <v>45.9</v>
       </c>
       <c r="M9">
-        <v>22.6</v>
+        <v>22</v>
       </c>
       <c r="N9">
-        <v>7.199999999999999</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2800,46 +2827,46 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>91.60000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="C10">
-        <v>69.09999999999999</v>
+        <v>68.10000000000001</v>
       </c>
       <c r="D10">
-        <v>48.7</v>
+        <v>46.3</v>
       </c>
       <c r="E10">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10">
-        <v>47.8</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="G10">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="H10">
-        <v>42.3</v>
+        <v>43.9</v>
       </c>
       <c r="I10">
-        <v>26</v>
+        <v>30.6</v>
       </c>
       <c r="J10">
-        <v>21.4</v>
+        <v>20.4</v>
       </c>
       <c r="K10">
-        <v>51</v>
+        <v>49.3</v>
       </c>
       <c r="L10">
-        <v>26</v>
+        <v>24.6</v>
       </c>
       <c r="M10">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N10">
-        <v>17.9</v>
+        <v>19.5</v>
       </c>
       <c r="O10">
-        <v>17.8</v>
+        <v>20.9</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2853,40 +2880,40 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>96.89999999999999</v>
+        <v>95.39999999999999</v>
       </c>
       <c r="D11">
-        <v>82.3</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="E11">
-        <v>65.3</v>
+        <v>63</v>
       </c>
       <c r="F11">
-        <v>73.5</v>
+        <v>74.3</v>
       </c>
       <c r="G11">
-        <v>81.59999999999999</v>
+        <v>81.10000000000001</v>
       </c>
       <c r="H11">
-        <v>58.4</v>
+        <v>57.3</v>
       </c>
       <c r="I11">
-        <v>77.5</v>
+        <v>77.3</v>
       </c>
       <c r="J11">
-        <v>65.40000000000001</v>
+        <v>65.2</v>
       </c>
       <c r="K11">
         <v>54.1</v>
       </c>
       <c r="L11">
-        <v>29.2</v>
+        <v>26.1</v>
       </c>
       <c r="M11">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N11">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2910,28 +2937,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2942,13 +2969,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2">
         <v>114.04</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2971,13 +2998,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3">
         <v>120.55</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3000,13 +3027,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D4">
         <v>112.7</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3029,13 +3056,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D5">
         <v>125.45</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3058,13 +3085,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D6">
         <v>108.64</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3087,13 +3114,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7">
         <v>115.86</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3116,13 +3143,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <v>110.44</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3145,13 +3172,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>134.59</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3174,13 +3201,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D10">
         <v>115.52</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3203,13 +3230,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11">
         <v>127.87</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3239,31 +3266,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3271,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -3289,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3300,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -3318,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3329,7 +3356,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C4">
         <v>0.6428571428571429</v>
@@ -3347,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3358,7 +3385,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <v>0.7142857142857143</v>
@@ -3376,10 +3403,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3387,7 +3414,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -3405,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3416,7 +3443,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -3434,10 +3461,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3445,7 +3472,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -3463,10 +3490,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3474,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C9">
         <v>0.3571428571428572</v>
@@ -3492,10 +3519,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3503,7 +3530,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -3521,10 +3548,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3532,7 +3559,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -3550,10 +3577,10 @@
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="I11" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3571,19 +3598,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3594,16 +3621,16 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3614,16 +3641,16 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3631,19 +3658,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3651,19 +3678,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3671,19 +3698,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3691,19 +3718,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3714,16 +3741,16 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D8">
-        <v>-6</v>
+        <v>-13</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3734,16 +3761,16 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D9">
-        <v>-14</v>
+        <v>-18</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3751,19 +3778,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>-19</v>
+        <v>-18</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3771,19 +3798,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D11">
-        <v>-28</v>
+        <v>-20</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3793,60 +3820,63 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+        <v>126</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3892,11 +3922,14 @@
       <c r="O2">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="P2">
+        <v>40</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3942,211 +3975,226 @@
       <c r="O3">
         <v>18</v>
       </c>
-      <c r="P3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="P3">
+        <v>26</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>-2</v>
       </c>
       <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
         <v>-2</v>
       </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
       <c r="E4">
-        <v>4</v>
+        <v>-2</v>
       </c>
       <c r="F4">
+        <v>-8</v>
+      </c>
+      <c r="G4">
+        <v>-7</v>
+      </c>
+      <c r="H4">
+        <v>-13</v>
+      </c>
+      <c r="I4">
         <v>-6</v>
       </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
+      <c r="J4">
+        <v>-7</v>
+      </c>
+      <c r="K4">
+        <v>-8</v>
+      </c>
+      <c r="L4">
+        <v>-7</v>
+      </c>
+      <c r="M4">
+        <v>-6</v>
+      </c>
+      <c r="N4">
+        <v>-7</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
         <v>10</v>
       </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
-      </c>
-      <c r="L4">
-        <v>8</v>
-      </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-      <c r="N4">
-        <v>12</v>
-      </c>
-      <c r="O4">
-        <v>5</v>
-      </c>
-      <c r="P4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
         <v>-2</v>
       </c>
       <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>-6</v>
+      </c>
+      <c r="G5">
         <v>-1</v>
       </c>
-      <c r="D5">
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>-6</v>
+      </c>
+      <c r="D6">
+        <v>-6</v>
+      </c>
+      <c r="E6">
+        <v>-5</v>
+      </c>
+      <c r="F6">
+        <v>-8</v>
+      </c>
+      <c r="G6">
+        <v>-6</v>
+      </c>
+      <c r="H6">
+        <v>-13</v>
+      </c>
+      <c r="I6">
+        <v>-17</v>
+      </c>
+      <c r="J6">
+        <v>-13</v>
+      </c>
+      <c r="K6">
+        <v>-8</v>
+      </c>
+      <c r="L6">
+        <v>-10</v>
+      </c>
+      <c r="M6">
+        <v>-12</v>
+      </c>
+      <c r="N6">
+        <v>-8</v>
+      </c>
+      <c r="O6">
+        <v>-1</v>
+      </c>
+      <c r="P6">
         <v>-2</v>
       </c>
-      <c r="E5">
+      <c r="Q6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
         <v>-2</v>
       </c>
-      <c r="F5">
-        <v>-8</v>
-      </c>
-      <c r="G5">
-        <v>-7</v>
-      </c>
-      <c r="H5">
-        <v>-13</v>
-      </c>
-      <c r="I5">
-        <v>-6</v>
-      </c>
-      <c r="J5">
-        <v>-7</v>
-      </c>
-      <c r="K5">
-        <v>-8</v>
-      </c>
-      <c r="L5">
-        <v>-7</v>
-      </c>
-      <c r="M5">
-        <v>-6</v>
-      </c>
-      <c r="N5">
-        <v>-7</v>
-      </c>
-      <c r="O5">
-        <v>2</v>
-      </c>
-      <c r="P5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>8</v>
       </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
+      <c r="M7">
         <v>5</v>
       </c>
-      <c r="F6">
-        <v>6</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>-2</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>8</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
+      <c r="N7">
         <v>-4</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7">
-        <v>-6</v>
-      </c>
-      <c r="D7">
-        <v>-6</v>
-      </c>
-      <c r="E7">
-        <v>-5</v>
-      </c>
-      <c r="F7">
-        <v>-8</v>
-      </c>
-      <c r="G7">
-        <v>-6</v>
-      </c>
-      <c r="H7">
-        <v>-13</v>
-      </c>
-      <c r="I7">
-        <v>-17</v>
-      </c>
-      <c r="J7">
-        <v>-13</v>
-      </c>
-      <c r="K7">
-        <v>-8</v>
-      </c>
-      <c r="L7">
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
         <v>-10</v>
       </c>
-      <c r="M7">
-        <v>-12</v>
-      </c>
-      <c r="N7">
-        <v>-8</v>
-      </c>
-      <c r="O7">
-        <v>-1</v>
-      </c>
-      <c r="P7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
@@ -4192,11 +4240,14 @@
       <c r="O8">
         <v>-6</v>
       </c>
-      <c r="P8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="P8">
+        <v>-13</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -4242,108 +4293,117 @@
       <c r="O9">
         <v>-14</v>
       </c>
-      <c r="P9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="P9">
+        <v>-18</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>-11</v>
+      </c>
+      <c r="E10">
+        <v>-10</v>
+      </c>
+      <c r="F10">
+        <v>-17</v>
+      </c>
+      <c r="G10">
+        <v>-13</v>
+      </c>
+      <c r="H10">
+        <v>-10</v>
+      </c>
+      <c r="I10">
+        <v>-12</v>
+      </c>
+      <c r="J10">
+        <v>-11</v>
+      </c>
+      <c r="K10">
+        <v>-14</v>
+      </c>
+      <c r="L10">
+        <v>-13</v>
+      </c>
+      <c r="M10">
+        <v>-19</v>
+      </c>
+      <c r="N10">
+        <v>-18</v>
+      </c>
+      <c r="O10">
+        <v>-28</v>
+      </c>
+      <c r="P10">
+        <v>-18</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>7</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>7</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>10</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>17</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>12</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>12</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>11</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>12</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>6</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-5</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>-10</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>-13</v>
       </c>
-      <c r="O10">
+      <c r="O11">
         <v>-19</v>
       </c>
-      <c r="P10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>-2</v>
-      </c>
-      <c r="D11">
-        <v>-11</v>
-      </c>
-      <c r="E11">
-        <v>-10</v>
-      </c>
-      <c r="F11">
-        <v>-17</v>
-      </c>
-      <c r="G11">
-        <v>-13</v>
-      </c>
-      <c r="H11">
-        <v>-10</v>
-      </c>
-      <c r="I11">
-        <v>-12</v>
-      </c>
-      <c r="J11">
-        <v>-11</v>
-      </c>
-      <c r="K11">
-        <v>-14</v>
-      </c>
-      <c r="L11">
-        <v>-13</v>
-      </c>
-      <c r="M11">
-        <v>-19</v>
-      </c>
-      <c r="N11">
-        <v>-18</v>
-      </c>
-      <c r="O11">
-        <v>-28</v>
-      </c>
-      <c r="P11" t="s">
-        <v>103</v>
+      <c r="P11">
+        <v>-20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="135">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -55,43 +55,43 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>7-8-0</t>
-  </si>
-  <si>
-    <t>8-7-0</t>
-  </si>
-  <si>
-    <t>6-9-0</t>
-  </si>
-  <si>
-    <t>5-10-0</t>
-  </si>
-  <si>
-    <t>4-11-0</t>
-  </si>
-  <si>
-    <t>10-5-0</t>
-  </si>
-  <si>
-    <t>9-6-0</t>
-  </si>
-  <si>
-    <t>11-4-0</t>
-  </si>
-  <si>
-    <t>3-12-0</t>
-  </si>
-  <si>
-    <t>12-3-0</t>
-  </si>
-  <si>
-    <t>13-2-0</t>
-  </si>
-  <si>
-    <t>10-4-1</t>
-  </si>
-  <si>
-    <t>8-6-1</t>
+    <t>7-9-0</t>
+  </si>
+  <si>
+    <t>9-7-0</t>
+  </si>
+  <si>
+    <t>8-8-0</t>
+  </si>
+  <si>
+    <t>6-10-0</t>
+  </si>
+  <si>
+    <t>5-11-0</t>
+  </si>
+  <si>
+    <t>10-6-0</t>
+  </si>
+  <si>
+    <t>4-12-0</t>
+  </si>
+  <si>
+    <t>11-5-0</t>
+  </si>
+  <si>
+    <t>3-13-0</t>
+  </si>
+  <si>
+    <t>13-3-0</t>
+  </si>
+  <si>
+    <t>12-4-0</t>
+  </si>
+  <si>
+    <t>10-5-1</t>
+  </si>
+  <si>
+    <t>8-7-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -337,30 +337,30 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↑10</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
   </si>
   <si>
     <t>Week</t>
@@ -828,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -872,22 +875,22 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>10</v>
-      </c>
       <c r="H3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -895,16 +898,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
@@ -913,10 +916,10 @@
         <v>11</v>
       </c>
       <c r="H4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -930,34 +933,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
-      </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -971,7 +974,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -983,10 +986,10 @@
         <v>11</v>
       </c>
       <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
         <v>13</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
       </c>
       <c r="J6" t="s">
         <v>18</v>
@@ -1003,7 +1006,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1012,22 +1015,22 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1035,7 +1038,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1044,25 +1047,25 @@
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1076,19 +1079,19 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
         <v>21</v>
@@ -1105,28 +1108,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" t="s">
         <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>10</v>
       </c>
       <c r="G10" t="s">
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
         <v>10</v>
@@ -1140,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -1149,22 +1152,22 @@
         <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="I11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
         <v>22</v>
@@ -1185,25 +1188,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1211,25 +1214,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="F2">
-        <v>41</v>
+        <v>-17</v>
       </c>
       <c r="G2">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1237,25 +1240,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1263,25 +1266,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>-18</v>
+        <v>47</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1289,25 +1292,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>-18</v>
       </c>
       <c r="F5">
-        <v>-13</v>
+        <v>10</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1315,25 +1318,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F6">
+        <v>-13</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
         <v>8</v>
-      </c>
-      <c r="G6">
-        <v>24</v>
-      </c>
-      <c r="H6" t="s">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1341,25 +1344,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F7">
-        <v>-6</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>24</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1367,25 +1370,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>-14</v>
+        <v>18</v>
       </c>
       <c r="F8">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="G8">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1393,25 +1396,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>-6</v>
+        <v>-14</v>
       </c>
       <c r="F9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G9">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1419,25 +1422,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>-8</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1445,25 +1448,25 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
         <v>2</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
       <c r="D11" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1471,25 +1474,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>-8</v>
       </c>
       <c r="F12">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1497,25 +1500,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>-5</v>
+      </c>
+      <c r="F13">
         <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>-11</v>
       </c>
       <c r="G13">
         <v>12</v>
       </c>
       <c r="H13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1523,25 +1526,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>-5</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>-2</v>
       </c>
       <c r="G14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1549,22 +1552,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" t="s">
         <v>3</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>-17</v>
-      </c>
       <c r="F15">
-        <v>-6</v>
+        <v>-11</v>
       </c>
       <c r="G15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H15" t="s">
         <v>3</v>
@@ -1602,10 +1605,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1613,13 +1616,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1627,13 +1630,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>6.6</v>
+        <v>7.5</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1644,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1658,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -1672,10 +1675,10 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1686,7 +1689,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -1697,13 +1700,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1711,13 +1714,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1728,10 +1731,10 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1769,10 +1772,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10.4</v>
+        <v>10.6</v>
       </c>
       <c r="D2">
-        <v>0.4000000000000004</v>
+        <v>0.5999999999999996</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -1786,10 +1789,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>22</v>
@@ -1803,13 +1806,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="D4">
-        <v>-1.4</v>
+        <v>-1.5</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1820,10 +1823,10 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>7.7</v>
+        <v>8.4</v>
       </c>
       <c r="D5">
-        <v>0.7000000000000002</v>
+        <v>1.4</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -1837,10 +1840,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>7.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D6">
-        <v>-0.5</v>
+        <v>-0.8000000000000007</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1851,16 +1854,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="D7">
-        <v>0.09999999999999964</v>
+        <v>-0.2000000000000002</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1868,16 +1871,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>6.8</v>
+        <v>7.7</v>
       </c>
       <c r="D8">
-        <v>-0.2000000000000002</v>
+        <v>-0.2999999999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1905,13 +1908,13 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="D10">
-        <v>0.5999999999999996</v>
+        <v>0.9000000000000004</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1922,10 +1925,10 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="D11">
-        <v>0.09999999999999964</v>
+        <v>-0.4000000000000004</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -2427,46 +2430,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>52.8</v>
+        <v>50.3</v>
       </c>
       <c r="C2">
-        <v>91.5</v>
+        <v>91.7</v>
       </c>
       <c r="D2">
-        <v>89.3</v>
+        <v>87.3</v>
       </c>
       <c r="E2">
-        <v>93.7</v>
+        <v>92.2</v>
       </c>
       <c r="F2">
-        <v>83.89999999999999</v>
+        <v>82.39999999999999</v>
       </c>
       <c r="G2">
-        <v>58.09999999999999</v>
+        <v>59.5</v>
       </c>
       <c r="H2">
-        <v>55.00000000000001</v>
+        <v>53.6</v>
       </c>
       <c r="I2">
-        <v>49.6</v>
+        <v>48.1</v>
       </c>
       <c r="J2">
-        <v>29.9</v>
+        <v>31</v>
       </c>
       <c r="K2">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="L2">
-        <v>32.9</v>
+        <v>30.9</v>
       </c>
       <c r="M2">
-        <v>47</v>
+        <v>42.1</v>
       </c>
       <c r="N2">
-        <v>62.6</v>
+        <v>64.40000000000001</v>
       </c>
       <c r="O2">
-        <v>70.89999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -2477,46 +2480,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.2</v>
+        <v>14.4</v>
       </c>
       <c r="C3">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D3">
-        <v>70.5</v>
+        <v>68.8</v>
       </c>
       <c r="E3">
-        <v>38.8</v>
+        <v>41</v>
       </c>
       <c r="F3">
-        <v>14.6</v>
+        <v>15.6</v>
       </c>
       <c r="G3">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
       <c r="H3">
-        <v>55.60000000000001</v>
+        <v>54.8</v>
       </c>
       <c r="I3">
-        <v>48.8</v>
+        <v>52.3</v>
       </c>
       <c r="J3">
-        <v>31.8</v>
+        <v>32.1</v>
       </c>
       <c r="K3">
-        <v>22.2</v>
+        <v>24.7</v>
       </c>
       <c r="L3">
-        <v>36.2</v>
+        <v>35.8</v>
       </c>
       <c r="M3">
-        <v>57.09999999999999</v>
+        <v>57.3</v>
       </c>
       <c r="N3">
-        <v>78.40000000000001</v>
+        <v>79.2</v>
       </c>
       <c r="O3">
-        <v>95.19999999999999</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -2527,34 +2530,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>75.09999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="C4">
-        <v>39.6</v>
+        <v>43.7</v>
       </c>
       <c r="D4">
-        <v>17.9</v>
+        <v>19.2</v>
       </c>
       <c r="E4">
-        <v>82.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="F4">
-        <v>83.39999999999999</v>
+        <v>82.5</v>
       </c>
       <c r="G4">
-        <v>95.39999999999999</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="H4">
-        <v>89.3</v>
+        <v>88.09999999999999</v>
       </c>
       <c r="I4">
-        <v>96.7</v>
+        <v>96.5</v>
       </c>
       <c r="J4">
         <v>98.7</v>
       </c>
       <c r="K4">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -2577,22 +2580,22 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>64.90000000000001</v>
+        <v>64.7</v>
       </c>
       <c r="C5">
-        <v>97.5</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="D5">
+        <v>99.7</v>
+      </c>
+      <c r="E5">
+        <v>99.7</v>
+      </c>
+      <c r="F5">
         <v>99.40000000000001</v>
       </c>
-      <c r="E5">
-        <v>99.5</v>
-      </c>
-      <c r="F5">
-        <v>99.5</v>
-      </c>
       <c r="G5">
-        <v>99.7</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -2627,46 +2630,46 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="C6">
-        <v>37.1</v>
+        <v>31.5</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>49.8</v>
       </c>
       <c r="E6">
-        <v>81.69999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="F6">
-        <v>90</v>
+        <v>88.8</v>
       </c>
       <c r="G6">
-        <v>83.5</v>
+        <v>84.7</v>
       </c>
       <c r="H6">
-        <v>63</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="I6">
-        <v>47.9</v>
+        <v>49.8</v>
       </c>
       <c r="J6">
-        <v>73</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="K6">
-        <v>94.19999999999999</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="L6">
-        <v>83.3</v>
+        <v>86</v>
       </c>
       <c r="M6">
-        <v>93.7</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="N6">
-        <v>88.09999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="O6">
-        <v>60.8</v>
+        <v>62.4</v>
       </c>
       <c r="P6">
         <v>100</v>
@@ -2677,40 +2680,40 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>98.90000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="C7">
-        <v>97.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="D7">
-        <v>92.80000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="E7">
-        <v>71.89999999999999</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="F7">
-        <v>64.90000000000001</v>
+        <v>63.4</v>
       </c>
       <c r="G7">
-        <v>84.5</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="H7">
-        <v>92.10000000000001</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="I7">
-        <v>97.2</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="J7">
-        <v>99.3</v>
+        <v>99.5</v>
       </c>
       <c r="K7">
         <v>100</v>
       </c>
       <c r="L7">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="M7">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -2730,43 +2733,43 @@
         <v>0.2</v>
       </c>
       <c r="C8">
-        <v>16.7</v>
+        <v>17.5</v>
       </c>
       <c r="D8">
-        <v>7.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="E8">
-        <v>27.2</v>
+        <v>24.2</v>
       </c>
       <c r="F8">
-        <v>9.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G8">
-        <v>6.600000000000001</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="H8">
-        <v>5.7</v>
+        <v>6.2</v>
       </c>
       <c r="I8">
-        <v>25.7</v>
+        <v>22.2</v>
       </c>
       <c r="J8">
-        <v>37.6</v>
+        <v>35.6</v>
       </c>
       <c r="K8">
-        <v>29.4</v>
+        <v>28.9</v>
       </c>
       <c r="L8">
-        <v>51.2</v>
+        <v>45.1</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>25.8</v>
       </c>
       <c r="N8">
-        <v>44.7</v>
+        <v>46</v>
       </c>
       <c r="O8">
-        <v>52.2</v>
+        <v>52.3</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2777,43 +2780,43 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>9.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C9">
-        <v>55.40000000000001</v>
+        <v>55.8</v>
       </c>
       <c r="D9">
-        <v>44.7</v>
+        <v>46.9</v>
       </c>
       <c r="E9">
-        <v>12.6</v>
+        <v>14.6</v>
       </c>
       <c r="F9">
-        <v>32.8</v>
+        <v>34.3</v>
       </c>
       <c r="G9">
-        <v>25.6</v>
+        <v>27.9</v>
       </c>
       <c r="H9">
-        <v>38.1</v>
+        <v>39.5</v>
       </c>
       <c r="I9">
-        <v>26.2</v>
+        <v>29.4</v>
       </c>
       <c r="J9">
-        <v>44.1</v>
+        <v>45.8</v>
       </c>
       <c r="K9">
-        <v>31.5</v>
+        <v>33.2</v>
       </c>
       <c r="L9">
-        <v>45.9</v>
+        <v>50.4</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>22.6</v>
       </c>
       <c r="N9">
-        <v>5.800000000000001</v>
+        <v>6</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2827,46 +2830,46 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>91.7</v>
+        <v>92.7</v>
       </c>
       <c r="C10">
-        <v>68.10000000000001</v>
+        <v>69.8</v>
       </c>
       <c r="D10">
-        <v>46.3</v>
+        <v>46.1</v>
       </c>
       <c r="E10">
-        <v>29</v>
+        <v>27.7</v>
       </c>
       <c r="F10">
-        <v>47.09999999999999</v>
+        <v>48.6</v>
       </c>
       <c r="G10">
-        <v>29.4</v>
+        <v>27</v>
       </c>
       <c r="H10">
         <v>43.9</v>
       </c>
       <c r="I10">
-        <v>30.6</v>
+        <v>25.4</v>
       </c>
       <c r="J10">
-        <v>20.4</v>
+        <v>19.5</v>
       </c>
       <c r="K10">
         <v>49.3</v>
       </c>
       <c r="L10">
-        <v>24.6</v>
+        <v>23.8</v>
       </c>
       <c r="M10">
-        <v>44</v>
+        <v>49.2</v>
       </c>
       <c r="N10">
-        <v>19.5</v>
+        <v>16.3</v>
       </c>
       <c r="O10">
-        <v>20.9</v>
+        <v>16.5</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2880,40 +2883,40 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>95.39999999999999</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>81.89999999999999</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="E11">
-        <v>63</v>
+        <v>63.3</v>
       </c>
       <c r="F11">
-        <v>74.3</v>
+        <v>75.2</v>
       </c>
       <c r="G11">
-        <v>81.10000000000001</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="H11">
-        <v>57.3</v>
+        <v>57.9</v>
       </c>
       <c r="I11">
-        <v>77.3</v>
+        <v>77.2</v>
       </c>
       <c r="J11">
-        <v>65.2</v>
+        <v>66.2</v>
       </c>
       <c r="K11">
-        <v>54.1</v>
+        <v>51.9</v>
       </c>
       <c r="L11">
-        <v>26.1</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="N11">
-        <v>0.8999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -3624,7 +3627,7 @@
         <v>71</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -3644,13 +3647,13 @@
         <v>69</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3664,10 +3667,10 @@
         <v>64</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
         <v>105</v>
@@ -3704,7 +3707,7 @@
         <v>70</v>
       </c>
       <c r="D6">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -3718,19 +3721,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3738,19 +3741,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>-13</v>
+        <v>-17</v>
       </c>
       <c r="E8" t="s">
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3758,19 +3761,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D9">
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3778,19 +3781,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D10">
-        <v>-18</v>
+        <v>-23</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3804,13 +3807,13 @@
         <v>68</v>
       </c>
       <c r="D11">
-        <v>-20</v>
+        <v>-23</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -3820,13 +3823,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>112</v>
       </c>
@@ -3873,10 +3876,13 @@
         <v>126</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -3925,11 +3931,14 @@
       <c r="P2">
         <v>40</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2">
+        <v>38</v>
+      </c>
+      <c r="R2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:18">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3978,11 +3987,14 @@
       <c r="P3">
         <v>26</v>
       </c>
-      <c r="Q3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="Q3">
+        <v>24</v>
+      </c>
+      <c r="R3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4031,11 +4043,14 @@
       <c r="P4">
         <v>10</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="Q4">
+        <v>19</v>
+      </c>
+      <c r="R4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:18">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4084,11 +4099,14 @@
       <c r="P5">
         <v>6</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -4137,223 +4155,238 @@
       <c r="P6">
         <v>-2</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7">
+        <v>-1</v>
+      </c>
+      <c r="H7">
+        <v>-6</v>
+      </c>
+      <c r="I7">
+        <v>-11</v>
+      </c>
+      <c r="J7">
+        <v>-10</v>
+      </c>
+      <c r="K7">
+        <v>-8</v>
+      </c>
+      <c r="L7">
+        <v>-10</v>
+      </c>
+      <c r="M7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="N7">
+        <v>-10</v>
+      </c>
+      <c r="O7">
+        <v>-6</v>
+      </c>
+      <c r="P7">
+        <v>-13</v>
+      </c>
+      <c r="Q7">
+        <v>-13</v>
+      </c>
+      <c r="R7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
         <v>5</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>-2</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>8</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>-4</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>-10</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>-1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
       </c>
       <c r="F8">
         <v>6</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>-2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>-4</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>-10</v>
+      </c>
+      <c r="Q8">
+        <v>-17</v>
+      </c>
+      <c r="R8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>-2</v>
+      </c>
+      <c r="D9">
         <v>-11</v>
       </c>
-      <c r="J8">
+      <c r="E9">
         <v>-10</v>
       </c>
-      <c r="K8">
-        <v>-8</v>
-      </c>
-      <c r="L8">
+      <c r="F9">
+        <v>-17</v>
+      </c>
+      <c r="G9">
+        <v>-13</v>
+      </c>
+      <c r="H9">
         <v>-10</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
-        <v>-10</v>
-      </c>
-      <c r="O8">
-        <v>-6</v>
-      </c>
-      <c r="P8">
+      <c r="I9">
+        <v>-12</v>
+      </c>
+      <c r="J9">
+        <v>-11</v>
+      </c>
+      <c r="K9">
+        <v>-14</v>
+      </c>
+      <c r="L9">
         <v>-13</v>
       </c>
-      <c r="Q8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>-7</v>
-      </c>
-      <c r="C9">
-        <v>-5</v>
-      </c>
-      <c r="D9">
-        <v>-7</v>
-      </c>
-      <c r="E9">
-        <v>-8</v>
-      </c>
-      <c r="F9">
-        <v>-5</v>
-      </c>
-      <c r="G9">
-        <v>-2</v>
-      </c>
-      <c r="H9">
-        <v>-6</v>
-      </c>
-      <c r="I9">
-        <v>-5</v>
-      </c>
-      <c r="J9">
-        <v>-1</v>
-      </c>
-      <c r="K9">
-        <v>-1</v>
-      </c>
-      <c r="L9">
-        <v>-10</v>
-      </c>
       <c r="M9">
-        <v>-14</v>
+        <v>-19</v>
       </c>
       <c r="N9">
-        <v>-16</v>
+        <v>-18</v>
       </c>
       <c r="O9">
-        <v>-14</v>
+        <v>-28</v>
       </c>
       <c r="P9">
         <v>-18</v>
       </c>
-      <c r="Q9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9">
+        <v>-17</v>
+      </c>
+      <c r="R9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>-7</v>
       </c>
       <c r="C10">
+        <v>-5</v>
+      </c>
+      <c r="D10">
+        <v>-7</v>
+      </c>
+      <c r="E10">
+        <v>-8</v>
+      </c>
+      <c r="F10">
+        <v>-5</v>
+      </c>
+      <c r="G10">
         <v>-2</v>
       </c>
-      <c r="D10">
-        <v>-11</v>
-      </c>
-      <c r="E10">
+      <c r="H10">
+        <v>-6</v>
+      </c>
+      <c r="I10">
+        <v>-5</v>
+      </c>
+      <c r="J10">
+        <v>-1</v>
+      </c>
+      <c r="K10">
+        <v>-1</v>
+      </c>
+      <c r="L10">
         <v>-10</v>
       </c>
-      <c r="F10">
-        <v>-17</v>
-      </c>
-      <c r="G10">
-        <v>-13</v>
-      </c>
-      <c r="H10">
-        <v>-10</v>
-      </c>
-      <c r="I10">
-        <v>-12</v>
-      </c>
-      <c r="J10">
-        <v>-11</v>
-      </c>
-      <c r="K10">
+      <c r="M10">
         <v>-14</v>
       </c>
-      <c r="L10">
-        <v>-13</v>
-      </c>
-      <c r="M10">
-        <v>-19</v>
-      </c>
       <c r="N10">
-        <v>-18</v>
+        <v>-16</v>
       </c>
       <c r="O10">
-        <v>-28</v>
+        <v>-14</v>
       </c>
       <c r="P10">
         <v>-18</v>
       </c>
-      <c r="Q10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="Q10">
+        <v>-23</v>
+      </c>
+      <c r="R10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -4402,8 +4435,11 @@
       <c r="P11">
         <v>-20</v>
       </c>
-      <c r="Q11" t="s">
-        <v>107</v>
+      <c r="Q11">
+        <v>-23</v>
+      </c>
+      <c r="R11" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -2430,46 +2430,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>50.3</v>
+        <v>51.2</v>
       </c>
       <c r="C2">
-        <v>91.7</v>
+        <v>91.2</v>
       </c>
       <c r="D2">
-        <v>87.3</v>
+        <v>85.7</v>
       </c>
       <c r="E2">
-        <v>92.2</v>
+        <v>93.60000000000001</v>
       </c>
       <c r="F2">
-        <v>82.39999999999999</v>
+        <v>80</v>
       </c>
       <c r="G2">
-        <v>59.5</v>
+        <v>56.39999999999999</v>
       </c>
       <c r="H2">
-        <v>53.6</v>
+        <v>53.5</v>
       </c>
       <c r="I2">
-        <v>48.1</v>
+        <v>46.6</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>31.6</v>
       </c>
       <c r="K2">
-        <v>18.5</v>
+        <v>21.2</v>
       </c>
       <c r="L2">
-        <v>30.9</v>
+        <v>29.7</v>
       </c>
       <c r="M2">
-        <v>42.1</v>
+        <v>47.9</v>
       </c>
       <c r="N2">
-        <v>64.40000000000001</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="O2">
-        <v>74.40000000000001</v>
+        <v>71.2</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -2480,46 +2480,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="C3">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="D3">
-        <v>68.8</v>
+        <v>72.7</v>
       </c>
       <c r="E3">
-        <v>41</v>
+        <v>37.5</v>
       </c>
       <c r="F3">
-        <v>15.6</v>
+        <v>13.9</v>
       </c>
       <c r="G3">
-        <v>36.3</v>
+        <v>34.3</v>
       </c>
       <c r="H3">
-        <v>54.8</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="I3">
-        <v>52.3</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="J3">
-        <v>32.1</v>
+        <v>33.1</v>
       </c>
       <c r="K3">
-        <v>24.7</v>
+        <v>26.2</v>
       </c>
       <c r="L3">
-        <v>35.8</v>
+        <v>35.4</v>
       </c>
       <c r="M3">
-        <v>57.3</v>
+        <v>59.09999999999999</v>
       </c>
       <c r="N3">
-        <v>79.2</v>
+        <v>78.10000000000001</v>
       </c>
       <c r="O3">
-        <v>94.39999999999999</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -2530,34 +2530,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>75.2</v>
+        <v>77.3</v>
       </c>
       <c r="C4">
-        <v>43.7</v>
+        <v>38.7</v>
       </c>
       <c r="D4">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="E4">
-        <v>79.7</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="F4">
-        <v>82.5</v>
+        <v>84.3</v>
       </c>
       <c r="G4">
-        <v>94.39999999999999</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="H4">
-        <v>88.09999999999999</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="I4">
-        <v>96.5</v>
+        <v>96</v>
       </c>
       <c r="J4">
-        <v>98.7</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="K4">
-        <v>99.90000000000001</v>
+        <v>99.8</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -2580,31 +2580,31 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>64.7</v>
+        <v>63.1</v>
       </c>
       <c r="C5">
-        <v>97.09999999999999</v>
+        <v>97</v>
       </c>
       <c r="D5">
         <v>99.7</v>
       </c>
       <c r="E5">
-        <v>99.7</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="F5">
-        <v>99.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="G5">
-        <v>99.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="H5">
         <v>100</v>
       </c>
       <c r="I5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="J5">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="K5">
         <v>100</v>
@@ -2630,46 +2630,46 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>93.8</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="C6">
-        <v>31.5</v>
+        <v>35.8</v>
       </c>
       <c r="D6">
-        <v>49.8</v>
+        <v>51.3</v>
       </c>
       <c r="E6">
-        <v>83.2</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="F6">
-        <v>88.8</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G6">
-        <v>84.7</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="H6">
-        <v>65.40000000000001</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="I6">
-        <v>49.8</v>
+        <v>45.1</v>
       </c>
       <c r="J6">
-        <v>71.59999999999999</v>
+        <v>69.39999999999999</v>
       </c>
       <c r="K6">
-        <v>93.60000000000001</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="L6">
-        <v>86</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="M6">
-        <v>94.59999999999999</v>
+        <v>93.2</v>
       </c>
       <c r="N6">
-        <v>87.5</v>
+        <v>86.5</v>
       </c>
       <c r="O6">
-        <v>62.4</v>
+        <v>67.10000000000001</v>
       </c>
       <c r="P6">
         <v>100</v>
@@ -2680,28 +2680,28 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>99.5</v>
+        <v>98.8</v>
       </c>
       <c r="C7">
-        <v>96.59999999999999</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="D7">
-        <v>92.40000000000001</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="E7">
-        <v>74.40000000000001</v>
+        <v>72.8</v>
       </c>
       <c r="F7">
-        <v>63.4</v>
+        <v>63.5</v>
       </c>
       <c r="G7">
-        <v>84.59999999999999</v>
+        <v>85</v>
       </c>
       <c r="H7">
-        <v>90.60000000000001</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="I7">
-        <v>99.09999999999999</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="J7">
         <v>99.5</v>
@@ -2713,7 +2713,7 @@
         <v>100</v>
       </c>
       <c r="M7">
-        <v>100</v>
+        <v>99.8</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -2730,46 +2730,46 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="C8">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>8.1</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>24.2</v>
+        <v>26.4</v>
       </c>
       <c r="F8">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="G8">
-        <v>5.800000000000001</v>
+        <v>6.1</v>
       </c>
       <c r="H8">
-        <v>6.2</v>
+        <v>5.2</v>
       </c>
       <c r="I8">
-        <v>22.2</v>
+        <v>26.4</v>
       </c>
       <c r="J8">
-        <v>35.6</v>
+        <v>40.9</v>
       </c>
       <c r="K8">
-        <v>28.9</v>
+        <v>24.4</v>
       </c>
       <c r="L8">
-        <v>45.1</v>
+        <v>49</v>
       </c>
       <c r="M8">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="N8">
-        <v>46</v>
+        <v>43.9</v>
       </c>
       <c r="O8">
-        <v>52.3</v>
+        <v>49</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2780,43 +2780,43 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="C9">
-        <v>55.8</v>
+        <v>54.40000000000001</v>
       </c>
       <c r="D9">
-        <v>46.9</v>
+        <v>44.3</v>
       </c>
       <c r="E9">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="F9">
-        <v>34.3</v>
+        <v>34.1</v>
       </c>
       <c r="G9">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="H9">
-        <v>39.5</v>
+        <v>38.1</v>
       </c>
       <c r="I9">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="J9">
-        <v>45.8</v>
+        <v>43.6</v>
       </c>
       <c r="K9">
-        <v>33.2</v>
+        <v>31.2</v>
       </c>
       <c r="L9">
-        <v>50.4</v>
+        <v>46.8</v>
       </c>
       <c r="M9">
-        <v>22.6</v>
+        <v>21.6</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2830,46 +2830,46 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>92.7</v>
+        <v>91.2</v>
       </c>
       <c r="C10">
-        <v>69.8</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="D10">
-        <v>46.1</v>
+        <v>48.1</v>
       </c>
       <c r="E10">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>48.6</v>
+        <v>47.4</v>
       </c>
       <c r="G10">
-        <v>27</v>
+        <v>32.7</v>
       </c>
       <c r="H10">
-        <v>43.9</v>
+        <v>45.7</v>
       </c>
       <c r="I10">
-        <v>25.4</v>
+        <v>27.8</v>
       </c>
       <c r="J10">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>49.3</v>
+        <v>49.1</v>
       </c>
       <c r="L10">
-        <v>23.8</v>
+        <v>24.5</v>
       </c>
       <c r="M10">
-        <v>49.2</v>
+        <v>46.7</v>
       </c>
       <c r="N10">
-        <v>16.3</v>
+        <v>20.4</v>
       </c>
       <c r="O10">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2883,37 +2883,37 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>95</v>
+        <v>97.8</v>
       </c>
       <c r="D11">
-        <v>81.69999999999999</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="E11">
-        <v>63.3</v>
+        <v>63.8</v>
       </c>
       <c r="F11">
-        <v>75.2</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G11">
-        <v>79.90000000000001</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="H11">
-        <v>57.9</v>
+        <v>55.8</v>
       </c>
       <c r="I11">
-        <v>77.2</v>
+        <v>77.8</v>
       </c>
       <c r="J11">
-        <v>66.2</v>
+        <v>63.6</v>
       </c>
       <c r="K11">
-        <v>51.9</v>
+        <v>54.8</v>
       </c>
       <c r="L11">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="M11">
-        <v>8.4</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="N11">
         <v>0.6</v>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="135">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -55,43 +55,46 @@
     <t>Team HebAchi</t>
   </si>
   <si>
-    <t>7-9-0</t>
-  </si>
-  <si>
-    <t>9-7-0</t>
-  </si>
-  <si>
-    <t>8-8-0</t>
-  </si>
-  <si>
-    <t>6-10-0</t>
-  </si>
-  <si>
-    <t>5-11-0</t>
-  </si>
-  <si>
-    <t>10-6-0</t>
-  </si>
-  <si>
-    <t>4-12-0</t>
-  </si>
-  <si>
-    <t>11-5-0</t>
-  </si>
-  <si>
-    <t>3-13-0</t>
-  </si>
-  <si>
-    <t>13-3-0</t>
-  </si>
-  <si>
-    <t>12-4-0</t>
-  </si>
-  <si>
-    <t>10-5-1</t>
-  </si>
-  <si>
-    <t>8-7-1</t>
+    <t>7-10-0</t>
+  </si>
+  <si>
+    <t>9-8-0</t>
+  </si>
+  <si>
+    <t>6-11-0</t>
+  </si>
+  <si>
+    <t>5-12-0</t>
+  </si>
+  <si>
+    <t>10-7-0</t>
+  </si>
+  <si>
+    <t>8-9-0</t>
+  </si>
+  <si>
+    <t>4-13-0</t>
+  </si>
+  <si>
+    <t>11-6-0</t>
+  </si>
+  <si>
+    <t>14-3-0</t>
+  </si>
+  <si>
+    <t>12-5-0</t>
+  </si>
+  <si>
+    <t>13-4-0</t>
+  </si>
+  <si>
+    <t>11-5-1</t>
+  </si>
+  <si>
+    <t>3-14-0</t>
+  </si>
+  <si>
+    <t>8-8-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -328,85 +331,82 @@
     <t>4.0-10.0</t>
   </si>
   <si>
-    <t>Owners</t>
-  </si>
-  <si>
-    <t>Louie Power Index (LPI)</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
+  </si>
+  <si>
+    <t>Week 15</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>Week 17</t>
   </si>
   <si>
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑5</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>Week 1</t>
-  </si>
-  <si>
-    <t>Week 2</t>
-  </si>
-  <si>
-    <t>Week 3</t>
-  </si>
-  <si>
-    <t>Week 4</t>
-  </si>
-  <si>
-    <t>Week 5</t>
-  </si>
-  <si>
-    <t>Week 6</t>
-  </si>
-  <si>
-    <t>Week 7</t>
-  </si>
-  <si>
-    <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
-  </si>
-  <si>
-    <t>Week 10</t>
-  </si>
-  <si>
-    <t>Week 11</t>
-  </si>
-  <si>
-    <t>Week 12</t>
-  </si>
-  <si>
-    <t>Week 13</t>
-  </si>
-  <si>
-    <t>Week 14</t>
-  </si>
-  <si>
-    <t>Week 15</t>
-  </si>
-  <si>
-    <t>Week 16</t>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week</t>
@@ -834,16 +834,16 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -852,7 +852,7 @@
         <v>10</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K2" t="s">
         <v>10</v>
@@ -866,31 +866,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -898,34 +898,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -936,22 +936,22 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
         <v>20</v>
@@ -960,7 +960,7 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -968,10 +968,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -980,22 +980,22 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
       <c r="I6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1003,7 +1003,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -1015,13 +1015,13 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -1030,7 +1030,7 @@
         <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1038,34 +1038,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1073,22 +1073,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>20</v>
@@ -1097,10 +1097,10 @@
         <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1108,25 +1108,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -1143,34 +1143,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
+      <c r="J11" t="s">
         <v>19</v>
       </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
-      </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1180,7 +1180,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1519,58 +1519,6 @@
       </c>
       <c r="H13" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>-2</v>
-      </c>
-      <c r="G14">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>-11</v>
-      </c>
-      <c r="G15">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1588,13 +1536,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1605,10 +1553,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1619,10 +1567,10 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1630,13 +1578,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1644,13 +1592,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1658,13 +1606,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>7.7</v>
+        <v>8.1</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1672,13 +1620,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1686,13 +1634,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1703,7 +1651,7 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -1717,10 +1665,10 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1731,7 +1679,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>10.9</v>
+        <v>11.2</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -1752,16 +1700,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1772,10 +1720,10 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>10.6</v>
+        <v>11.3</v>
       </c>
       <c r="D2">
-        <v>0.5999999999999996</v>
+        <v>0.3000000000000007</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
@@ -1789,13 +1737,13 @@
         <v>9</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1806,10 +1754,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>-1.5</v>
+        <v>-1</v>
       </c>
       <c r="E4" t="s">
         <v>17</v>
@@ -1820,16 +1768,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>1.4</v>
+        <v>-1</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1837,13 +1785,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D6">
-        <v>-0.8000000000000007</v>
+        <v>-0.1999999999999993</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -1854,16 +1802,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="D7">
-        <v>-0.2000000000000002</v>
+        <v>1.6</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1880,7 +1828,7 @@
         <v>-0.2999999999999998</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1888,16 +1836,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>6.2</v>
+        <v>6.8</v>
       </c>
       <c r="D9">
-        <v>-0.7999999999999998</v>
+        <v>0.7999999999999998</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1905,16 +1853,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>5.9</v>
+        <v>6.5</v>
       </c>
       <c r="D10">
-        <v>0.9000000000000004</v>
+        <v>-0.5</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1925,13 +1873,13 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="D11">
-        <v>-0.4000000000000004</v>
+        <v>-1.2</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1949,40 +1897,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -2380,49 +2328,49 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -2430,46 +2378,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>51.2</v>
+        <v>53.1</v>
       </c>
       <c r="C2">
-        <v>91.2</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D2">
-        <v>85.7</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="E2">
-        <v>93.60000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="F2">
-        <v>80</v>
+        <v>82.8</v>
       </c>
       <c r="G2">
-        <v>56.39999999999999</v>
+        <v>57.9</v>
       </c>
       <c r="H2">
-        <v>53.5</v>
+        <v>55.2</v>
       </c>
       <c r="I2">
-        <v>46.6</v>
+        <v>46.8</v>
       </c>
       <c r="J2">
-        <v>31.6</v>
+        <v>32.2</v>
       </c>
       <c r="K2">
-        <v>21.2</v>
+        <v>20.1</v>
       </c>
       <c r="L2">
-        <v>29.7</v>
+        <v>31.9</v>
       </c>
       <c r="M2">
-        <v>47.9</v>
+        <v>45</v>
       </c>
       <c r="N2">
-        <v>64.90000000000001</v>
+        <v>63.4</v>
       </c>
       <c r="O2">
-        <v>71.2</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="P2">
         <v>100</v>
@@ -2480,46 +2428,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.9</v>
+        <v>14.3</v>
       </c>
       <c r="C3">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="D3">
-        <v>72.7</v>
+        <v>69.3</v>
       </c>
       <c r="E3">
-        <v>37.5</v>
+        <v>38.8</v>
       </c>
       <c r="F3">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="G3">
-        <v>34.3</v>
+        <v>36.2</v>
       </c>
       <c r="H3">
-        <v>57.59999999999999</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="I3">
-        <v>53.40000000000001</v>
+        <v>54.7</v>
       </c>
       <c r="J3">
-        <v>33.1</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="K3">
-        <v>26.2</v>
+        <v>24.7</v>
       </c>
       <c r="L3">
-        <v>35.4</v>
+        <v>36.2</v>
       </c>
       <c r="M3">
-        <v>59.09999999999999</v>
+        <v>58.5</v>
       </c>
       <c r="N3">
-        <v>78.10000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="O3">
-        <v>96.09999999999999</v>
+        <v>95.8</v>
       </c>
       <c r="P3">
         <v>100</v>
@@ -2530,34 +2478,34 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>77.3</v>
+        <v>75</v>
       </c>
       <c r="C4">
-        <v>38.7</v>
+        <v>42.9</v>
       </c>
       <c r="D4">
-        <v>19.3</v>
+        <v>22.8</v>
       </c>
       <c r="E4">
-        <v>80.60000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="F4">
-        <v>84.3</v>
+        <v>83.7</v>
       </c>
       <c r="G4">
-        <v>92.80000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="H4">
-        <v>89.90000000000001</v>
+        <v>88.7</v>
       </c>
       <c r="I4">
-        <v>96</v>
+        <v>96.2</v>
       </c>
       <c r="J4">
-        <v>98.40000000000001</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="K4">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L4">
         <v>100</v>
@@ -2580,31 +2528,31 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>63.1</v>
+        <v>62.8</v>
       </c>
       <c r="C5">
-        <v>97</v>
+        <v>96.7</v>
       </c>
       <c r="D5">
         <v>99.7</v>
       </c>
       <c r="E5">
-        <v>99.09999999999999</v>
+        <v>99.5</v>
       </c>
       <c r="F5">
-        <v>98.8</v>
+        <v>99</v>
       </c>
       <c r="G5">
-        <v>99</v>
+        <v>99.5</v>
       </c>
       <c r="H5">
+        <v>99.8</v>
+      </c>
+      <c r="I5">
         <v>100</v>
       </c>
-      <c r="I5">
-        <v>99.90000000000001</v>
-      </c>
       <c r="J5">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>100</v>
@@ -2630,46 +2578,46 @@
         <v>8</v>
       </c>
       <c r="B6">
+        <v>94.69999999999999</v>
+      </c>
+      <c r="C6">
+        <v>35.09999999999999</v>
+      </c>
+      <c r="D6">
+        <v>50.4</v>
+      </c>
+      <c r="E6">
+        <v>81.89999999999999</v>
+      </c>
+      <c r="F6">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="G6">
+        <v>86.2</v>
+      </c>
+      <c r="H6">
+        <v>66.2</v>
+      </c>
+      <c r="I6">
+        <v>46.9</v>
+      </c>
+      <c r="J6">
+        <v>69</v>
+      </c>
+      <c r="K6">
+        <v>92.5</v>
+      </c>
+      <c r="L6">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="M6">
         <v>94.19999999999999</v>
       </c>
-      <c r="C6">
-        <v>35.8</v>
-      </c>
-      <c r="D6">
-        <v>51.3</v>
-      </c>
-      <c r="E6">
-        <v>85.59999999999999</v>
-      </c>
-      <c r="F6">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="G6">
-        <v>84.09999999999999</v>
-      </c>
-      <c r="H6">
-        <v>64.09999999999999</v>
-      </c>
-      <c r="I6">
-        <v>45.1</v>
-      </c>
-      <c r="J6">
-        <v>69.39999999999999</v>
-      </c>
-      <c r="K6">
-        <v>93.30000000000001</v>
-      </c>
-      <c r="L6">
-        <v>86.40000000000001</v>
-      </c>
-      <c r="M6">
-        <v>93.2</v>
-      </c>
       <c r="N6">
-        <v>86.5</v>
+        <v>88</v>
       </c>
       <c r="O6">
-        <v>67.10000000000001</v>
+        <v>63.4</v>
       </c>
       <c r="P6">
         <v>100</v>
@@ -2680,31 +2628,31 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>98.8</v>
+        <v>98.5</v>
       </c>
       <c r="C7">
-        <v>97.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="D7">
-        <v>92.30000000000001</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="E7">
-        <v>72.8</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="F7">
-        <v>63.5</v>
+        <v>64</v>
       </c>
       <c r="G7">
-        <v>85</v>
+        <v>83.8</v>
       </c>
       <c r="H7">
-        <v>90.10000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="I7">
-        <v>97.39999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="J7">
-        <v>99.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="K7">
         <v>100</v>
@@ -2713,7 +2661,7 @@
         <v>100</v>
       </c>
       <c r="M7">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N7">
         <v>100</v>
@@ -2730,46 +2678,46 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>14.2</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>5.899999999999999</v>
       </c>
       <c r="E8">
-        <v>26.4</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="G8">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="H8">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="I8">
-        <v>26.4</v>
+        <v>23.8</v>
       </c>
       <c r="J8">
-        <v>40.9</v>
+        <v>40.3</v>
       </c>
       <c r="K8">
-        <v>24.4</v>
+        <v>28.5</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>25.9</v>
+        <v>28</v>
       </c>
       <c r="N8">
-        <v>43.9</v>
+        <v>43.4</v>
       </c>
       <c r="O8">
-        <v>49</v>
+        <v>51.1</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -2780,43 +2728,43 @@
         <v>4</v>
       </c>
       <c r="B9">
-        <v>9.800000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="C9">
-        <v>54.40000000000001</v>
+        <v>56.89999999999999</v>
       </c>
       <c r="D9">
-        <v>44.3</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="E9">
-        <v>13.6</v>
+        <v>14.7</v>
       </c>
       <c r="F9">
-        <v>34.1</v>
+        <v>32.1</v>
       </c>
       <c r="G9">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="H9">
-        <v>38.1</v>
+        <v>37.3</v>
       </c>
       <c r="I9">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="J9">
-        <v>43.6</v>
+        <v>43.3</v>
       </c>
       <c r="K9">
-        <v>31.2</v>
+        <v>31.5</v>
       </c>
       <c r="L9">
-        <v>46.8</v>
+        <v>46.2</v>
       </c>
       <c r="M9">
-        <v>21.6</v>
+        <v>22.5</v>
       </c>
       <c r="N9">
-        <v>5.600000000000001</v>
+        <v>6.800000000000001</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2830,46 +2778,46 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>91.2</v>
+        <v>91</v>
       </c>
       <c r="C10">
-        <v>70.89999999999999</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="D10">
-        <v>48.1</v>
+        <v>46.1</v>
       </c>
       <c r="E10">
-        <v>27</v>
+        <v>28.1</v>
       </c>
       <c r="F10">
-        <v>47.4</v>
+        <v>47.59999999999999</v>
       </c>
       <c r="G10">
-        <v>32.7</v>
+        <v>29.3</v>
       </c>
       <c r="H10">
-        <v>45.7</v>
+        <v>40.8</v>
       </c>
       <c r="I10">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="J10">
-        <v>20</v>
+        <v>18.9</v>
       </c>
       <c r="K10">
-        <v>49.1</v>
+        <v>50</v>
       </c>
       <c r="L10">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="M10">
-        <v>46.7</v>
+        <v>44.3</v>
       </c>
       <c r="N10">
-        <v>20.4</v>
+        <v>16.6</v>
       </c>
       <c r="O10">
-        <v>16.6</v>
+        <v>18.3</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2883,37 +2831,37 @@
         <v>100</v>
       </c>
       <c r="C11">
-        <v>97.8</v>
+        <v>95.3</v>
       </c>
       <c r="D11">
-        <v>80.60000000000001</v>
+        <v>80</v>
       </c>
       <c r="E11">
-        <v>63.8</v>
+        <v>65.10000000000001</v>
       </c>
       <c r="F11">
-        <v>75.59999999999999</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="G11">
-        <v>81.89999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="H11">
-        <v>55.8</v>
+        <v>58.5</v>
       </c>
       <c r="I11">
-        <v>77.8</v>
+        <v>75.5</v>
       </c>
       <c r="J11">
-        <v>63.6</v>
+        <v>64.7</v>
       </c>
       <c r="K11">
-        <v>54.8</v>
+        <v>53.1</v>
       </c>
       <c r="L11">
-        <v>28.2</v>
+        <v>26.9</v>
       </c>
       <c r="M11">
-        <v>5.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="N11">
         <v>0.6</v>
@@ -2940,28 +2888,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2972,13 +2920,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2">
         <v>114.04</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3001,13 +2949,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3">
         <v>120.55</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3030,13 +2978,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>112.7</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3059,13 +3007,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5">
         <v>125.45</v>
       </c>
       <c r="E5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3088,13 +3036,13 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D6">
         <v>108.64</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -3117,13 +3065,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D7">
         <v>115.86</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3146,13 +3094,13 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8">
         <v>110.44</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -3175,13 +3123,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D9">
         <v>134.59</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -3204,13 +3152,13 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10">
         <v>115.52</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -3233,13 +3181,13 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11">
         <v>127.87</v>
       </c>
       <c r="E11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -3269,31 +3217,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3301,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2">
         <v>0.5</v>
@@ -3319,10 +3267,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3330,7 +3278,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3">
         <v>0.5</v>
@@ -3348,10 +3296,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3359,7 +3307,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <v>0.6428571428571429</v>
@@ -3377,10 +3325,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3388,7 +3336,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5">
         <v>0.7142857142857143</v>
@@ -3406,10 +3354,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3417,7 +3365,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -3435,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3446,7 +3394,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7">
         <v>0.5714285714285714</v>
@@ -3464,10 +3412,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3475,7 +3423,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C8">
         <v>0.5</v>
@@ -3493,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3504,7 +3452,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C9">
         <v>0.3571428571428572</v>
@@ -3522,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3533,7 +3481,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -3551,10 +3499,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3562,7 +3510,7 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11">
         <v>0.2857142857142857</v>
@@ -3580,10 +3528,10 @@
         <v>100</v>
       </c>
       <c r="H11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -3592,236 +3540,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2">
-        <v>38</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3">
-        <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7">
-        <v>-13</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8">
-        <v>-17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9">
-        <v>-17</v>
-      </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10">
-        <v>-23</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11">
-        <v>-23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R11"/>
   <sheetViews>
@@ -3831,55 +3549,55 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -3934,8 +3652,8 @@
       <c r="Q2">
         <v>38</v>
       </c>
-      <c r="R2" t="s">
-        <v>104</v>
+      <c r="R2">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -3990,8 +3708,8 @@
       <c r="Q3">
         <v>24</v>
       </c>
-      <c r="R3" t="s">
-        <v>104</v>
+      <c r="R3">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4046,8 +3764,8 @@
       <c r="Q4">
         <v>19</v>
       </c>
-      <c r="R4" t="s">
-        <v>105</v>
+      <c r="R4">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4102,8 +3820,8 @@
       <c r="Q5">
         <v>6</v>
       </c>
-      <c r="R5" t="s">
-        <v>106</v>
+      <c r="R5">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4158,64 +3876,64 @@
       <c r="Q6">
         <v>5</v>
       </c>
-      <c r="R6" t="s">
-        <v>107</v>
+      <c r="R6">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>-17</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>-13</v>
       </c>
       <c r="H7">
-        <v>-6</v>
+        <v>-10</v>
       </c>
       <c r="I7">
+        <v>-12</v>
+      </c>
+      <c r="J7">
         <v>-11</v>
       </c>
-      <c r="J7">
-        <v>-10</v>
-      </c>
       <c r="K7">
-        <v>-8</v>
+        <v>-14</v>
       </c>
       <c r="L7">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>-19</v>
       </c>
       <c r="N7">
-        <v>-10</v>
+        <v>-18</v>
       </c>
       <c r="O7">
-        <v>-6</v>
+        <v>-28</v>
       </c>
       <c r="P7">
-        <v>-13</v>
+        <v>-18</v>
       </c>
       <c r="Q7">
-        <v>-13</v>
-      </c>
-      <c r="R7" t="s">
-        <v>106</v>
+        <v>-17</v>
+      </c>
+      <c r="R7">
+        <v>-14</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -4270,176 +3988,835 @@
       <c r="Q8">
         <v>-17</v>
       </c>
-      <c r="R8" t="s">
-        <v>108</v>
+      <c r="R8">
+        <v>-16</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>-2</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>-11</v>
+        <v>12</v>
       </c>
       <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>-5</v>
+      </c>
+      <c r="M9">
         <v>-10</v>
       </c>
-      <c r="F9">
-        <v>-17</v>
-      </c>
-      <c r="G9">
+      <c r="N9">
         <v>-13</v>
       </c>
-      <c r="H9">
-        <v>-10</v>
-      </c>
-      <c r="I9">
-        <v>-12</v>
-      </c>
-      <c r="J9">
-        <v>-11</v>
-      </c>
-      <c r="K9">
-        <v>-14</v>
-      </c>
-      <c r="L9">
-        <v>-13</v>
-      </c>
-      <c r="M9">
+      <c r="O9">
         <v>-19</v>
       </c>
-      <c r="N9">
-        <v>-18</v>
-      </c>
-      <c r="O9">
-        <v>-28</v>
-      </c>
       <c r="P9">
-        <v>-18</v>
+        <v>-20</v>
       </c>
       <c r="Q9">
-        <v>-17</v>
-      </c>
-      <c r="R9" t="s">
-        <v>109</v>
+        <v>-23</v>
+      </c>
+      <c r="R9">
+        <v>-19</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>-5</v>
+        <v>-1</v>
       </c>
       <c r="D10">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>-8</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="G10">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="H10">
         <v>-6</v>
       </c>
       <c r="I10">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="J10">
-        <v>-1</v>
+        <v>-10</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>-8</v>
       </c>
       <c r="L10">
         <v>-10</v>
       </c>
       <c r="M10">
-        <v>-14</v>
+        <v>1</v>
       </c>
       <c r="N10">
-        <v>-16</v>
+        <v>-10</v>
       </c>
       <c r="O10">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="P10">
-        <v>-18</v>
+        <v>-13</v>
       </c>
       <c r="Q10">
-        <v>-23</v>
-      </c>
-      <c r="R10" t="s">
-        <v>110</v>
+        <v>-13</v>
+      </c>
+      <c r="R10">
+        <v>-24</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>-7</v>
       </c>
       <c r="C11">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="D11">
-        <v>12</v>
+        <v>-7</v>
       </c>
       <c r="E11">
-        <v>10</v>
+        <v>-8</v>
       </c>
       <c r="F11">
-        <v>17</v>
+        <v>-5</v>
       </c>
       <c r="G11">
-        <v>12</v>
+        <v>-2</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>-6</v>
       </c>
       <c r="I11">
-        <v>11</v>
+        <v>-5</v>
       </c>
       <c r="J11">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="K11">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="L11">
-        <v>-5</v>
+        <v>-10</v>
       </c>
       <c r="M11">
-        <v>-10</v>
+        <v>-14</v>
       </c>
       <c r="N11">
-        <v>-13</v>
+        <v>-16</v>
       </c>
       <c r="O11">
-        <v>-19</v>
+        <v>-14</v>
       </c>
       <c r="P11">
-        <v>-20</v>
+        <v>-18</v>
       </c>
       <c r="Q11">
         <v>-23</v>
       </c>
-      <c r="R11" t="s">
+      <c r="R11">
+        <v>-31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="B1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <v>25</v>
+      </c>
+      <c r="K2">
+        <v>26</v>
+      </c>
+      <c r="L2">
+        <v>32</v>
+      </c>
+      <c r="M2">
+        <v>41</v>
+      </c>
+      <c r="N2">
+        <v>47</v>
+      </c>
+      <c r="O2">
+        <v>43</v>
+      </c>
+      <c r="P2">
+        <v>40</v>
+      </c>
+      <c r="Q2">
+        <v>38</v>
+      </c>
+      <c r="R2">
+        <v>38</v>
+      </c>
+      <c r="S2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>-5</v>
+      </c>
+      <c r="C3">
+        <v>-2</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>17</v>
+      </c>
+      <c r="O3">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>26</v>
+      </c>
+      <c r="Q3">
+        <v>24</v>
+      </c>
+      <c r="R3">
+        <v>26</v>
+      </c>
+      <c r="S3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>-1</v>
+      </c>
+      <c r="D4">
+        <v>-2</v>
+      </c>
+      <c r="E4">
+        <v>-2</v>
+      </c>
+      <c r="F4">
+        <v>-8</v>
+      </c>
+      <c r="G4">
+        <v>-7</v>
+      </c>
+      <c r="H4">
+        <v>-13</v>
+      </c>
+      <c r="I4">
+        <v>-6</v>
+      </c>
+      <c r="J4">
+        <v>-7</v>
+      </c>
+      <c r="K4">
+        <v>-8</v>
+      </c>
+      <c r="L4">
+        <v>-7</v>
+      </c>
+      <c r="M4">
+        <v>-6</v>
+      </c>
+      <c r="N4">
+        <v>-7</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>19</v>
+      </c>
+      <c r="R4">
+        <v>23</v>
+      </c>
+      <c r="S4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>-2</v>
+      </c>
+      <c r="C5">
+        <v>-2</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>-6</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5">
+        <v>6</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5">
+        <v>6</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>6</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>11</v>
+      </c>
+      <c r="S5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>-6</v>
+      </c>
+      <c r="D6">
+        <v>-6</v>
+      </c>
+      <c r="E6">
+        <v>-5</v>
+      </c>
+      <c r="F6">
+        <v>-8</v>
+      </c>
+      <c r="G6">
+        <v>-6</v>
+      </c>
+      <c r="H6">
+        <v>-13</v>
+      </c>
+      <c r="I6">
+        <v>-17</v>
+      </c>
+      <c r="J6">
+        <v>-13</v>
+      </c>
+      <c r="K6">
+        <v>-8</v>
+      </c>
+      <c r="L6">
+        <v>-10</v>
+      </c>
+      <c r="M6">
+        <v>-12</v>
+      </c>
+      <c r="N6">
+        <v>-8</v>
+      </c>
+      <c r="O6">
+        <v>-1</v>
+      </c>
+      <c r="P6">
+        <v>-2</v>
+      </c>
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>6</v>
+      </c>
+      <c r="S6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>-2</v>
+      </c>
+      <c r="D7">
+        <v>-11</v>
+      </c>
+      <c r="E7">
+        <v>-10</v>
+      </c>
+      <c r="F7">
+        <v>-17</v>
+      </c>
+      <c r="G7">
+        <v>-13</v>
+      </c>
+      <c r="H7">
+        <v>-10</v>
+      </c>
+      <c r="I7">
+        <v>-12</v>
+      </c>
+      <c r="J7">
+        <v>-11</v>
+      </c>
+      <c r="K7">
+        <v>-14</v>
+      </c>
+      <c r="L7">
+        <v>-13</v>
+      </c>
+      <c r="M7">
+        <v>-19</v>
+      </c>
+      <c r="N7">
+        <v>-18</v>
+      </c>
+      <c r="O7">
+        <v>-28</v>
+      </c>
+      <c r="P7">
+        <v>-18</v>
+      </c>
+      <c r="Q7">
+        <v>-17</v>
+      </c>
+      <c r="R7">
+        <v>-14</v>
+      </c>
+      <c r="S7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>-2</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>-4</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>-10</v>
+      </c>
+      <c r="Q8">
+        <v>-17</v>
+      </c>
+      <c r="R8">
+        <v>-16</v>
+      </c>
+      <c r="S8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>12</v>
+      </c>
+      <c r="H9">
+        <v>12</v>
+      </c>
+      <c r="I9">
+        <v>11</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>-5</v>
+      </c>
+      <c r="M9">
+        <v>-10</v>
+      </c>
+      <c r="N9">
+        <v>-13</v>
+      </c>
+      <c r="O9">
+        <v>-19</v>
+      </c>
+      <c r="P9">
+        <v>-20</v>
+      </c>
+      <c r="Q9">
+        <v>-23</v>
+      </c>
+      <c r="R9">
+        <v>-19</v>
+      </c>
+      <c r="S9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+      <c r="H10">
+        <v>-6</v>
+      </c>
+      <c r="I10">
+        <v>-11</v>
+      </c>
+      <c r="J10">
+        <v>-10</v>
+      </c>
+      <c r="K10">
+        <v>-8</v>
+      </c>
+      <c r="L10">
+        <v>-10</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>-10</v>
+      </c>
+      <c r="O10">
+        <v>-6</v>
+      </c>
+      <c r="P10">
+        <v>-13</v>
+      </c>
+      <c r="Q10">
+        <v>-13</v>
+      </c>
+      <c r="R10">
+        <v>-24</v>
+      </c>
+      <c r="S10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>-7</v>
+      </c>
+      <c r="C11">
+        <v>-5</v>
+      </c>
+      <c r="D11">
+        <v>-7</v>
+      </c>
+      <c r="E11">
+        <v>-8</v>
+      </c>
+      <c r="F11">
+        <v>-5</v>
+      </c>
+      <c r="G11">
+        <v>-2</v>
+      </c>
+      <c r="H11">
+        <v>-6</v>
+      </c>
+      <c r="I11">
+        <v>-5</v>
+      </c>
+      <c r="J11">
+        <v>-1</v>
+      </c>
+      <c r="K11">
+        <v>-1</v>
+      </c>
+      <c r="L11">
+        <v>-10</v>
+      </c>
+      <c r="M11">
+        <v>-14</v>
+      </c>
+      <c r="N11">
+        <v>-16</v>
+      </c>
+      <c r="O11">
+        <v>-14</v>
+      </c>
+      <c r="P11">
+        <v>-18</v>
+      </c>
+      <c r="Q11">
+        <v>-23</v>
+      </c>
+      <c r="R11">
+        <v>-31</v>
+      </c>
+      <c r="S11" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/Game of Yards! 2025.xlsx
+++ b/leagues/Game of Yards! 2025.xlsx
@@ -10,16 +10,20 @@
     <sheet name="Schedule Grid" sheetId="1" r:id="rId1"/>
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
-    <sheet name="Louie Power Index" sheetId="4" r:id="rId4"/>
-    <sheet name="LPI By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Biggest Upsets" sheetId="6" r:id="rId6"/>
+    <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="137">
   <si>
     <t>Groot-o-Matic</t>
   </si>
@@ -111,6 +115,222 @@
     <t>Difference</t>
   </si>
   <si>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
+    <t>Week_7</t>
+  </si>
+  <si>
+    <t>Week_8</t>
+  </si>
+  <si>
+    <t>Week_9</t>
+  </si>
+  <si>
+    <t>Week_10</t>
+  </si>
+  <si>
+    <t>Week_11</t>
+  </si>
+  <si>
+    <t>Week_12</t>
+  </si>
+  <si>
+    <t>Week_13</t>
+  </si>
+  <si>
+    <t>Week_14</t>
+  </si>
+  <si>
+    <t>Week_15</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Team_Record</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Utkarsh Gupta</t>
+  </si>
+  <si>
+    <t>Hayat Khan</t>
+  </si>
+  <si>
+    <t>Kabir Manocha</t>
+  </si>
+  <si>
+    <t>Shihab Chowdhury</t>
+  </si>
+  <si>
+    <t>Harshit Aggarwal</t>
+  </si>
+  <si>
+    <t>Prahlad Singh</t>
+  </si>
+  <si>
+    <t>Saurin Sethia</t>
+  </si>
+  <si>
+    <t>Vidhi Sethia</t>
+  </si>
+  <si>
+    <t>Pawan Bhambhwani</t>
+  </si>
+  <si>
+    <t>Achira Amur</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>9-5</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>7.0-7.0</t>
+  </si>
+  <si>
+    <t>9.0-5.0</t>
+  </si>
+  <si>
+    <t>10.0-4.0</t>
+  </si>
+  <si>
+    <t>8.0-6.0</t>
+  </si>
+  <si>
+    <t>5.0-9.0</t>
+  </si>
+  <si>
+    <t>6.0-8.0</t>
+  </si>
+  <si>
+    <t>4.0-10.0</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -118,36 +338,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Achira Amur</t>
-  </si>
-  <si>
-    <t>Vidhi Sethia</t>
-  </si>
-  <si>
-    <t>Kabir Manocha</t>
-  </si>
-  <si>
-    <t>Hayat Khan</t>
-  </si>
-  <si>
-    <t>Pawan Bhambhwani</t>
-  </si>
-  <si>
-    <t>Shihab Chowdhury</t>
-  </si>
-  <si>
-    <t>Utkarsh Gupta</t>
-  </si>
-  <si>
-    <t>Saurin Sethia</t>
-  </si>
-  <si>
-    <t>Prahlad Singh</t>
-  </si>
-  <si>
-    <t>Harshit Aggarwal</t>
   </si>
   <si>
     <t>0</t>
@@ -994,6 +1184,354 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>38</v>
+      </c>
+      <c r="F2">
+        <v>-17</v>
+      </c>
+      <c r="G2">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>47</v>
+      </c>
+      <c r="F4">
+        <v>17</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>-18</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>-13</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>32</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>-6</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>-14</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>-6</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>-8</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>-5</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D11"/>
@@ -1357,6 +1895,1658 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>100</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>51.2</v>
+      </c>
+      <c r="C2">
+        <v>91.3</v>
+      </c>
+      <c r="D2">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="E2">
+        <v>91.8</v>
+      </c>
+      <c r="F2">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="G2">
+        <v>58.5</v>
+      </c>
+      <c r="H2">
+        <v>54.2</v>
+      </c>
+      <c r="I2">
+        <v>48.6</v>
+      </c>
+      <c r="J2">
+        <v>30.9</v>
+      </c>
+      <c r="K2">
+        <v>19.8</v>
+      </c>
+      <c r="L2">
+        <v>32</v>
+      </c>
+      <c r="M2">
+        <v>47.09999999999999</v>
+      </c>
+      <c r="N2">
+        <v>62.9</v>
+      </c>
+      <c r="O2">
+        <v>70.7</v>
+      </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>14.8</v>
+      </c>
+      <c r="C3">
+        <v>1.2</v>
+      </c>
+      <c r="D3">
+        <v>68.7</v>
+      </c>
+      <c r="E3">
+        <v>40.3</v>
+      </c>
+      <c r="F3">
+        <v>14.6</v>
+      </c>
+      <c r="G3">
+        <v>37.2</v>
+      </c>
+      <c r="H3">
+        <v>57.2</v>
+      </c>
+      <c r="I3">
+        <v>50.6</v>
+      </c>
+      <c r="J3">
+        <v>34.8</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+      <c r="L3">
+        <v>35.8</v>
+      </c>
+      <c r="M3">
+        <v>54.6</v>
+      </c>
+      <c r="N3">
+        <v>80.2</v>
+      </c>
+      <c r="O3">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>73.59999999999999</v>
+      </c>
+      <c r="C4">
+        <v>40</v>
+      </c>
+      <c r="D4">
+        <v>21.9</v>
+      </c>
+      <c r="E4">
+        <v>79.7</v>
+      </c>
+      <c r="F4">
+        <v>86.8</v>
+      </c>
+      <c r="G4">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="H4">
+        <v>89.8</v>
+      </c>
+      <c r="I4">
+        <v>95.8</v>
+      </c>
+      <c r="J4">
+        <v>98.2</v>
+      </c>
+      <c r="K4">
+        <v>99.8</v>
+      </c>
+      <c r="L4">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>65.40000000000001</v>
+      </c>
+      <c r="C5">
+        <v>96.8</v>
+      </c>
+      <c r="D5">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="E5">
+        <v>99.7</v>
+      </c>
+      <c r="F5">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G5">
+        <v>99.7</v>
+      </c>
+      <c r="H5">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="I5">
+        <v>100</v>
+      </c>
+      <c r="J5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>100</v>
+      </c>
+      <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>94.39999999999999</v>
+      </c>
+      <c r="C6">
+        <v>33</v>
+      </c>
+      <c r="D6">
+        <v>47.9</v>
+      </c>
+      <c r="E6">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="F6">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="G6">
+        <v>81.89999999999999</v>
+      </c>
+      <c r="H6">
+        <v>64.2</v>
+      </c>
+      <c r="I6">
+        <v>47.8</v>
+      </c>
+      <c r="J6">
+        <v>72.7</v>
+      </c>
+      <c r="K6">
+        <v>92.7</v>
+      </c>
+      <c r="L6">
+        <v>87.8</v>
+      </c>
+      <c r="M6">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="N6">
+        <v>86.8</v>
+      </c>
+      <c r="O6">
+        <v>62</v>
+      </c>
+      <c r="P6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>98.8</v>
+      </c>
+      <c r="C7">
+        <v>97.7</v>
+      </c>
+      <c r="D7">
+        <v>92.80000000000001</v>
+      </c>
+      <c r="E7">
+        <v>75.90000000000001</v>
+      </c>
+      <c r="F7">
+        <v>63.3</v>
+      </c>
+      <c r="G7">
+        <v>84.89999999999999</v>
+      </c>
+      <c r="H7">
+        <v>91</v>
+      </c>
+      <c r="I7">
+        <v>97.8</v>
+      </c>
+      <c r="J7">
+        <v>99</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <v>100</v>
+      </c>
+      <c r="M7">
+        <v>100</v>
+      </c>
+      <c r="N7">
+        <v>100</v>
+      </c>
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>0.1</v>
+      </c>
+      <c r="C8">
+        <v>19.7</v>
+      </c>
+      <c r="D8">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="E8">
+        <v>24.8</v>
+      </c>
+      <c r="F8">
+        <v>11.8</v>
+      </c>
+      <c r="G8">
+        <v>6.4</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>25.4</v>
+      </c>
+      <c r="J8">
+        <v>38.1</v>
+      </c>
+      <c r="K8">
+        <v>30.5</v>
+      </c>
+      <c r="L8">
+        <v>49.6</v>
+      </c>
+      <c r="M8">
+        <v>26.2</v>
+      </c>
+      <c r="N8">
+        <v>44.9</v>
+      </c>
+      <c r="O8">
+        <v>54</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>9.700000000000001</v>
+      </c>
+      <c r="C9">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="D9">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>11.2</v>
+      </c>
+      <c r="F9">
+        <v>35.2</v>
+      </c>
+      <c r="G9">
+        <v>27</v>
+      </c>
+      <c r="H9">
+        <v>37.2</v>
+      </c>
+      <c r="I9">
+        <v>27.8</v>
+      </c>
+      <c r="J9">
+        <v>43.4</v>
+      </c>
+      <c r="K9">
+        <v>29.7</v>
+      </c>
+      <c r="L9">
+        <v>43.8</v>
+      </c>
+      <c r="M9">
+        <v>21.8</v>
+      </c>
+      <c r="N9">
+        <v>5.899999999999999</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="C10">
+        <v>68.89999999999999</v>
+      </c>
+      <c r="D10">
+        <v>46.40000000000001</v>
+      </c>
+      <c r="E10">
+        <v>30.3</v>
+      </c>
+      <c r="F10">
+        <v>46.1</v>
+      </c>
+      <c r="G10">
+        <v>29.4</v>
+      </c>
+      <c r="H10">
+        <v>43</v>
+      </c>
+      <c r="I10">
+        <v>31.8</v>
+      </c>
+      <c r="J10">
+        <v>19.3</v>
+      </c>
+      <c r="K10">
+        <v>49.3</v>
+      </c>
+      <c r="L10">
+        <v>26.6</v>
+      </c>
+      <c r="M10">
+        <v>48.6</v>
+      </c>
+      <c r="N10">
+        <v>18.9</v>
+      </c>
+      <c r="O10">
+        <v>18.7</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C11">
+        <v>96.39999999999999</v>
+      </c>
+      <c r="D11">
+        <v>84.3</v>
+      </c>
+      <c r="E11">
+        <v>62.7</v>
+      </c>
+      <c r="F11">
+        <v>75</v>
+      </c>
+      <c r="G11">
+        <v>80.10000000000001</v>
+      </c>
+      <c r="H11">
+        <v>58.5</v>
+      </c>
+      <c r="I11">
+        <v>74.40000000000001</v>
+      </c>
+      <c r="J11">
+        <v>63.6</v>
+      </c>
+      <c r="K11">
+        <v>53.2</v>
+      </c>
+      <c r="L11">
+        <v>24.4</v>
+      </c>
+      <c r="M11">
+        <v>7.6</v>
+      </c>
+      <c r="N11">
+        <v>0.4</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2">
+        <v>114.04</v>
+      </c>
+      <c r="E2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3">
+        <v>120.55</v>
+      </c>
+      <c r="E3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>112.7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5">
+        <v>125.45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>108.64</v>
+      </c>
+      <c r="E6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7">
+        <v>115.86</v>
+      </c>
+      <c r="E7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8">
+        <v>110.44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>134.59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>115.52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11">
+        <v>127.87</v>
+      </c>
+      <c r="E11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>114.0428571428572</v>
+      </c>
+      <c r="E2">
+        <v>1596.6</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>120.5471428571429</v>
+      </c>
+      <c r="E3">
+        <v>1687.66</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D4">
+        <v>125.4542857142857</v>
+      </c>
+      <c r="E4">
+        <v>1756.36</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>96</v>
+      </c>
+      <c r="I4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5">
+        <v>0.7142857142857143</v>
+      </c>
+      <c r="D5">
+        <v>134.5857142857143</v>
+      </c>
+      <c r="E5">
+        <v>1884.2</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>115.5228571428571</v>
+      </c>
+      <c r="E6">
+        <v>1617.32</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="D7">
+        <v>127.8685714285714</v>
+      </c>
+      <c r="E7">
+        <v>1790.16</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>112.7028571428571</v>
+      </c>
+      <c r="E8">
+        <v>1577.84</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9">
+        <v>0.3571428571428572</v>
+      </c>
+      <c r="D9">
+        <v>108.6371428571429</v>
+      </c>
+      <c r="E9">
+        <v>1520.92</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="D10">
+        <v>115.8642857142857</v>
+      </c>
+      <c r="E10">
+        <v>1622.1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D11">
+        <v>110.4357142857143</v>
+      </c>
+      <c r="E11">
+        <v>1546.1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11" t="s">
+        <v>101</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1368,16 +3558,16 @@
         <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1388,7 +3578,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D2">
         <v>38</v>
@@ -1397,7 +3587,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1408,7 +3598,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="D3">
         <v>26</v>
@@ -1417,7 +3607,7 @@
         <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1428,7 +3618,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="D4">
         <v>23</v>
@@ -1437,7 +3627,7 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1448,7 +3638,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -1457,7 +3647,7 @@
         <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1468,7 +3658,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1477,7 +3667,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1488,7 +3678,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D7">
         <v>-14</v>
@@ -1497,7 +3687,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1508,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>-16</v>
@@ -1517,7 +3707,7 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1528,7 +3718,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D9">
         <v>-19</v>
@@ -1537,7 +3727,7 @@
         <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1548,7 +3738,7 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="D10">
         <v>-24</v>
@@ -1557,7 +3747,7 @@
         <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1568,7 +3758,7 @@
         <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D11">
         <v>-31</v>
@@ -1577,7 +3767,7 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1585,7 +3775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S11"/>
   <sheetViews>
@@ -1595,58 +3785,58 @@
   <sheetData>
     <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>60</v>
+        <v>122</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:19">
@@ -1705,7 +3895,7 @@
         <v>38</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1764,7 +3954,7 @@
         <v>26</v>
       </c>
       <c r="S3" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1823,7 +4013,7 @@
         <v>23</v>
       </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1882,7 +4072,7 @@
         <v>11</v>
       </c>
       <c r="S5" t="s">
-        <v>46</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1941,7 +4131,7 @@
         <v>6</v>
       </c>
       <c r="S6" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -2000,7 +4190,7 @@
         <v>-14</v>
       </c>
       <c r="S7" t="s">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -2059,7 +4249,7 @@
         <v>-16</v>
       </c>
       <c r="S8" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -2118,7 +4308,7 @@
         <v>-19</v>
       </c>
       <c r="S9" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -2177,7 +4367,7 @@
         <v>-24</v>
       </c>
       <c r="S10" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -2236,355 +4426,7 @@
         <v>-31</v>
       </c>
       <c r="S11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>38</v>
-      </c>
-      <c r="F2">
-        <v>-17</v>
-      </c>
-      <c r="G2">
-        <v>55</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>41</v>
-      </c>
-      <c r="G3">
-        <v>40</v>
-      </c>
-      <c r="H3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>47</v>
-      </c>
-      <c r="F4">
-        <v>17</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>-18</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5">
-        <v>28</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>-13</v>
-      </c>
-      <c r="G6">
-        <v>25</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>32</v>
-      </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>18</v>
-      </c>
-      <c r="F8">
-        <v>-6</v>
-      </c>
-      <c r="G8">
-        <v>24</v>
-      </c>
-      <c r="H8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>-14</v>
-      </c>
-      <c r="F9">
-        <v>6</v>
-      </c>
-      <c r="G9">
-        <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
-      </c>
-      <c r="G10">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>-6</v>
-      </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
-        <v>16</v>
-      </c>
-      <c r="H11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>-8</v>
-      </c>
-      <c r="F12">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>13</v>
-      </c>
-      <c r="H12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13">
-        <v>-5</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
-      </c>
-      <c r="G13">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>4</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
